--- a/docs/요구사항정의서.xlsx
+++ b/docs/요구사항정의서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\prototype\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="781">
   <si>
     <t>요구사항 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -495,17 +495,6 @@
   </si>
   <si>
     <t>네비게이션 바 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 사이트 타이틀 
-* 홈 버튼 
-* 축제 정보 버튼 
-* 공지사항 버튼
-* 자유게시판 버튼 
-* 날씨 슬라이드(API) 
-* 검색창 
-* 프로필 버튼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -837,17 +826,6 @@
 * 월 표시 디폴트는 현재 날짜에 해당하는 월 
 * 지도 우측에 해당하는 축제 정보 출력 
 * 축제 정보 영역 우측 하단에 더보기 버튼 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 선택된 월
-* 선택된 지역명
-* 지도 이미지
-* 지명(17개) 
-* 표시할 축제 이미지 
-* 표시할 축제 이름 
-* 표시할 축제 기간 
-* 더보기 버튼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2387,21 +2365,6 @@
   </si>
   <si>
     <t>* 비밀번호 재설정에 성공했을 경우 자동으로 로그인 페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 메인페이지 이동용 타이틀, 아이디 입력 란, 비밀번호 입력 란, 로그인 버튼, 카카오 로그인 버튼, 아이디 찾기 버튼, 비밀번호 찾기 버튼, 회원가입 버튼 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 메인 페이지 이동용 타이틀
-* 아이디 입력 란
-* 비밀번호 입력 란
-* 로그인 버튼
-* 카카오 로그인 버튼 
-* 아이디 찾기 버튼 
-* 비밀번호 찾기 버튼 
-* 회원가입 버튼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3526,6 +3489,48 @@
   </si>
   <si>
     <t>COMMENT01-PRINT02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 검색어 입력 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 회원 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 사이트 타이틀 
+* 홈 버튼 
+* 축제 정보 버튼 
+* 공지사항 버튼
+* 자유게시판 버튼 
+* (선택) 날씨 슬라이드(API) 
+* 검색창 
+* 프로필 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 실시간 날씨 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 메인 페이지 이동용 타이틀
+* 이메일 입력 란
+* 비밀번호 입력 란
+* 로그인 버튼
+* 카카오 로그인 버튼 
+* 아이디 찾기 버튼 
+* 비밀번호 찾기 버튼 
+* 회원가입 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 메인페이지 이동용 타이틀, 이메일 입력 란, 비밀번호 입력 란, 로그인 버튼, 카카오 로그인 버튼, 아이디 찾기 버튼, 비밀번호 찾기 버튼, 회원가입 버튼 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3733,6 +3738,21 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3751,11 +3771,26 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3766,27 +3801,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3795,15 +3809,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4087,9 +4092,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I220"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I178" sqref="I178"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4135,10 +4140,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -4148,4986 +4153,4990 @@
         <v>118</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>777</v>
+      </c>
       <c r="G6" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>775</v>
+      </c>
       <c r="G10" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="8" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="33" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>737</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="G22" s="9" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="31"/>
+        <v>740</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>196</v>
+        <v>778</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="9" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="9" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="9" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="9" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I27" s="9"/>
     </row>
     <row r="28" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="9" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="1:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="C29" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="D29" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D31" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>737</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="I29" s="10"/>
-    </row>
-    <row r="30" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>737</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="I30" s="10"/>
-    </row>
-    <row r="31" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="10" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="10" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="10" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="10" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="10" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I35" s="10"/>
     </row>
     <row r="36" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D36" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="10" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="G38" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="I38" s="11"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>737</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="I38" s="11"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>237</v>
-      </c>
       <c r="G39" s="11" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="11" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I40" s="11"/>
     </row>
     <row r="41" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="11" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="11" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="11" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="11" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="28" t="s">
         <v>29</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="F45" s="2" t="s">
+      <c r="E46" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="G45" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="I45" s="7"/>
-    </row>
-    <row r="46" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="I46" s="7"/>
-    </row>
-    <row r="47" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="I47" s="7"/>
-    </row>
-    <row r="48" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>767</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I48" s="7"/>
     </row>
     <row r="49" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
       <c r="C49" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I49" s="7"/>
     </row>
     <row r="50" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
       <c r="C50" s="2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I50" s="7"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="30"/>
-      <c r="B51" s="30"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
       <c r="C51" s="2" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I51" s="7"/>
     </row>
     <row r="52" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A52" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="B52" s="25" t="s">
+      <c r="A52" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="B52" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="I52" s="8"/>
+    </row>
+    <row r="53" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="I53" s="8"/>
+    </row>
+    <row r="54" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D52" s="3" t="s">
+      <c r="D54" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="I54" s="8"/>
+    </row>
+    <row r="55" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>737</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="I52" s="8"/>
-    </row>
-    <row r="53" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="E53" s="3" t="s">
+      <c r="E55" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>737</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="I53" s="8"/>
-    </row>
-    <row r="54" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="3" t="s">
+      <c r="F55" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="I55" s="8"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>737</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="I54" s="8"/>
-    </row>
-    <row r="55" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>737</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="I55" s="8"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="3" t="s">
-        <v>334</v>
-      </c>
       <c r="D56" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="8" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I56" s="8"/>
     </row>
     <row r="57" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
       <c r="C57" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I57" s="8"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="37"/>
       <c r="C58" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="8" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I58" s="8"/>
     </row>
     <row r="59" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="C59" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="B59" s="17" t="s">
-        <v>440</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>441</v>
-      </c>
       <c r="D59" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="F59" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="E59" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>447</v>
-      </c>
       <c r="G59" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I59" s="14"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
       <c r="C60" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="D60" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="E60" s="15" t="s">
         <v>498</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>500</v>
       </c>
       <c r="F60" s="15"/>
       <c r="G60" s="16" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I60" s="16"/>
     </row>
     <row r="61" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
       <c r="C61" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="D61" s="15" t="s">
         <v>497</v>
       </c>
-      <c r="D61" s="15" t="s">
+      <c r="E61" s="15" t="s">
         <v>499</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>501</v>
       </c>
       <c r="F61" s="15"/>
       <c r="G61" s="16" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I61" s="16"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="23"/>
       <c r="C62" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="D62" s="15" t="s">
         <v>448</v>
       </c>
-      <c r="D62" s="15" t="s">
-        <v>450</v>
-      </c>
       <c r="E62" s="15" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F62" s="15"/>
       <c r="G62" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I62" s="14"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="23"/>
       <c r="C63" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="D63" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="D63" s="15" t="s">
-        <v>451</v>
-      </c>
       <c r="E63" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F63" s="15"/>
       <c r="G63" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I63" s="14"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
       <c r="C64" s="15" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F64" s="15"/>
       <c r="G64" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I64" s="14"/>
     </row>
     <row r="65" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A65" s="19"/>
-      <c r="B65" s="19"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="24"/>
       <c r="C65" s="15" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F65" s="15"/>
       <c r="G65" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I65" s="14"/>
     </row>
     <row r="66" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A66" s="32" t="s">
+      <c r="A66" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>551</v>
+        <v>780</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>552</v>
+        <v>779</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I66" s="9"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="32"/>
-      <c r="B67" s="32"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="30"/>
       <c r="C67" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="9" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I67" s="9"/>
     </row>
     <row r="68" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="32"/>
-      <c r="B68" s="32"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="30"/>
       <c r="C68" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="9" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I68" s="9"/>
     </row>
     <row r="69" spans="1:9" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="32"/>
-      <c r="B69" s="32"/>
+      <c r="A69" s="30"/>
+      <c r="B69" s="30"/>
       <c r="C69" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I69" s="9"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="32"/>
-      <c r="B70" s="32"/>
+      <c r="A70" s="30"/>
+      <c r="B70" s="30"/>
       <c r="C70" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="9" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I70" s="9"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="32"/>
-      <c r="B71" s="32"/>
+      <c r="A71" s="30"/>
+      <c r="B71" s="30"/>
       <c r="C71" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>442</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>444</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="9" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I71" s="9"/>
     </row>
     <row r="72" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A72" s="24" t="s">
-        <v>463</v>
-      </c>
-      <c r="B72" s="24" t="s">
+      <c r="A72" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>464</v>
-      </c>
       <c r="D72" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E72" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="I72" s="10"/>
+    </row>
+    <row r="73" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A73" s="20"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="I73" s="10"/>
+    </row>
+    <row r="74" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A74" s="20"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="D74" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="F72" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>737</v>
-      </c>
-      <c r="H72" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="I72" s="10"/>
-    </row>
-    <row r="73" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A73" s="24"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="D73" s="5" t="s">
+      <c r="E74" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="I74" s="10"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="20"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="D75" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="F73" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>737</v>
-      </c>
-      <c r="H73" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="I73" s="10"/>
-    </row>
-    <row r="74" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A74" s="24"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>737</v>
-      </c>
-      <c r="H74" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="I74" s="10"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="24"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>515</v>
-      </c>
       <c r="E75" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="10" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I75" s="10"/>
     </row>
     <row r="76" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A76" s="24"/>
-      <c r="B76" s="24"/>
+      <c r="A76" s="20"/>
+      <c r="B76" s="20"/>
       <c r="C76" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F76" s="5"/>
       <c r="G76" s="10" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I76" s="10"/>
     </row>
     <row r="77" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A77" s="29" t="s">
-        <v>508</v>
-      </c>
-      <c r="B77" s="29" t="s">
-        <v>528</v>
+      <c r="A77" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>526</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D77" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="F77" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="E77" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="F77" s="6" t="s">
+      <c r="G77" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="I77" s="11"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="21"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="E78" s="6" t="s">
         <v>533</v>
-      </c>
-      <c r="G77" s="11" t="s">
-        <v>737</v>
-      </c>
-      <c r="H77" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="I77" s="11"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="29"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>535</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="11" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I78" s="11"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="29"/>
-      <c r="B79" s="29"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="21"/>
       <c r="C79" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="11" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I79" s="11"/>
     </row>
     <row r="80" spans="1:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="A80" s="30" t="s">
+      <c r="A80" s="28" t="s">
+        <v>522</v>
+      </c>
+      <c r="B80" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="I80" s="7"/>
+    </row>
+    <row r="81" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A81" s="28"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B80" s="30" t="s">
-        <v>509</v>
-      </c>
-      <c r="C80" s="2" t="s">
+      <c r="D81" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="I81" s="7"/>
+    </row>
+    <row r="82" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A82" s="28"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="I82" s="7"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="28"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="I83" s="7"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="28"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="I80" s="7"/>
-    </row>
-    <row r="81" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A81" s="30"/>
-      <c r="B81" s="30"/>
-      <c r="C81" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="E81" s="2" t="s">
+      <c r="D84" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="I81" s="7"/>
-    </row>
-    <row r="82" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A82" s="30"/>
-      <c r="B82" s="30"/>
-      <c r="C82" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="I82" s="7"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="30"/>
-      <c r="B83" s="30"/>
-      <c r="C83" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="I83" s="7"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="30"/>
-      <c r="B84" s="30"/>
-      <c r="C84" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>550</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I84" s="7"/>
     </row>
     <row r="85" spans="1:9" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B85" s="28" t="s">
-        <v>555</v>
+      <c r="B85" s="29" t="s">
+        <v>551</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D85" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="F85" s="3" t="s">
+      <c r="G85" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="I85" s="8"/>
+    </row>
+    <row r="86" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A86" s="29"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E86" s="3" t="s">
         <v>560</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>737</v>
-      </c>
-      <c r="H85" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="I85" s="8"/>
-    </row>
-    <row r="86" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A86" s="28"/>
-      <c r="B86" s="28"/>
-      <c r="C86" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>564</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="8" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I86" s="8"/>
     </row>
     <row r="87" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A87" s="28"/>
-      <c r="B87" s="28"/>
+      <c r="A87" s="29"/>
+      <c r="B87" s="29"/>
       <c r="C87" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I87" s="8"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="28"/>
-      <c r="B88" s="28"/>
+      <c r="A88" s="29"/>
+      <c r="B88" s="29"/>
       <c r="C88" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="8" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I88" s="8"/>
     </row>
     <row r="89" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A89" s="20" t="s">
+      <c r="A89" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="B89" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="I89" s="9"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="26"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="B89" s="20" t="s">
+      <c r="E90" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="F90" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="I90" s="9"/>
+    </row>
+    <row r="91" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A91" s="26"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="E89" s="4" t="s">
+      <c r="E91" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="I91" s="9"/>
+    </row>
+    <row r="92" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A92" s="26"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="F92" s="17" t="s">
+        <v>595</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="I92" s="9"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="27"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="E93" s="4" t="s">
         <v>591</v>
-      </c>
-      <c r="G89" s="9" t="s">
-        <v>737</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="I89" s="9"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="21"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="G90" s="9" t="s">
-        <v>737</v>
-      </c>
-      <c r="H90" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="I90" s="9"/>
-    </row>
-    <row r="91" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A91" s="21"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>737</v>
-      </c>
-      <c r="H91" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="I91" s="9"/>
-    </row>
-    <row r="92" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A92" s="21"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="38" t="s">
-        <v>575</v>
-      </c>
-      <c r="D92" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="F92" s="38" t="s">
-        <v>599</v>
-      </c>
-      <c r="G92" s="9" t="s">
-        <v>737</v>
-      </c>
-      <c r="H92" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="I92" s="9"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="22"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>595</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="9" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I93" s="9"/>
     </row>
     <row r="94" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A94" s="24" t="s">
+      <c r="A94" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="I94" s="10" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A95" s="20"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="I95" s="10"/>
+    </row>
+    <row r="96" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A96" s="20"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="I96" s="10"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="20"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="H97" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="I97" s="10"/>
+    </row>
+    <row r="98" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A98" s="20"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="B94" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="G94" s="10" t="s">
-        <v>737</v>
-      </c>
-      <c r="H94" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="I94" s="10" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A95" s="24"/>
-      <c r="B95" s="24"/>
-      <c r="C95" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>737</v>
-      </c>
-      <c r="H95" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="I95" s="10"/>
-    </row>
-    <row r="96" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A96" s="24"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="G96" s="10" t="s">
-        <v>737</v>
-      </c>
-      <c r="H96" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="I96" s="10"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="24"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="G97" s="10" t="s">
-        <v>737</v>
-      </c>
-      <c r="H97" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="I97" s="10"/>
-    </row>
-    <row r="98" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A98" s="24"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="5" t="s">
-        <v>582</v>
-      </c>
       <c r="D98" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="F98" s="5"/>
       <c r="G98" s="10" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I98" s="10"/>
     </row>
     <row r="99" spans="1:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="A99" s="29" t="s">
+      <c r="A99" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B99" s="29" t="s">
-        <v>361</v>
+      <c r="B99" s="21" t="s">
+        <v>359</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D99" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="I99" s="11"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="21"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="E99" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="G99" s="11" t="s">
-        <v>737</v>
-      </c>
-      <c r="H99" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="I99" s="11"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="29"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="6" t="s">
-        <v>609</v>
-      </c>
       <c r="D100" s="6" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="F100" s="6"/>
       <c r="G100" s="11" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I100" s="11"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="29"/>
-      <c r="B101" s="29"/>
+      <c r="A101" s="21"/>
+      <c r="B101" s="21"/>
       <c r="C101" s="6" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F101" s="6"/>
       <c r="G101" s="11" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I101" s="11"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="29"/>
-      <c r="B102" s="29"/>
+      <c r="A102" s="21"/>
+      <c r="B102" s="21"/>
       <c r="C102" s="6" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="F102" s="6"/>
       <c r="G102" s="11" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I102" s="11"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="29"/>
-      <c r="B103" s="29"/>
+      <c r="A103" s="21"/>
+      <c r="B103" s="21"/>
       <c r="C103" s="6" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D103" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="E103" s="6" t="s">
         <v>615</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>619</v>
       </c>
       <c r="F103" s="6"/>
       <c r="G103" s="11" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I103" s="11"/>
     </row>
     <row r="104" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A104" s="30" t="s">
+      <c r="A104" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B104" s="30" t="s">
-        <v>167</v>
+      <c r="B104" s="28" t="s">
+        <v>166</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I104" s="7"/>
     </row>
     <row r="105" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A105" s="30"/>
-      <c r="B105" s="30"/>
+      <c r="A105" s="28"/>
+      <c r="B105" s="28"/>
       <c r="C105" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="E105" s="2" t="s">
+      <c r="G105" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="I105" s="7"/>
+    </row>
+    <row r="106" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A106" s="28"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="I105" s="7"/>
-    </row>
-    <row r="106" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A106" s="30"/>
-      <c r="B106" s="30"/>
-      <c r="C106" s="2" t="s">
-        <v>631</v>
-      </c>
       <c r="D106" s="2" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I106" s="7"/>
     </row>
     <row r="107" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A107" s="30"/>
-      <c r="B107" s="30"/>
+      <c r="A107" s="28"/>
+      <c r="B107" s="28"/>
       <c r="C107" s="2" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I107" s="7"/>
     </row>
     <row r="108" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A108" s="30"/>
-      <c r="B108" s="30"/>
+      <c r="A108" s="28"/>
+      <c r="B108" s="28"/>
       <c r="C108" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I108" s="7"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="30"/>
-      <c r="B109" s="30"/>
+      <c r="A109" s="28"/>
+      <c r="B109" s="28"/>
       <c r="C109" s="2" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I109" s="7"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="30"/>
-      <c r="B110" s="30"/>
+      <c r="A110" s="28"/>
+      <c r="B110" s="28"/>
       <c r="C110" s="2" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I110" s="7"/>
     </row>
     <row r="111" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A111" s="28" t="s">
+      <c r="A111" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B111" s="28" t="s">
-        <v>168</v>
+      <c r="B111" s="29" t="s">
+        <v>167</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I111" s="8"/>
     </row>
     <row r="112" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A112" s="28"/>
-      <c r="B112" s="28"/>
+      <c r="A112" s="29"/>
+      <c r="B112" s="29"/>
       <c r="C112" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="D112" s="3" t="s">
-        <v>640</v>
-      </c>
       <c r="E112" s="3" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I112" s="8"/>
     </row>
     <row r="113" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A113" s="28"/>
-      <c r="B113" s="28"/>
+      <c r="A113" s="29"/>
+      <c r="B113" s="29"/>
       <c r="C113" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="D113" s="3" t="s">
-        <v>641</v>
-      </c>
       <c r="E113" s="3" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="8" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I113" s="8"/>
     </row>
     <row r="114" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A114" s="28"/>
-      <c r="B114" s="28"/>
+      <c r="A114" s="29"/>
+      <c r="B114" s="29"/>
       <c r="C114" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="D114" s="3" t="s">
-        <v>642</v>
-      </c>
       <c r="E114" s="3" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I114" s="8"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" s="28"/>
-      <c r="B115" s="28"/>
+      <c r="A115" s="29"/>
+      <c r="B115" s="29"/>
       <c r="C115" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F115" s="3"/>
       <c r="G115" s="8" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I115" s="8"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="28"/>
-      <c r="B116" s="28"/>
+      <c r="A116" s="29"/>
+      <c r="B116" s="29"/>
       <c r="C116" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="8" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I116" s="8"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="28"/>
-      <c r="B117" s="28"/>
+      <c r="A117" s="29"/>
+      <c r="B117" s="29"/>
       <c r="C117" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="8" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I117" s="8"/>
     </row>
     <row r="118" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A118" s="32" t="s">
+      <c r="A118" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B118" s="32" t="s">
-        <v>169</v>
+      <c r="B118" s="30" t="s">
+        <v>168</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I118" s="9"/>
     </row>
     <row r="119" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A119" s="32"/>
-      <c r="B119" s="32"/>
+      <c r="A119" s="30"/>
+      <c r="B119" s="30"/>
       <c r="C119" s="4" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I119" s="9"/>
     </row>
     <row r="120" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A120" s="32"/>
-      <c r="B120" s="32"/>
+      <c r="A120" s="30"/>
+      <c r="B120" s="30"/>
       <c r="C120" s="4" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F120" s="4"/>
       <c r="G120" s="9" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I120" s="9"/>
     </row>
     <row r="121" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A121" s="32"/>
-      <c r="B121" s="32"/>
+      <c r="A121" s="30"/>
+      <c r="B121" s="30"/>
       <c r="C121" s="4" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I121" s="9"/>
     </row>
     <row r="122" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A122" s="32"/>
-      <c r="B122" s="32"/>
+      <c r="A122" s="30"/>
+      <c r="B122" s="30"/>
       <c r="C122" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="F122" s="4"/>
       <c r="G122" s="9" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I122" s="9"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="32"/>
-      <c r="B123" s="32"/>
+      <c r="A123" s="30"/>
+      <c r="B123" s="30"/>
       <c r="C123" s="4" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="F123" s="4"/>
       <c r="G123" s="9" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I123" s="9"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="32"/>
-      <c r="B124" s="32"/>
+      <c r="A124" s="30"/>
+      <c r="B124" s="30"/>
       <c r="C124" s="4" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F124" s="4"/>
       <c r="G124" s="9" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I124" s="9"/>
     </row>
     <row r="125" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A125" s="24" t="s">
+      <c r="A125" s="20" t="s">
+        <v>667</v>
+      </c>
+      <c r="B125" s="20" t="s">
+        <v>668</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="F125" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="B125" s="24" t="s">
+      <c r="G125" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="H125" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="I125" s="10"/>
+    </row>
+    <row r="126" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A126" s="20"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D126" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="E126" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="G126" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="H126" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="I126" s="10"/>
+    </row>
+    <row r="127" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A127" s="20"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="G127" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="H127" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="I127" s="10"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" s="20"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D125" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>674</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="G125" s="10" t="s">
-        <v>737</v>
-      </c>
-      <c r="H125" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="I125" s="10"/>
-    </row>
-    <row r="126" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A126" s="24"/>
-      <c r="B126" s="24"/>
-      <c r="C126" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="G126" s="10" t="s">
-        <v>737</v>
-      </c>
-      <c r="H126" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="I126" s="10"/>
-    </row>
-    <row r="127" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A127" s="24"/>
-      <c r="B127" s="24"/>
-      <c r="C127" s="5" t="s">
+      <c r="D128" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="E128" s="5" t="s">
         <v>677</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="G127" s="10" t="s">
-        <v>737</v>
-      </c>
-      <c r="H127" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="I127" s="10"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A128" s="24"/>
-      <c r="B128" s="24"/>
-      <c r="C128" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>681</v>
       </c>
       <c r="F128" s="5"/>
       <c r="G128" s="10" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H128" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I128" s="10"/>
     </row>
     <row r="129" spans="1:9" ht="165" x14ac:dyDescent="0.3">
-      <c r="A129" s="29" t="s">
-        <v>665</v>
-      </c>
-      <c r="B129" s="29" t="s">
+      <c r="A129" s="21" t="s">
+        <v>661</v>
+      </c>
+      <c r="B129" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D129" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="G129" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="H129" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="I129" s="11"/>
+    </row>
+    <row r="130" spans="1:9" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A130" s="21"/>
+      <c r="B130" s="21"/>
+      <c r="C130" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="H130" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="I130" s="11"/>
+    </row>
+    <row r="131" spans="1:9" ht="132" x14ac:dyDescent="0.3">
+      <c r="A131" s="21"/>
+      <c r="B131" s="21"/>
+      <c r="C131" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="E129" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="F129" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="G129" s="11" t="s">
-        <v>737</v>
-      </c>
-      <c r="H129" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="I129" s="11"/>
-    </row>
-    <row r="130" spans="1:9" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A130" s="29"/>
-      <c r="B130" s="29"/>
-      <c r="C130" s="6" t="s">
+      <c r="D131" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="G131" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="H131" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="I131" s="11"/>
+    </row>
+    <row r="132" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A132" s="21"/>
+      <c r="B132" s="21"/>
+      <c r="C132" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D132" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="D130" s="6" t="s">
-        <v>689</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>690</v>
-      </c>
-      <c r="F130" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="G130" s="11" t="s">
-        <v>737</v>
-      </c>
-      <c r="H130" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="I130" s="11"/>
-    </row>
-    <row r="131" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A131" s="29"/>
-      <c r="B131" s="29"/>
-      <c r="C131" s="6" t="s">
+      <c r="E132" s="6" t="s">
         <v>687</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="F131" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="G131" s="11" t="s">
-        <v>737</v>
-      </c>
-      <c r="H131" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="I131" s="11"/>
-    </row>
-    <row r="132" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A132" s="29"/>
-      <c r="B132" s="29"/>
-      <c r="C132" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="E132" s="6" t="s">
-        <v>691</v>
       </c>
       <c r="F132" s="6"/>
       <c r="G132" s="11" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I132" s="11"/>
     </row>
     <row r="133" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A133" s="29"/>
-      <c r="B133" s="29"/>
+      <c r="A133" s="21"/>
+      <c r="B133" s="21"/>
       <c r="C133" s="6" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F133" s="6"/>
       <c r="G133" s="11" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H133" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I133" s="11"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" s="29"/>
-      <c r="B134" s="29"/>
+      <c r="A134" s="21"/>
+      <c r="B134" s="21"/>
       <c r="C134" s="6" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="11" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H134" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I134" s="11"/>
     </row>
     <row r="135" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A135" s="30" t="s">
-        <v>666</v>
-      </c>
-      <c r="B135" s="30" t="s">
+      <c r="A135" s="28" t="s">
+        <v>662</v>
+      </c>
+      <c r="B135" s="28" t="s">
         <v>49</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="I135" s="7"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" s="28"/>
+      <c r="B136" s="28"/>
+      <c r="C136" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>701</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="G135" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="H135" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="I135" s="7"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A136" s="30"/>
-      <c r="B136" s="30"/>
-      <c r="C136" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>705</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I136" s="7"/>
     </row>
     <row r="137" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A137" s="30"/>
-      <c r="B137" s="30"/>
+      <c r="A137" s="28"/>
+      <c r="B137" s="28"/>
       <c r="C137" s="2" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I137" s="7"/>
     </row>
     <row r="138" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A138" s="30"/>
-      <c r="B138" s="30"/>
+      <c r="A138" s="28"/>
+      <c r="B138" s="28"/>
       <c r="C138" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I138" s="7"/>
     </row>
     <row r="139" spans="1:9" ht="198" x14ac:dyDescent="0.3">
-      <c r="A139" s="23" t="s">
-        <v>667</v>
-      </c>
-      <c r="B139" s="23" t="s">
+      <c r="A139" s="32" t="s">
+        <v>663</v>
+      </c>
+      <c r="B139" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D139" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="E139" s="15" t="s">
+        <v>722</v>
+      </c>
+      <c r="F139" s="15" t="s">
+        <v>723</v>
+      </c>
+      <c r="G139" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="H139" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="I139" s="16"/>
+    </row>
+    <row r="140" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A140" s="32"/>
+      <c r="B140" s="32"/>
+      <c r="C140" s="15" t="s">
+        <v>707</v>
+      </c>
+      <c r="D140" s="15" t="s">
+        <v>708</v>
+      </c>
+      <c r="E140" s="15" t="s">
+        <v>717</v>
+      </c>
+      <c r="F140" s="15" t="s">
+        <v>719</v>
+      </c>
+      <c r="G140" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="H140" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="I140" s="16"/>
+    </row>
+    <row r="141" spans="1:9" ht="132" x14ac:dyDescent="0.3">
+      <c r="A141" s="32"/>
+      <c r="B141" s="32"/>
+      <c r="C141" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="D141" s="15" t="s">
         <v>710</v>
       </c>
-      <c r="E139" s="15" t="s">
-        <v>726</v>
-      </c>
-      <c r="F139" s="15" t="s">
-        <v>727</v>
-      </c>
-      <c r="G139" s="16" t="s">
-        <v>545</v>
-      </c>
-      <c r="H139" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="I139" s="16"/>
-    </row>
-    <row r="140" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A140" s="23"/>
-      <c r="B140" s="23"/>
-      <c r="C140" s="15" t="s">
+      <c r="E141" s="15" t="s">
         <v>711</v>
       </c>
-      <c r="D140" s="15" t="s">
-        <v>712</v>
-      </c>
-      <c r="E140" s="15" t="s">
+      <c r="F141" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="G141" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="H141" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="I141" s="16"/>
+    </row>
+    <row r="142" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A142" s="32"/>
+      <c r="B142" s="32"/>
+      <c r="C142" s="15" t="s">
+        <v>716</v>
+      </c>
+      <c r="D142" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="E142" s="15" t="s">
+        <v>720</v>
+      </c>
+      <c r="F142" s="15" t="s">
         <v>721</v>
       </c>
-      <c r="F140" s="15" t="s">
-        <v>723</v>
-      </c>
-      <c r="G140" s="16" t="s">
-        <v>545</v>
-      </c>
-      <c r="H140" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="I140" s="16"/>
-    </row>
-    <row r="141" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A141" s="23"/>
-      <c r="B141" s="23"/>
-      <c r="C141" s="15" t="s">
-        <v>669</v>
-      </c>
-      <c r="D141" s="15" t="s">
-        <v>714</v>
-      </c>
-      <c r="E141" s="15" t="s">
+      <c r="G142" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="H142" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="I142" s="16"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" s="32"/>
+      <c r="B143" s="32"/>
+      <c r="C143" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="D143" s="15" t="s">
+        <v>713</v>
+      </c>
+      <c r="E143" s="15" t="s">
         <v>715</v>
-      </c>
-      <c r="F141" s="15" t="s">
-        <v>713</v>
-      </c>
-      <c r="G141" s="16" t="s">
-        <v>545</v>
-      </c>
-      <c r="H141" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="I141" s="16"/>
-    </row>
-    <row r="142" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A142" s="23"/>
-      <c r="B142" s="23"/>
-      <c r="C142" s="15" t="s">
-        <v>720</v>
-      </c>
-      <c r="D142" s="15" t="s">
-        <v>722</v>
-      </c>
-      <c r="E142" s="15" t="s">
-        <v>724</v>
-      </c>
-      <c r="F142" s="15" t="s">
-        <v>725</v>
-      </c>
-      <c r="G142" s="16" t="s">
-        <v>545</v>
-      </c>
-      <c r="H142" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="I142" s="16"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A143" s="23"/>
-      <c r="B143" s="23"/>
-      <c r="C143" s="15" t="s">
-        <v>670</v>
-      </c>
-      <c r="D143" s="15" t="s">
-        <v>717</v>
-      </c>
-      <c r="E143" s="15" t="s">
-        <v>719</v>
       </c>
       <c r="F143" s="15"/>
       <c r="G143" s="16" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H143" s="16" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I143" s="16"/>
     </row>
     <row r="144" spans="1:9" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A144" s="28" t="s">
+      <c r="A144" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B144" s="28" t="s">
+      <c r="B144" s="29" t="s">
         <v>53</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I144" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A145" s="28"/>
-      <c r="B145" s="28"/>
+      <c r="A145" s="29"/>
+      <c r="B145" s="29"/>
       <c r="C145" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E145" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="H145" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="I145" s="8"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" s="29"/>
+      <c r="B146" s="29"/>
+      <c r="C146" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F145" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G145" s="8" t="s">
-        <v>737</v>
-      </c>
-      <c r="H145" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="I145" s="8"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A146" s="28"/>
-      <c r="B146" s="28"/>
-      <c r="C146" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="D146" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F146" s="3"/>
       <c r="G146" s="8" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I146" s="8"/>
     </row>
     <row r="147" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A147" s="28"/>
-      <c r="B147" s="28"/>
+      <c r="A147" s="29"/>
+      <c r="B147" s="29"/>
       <c r="C147" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F147" s="3"/>
       <c r="G147" s="8" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I147" s="8"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A148" s="28"/>
-      <c r="B148" s="28"/>
+      <c r="A148" s="29"/>
+      <c r="B148" s="29"/>
       <c r="C148" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F148" s="3"/>
       <c r="G148" s="8" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I148" s="8"/>
     </row>
     <row r="149" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A149" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="B149" s="32" t="s">
+      <c r="A149" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="B149" s="30" t="s">
         <v>57</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I149" s="9"/>
     </row>
     <row r="150" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A150" s="32"/>
-      <c r="B150" s="32"/>
+      <c r="A150" s="30"/>
+      <c r="B150" s="30"/>
       <c r="C150" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D150" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="F150" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="E150" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>319</v>
-      </c>
       <c r="G150" s="9" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I150" s="9"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A151" s="32"/>
-      <c r="B151" s="32"/>
+      <c r="A151" s="30"/>
+      <c r="B151" s="30"/>
       <c r="C151" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F151" s="4"/>
       <c r="G151" s="9" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I151" s="9"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A152" s="32"/>
-      <c r="B152" s="32"/>
+      <c r="A152" s="30"/>
+      <c r="B152" s="30"/>
       <c r="C152" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F152" s="4"/>
       <c r="G152" s="9" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I152" s="9"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A153" s="32"/>
-      <c r="B153" s="32"/>
+      <c r="A153" s="30"/>
+      <c r="B153" s="30"/>
       <c r="C153" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F153" s="4"/>
       <c r="G153" s="9" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I153" s="9"/>
     </row>
     <row r="154" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A154" s="35" t="s">
-        <v>329</v>
-      </c>
-      <c r="B154" s="35" t="s">
-        <v>328</v>
+      <c r="A154" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="B154" s="38" t="s">
+        <v>326</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D154" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="G154" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="H154" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="I154" s="10"/>
+    </row>
+    <row r="155" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A155" s="39"/>
+      <c r="B155" s="39"/>
+      <c r="C155" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="G155" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="H155" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="I155" s="10"/>
+    </row>
+    <row r="156" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A156" s="39"/>
+      <c r="B156" s="39"/>
+      <c r="C156" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G156" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="H156" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="I156" s="10"/>
+    </row>
+    <row r="157" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A157" s="39"/>
+      <c r="B157" s="39"/>
+      <c r="C157" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D157" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="E154" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="F154" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="G154" s="10" t="s">
-        <v>737</v>
-      </c>
-      <c r="H154" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="I154" s="10"/>
-    </row>
-    <row r="155" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A155" s="36"/>
-      <c r="B155" s="36"/>
-      <c r="C155" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="D155" s="5" t="s">
-        <v>771</v>
-      </c>
-      <c r="E155" s="5" t="s">
-        <v>773</v>
-      </c>
-      <c r="F155" s="5" t="s">
-        <v>775</v>
-      </c>
-      <c r="G155" s="10" t="s">
-        <v>737</v>
-      </c>
-      <c r="H155" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="I155" s="10"/>
-    </row>
-    <row r="156" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A156" s="36"/>
-      <c r="B156" s="36"/>
-      <c r="C156" s="5" t="s">
+      <c r="E157" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G157" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="H157" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="I157" s="10"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" s="39"/>
+      <c r="B158" s="39"/>
+      <c r="C158" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D156" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F156" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="G156" s="10" t="s">
-        <v>737</v>
-      </c>
-      <c r="H156" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="I156" s="10"/>
-    </row>
-    <row r="157" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A157" s="36"/>
-      <c r="B157" s="36"/>
-      <c r="C157" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E157" s="5" t="s">
-        <v>776</v>
-      </c>
-      <c r="F157" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="G157" s="10" t="s">
-        <v>737</v>
-      </c>
-      <c r="H157" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="I157" s="10"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A158" s="36"/>
-      <c r="B158" s="36"/>
-      <c r="C158" s="5" t="s">
-        <v>340</v>
-      </c>
       <c r="D158" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F158" s="5"/>
       <c r="G158" s="10" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H158" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I158" s="10"/>
     </row>
     <row r="159" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A159" s="36"/>
-      <c r="B159" s="36"/>
+      <c r="A159" s="39"/>
+      <c r="B159" s="39"/>
       <c r="C159" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G159" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="H159" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="I159" s="10"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" s="40"/>
+      <c r="B160" s="40"/>
+      <c r="C160" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="D159" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E159" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="F159" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G159" s="10" t="s">
-        <v>737</v>
-      </c>
-      <c r="H159" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="I159" s="10"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A160" s="37"/>
-      <c r="B160" s="37"/>
-      <c r="C160" s="5" t="s">
-        <v>343</v>
-      </c>
       <c r="D160" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E160" s="5" t="s">
         <v>287</v>
-      </c>
-      <c r="E160" s="5" t="s">
-        <v>289</v>
       </c>
       <c r="F160" s="5"/>
       <c r="G160" s="10" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H160" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I160" s="10"/>
     </row>
     <row r="161" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A161" s="29" t="s">
+      <c r="A161" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B161" s="29" t="s">
+      <c r="B161" s="21" t="s">
         <v>62</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="G161" s="11" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H161" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I161" s="11"/>
     </row>
     <row r="162" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A162" s="29"/>
-      <c r="B162" s="29"/>
+      <c r="A162" s="21"/>
+      <c r="B162" s="21"/>
       <c r="C162" s="6" t="s">
         <v>64</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E162" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="G162" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="H162" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="I162" s="11"/>
+    </row>
+    <row r="163" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A163" s="21"/>
+      <c r="B163" s="21"/>
+      <c r="C163" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="F162" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="G162" s="11" t="s">
-        <v>737</v>
-      </c>
-      <c r="H162" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="I162" s="11"/>
-    </row>
-    <row r="163" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A163" s="29"/>
-      <c r="B163" s="29"/>
-      <c r="C163" s="6" t="s">
-        <v>302</v>
-      </c>
       <c r="D163" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F163" s="6"/>
       <c r="G163" s="11" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H163" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I163" s="11"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A164" s="29"/>
-      <c r="B164" s="29"/>
+      <c r="A164" s="21"/>
+      <c r="B164" s="21"/>
       <c r="C164" s="6" t="s">
         <v>65</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F164" s="6"/>
       <c r="G164" s="11" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H164" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I164" s="11"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A165" s="29"/>
-      <c r="B165" s="29"/>
+      <c r="A165" s="21"/>
+      <c r="B165" s="21"/>
       <c r="C165" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E165" s="6" t="s">
         <v>296</v>
-      </c>
-      <c r="D165" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E165" s="6" t="s">
-        <v>298</v>
       </c>
       <c r="F165" s="6"/>
       <c r="G165" s="11" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H165" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I165" s="11"/>
     </row>
     <row r="166" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A166" s="30" t="s">
+      <c r="A166" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B166" s="30" t="s">
+      <c r="B166" s="28" t="s">
         <v>67</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I166" s="7"/>
     </row>
     <row r="167" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A167" s="30"/>
-      <c r="B167" s="30"/>
+      <c r="A167" s="28"/>
+      <c r="B167" s="28"/>
       <c r="C167" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I167" s="7"/>
     </row>
     <row r="168" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A168" s="30"/>
-      <c r="B168" s="30"/>
+      <c r="A168" s="28"/>
+      <c r="B168" s="28"/>
       <c r="C168" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F168" s="2"/>
       <c r="G168" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I168" s="7"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A169" s="30"/>
-      <c r="B169" s="30"/>
+      <c r="A169" s="28"/>
+      <c r="B169" s="28"/>
       <c r="C169" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I169" s="7"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A170" s="30"/>
-      <c r="B170" s="30"/>
+      <c r="A170" s="28"/>
+      <c r="B170" s="28"/>
       <c r="C170" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="F170" s="2"/>
       <c r="G170" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I170" s="7"/>
     </row>
     <row r="171" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A171" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="B171" s="28" t="s">
-        <v>285</v>
+      <c r="A171" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="B171" s="29" t="s">
+        <v>283</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G171" s="8" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H171" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I171" s="8"/>
     </row>
     <row r="172" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A172" s="28"/>
-      <c r="B172" s="28"/>
+      <c r="A172" s="29"/>
+      <c r="B172" s="29"/>
       <c r="C172" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D172" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F172" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="E172" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="F172" s="3" t="s">
-        <v>346</v>
-      </c>
       <c r="G172" s="8" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H172" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I172" s="8"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A173" s="28"/>
-      <c r="B173" s="28"/>
+      <c r="A173" s="29"/>
+      <c r="B173" s="29"/>
       <c r="C173" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E173" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>352</v>
       </c>
       <c r="F173" s="3"/>
       <c r="G173" s="8" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H173" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I173" s="8"/>
     </row>
     <row r="174" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A174" s="28"/>
-      <c r="B174" s="28"/>
+      <c r="A174" s="29"/>
+      <c r="B174" s="29"/>
       <c r="C174" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="8" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H174" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I174" s="8"/>
     </row>
     <row r="175" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A175" s="28"/>
-      <c r="B175" s="28"/>
+      <c r="A175" s="29"/>
+      <c r="B175" s="29"/>
       <c r="C175" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F175" s="3"/>
       <c r="G175" s="8" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H175" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I175" s="8"/>
     </row>
     <row r="176" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A176" s="17" t="s">
+      <c r="A176" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B176" s="17" t="s">
-        <v>358</v>
+      <c r="B176" s="22" t="s">
+        <v>356</v>
       </c>
       <c r="C176" s="15" t="s">
         <v>75</v>
       </c>
       <c r="D176" s="15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E176" s="15" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="F176" s="15" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G176" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H176" s="14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I176" s="14"/>
     </row>
     <row r="177" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A177" s="18"/>
-      <c r="B177" s="18"/>
+      <c r="A177" s="23"/>
+      <c r="B177" s="23"/>
       <c r="C177" s="15" t="s">
         <v>76</v>
       </c>
       <c r="D177" s="15" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E177" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F177" s="15"/>
       <c r="G177" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H177" s="14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I177" s="14"/>
     </row>
     <row r="178" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A178" s="18"/>
-      <c r="B178" s="18"/>
+      <c r="A178" s="23"/>
+      <c r="B178" s="23"/>
       <c r="C178" s="15" t="s">
         <v>77</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E178" s="15" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F178" s="15"/>
       <c r="G178" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H178" s="14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I178" s="14"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A179" s="19"/>
-      <c r="B179" s="19"/>
+      <c r="A179" s="24"/>
+      <c r="B179" s="24"/>
       <c r="C179" s="15" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E179" s="15" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="F179" s="15"/>
       <c r="G179" s="16" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H179" s="16" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I179" s="16"/>
     </row>
     <row r="180" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A180" s="32" t="s">
+      <c r="A180" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="B180" s="32" t="s">
+      <c r="B180" s="30" t="s">
         <v>79</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>80</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G180" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H180" s="9" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="I180" s="9"/>
     </row>
     <row r="181" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A181" s="32"/>
-      <c r="B181" s="32"/>
+      <c r="A181" s="30"/>
+      <c r="B181" s="30"/>
       <c r="C181" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G181" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H181" s="9" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="I181" s="9"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A182" s="32"/>
-      <c r="B182" s="32"/>
+      <c r="A182" s="30"/>
+      <c r="B182" s="30"/>
       <c r="C182" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F182" s="4"/>
       <c r="G182" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H182" s="9" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="I182" s="9"/>
     </row>
     <row r="183" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A183" s="32"/>
-      <c r="B183" s="32"/>
+      <c r="A183" s="30"/>
+      <c r="B183" s="30"/>
       <c r="C183" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F183" s="4"/>
       <c r="G183" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H183" s="9" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="I183" s="9"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A184" s="32"/>
-      <c r="B184" s="32"/>
+      <c r="A184" s="30"/>
+      <c r="B184" s="30"/>
       <c r="C184" s="4" t="s">
         <v>82</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F184" s="4"/>
       <c r="G184" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H184" s="9" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="I184" s="9"/>
     </row>
     <row r="185" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A185" s="24" t="s">
+      <c r="A185" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B185" s="24" t="s">
+      <c r="B185" s="20" t="s">
         <v>105</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>84</v>
       </c>
       <c r="D185" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="F185" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="E185" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="F185" s="5" t="s">
-        <v>382</v>
-      </c>
       <c r="G185" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H185" s="10" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="I185" s="10"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A186" s="24"/>
-      <c r="B186" s="24"/>
+      <c r="A186" s="20"/>
+      <c r="B186" s="20"/>
       <c r="C186" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F186" s="5"/>
       <c r="G186" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H186" s="10" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="I186" s="10"/>
     </row>
     <row r="187" spans="1:9" ht="231" x14ac:dyDescent="0.3">
-      <c r="A187" s="17" t="s">
+      <c r="A187" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B187" s="17" t="s">
-        <v>407</v>
+      <c r="B187" s="22" t="s">
+        <v>405</v>
       </c>
       <c r="C187" s="15" t="s">
         <v>88</v>
       </c>
       <c r="D187" s="15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E187" s="15" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F187" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="G187" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="H187" s="14" t="s">
         <v>734</v>
       </c>
-      <c r="G187" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="H187" s="14" t="s">
-        <v>738</v>
-      </c>
       <c r="I187" s="14"/>
     </row>
     <row r="188" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A188" s="18"/>
-      <c r="B188" s="18"/>
+      <c r="A188" s="23"/>
+      <c r="B188" s="23"/>
       <c r="C188" s="15" t="s">
         <v>89</v>
       </c>
       <c r="D188" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E188" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F188" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G188" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H188" s="14" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="I188" s="14"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A189" s="18"/>
-      <c r="B189" s="18"/>
+      <c r="A189" s="23"/>
+      <c r="B189" s="23"/>
       <c r="C189" s="15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D189" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E189" s="15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F189" s="15"/>
       <c r="G189" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H189" s="14" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="I189" s="14"/>
     </row>
     <row r="190" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A190" s="18"/>
-      <c r="B190" s="18"/>
+      <c r="A190" s="23"/>
+      <c r="B190" s="23"/>
       <c r="C190" s="15" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D190" s="15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E190" s="15" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F190" s="15"/>
       <c r="G190" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H190" s="14" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="I190" s="14"/>
     </row>
     <row r="191" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A191" s="18"/>
-      <c r="B191" s="18"/>
+      <c r="A191" s="23"/>
+      <c r="B191" s="23"/>
       <c r="C191" s="15" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D191" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="E191" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="F191" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="E191" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="F191" s="15" t="s">
-        <v>416</v>
-      </c>
       <c r="G191" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H191" s="14" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="I191" s="14"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A192" s="18"/>
-      <c r="B192" s="18"/>
+      <c r="A192" s="23"/>
+      <c r="B192" s="23"/>
       <c r="C192" s="15" t="s">
         <v>90</v>
       </c>
       <c r="D192" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E192" s="15" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F192" s="15"/>
       <c r="G192" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H192" s="14" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="I192" s="14"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A193" s="19"/>
-      <c r="B193" s="19"/>
+      <c r="A193" s="24"/>
+      <c r="B193" s="24"/>
       <c r="C193" s="15" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D193" s="15" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E193" s="15" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="F193" s="15"/>
       <c r="G193" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H193" s="16" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="I193" s="16"/>
     </row>
     <row r="194" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A194" s="34" t="s">
-        <v>392</v>
-      </c>
-      <c r="B194" s="34" t="s">
+      <c r="A194" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="B194" s="31" t="s">
         <v>83</v>
       </c>
       <c r="C194" s="13" t="s">
         <v>91</v>
       </c>
       <c r="D194" s="13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E194" s="13" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F194" s="13" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="G194" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H194" s="12" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="I194" s="12"/>
     </row>
     <row r="195" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A195" s="34"/>
-      <c r="B195" s="34"/>
+      <c r="A195" s="31"/>
+      <c r="B195" s="31"/>
       <c r="C195" s="13" t="s">
         <v>92</v>
       </c>
       <c r="D195" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E195" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="F195" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="G195" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H195" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="I195" s="12"/>
+    </row>
+    <row r="196" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A196" s="31"/>
+      <c r="B196" s="31"/>
+      <c r="C196" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="D196" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="E196" s="13" t="s">
         <v>387</v>
-      </c>
-      <c r="E195" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="F195" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="G195" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="H195" s="12" t="s">
-        <v>738</v>
-      </c>
-      <c r="I195" s="12"/>
-    </row>
-    <row r="196" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A196" s="34"/>
-      <c r="B196" s="34"/>
-      <c r="C196" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="D196" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="E196" s="13" t="s">
-        <v>389</v>
       </c>
       <c r="F196" s="13"/>
       <c r="G196" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H196" s="12" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="I196" s="12"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A197" s="34"/>
-      <c r="B197" s="34"/>
+      <c r="A197" s="31"/>
+      <c r="B197" s="31"/>
       <c r="C197" s="13" t="s">
         <v>93</v>
       </c>
       <c r="D197" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E197" s="13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F197" s="13"/>
       <c r="G197" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H197" s="12" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="I197" s="12"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A198" s="34"/>
-      <c r="B198" s="34"/>
+      <c r="A198" s="31"/>
+      <c r="B198" s="31"/>
       <c r="C198" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D198" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E198" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F198" s="13"/>
       <c r="G198" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H198" s="12" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="I198" s="12"/>
     </row>
     <row r="199" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A199" s="23" t="s">
-        <v>404</v>
-      </c>
-      <c r="B199" s="23" t="s">
+      <c r="A199" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="B199" s="32" t="s">
         <v>87</v>
       </c>
       <c r="C199" s="15" t="s">
         <v>106</v>
       </c>
       <c r="D199" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E199" s="15" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="F199" s="15" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="G199" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H199" s="14" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="I199" s="14"/>
     </row>
     <row r="200" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A200" s="23"/>
-      <c r="B200" s="23"/>
+      <c r="A200" s="32"/>
+      <c r="B200" s="32"/>
       <c r="C200" s="15" t="s">
         <v>107</v>
       </c>
       <c r="D200" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="E200" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="F200" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="E200" s="15" t="s">
+      <c r="G200" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="H200" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="I200" s="14"/>
+    </row>
+    <row r="201" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A201" s="32"/>
+      <c r="B201" s="32"/>
+      <c r="C201" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="D201" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="E201" s="15" t="s">
         <v>395</v>
-      </c>
-      <c r="F200" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="G200" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="H200" s="14" t="s">
-        <v>738</v>
-      </c>
-      <c r="I200" s="14"/>
-    </row>
-    <row r="201" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A201" s="23"/>
-      <c r="B201" s="23"/>
-      <c r="C201" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="D201" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="E201" s="15" t="s">
-        <v>397</v>
       </c>
       <c r="F201" s="15"/>
       <c r="G201" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H201" s="14" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="I201" s="14"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A202" s="23"/>
-      <c r="B202" s="23"/>
+      <c r="A202" s="32"/>
+      <c r="B202" s="32"/>
       <c r="C202" s="15" t="s">
         <v>108</v>
       </c>
       <c r="D202" s="15" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E202" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F202" s="15"/>
       <c r="G202" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H202" s="14" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="I202" s="14"/>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A203" s="23"/>
-      <c r="B203" s="23"/>
+      <c r="A203" s="32"/>
+      <c r="B203" s="32"/>
       <c r="C203" s="15" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D203" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="E203" s="15" t="s">
         <v>409</v>
-      </c>
-      <c r="E203" s="15" t="s">
-        <v>411</v>
       </c>
       <c r="F203" s="15"/>
       <c r="G203" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H203" s="14" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="I203" s="14"/>
     </row>
     <row r="204" spans="1:9" ht="165" x14ac:dyDescent="0.3">
-      <c r="A204" s="29" t="s">
+      <c r="A204" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B204" s="29" t="s">
+      <c r="B204" s="21" t="s">
         <v>95</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>96</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G204" s="11" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H204" s="11" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="I204" s="11" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A205" s="29"/>
-      <c r="B205" s="29"/>
+      <c r="A205" s="21"/>
+      <c r="B205" s="21"/>
       <c r="C205" s="6" t="s">
         <v>97</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F205" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G205" s="11" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H205" s="11" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="I205" s="11"/>
     </row>
     <row r="206" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A206" s="29"/>
-      <c r="B206" s="29"/>
+      <c r="A206" s="21"/>
+      <c r="B206" s="21"/>
       <c r="C206" s="6" t="s">
         <v>98</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F206" s="6"/>
       <c r="G206" s="11" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H206" s="11" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="I206" s="11"/>
     </row>
     <row r="207" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A207" s="29"/>
-      <c r="B207" s="29"/>
+      <c r="A207" s="21"/>
+      <c r="B207" s="21"/>
       <c r="C207" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="E207" s="6" t="s">
         <v>429</v>
-      </c>
-      <c r="D207" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="E207" s="6" t="s">
-        <v>431</v>
       </c>
       <c r="F207" s="6"/>
       <c r="G207" s="11" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H207" s="11" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="I207" s="11"/>
     </row>
     <row r="208" spans="1:9" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A208" s="17" t="s">
+      <c r="A208" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B208" s="17" t="s">
+      <c r="B208" s="22" t="s">
         <v>100</v>
       </c>
       <c r="C208" s="15" t="s">
         <v>101</v>
       </c>
       <c r="D208" s="15" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E208" s="15" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="F208" s="15" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G208" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H208" s="14" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="I208" s="14"/>
     </row>
     <row r="209" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A209" s="18"/>
-      <c r="B209" s="18"/>
+      <c r="A209" s="23"/>
+      <c r="B209" s="23"/>
       <c r="C209" s="15" t="s">
         <v>102</v>
       </c>
       <c r="D209" s="15" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E209" s="15" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F209" s="15"/>
       <c r="G209" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H209" s="16" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="I209" s="14"/>
     </row>
     <row r="210" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A210" s="18"/>
-      <c r="B210" s="18"/>
+      <c r="A210" s="23"/>
+      <c r="B210" s="23"/>
       <c r="C210" s="15" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D210" s="15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E210" s="15" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F210" s="15"/>
       <c r="G210" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H210" s="16" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="I210" s="14"/>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A211" s="18"/>
-      <c r="B211" s="18"/>
+      <c r="A211" s="23"/>
+      <c r="B211" s="23"/>
       <c r="C211" s="15" t="s">
         <v>103</v>
       </c>
       <c r="D211" s="15" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E211" s="15" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F211" s="15"/>
       <c r="G211" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H211" s="16" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="I211" s="14"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A212" s="19"/>
-      <c r="B212" s="19"/>
+      <c r="A212" s="24"/>
+      <c r="B212" s="24"/>
       <c r="C212" s="15" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D212" s="15" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E212" s="15" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="F212" s="15"/>
       <c r="G212" s="16" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H212" s="16" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="I212" s="16"/>
     </row>
     <row r="213" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A213" s="30" t="s">
+      <c r="A213" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B213" s="30" t="s">
+      <c r="B213" s="28" t="s">
         <v>110</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D213" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F213" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="E213" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>460</v>
-      </c>
       <c r="G213" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H213" s="7" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="I213" s="7" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A214" s="30"/>
-      <c r="B214" s="30"/>
+      <c r="A214" s="28"/>
+      <c r="B214" s="28"/>
       <c r="C214" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F214" s="2"/>
       <c r="G214" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H214" s="7" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="I214" s="7"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A215" s="28" t="s">
+      <c r="A215" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="B215" s="28" t="s">
+      <c r="B215" s="29" t="s">
         <v>117</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>114</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E215" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="G215" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="H215" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="I215" s="8"/>
+    </row>
+    <row r="216" spans="1:9" ht="99" x14ac:dyDescent="0.3">
+      <c r="A216" s="29"/>
+      <c r="B216" s="29"/>
+      <c r="C216" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D216" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="F215" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="G215" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="H215" s="8" t="s">
-        <v>741</v>
-      </c>
-      <c r="I215" s="8"/>
-    </row>
-    <row r="216" spans="1:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="A216" s="28"/>
-      <c r="B216" s="28"/>
-      <c r="C216" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>473</v>
-      </c>
       <c r="E216" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G216" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H216" s="8" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="I216" s="8" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A217" s="28"/>
-      <c r="B217" s="28"/>
+      <c r="A217" s="29"/>
+      <c r="B217" s="29"/>
       <c r="C217" s="3" t="s">
         <v>115</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F217" s="3"/>
       <c r="G217" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H217" s="8" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="I217" s="8"/>
     </row>
     <row r="218" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A218" s="28"/>
-      <c r="B218" s="28"/>
+      <c r="A218" s="29"/>
+      <c r="B218" s="29"/>
       <c r="C218" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D218" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E218" s="3" t="s">
         <v>479</v>
-      </c>
-      <c r="E218" s="3" t="s">
-        <v>481</v>
       </c>
       <c r="F218" s="3"/>
       <c r="G218" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H218" s="8" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="I218" s="8"/>
     </row>
     <row r="219" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A219" s="28"/>
-      <c r="B219" s="28"/>
+      <c r="A219" s="29"/>
+      <c r="B219" s="29"/>
       <c r="C219" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F219" s="3"/>
       <c r="G219" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H219" s="8" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="I219" s="8"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A220" s="28"/>
-      <c r="B220" s="28"/>
+      <c r="A220" s="29"/>
+      <c r="B220" s="29"/>
       <c r="C220" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F220" s="39"/>
-      <c r="G220" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="H220" s="40" t="s">
-        <v>741</v>
-      </c>
-      <c r="I220" s="40"/>
+        <v>480</v>
+      </c>
+      <c r="F220" s="18"/>
+      <c r="G220" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="H220" s="19" t="s">
+        <v>737</v>
+      </c>
+      <c r="I220" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A125:A128"/>
-    <mergeCell ref="B125:B128"/>
-    <mergeCell ref="A129:A134"/>
-    <mergeCell ref="B129:B134"/>
-    <mergeCell ref="A176:A179"/>
-    <mergeCell ref="B176:B179"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="A104:A110"/>
-    <mergeCell ref="B104:B110"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="B94:B98"/>
-    <mergeCell ref="A215:A220"/>
-    <mergeCell ref="B215:B220"/>
-    <mergeCell ref="A180:A184"/>
-    <mergeCell ref="B180:B184"/>
-    <mergeCell ref="A194:A198"/>
-    <mergeCell ref="B194:B198"/>
-    <mergeCell ref="A199:A203"/>
-    <mergeCell ref="B199:B203"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="A187:A193"/>
-    <mergeCell ref="B187:B193"/>
-    <mergeCell ref="A208:A212"/>
-    <mergeCell ref="B208:B212"/>
+    <mergeCell ref="B139:B143"/>
+    <mergeCell ref="A111:A117"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="A118:A124"/>
+    <mergeCell ref="B111:B117"/>
+    <mergeCell ref="B118:B124"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A59:A65"/>
+    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="B66:B71"/>
+    <mergeCell ref="B45:B51"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B37:B44"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="B21:B28"/>
@@ -9144,43 +9153,45 @@
     <mergeCell ref="A29:A36"/>
     <mergeCell ref="B29:B36"/>
     <mergeCell ref="A45:A51"/>
-    <mergeCell ref="B45:B51"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B37:B44"/>
+    <mergeCell ref="A215:A220"/>
+    <mergeCell ref="B215:B220"/>
+    <mergeCell ref="A180:A184"/>
+    <mergeCell ref="B180:B184"/>
+    <mergeCell ref="A194:A198"/>
+    <mergeCell ref="B194:B198"/>
+    <mergeCell ref="A199:A203"/>
+    <mergeCell ref="B199:B203"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="A187:A193"/>
+    <mergeCell ref="B187:B193"/>
+    <mergeCell ref="A208:A212"/>
+    <mergeCell ref="B208:B212"/>
     <mergeCell ref="A204:A207"/>
     <mergeCell ref="B204:B207"/>
-    <mergeCell ref="A52:A58"/>
-    <mergeCell ref="B52:B58"/>
-    <mergeCell ref="A118:A124"/>
-    <mergeCell ref="B111:B117"/>
-    <mergeCell ref="B118:B124"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="A104:A110"/>
+    <mergeCell ref="B104:B110"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="A125:A128"/>
+    <mergeCell ref="B125:B128"/>
+    <mergeCell ref="A129:A134"/>
+    <mergeCell ref="B129:B134"/>
+    <mergeCell ref="A176:A179"/>
+    <mergeCell ref="B176:B179"/>
     <mergeCell ref="B149:B153"/>
     <mergeCell ref="B161:B165"/>
     <mergeCell ref="B166:B170"/>
     <mergeCell ref="A161:A165"/>
     <mergeCell ref="A149:A153"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="B72:B76"/>
     <mergeCell ref="A154:A160"/>
     <mergeCell ref="B154:B160"/>
     <mergeCell ref="A135:A138"/>
     <mergeCell ref="A139:A143"/>
     <mergeCell ref="B135:B138"/>
-    <mergeCell ref="B139:B143"/>
-    <mergeCell ref="A111:A117"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A59:A65"/>
-    <mergeCell ref="B59:B65"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="B66:B71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/요구사항정의서.xlsx
+++ b/docs/요구사항정의서.xlsx
@@ -3747,6 +3747,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3762,6 +3783,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3769,36 +3799,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4092,9 +4092,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I220"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4140,10 +4140,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -4169,8 +4169,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="2" t="s">
         <v>119</v>
       </c>
@@ -4192,8 +4192,8 @@
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="2" t="s">
         <v>121</v>
       </c>
@@ -4215,8 +4215,8 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="2" t="s">
         <v>122</v>
       </c>
@@ -4238,8 +4238,8 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
@@ -4261,8 +4261,8 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="2" t="s">
         <v>132</v>
       </c>
@@ -4284,8 +4284,8 @@
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="2" t="s">
         <v>134</v>
       </c>
@@ -4307,8 +4307,8 @@
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="2" t="s">
         <v>170</v>
       </c>
@@ -4330,8 +4330,8 @@
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="2" t="s">
         <v>301</v>
       </c>
@@ -4353,8 +4353,8 @@
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
@@ -4374,8 +4374,8 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="2" t="s">
         <v>141</v>
       </c>
@@ -4395,8 +4395,8 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="2" t="s">
         <v>144</v>
       </c>
@@ -4416,8 +4416,8 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="2" t="s">
         <v>148</v>
       </c>
@@ -4437,8 +4437,8 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="2" t="s">
         <v>152</v>
       </c>
@@ -4458,8 +4458,8 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="2" t="s">
         <v>160</v>
       </c>
@@ -4479,8 +4479,8 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="2" t="s">
         <v>163</v>
       </c>
@@ -4500,8 +4500,8 @@
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="2" t="s">
         <v>164</v>
       </c>
@@ -4521,10 +4521,10 @@
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -4548,8 +4548,8 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
@@ -4569,13 +4569,13 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="32" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -4598,9 +4598,9 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="33"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="4" t="s">
         <v>179</v>
       </c>
@@ -4621,9 +4621,9 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="33"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="4" t="s">
         <v>190</v>
       </c>
@@ -4644,8 +4644,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="4" t="s">
         <v>18</v>
       </c>
@@ -4665,8 +4665,8 @@
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="4" t="s">
         <v>19</v>
       </c>
@@ -4686,8 +4686,8 @@
       <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="4" t="s">
         <v>185</v>
       </c>
@@ -4707,8 +4707,8 @@
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="4" t="s">
         <v>188</v>
       </c>
@@ -4728,8 +4728,8 @@
       <c r="I27" s="9"/>
     </row>
     <row r="28" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="4" t="s">
         <v>195</v>
       </c>
@@ -4749,13 +4749,13 @@
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="1:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="33" t="s">
         <v>155</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -4776,9 +4776,9 @@
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="34"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="5" t="s">
         <v>423</v>
       </c>
@@ -4797,8 +4797,8 @@
       <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="5" t="s">
         <v>156</v>
       </c>
@@ -4818,8 +4818,8 @@
       <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="5" t="s">
         <v>207</v>
       </c>
@@ -4839,8 +4839,8 @@
       <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="5" t="s">
         <v>212</v>
       </c>
@@ -4860,8 +4860,8 @@
       <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="5" t="s">
         <v>157</v>
       </c>
@@ -4881,8 +4881,8 @@
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="5" t="s">
         <v>201</v>
       </c>
@@ -4902,8 +4902,8 @@
       <c r="I35" s="10"/>
     </row>
     <row r="36" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="5" t="s">
         <v>204</v>
       </c>
@@ -4923,10 +4923,10 @@
       <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="28" t="s">
         <v>27</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -4952,8 +4952,8 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="6" t="s">
         <v>227</v>
       </c>
@@ -4975,8 +4975,8 @@
       <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="6" t="s">
         <v>230</v>
       </c>
@@ -4998,8 +4998,8 @@
       <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
       <c r="C40" s="6" t="s">
         <v>22</v>
       </c>
@@ -5019,8 +5019,8 @@
       <c r="I40" s="11"/>
     </row>
     <row r="41" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="6" t="s">
         <v>220</v>
       </c>
@@ -5040,8 +5040,8 @@
       <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="6" t="s">
         <v>223</v>
       </c>
@@ -5061,8 +5061,8 @@
       <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="6" t="s">
         <v>226</v>
       </c>
@@ -5082,8 +5082,8 @@
       <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="6" t="s">
         <v>23</v>
       </c>
@@ -5103,10 +5103,10 @@
       <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -5130,8 +5130,8 @@
       <c r="I45" s="7"/>
     </row>
     <row r="46" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
       <c r="C46" s="2" t="s">
         <v>237</v>
       </c>
@@ -5153,8 +5153,8 @@
       <c r="I46" s="7"/>
     </row>
     <row r="47" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
       <c r="C47" s="2" t="s">
         <v>243</v>
       </c>
@@ -5176,8 +5176,8 @@
       <c r="I47" s="7"/>
     </row>
     <row r="48" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
       <c r="C48" s="2" t="s">
         <v>756</v>
       </c>
@@ -5199,8 +5199,8 @@
       <c r="I48" s="7"/>
     </row>
     <row r="49" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
       <c r="C49" s="2" t="s">
         <v>31</v>
       </c>
@@ -5220,8 +5220,8 @@
       <c r="I49" s="7"/>
     </row>
     <row r="50" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
       <c r="C50" s="2" t="s">
         <v>761</v>
       </c>
@@ -5241,8 +5241,8 @@
       <c r="I50" s="7"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
       <c r="C51" s="2" t="s">
         <v>760</v>
       </c>
@@ -5262,10 +5262,10 @@
       <c r="I51" s="7"/>
     </row>
     <row r="52" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="23" t="s">
         <v>328</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -5289,8 +5289,8 @@
       <c r="I52" s="8"/>
     </row>
     <row r="53" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="36"/>
-      <c r="B53" s="36"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
       <c r="C53" s="3" t="s">
         <v>773</v>
       </c>
@@ -5312,8 +5312,8 @@
       <c r="I53" s="8"/>
     </row>
     <row r="54" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A54" s="36"/>
-      <c r="B54" s="36"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
       <c r="C54" s="3" t="s">
         <v>330</v>
       </c>
@@ -5335,8 +5335,8 @@
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A55" s="36"/>
-      <c r="B55" s="36"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
       <c r="C55" s="3" t="s">
         <v>331</v>
       </c>
@@ -5358,8 +5358,8 @@
       <c r="I55" s="8"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="36"/>
-      <c r="B56" s="36"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
       <c r="C56" s="3" t="s">
         <v>332</v>
       </c>
@@ -5379,8 +5379,8 @@
       <c r="I56" s="8"/>
     </row>
     <row r="57" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="36"/>
-      <c r="B57" s="36"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
       <c r="C57" s="3" t="s">
         <v>333</v>
       </c>
@@ -5402,8 +5402,8 @@
       <c r="I57" s="8"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="37"/>
-      <c r="B58" s="37"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
       <c r="C58" s="3" t="s">
         <v>334</v>
       </c>
@@ -5423,10 +5423,10 @@
       <c r="I58" s="8"/>
     </row>
     <row r="59" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="29" t="s">
         <v>438</v>
       </c>
       <c r="C59" s="15" t="s">
@@ -5450,8 +5450,8 @@
       <c r="I59" s="14"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="23"/>
-      <c r="B60" s="23"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="15" t="s">
         <v>494</v>
       </c>
@@ -5471,8 +5471,8 @@
       <c r="I60" s="16"/>
     </row>
     <row r="61" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="15" t="s">
         <v>495</v>
       </c>
@@ -5492,8 +5492,8 @@
       <c r="I61" s="16"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="23"/>
-      <c r="B62" s="23"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="15" t="s">
         <v>446</v>
       </c>
@@ -5513,8 +5513,8 @@
       <c r="I62" s="14"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="23"/>
-      <c r="B63" s="23"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="15" t="s">
         <v>447</v>
       </c>
@@ -5534,8 +5534,8 @@
       <c r="I63" s="14"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="23"/>
-      <c r="B64" s="23"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="15" t="s">
         <v>493</v>
       </c>
@@ -5555,8 +5555,8 @@
       <c r="I64" s="14"/>
     </row>
     <row r="65" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A65" s="24"/>
-      <c r="B65" s="24"/>
+      <c r="A65" s="31"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="15" t="s">
         <v>492</v>
       </c>
@@ -5576,10 +5576,10 @@
       <c r="I65" s="14"/>
     </row>
     <row r="66" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="26" t="s">
         <v>33</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -5603,8 +5603,8 @@
       <c r="I66" s="9"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="30"/>
-      <c r="B67" s="30"/>
+      <c r="A67" s="26"/>
+      <c r="B67" s="26"/>
       <c r="C67" s="4" t="s">
         <v>35</v>
       </c>
@@ -5624,8 +5624,8 @@
       <c r="I67" s="9"/>
     </row>
     <row r="68" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="30"/>
-      <c r="B68" s="30"/>
+      <c r="A68" s="26"/>
+      <c r="B68" s="26"/>
       <c r="C68" s="4" t="s">
         <v>466</v>
       </c>
@@ -5645,8 +5645,8 @@
       <c r="I68" s="9"/>
     </row>
     <row r="69" spans="1:9" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="30"/>
-      <c r="B69" s="30"/>
+      <c r="A69" s="26"/>
+      <c r="B69" s="26"/>
       <c r="C69" s="4" t="s">
         <v>490</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>501</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>733</v>
+        <v>247</v>
       </c>
       <c r="H69" s="9" t="s">
         <v>487</v>
@@ -5668,8 +5668,8 @@
       <c r="I69" s="9"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="30"/>
-      <c r="B70" s="30"/>
+      <c r="A70" s="26"/>
+      <c r="B70" s="26"/>
       <c r="C70" s="4" t="s">
         <v>36</v>
       </c>
@@ -5689,8 +5689,8 @@
       <c r="I70" s="9"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="30"/>
-      <c r="B71" s="30"/>
+      <c r="A71" s="26"/>
+      <c r="B71" s="26"/>
       <c r="C71" s="4" t="s">
         <v>440</v>
       </c>
@@ -5710,10 +5710,10 @@
       <c r="I71" s="9"/>
     </row>
     <row r="72" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A72" s="20" t="s">
+      <c r="A72" s="27" t="s">
         <v>461</v>
       </c>
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="27" t="s">
         <v>460</v>
       </c>
       <c r="C72" s="5" t="s">
@@ -5737,8 +5737,8 @@
       <c r="I72" s="10"/>
     </row>
     <row r="73" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A73" s="20"/>
-      <c r="B73" s="20"/>
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
       <c r="C73" s="5" t="s">
         <v>508</v>
       </c>
@@ -5760,8 +5760,8 @@
       <c r="I73" s="10"/>
     </row>
     <row r="74" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A74" s="20"/>
-      <c r="B74" s="20"/>
+      <c r="A74" s="27"/>
+      <c r="B74" s="27"/>
       <c r="C74" s="5" t="s">
         <v>509</v>
       </c>
@@ -5783,8 +5783,8 @@
       <c r="I74" s="10"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="20"/>
-      <c r="B75" s="20"/>
+      <c r="A75" s="27"/>
+      <c r="B75" s="27"/>
       <c r="C75" s="5" t="s">
         <v>512</v>
       </c>
@@ -5804,8 +5804,8 @@
       <c r="I75" s="10"/>
     </row>
     <row r="76" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A76" s="20"/>
-      <c r="B76" s="20"/>
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
       <c r="C76" s="5" t="s">
         <v>463</v>
       </c>
@@ -5825,10 +5825,10 @@
       <c r="I76" s="10"/>
     </row>
     <row r="77" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A77" s="21" t="s">
+      <c r="A77" s="28" t="s">
         <v>506</v>
       </c>
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="28" t="s">
         <v>526</v>
       </c>
       <c r="C77" s="6" t="s">
@@ -5852,8 +5852,8 @@
       <c r="I77" s="11"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="21"/>
-      <c r="B78" s="21"/>
+      <c r="A78" s="28"/>
+      <c r="B78" s="28"/>
       <c r="C78" s="6" t="s">
         <v>521</v>
       </c>
@@ -5873,8 +5873,8 @@
       <c r="I78" s="11"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="21"/>
-      <c r="B79" s="21"/>
+      <c r="A79" s="28"/>
+      <c r="B79" s="28"/>
       <c r="C79" s="6" t="s">
         <v>532</v>
       </c>
@@ -5894,10 +5894,10 @@
       <c r="I79" s="11"/>
     </row>
     <row r="80" spans="1:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="A80" s="28" t="s">
+      <c r="A80" s="22" t="s">
         <v>522</v>
       </c>
-      <c r="B80" s="28" t="s">
+      <c r="B80" s="22" t="s">
         <v>507</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -5921,8 +5921,8 @@
       <c r="I80" s="7"/>
     </row>
     <row r="81" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A81" s="28"/>
-      <c r="B81" s="28"/>
+      <c r="A81" s="22"/>
+      <c r="B81" s="22"/>
       <c r="C81" s="2" t="s">
         <v>524</v>
       </c>
@@ -5944,8 +5944,8 @@
       <c r="I81" s="7"/>
     </row>
     <row r="82" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A82" s="28"/>
-      <c r="B82" s="28"/>
+      <c r="A82" s="22"/>
+      <c r="B82" s="22"/>
       <c r="C82" s="2" t="s">
         <v>538</v>
       </c>
@@ -5967,8 +5967,8 @@
       <c r="I82" s="7"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="28"/>
-      <c r="B83" s="28"/>
+      <c r="A83" s="22"/>
+      <c r="B83" s="22"/>
       <c r="C83" s="2" t="s">
         <v>544</v>
       </c>
@@ -5990,8 +5990,8 @@
       <c r="I83" s="7"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="28"/>
-      <c r="B84" s="28"/>
+      <c r="A84" s="22"/>
+      <c r="B84" s="22"/>
       <c r="C84" s="2" t="s">
         <v>525</v>
       </c>
@@ -6011,10 +6011,10 @@
       <c r="I84" s="7"/>
     </row>
     <row r="85" spans="1:9" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A85" s="29" t="s">
+      <c r="A85" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B85" s="29" t="s">
+      <c r="B85" s="21" t="s">
         <v>551</v>
       </c>
       <c r="C85" s="3" t="s">
@@ -6038,8 +6038,8 @@
       <c r="I85" s="8"/>
     </row>
     <row r="86" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A86" s="29"/>
-      <c r="B86" s="29"/>
+      <c r="A86" s="21"/>
+      <c r="B86" s="21"/>
       <c r="C86" s="3" t="s">
         <v>558</v>
       </c>
@@ -6059,8 +6059,8 @@
       <c r="I86" s="8"/>
     </row>
     <row r="87" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A87" s="29"/>
-      <c r="B87" s="29"/>
+      <c r="A87" s="21"/>
+      <c r="B87" s="21"/>
       <c r="C87" s="3" t="s">
         <v>557</v>
       </c>
@@ -6082,8 +6082,8 @@
       <c r="I87" s="8"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="29"/>
-      <c r="B88" s="29"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="21"/>
       <c r="C88" s="3" t="s">
         <v>40</v>
       </c>
@@ -6103,10 +6103,10 @@
       <c r="I88" s="8"/>
     </row>
     <row r="89" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="35" t="s">
         <v>579</v>
       </c>
-      <c r="B89" s="25" t="s">
+      <c r="B89" s="35" t="s">
         <v>580</v>
       </c>
       <c r="C89" s="4" t="s">
@@ -6130,8 +6130,8 @@
       <c r="I89" s="9"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="26"/>
-      <c r="B90" s="26"/>
+      <c r="A90" s="36"/>
+      <c r="B90" s="36"/>
       <c r="C90" s="4" t="s">
         <v>564</v>
       </c>
@@ -6153,8 +6153,8 @@
       <c r="I90" s="9"/>
     </row>
     <row r="91" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A91" s="26"/>
-      <c r="B91" s="26"/>
+      <c r="A91" s="36"/>
+      <c r="B91" s="36"/>
       <c r="C91" s="4" t="s">
         <v>582</v>
       </c>
@@ -6176,8 +6176,8 @@
       <c r="I91" s="9"/>
     </row>
     <row r="92" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A92" s="26"/>
-      <c r="B92" s="26"/>
+      <c r="A92" s="36"/>
+      <c r="B92" s="36"/>
       <c r="C92" s="17" t="s">
         <v>571</v>
       </c>
@@ -6199,8 +6199,8 @@
       <c r="I92" s="9"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="27"/>
-      <c r="B93" s="27"/>
+      <c r="A93" s="37"/>
+      <c r="B93" s="37"/>
       <c r="C93" s="4" t="s">
         <v>569</v>
       </c>
@@ -6220,10 +6220,10 @@
       <c r="I93" s="9"/>
     </row>
     <row r="94" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A94" s="20" t="s">
+      <c r="A94" s="27" t="s">
         <v>574</v>
       </c>
-      <c r="B94" s="20" t="s">
+      <c r="B94" s="27" t="s">
         <v>37</v>
       </c>
       <c r="C94" s="5" t="s">
@@ -6249,8 +6249,8 @@
       </c>
     </row>
     <row r="95" spans="1:9" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A95" s="20"/>
-      <c r="B95" s="20"/>
+      <c r="A95" s="27"/>
+      <c r="B95" s="27"/>
       <c r="C95" s="5" t="s">
         <v>570</v>
       </c>
@@ -6272,8 +6272,8 @@
       <c r="I95" s="10"/>
     </row>
     <row r="96" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A96" s="20"/>
-      <c r="B96" s="20"/>
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
       <c r="C96" s="5" t="s">
         <v>576</v>
       </c>
@@ -6295,8 +6295,8 @@
       <c r="I96" s="10"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="20"/>
-      <c r="B97" s="20"/>
+      <c r="A97" s="27"/>
+      <c r="B97" s="27"/>
       <c r="C97" s="5" t="s">
         <v>577</v>
       </c>
@@ -6318,8 +6318,8 @@
       <c r="I97" s="10"/>
     </row>
     <row r="98" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A98" s="20"/>
-      <c r="B98" s="20"/>
+      <c r="A98" s="27"/>
+      <c r="B98" s="27"/>
       <c r="C98" s="5" t="s">
         <v>578</v>
       </c>
@@ -6339,10 +6339,10 @@
       <c r="I98" s="10"/>
     </row>
     <row r="99" spans="1:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="A99" s="21" t="s">
+      <c r="A99" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B99" s="21" t="s">
+      <c r="B99" s="28" t="s">
         <v>359</v>
       </c>
       <c r="C99" s="6" t="s">
@@ -6366,8 +6366,8 @@
       <c r="I99" s="11"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="21"/>
-      <c r="B100" s="21"/>
+      <c r="A100" s="28"/>
+      <c r="B100" s="28"/>
       <c r="C100" s="6" t="s">
         <v>605</v>
       </c>
@@ -6387,8 +6387,8 @@
       <c r="I100" s="11"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="21"/>
-      <c r="B101" s="21"/>
+      <c r="A101" s="28"/>
+      <c r="B101" s="28"/>
       <c r="C101" s="6" t="s">
         <v>606</v>
       </c>
@@ -6408,8 +6408,8 @@
       <c r="I101" s="11"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="21"/>
-      <c r="B102" s="21"/>
+      <c r="A102" s="28"/>
+      <c r="B102" s="28"/>
       <c r="C102" s="6" t="s">
         <v>607</v>
       </c>
@@ -6429,8 +6429,8 @@
       <c r="I102" s="11"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="21"/>
-      <c r="B103" s="21"/>
+      <c r="A103" s="28"/>
+      <c r="B103" s="28"/>
       <c r="C103" s="6" t="s">
         <v>610</v>
       </c>
@@ -6450,10 +6450,10 @@
       <c r="I103" s="11"/>
     </row>
     <row r="104" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A104" s="28" t="s">
+      <c r="A104" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B104" s="28" t="s">
+      <c r="B104" s="22" t="s">
         <v>166</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -6477,8 +6477,8 @@
       <c r="I104" s="7"/>
     </row>
     <row r="105" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A105" s="28"/>
-      <c r="B105" s="28"/>
+      <c r="A105" s="22"/>
+      <c r="B105" s="22"/>
       <c r="C105" s="2" t="s">
         <v>621</v>
       </c>
@@ -6500,8 +6500,8 @@
       <c r="I105" s="7"/>
     </row>
     <row r="106" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A106" s="28"/>
-      <c r="B106" s="28"/>
+      <c r="A106" s="22"/>
+      <c r="B106" s="22"/>
       <c r="C106" s="2" t="s">
         <v>627</v>
       </c>
@@ -6521,8 +6521,8 @@
       <c r="I106" s="7"/>
     </row>
     <row r="107" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A107" s="28"/>
-      <c r="B107" s="28"/>
+      <c r="A107" s="22"/>
+      <c r="B107" s="22"/>
       <c r="C107" s="2" t="s">
         <v>626</v>
       </c>
@@ -6544,8 +6544,8 @@
       <c r="I107" s="7"/>
     </row>
     <row r="108" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A108" s="28"/>
-      <c r="B108" s="28"/>
+      <c r="A108" s="22"/>
+      <c r="B108" s="22"/>
       <c r="C108" s="2" t="s">
         <v>46</v>
       </c>
@@ -6565,8 +6565,8 @@
       <c r="I108" s="7"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="28"/>
-      <c r="B109" s="28"/>
+      <c r="A109" s="22"/>
+      <c r="B109" s="22"/>
       <c r="C109" s="2" t="s">
         <v>619</v>
       </c>
@@ -6586,8 +6586,8 @@
       <c r="I109" s="7"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="28"/>
-      <c r="B110" s="28"/>
+      <c r="A110" s="22"/>
+      <c r="B110" s="22"/>
       <c r="C110" s="2" t="s">
         <v>620</v>
       </c>
@@ -6607,10 +6607,10 @@
       <c r="I110" s="7"/>
     </row>
     <row r="111" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A111" s="29" t="s">
+      <c r="A111" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B111" s="29" t="s">
+      <c r="B111" s="21" t="s">
         <v>167</v>
       </c>
       <c r="C111" s="3" t="s">
@@ -6634,8 +6634,8 @@
       <c r="I111" s="8"/>
     </row>
     <row r="112" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A112" s="29"/>
-      <c r="B112" s="29"/>
+      <c r="A112" s="21"/>
+      <c r="B112" s="21"/>
       <c r="C112" s="3" t="s">
         <v>632</v>
       </c>
@@ -6657,8 +6657,8 @@
       <c r="I112" s="8"/>
     </row>
     <row r="113" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A113" s="29"/>
-      <c r="B113" s="29"/>
+      <c r="A113" s="21"/>
+      <c r="B113" s="21"/>
       <c r="C113" s="3" t="s">
         <v>633</v>
       </c>
@@ -6678,8 +6678,8 @@
       <c r="I113" s="8"/>
     </row>
     <row r="114" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A114" s="29"/>
-      <c r="B114" s="29"/>
+      <c r="A114" s="21"/>
+      <c r="B114" s="21"/>
       <c r="C114" s="3" t="s">
         <v>634</v>
       </c>
@@ -6701,8 +6701,8 @@
       <c r="I114" s="8"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" s="29"/>
-      <c r="B115" s="29"/>
+      <c r="A115" s="21"/>
+      <c r="B115" s="21"/>
       <c r="C115" s="3" t="s">
         <v>46</v>
       </c>
@@ -6722,8 +6722,8 @@
       <c r="I115" s="8"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="29"/>
-      <c r="B116" s="29"/>
+      <c r="A116" s="21"/>
+      <c r="B116" s="21"/>
       <c r="C116" s="3" t="s">
         <v>619</v>
       </c>
@@ -6743,8 +6743,8 @@
       <c r="I116" s="8"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="29"/>
-      <c r="B117" s="29"/>
+      <c r="A117" s="21"/>
+      <c r="B117" s="21"/>
       <c r="C117" s="3" t="s">
         <v>620</v>
       </c>
@@ -6764,10 +6764,10 @@
       <c r="I117" s="8"/>
     </row>
     <row r="118" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A118" s="30" t="s">
+      <c r="A118" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B118" s="30" t="s">
+      <c r="B118" s="26" t="s">
         <v>168</v>
       </c>
       <c r="C118" s="4" t="s">
@@ -6791,8 +6791,8 @@
       <c r="I118" s="9"/>
     </row>
     <row r="119" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A119" s="30"/>
-      <c r="B119" s="30"/>
+      <c r="A119" s="26"/>
+      <c r="B119" s="26"/>
       <c r="C119" s="4" t="s">
         <v>632</v>
       </c>
@@ -6814,8 +6814,8 @@
       <c r="I119" s="9"/>
     </row>
     <row r="120" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A120" s="30"/>
-      <c r="B120" s="30"/>
+      <c r="A120" s="26"/>
+      <c r="B120" s="26"/>
       <c r="C120" s="4" t="s">
         <v>633</v>
       </c>
@@ -6835,8 +6835,8 @@
       <c r="I120" s="9"/>
     </row>
     <row r="121" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A121" s="30"/>
-      <c r="B121" s="30"/>
+      <c r="A121" s="26"/>
+      <c r="B121" s="26"/>
       <c r="C121" s="4" t="s">
         <v>634</v>
       </c>
@@ -6858,8 +6858,8 @@
       <c r="I121" s="9"/>
     </row>
     <row r="122" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A122" s="30"/>
-      <c r="B122" s="30"/>
+      <c r="A122" s="26"/>
+      <c r="B122" s="26"/>
       <c r="C122" s="4" t="s">
         <v>46</v>
       </c>
@@ -6879,8 +6879,8 @@
       <c r="I122" s="9"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="30"/>
-      <c r="B123" s="30"/>
+      <c r="A123" s="26"/>
+      <c r="B123" s="26"/>
       <c r="C123" s="4" t="s">
         <v>619</v>
       </c>
@@ -6900,8 +6900,8 @@
       <c r="I123" s="9"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="30"/>
-      <c r="B124" s="30"/>
+      <c r="A124" s="26"/>
+      <c r="B124" s="26"/>
       <c r="C124" s="4" t="s">
         <v>620</v>
       </c>
@@ -6921,10 +6921,10 @@
       <c r="I124" s="9"/>
     </row>
     <row r="125" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A125" s="20" t="s">
+      <c r="A125" s="27" t="s">
         <v>667</v>
       </c>
-      <c r="B125" s="20" t="s">
+      <c r="B125" s="27" t="s">
         <v>668</v>
       </c>
       <c r="C125" s="5" t="s">
@@ -6948,8 +6948,8 @@
       <c r="I125" s="10"/>
     </row>
     <row r="126" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A126" s="20"/>
-      <c r="B126" s="20"/>
+      <c r="A126" s="27"/>
+      <c r="B126" s="27"/>
       <c r="C126" s="5" t="s">
         <v>250</v>
       </c>
@@ -6971,8 +6971,8 @@
       <c r="I126" s="10"/>
     </row>
     <row r="127" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A127" s="20"/>
-      <c r="B127" s="20"/>
+      <c r="A127" s="27"/>
+      <c r="B127" s="27"/>
       <c r="C127" s="5" t="s">
         <v>673</v>
       </c>
@@ -6994,8 +6994,8 @@
       <c r="I127" s="10"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A128" s="20"/>
-      <c r="B128" s="20"/>
+      <c r="A128" s="27"/>
+      <c r="B128" s="27"/>
       <c r="C128" s="5" t="s">
         <v>251</v>
       </c>
@@ -7015,10 +7015,10 @@
       <c r="I128" s="10"/>
     </row>
     <row r="129" spans="1:9" ht="165" x14ac:dyDescent="0.3">
-      <c r="A129" s="21" t="s">
+      <c r="A129" s="28" t="s">
         <v>661</v>
       </c>
-      <c r="B129" s="21" t="s">
+      <c r="B129" s="28" t="s">
         <v>44</v>
       </c>
       <c r="C129" s="6" t="s">
@@ -7042,8 +7042,8 @@
       <c r="I129" s="11"/>
     </row>
     <row r="130" spans="1:9" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A130" s="21"/>
-      <c r="B130" s="21"/>
+      <c r="A130" s="28"/>
+      <c r="B130" s="28"/>
       <c r="C130" s="6" t="s">
         <v>684</v>
       </c>
@@ -7065,8 +7065,8 @@
       <c r="I130" s="11"/>
     </row>
     <row r="131" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A131" s="21"/>
-      <c r="B131" s="21"/>
+      <c r="A131" s="28"/>
+      <c r="B131" s="28"/>
       <c r="C131" s="6" t="s">
         <v>683</v>
       </c>
@@ -7088,8 +7088,8 @@
       <c r="I131" s="11"/>
     </row>
     <row r="132" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A132" s="21"/>
-      <c r="B132" s="21"/>
+      <c r="A132" s="28"/>
+      <c r="B132" s="28"/>
       <c r="C132" s="6" t="s">
         <v>253</v>
       </c>
@@ -7109,8 +7109,8 @@
       <c r="I132" s="11"/>
     </row>
     <row r="133" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A133" s="21"/>
-      <c r="B133" s="21"/>
+      <c r="A133" s="28"/>
+      <c r="B133" s="28"/>
       <c r="C133" s="6" t="s">
         <v>689</v>
       </c>
@@ -7130,8 +7130,8 @@
       <c r="I133" s="11"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" s="21"/>
-      <c r="B134" s="21"/>
+      <c r="A134" s="28"/>
+      <c r="B134" s="28"/>
       <c r="C134" s="6" t="s">
         <v>694</v>
       </c>
@@ -7151,10 +7151,10 @@
       <c r="I134" s="11"/>
     </row>
     <row r="135" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A135" s="28" t="s">
+      <c r="A135" s="22" t="s">
         <v>662</v>
       </c>
-      <c r="B135" s="28" t="s">
+      <c r="B135" s="22" t="s">
         <v>49</v>
       </c>
       <c r="C135" s="2" t="s">
@@ -7178,8 +7178,8 @@
       <c r="I135" s="7"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A136" s="28"/>
-      <c r="B136" s="28"/>
+      <c r="A136" s="22"/>
+      <c r="B136" s="22"/>
       <c r="C136" s="2" t="s">
         <v>255</v>
       </c>
@@ -7199,8 +7199,8 @@
       <c r="I136" s="7"/>
     </row>
     <row r="137" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A137" s="28"/>
-      <c r="B137" s="28"/>
+      <c r="A137" s="22"/>
+      <c r="B137" s="22"/>
       <c r="C137" s="2" t="s">
         <v>702</v>
       </c>
@@ -7220,8 +7220,8 @@
       <c r="I137" s="7"/>
     </row>
     <row r="138" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A138" s="28"/>
-      <c r="B138" s="28"/>
+      <c r="A138" s="22"/>
+      <c r="B138" s="22"/>
       <c r="C138" s="2" t="s">
         <v>256</v>
       </c>
@@ -7241,10 +7241,10 @@
       <c r="I138" s="7"/>
     </row>
     <row r="139" spans="1:9" ht="198" x14ac:dyDescent="0.3">
-      <c r="A139" s="32" t="s">
+      <c r="A139" s="20" t="s">
         <v>663</v>
       </c>
-      <c r="B139" s="32" t="s">
+      <c r="B139" s="20" t="s">
         <v>50</v>
       </c>
       <c r="C139" s="15" t="s">
@@ -7268,8 +7268,8 @@
       <c r="I139" s="16"/>
     </row>
     <row r="140" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A140" s="32"/>
-      <c r="B140" s="32"/>
+      <c r="A140" s="20"/>
+      <c r="B140" s="20"/>
       <c r="C140" s="15" t="s">
         <v>707</v>
       </c>
@@ -7291,8 +7291,8 @@
       <c r="I140" s="16"/>
     </row>
     <row r="141" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A141" s="32"/>
-      <c r="B141" s="32"/>
+      <c r="A141" s="20"/>
+      <c r="B141" s="20"/>
       <c r="C141" s="15" t="s">
         <v>665</v>
       </c>
@@ -7314,8 +7314,8 @@
       <c r="I141" s="16"/>
     </row>
     <row r="142" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A142" s="32"/>
-      <c r="B142" s="32"/>
+      <c r="A142" s="20"/>
+      <c r="B142" s="20"/>
       <c r="C142" s="15" t="s">
         <v>716</v>
       </c>
@@ -7337,8 +7337,8 @@
       <c r="I142" s="16"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A143" s="32"/>
-      <c r="B143" s="32"/>
+      <c r="A143" s="20"/>
+      <c r="B143" s="20"/>
       <c r="C143" s="15" t="s">
         <v>666</v>
       </c>
@@ -7358,10 +7358,10 @@
       <c r="I143" s="16"/>
     </row>
     <row r="144" spans="1:9" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A144" s="29" t="s">
+      <c r="A144" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B144" s="29" t="s">
+      <c r="B144" s="21" t="s">
         <v>53</v>
       </c>
       <c r="C144" s="3" t="s">
@@ -7387,8 +7387,8 @@
       </c>
     </row>
     <row r="145" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A145" s="29"/>
-      <c r="B145" s="29"/>
+      <c r="A145" s="21"/>
+      <c r="B145" s="21"/>
       <c r="C145" s="3" t="s">
         <v>55</v>
       </c>
@@ -7410,8 +7410,8 @@
       <c r="I145" s="8"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A146" s="29"/>
-      <c r="B146" s="29"/>
+      <c r="A146" s="21"/>
+      <c r="B146" s="21"/>
       <c r="C146" s="3" t="s">
         <v>267</v>
       </c>
@@ -7431,8 +7431,8 @@
       <c r="I146" s="8"/>
     </row>
     <row r="147" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A147" s="29"/>
-      <c r="B147" s="29"/>
+      <c r="A147" s="21"/>
+      <c r="B147" s="21"/>
       <c r="C147" s="3" t="s">
         <v>373</v>
       </c>
@@ -7452,8 +7452,8 @@
       <c r="I147" s="8"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A148" s="29"/>
-      <c r="B148" s="29"/>
+      <c r="A148" s="21"/>
+      <c r="B148" s="21"/>
       <c r="C148" s="3" t="s">
         <v>56</v>
       </c>
@@ -7473,10 +7473,10 @@
       <c r="I148" s="8"/>
     </row>
     <row r="149" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A149" s="30" t="s">
+      <c r="A149" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="B149" s="30" t="s">
+      <c r="B149" s="26" t="s">
         <v>57</v>
       </c>
       <c r="C149" s="4" t="s">
@@ -7500,8 +7500,8 @@
       <c r="I149" s="9"/>
     </row>
     <row r="150" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A150" s="30"/>
-      <c r="B150" s="30"/>
+      <c r="A150" s="26"/>
+      <c r="B150" s="26"/>
       <c r="C150" s="4" t="s">
         <v>59</v>
       </c>
@@ -7523,8 +7523,8 @@
       <c r="I150" s="9"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A151" s="30"/>
-      <c r="B151" s="30"/>
+      <c r="A151" s="26"/>
+      <c r="B151" s="26"/>
       <c r="C151" s="4" t="s">
         <v>60</v>
       </c>
@@ -7544,8 +7544,8 @@
       <c r="I151" s="9"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A152" s="30"/>
-      <c r="B152" s="30"/>
+      <c r="A152" s="26"/>
+      <c r="B152" s="26"/>
       <c r="C152" s="4" t="s">
         <v>284</v>
       </c>
@@ -7565,8 +7565,8 @@
       <c r="I152" s="9"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A153" s="30"/>
-      <c r="B153" s="30"/>
+      <c r="A153" s="26"/>
+      <c r="B153" s="26"/>
       <c r="C153" s="4" t="s">
         <v>312</v>
       </c>
@@ -7747,10 +7747,10 @@
       <c r="I160" s="10"/>
     </row>
     <row r="161" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A161" s="21" t="s">
+      <c r="A161" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B161" s="21" t="s">
+      <c r="B161" s="28" t="s">
         <v>62</v>
       </c>
       <c r="C161" s="6" t="s">
@@ -7774,8 +7774,8 @@
       <c r="I161" s="11"/>
     </row>
     <row r="162" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A162" s="21"/>
-      <c r="B162" s="21"/>
+      <c r="A162" s="28"/>
+      <c r="B162" s="28"/>
       <c r="C162" s="6" t="s">
         <v>64</v>
       </c>
@@ -7797,8 +7797,8 @@
       <c r="I162" s="11"/>
     </row>
     <row r="163" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A163" s="21"/>
-      <c r="B163" s="21"/>
+      <c r="A163" s="28"/>
+      <c r="B163" s="28"/>
       <c r="C163" s="6" t="s">
         <v>300</v>
       </c>
@@ -7818,8 +7818,8 @@
       <c r="I163" s="11"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A164" s="21"/>
-      <c r="B164" s="21"/>
+      <c r="A164" s="28"/>
+      <c r="B164" s="28"/>
       <c r="C164" s="6" t="s">
         <v>65</v>
       </c>
@@ -7839,8 +7839,8 @@
       <c r="I164" s="11"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A165" s="21"/>
-      <c r="B165" s="21"/>
+      <c r="A165" s="28"/>
+      <c r="B165" s="28"/>
       <c r="C165" s="6" t="s">
         <v>294</v>
       </c>
@@ -7860,10 +7860,10 @@
       <c r="I165" s="11"/>
     </row>
     <row r="166" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A166" s="28" t="s">
+      <c r="A166" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B166" s="28" t="s">
+      <c r="B166" s="22" t="s">
         <v>67</v>
       </c>
       <c r="C166" s="2" t="s">
@@ -7887,8 +7887,8 @@
       <c r="I166" s="7"/>
     </row>
     <row r="167" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A167" s="28"/>
-      <c r="B167" s="28"/>
+      <c r="A167" s="22"/>
+      <c r="B167" s="22"/>
       <c r="C167" s="2" t="s">
         <v>69</v>
       </c>
@@ -7910,8 +7910,8 @@
       <c r="I167" s="7"/>
     </row>
     <row r="168" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A168" s="28"/>
-      <c r="B168" s="28"/>
+      <c r="A168" s="22"/>
+      <c r="B168" s="22"/>
       <c r="C168" s="2" t="s">
         <v>310</v>
       </c>
@@ -7931,8 +7931,8 @@
       <c r="I168" s="7"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A169" s="28"/>
-      <c r="B169" s="28"/>
+      <c r="A169" s="22"/>
+      <c r="B169" s="22"/>
       <c r="C169" s="2" t="s">
         <v>70</v>
       </c>
@@ -7952,8 +7952,8 @@
       <c r="I169" s="7"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A170" s="28"/>
-      <c r="B170" s="28"/>
+      <c r="A170" s="22"/>
+      <c r="B170" s="22"/>
       <c r="C170" s="2" t="s">
         <v>293</v>
       </c>
@@ -7973,10 +7973,10 @@
       <c r="I170" s="7"/>
     </row>
     <row r="171" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A171" s="29" t="s">
+      <c r="A171" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="B171" s="29" t="s">
+      <c r="B171" s="21" t="s">
         <v>283</v>
       </c>
       <c r="C171" s="3" t="s">
@@ -8000,8 +8000,8 @@
       <c r="I171" s="8"/>
     </row>
     <row r="172" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A172" s="29"/>
-      <c r="B172" s="29"/>
+      <c r="A172" s="21"/>
+      <c r="B172" s="21"/>
       <c r="C172" s="3" t="s">
         <v>72</v>
       </c>
@@ -8023,8 +8023,8 @@
       <c r="I172" s="8"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A173" s="29"/>
-      <c r="B173" s="29"/>
+      <c r="A173" s="21"/>
+      <c r="B173" s="21"/>
       <c r="C173" s="3" t="s">
         <v>348</v>
       </c>
@@ -8044,8 +8044,8 @@
       <c r="I173" s="8"/>
     </row>
     <row r="174" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A174" s="29"/>
-      <c r="B174" s="29"/>
+      <c r="A174" s="21"/>
+      <c r="B174" s="21"/>
       <c r="C174" s="3" t="s">
         <v>73</v>
       </c>
@@ -8065,8 +8065,8 @@
       <c r="I174" s="8"/>
     </row>
     <row r="175" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A175" s="29"/>
-      <c r="B175" s="29"/>
+      <c r="A175" s="21"/>
+      <c r="B175" s="21"/>
       <c r="C175" s="3" t="s">
         <v>347</v>
       </c>
@@ -8086,10 +8086,10 @@
       <c r="I175" s="8"/>
     </row>
     <row r="176" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A176" s="22" t="s">
+      <c r="A176" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B176" s="22" t="s">
+      <c r="B176" s="29" t="s">
         <v>356</v>
       </c>
       <c r="C176" s="15" t="s">
@@ -8113,8 +8113,8 @@
       <c r="I176" s="14"/>
     </row>
     <row r="177" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A177" s="23"/>
-      <c r="B177" s="23"/>
+      <c r="A177" s="30"/>
+      <c r="B177" s="30"/>
       <c r="C177" s="15" t="s">
         <v>76</v>
       </c>
@@ -8134,8 +8134,8 @@
       <c r="I177" s="14"/>
     </row>
     <row r="178" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A178" s="23"/>
-      <c r="B178" s="23"/>
+      <c r="A178" s="30"/>
+      <c r="B178" s="30"/>
       <c r="C178" s="15" t="s">
         <v>77</v>
       </c>
@@ -8155,8 +8155,8 @@
       <c r="I178" s="14"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A179" s="24"/>
-      <c r="B179" s="24"/>
+      <c r="A179" s="31"/>
+      <c r="B179" s="31"/>
       <c r="C179" s="15" t="s">
         <v>726</v>
       </c>
@@ -8176,10 +8176,10 @@
       <c r="I179" s="16"/>
     </row>
     <row r="180" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A180" s="30" t="s">
+      <c r="A180" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="B180" s="30" t="s">
+      <c r="B180" s="26" t="s">
         <v>79</v>
       </c>
       <c r="C180" s="4" t="s">
@@ -8203,8 +8203,8 @@
       <c r="I180" s="9"/>
     </row>
     <row r="181" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A181" s="30"/>
-      <c r="B181" s="30"/>
+      <c r="A181" s="26"/>
+      <c r="B181" s="26"/>
       <c r="C181" s="4" t="s">
         <v>81</v>
       </c>
@@ -8226,8 +8226,8 @@
       <c r="I181" s="9"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A182" s="30"/>
-      <c r="B182" s="30"/>
+      <c r="A182" s="26"/>
+      <c r="B182" s="26"/>
       <c r="C182" s="4" t="s">
         <v>364</v>
       </c>
@@ -8247,8 +8247,8 @@
       <c r="I182" s="9"/>
     </row>
     <row r="183" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A183" s="30"/>
-      <c r="B183" s="30"/>
+      <c r="A183" s="26"/>
+      <c r="B183" s="26"/>
       <c r="C183" s="4" t="s">
         <v>374</v>
       </c>
@@ -8268,8 +8268,8 @@
       <c r="I183" s="9"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A184" s="30"/>
-      <c r="B184" s="30"/>
+      <c r="A184" s="26"/>
+      <c r="B184" s="26"/>
       <c r="C184" s="4" t="s">
         <v>82</v>
       </c>
@@ -8289,10 +8289,10 @@
       <c r="I184" s="9"/>
     </row>
     <row r="185" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A185" s="20" t="s">
+      <c r="A185" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="B185" s="20" t="s">
+      <c r="B185" s="27" t="s">
         <v>105</v>
       </c>
       <c r="C185" s="5" t="s">
@@ -8316,8 +8316,8 @@
       <c r="I185" s="10"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A186" s="20"/>
-      <c r="B186" s="20"/>
+      <c r="A186" s="27"/>
+      <c r="B186" s="27"/>
       <c r="C186" s="5" t="s">
         <v>85</v>
       </c>
@@ -8337,10 +8337,10 @@
       <c r="I186" s="10"/>
     </row>
     <row r="187" spans="1:9" ht="231" x14ac:dyDescent="0.3">
-      <c r="A187" s="22" t="s">
+      <c r="A187" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B187" s="22" t="s">
+      <c r="B187" s="29" t="s">
         <v>405</v>
       </c>
       <c r="C187" s="15" t="s">
@@ -8364,8 +8364,8 @@
       <c r="I187" s="14"/>
     </row>
     <row r="188" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A188" s="23"/>
-      <c r="B188" s="23"/>
+      <c r="A188" s="30"/>
+      <c r="B188" s="30"/>
       <c r="C188" s="15" t="s">
         <v>89</v>
       </c>
@@ -8387,8 +8387,8 @@
       <c r="I188" s="14"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A189" s="23"/>
-      <c r="B189" s="23"/>
+      <c r="A189" s="30"/>
+      <c r="B189" s="30"/>
       <c r="C189" s="15" t="s">
         <v>383</v>
       </c>
@@ -8408,8 +8408,8 @@
       <c r="I189" s="14"/>
     </row>
     <row r="190" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A190" s="23"/>
-      <c r="B190" s="23"/>
+      <c r="A190" s="30"/>
+      <c r="B190" s="30"/>
       <c r="C190" s="15" t="s">
         <v>406</v>
       </c>
@@ -8429,8 +8429,8 @@
       <c r="I190" s="14"/>
     </row>
     <row r="191" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A191" s="23"/>
-      <c r="B191" s="23"/>
+      <c r="A191" s="30"/>
+      <c r="B191" s="30"/>
       <c r="C191" s="15" t="s">
         <v>411</v>
       </c>
@@ -8452,8 +8452,8 @@
       <c r="I191" s="14"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A192" s="23"/>
-      <c r="B192" s="23"/>
+      <c r="A192" s="30"/>
+      <c r="B192" s="30"/>
       <c r="C192" s="15" t="s">
         <v>90</v>
       </c>
@@ -8473,8 +8473,8 @@
       <c r="I192" s="14"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A193" s="24"/>
-      <c r="B193" s="24"/>
+      <c r="A193" s="31"/>
+      <c r="B193" s="31"/>
       <c r="C193" s="15" t="s">
         <v>732</v>
       </c>
@@ -8494,10 +8494,10 @@
       <c r="I193" s="16"/>
     </row>
     <row r="194" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A194" s="31" t="s">
+      <c r="A194" s="34" t="s">
         <v>390</v>
       </c>
-      <c r="B194" s="31" t="s">
+      <c r="B194" s="34" t="s">
         <v>83</v>
       </c>
       <c r="C194" s="13" t="s">
@@ -8521,8 +8521,8 @@
       <c r="I194" s="12"/>
     </row>
     <row r="195" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A195" s="31"/>
-      <c r="B195" s="31"/>
+      <c r="A195" s="34"/>
+      <c r="B195" s="34"/>
       <c r="C195" s="13" t="s">
         <v>92</v>
       </c>
@@ -8544,8 +8544,8 @@
       <c r="I195" s="12"/>
     </row>
     <row r="196" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A196" s="31"/>
-      <c r="B196" s="31"/>
+      <c r="A196" s="34"/>
+      <c r="B196" s="34"/>
       <c r="C196" s="13" t="s">
         <v>391</v>
       </c>
@@ -8565,8 +8565,8 @@
       <c r="I196" s="12"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A197" s="31"/>
-      <c r="B197" s="31"/>
+      <c r="A197" s="34"/>
+      <c r="B197" s="34"/>
       <c r="C197" s="13" t="s">
         <v>93</v>
       </c>
@@ -8586,8 +8586,8 @@
       <c r="I197" s="12"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A198" s="31"/>
-      <c r="B198" s="31"/>
+      <c r="A198" s="34"/>
+      <c r="B198" s="34"/>
       <c r="C198" s="13" t="s">
         <v>392</v>
       </c>
@@ -8607,10 +8607,10 @@
       <c r="I198" s="12"/>
     </row>
     <row r="199" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A199" s="32" t="s">
+      <c r="A199" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="B199" s="32" t="s">
+      <c r="B199" s="20" t="s">
         <v>87</v>
       </c>
       <c r="C199" s="15" t="s">
@@ -8634,8 +8634,8 @@
       <c r="I199" s="14"/>
     </row>
     <row r="200" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A200" s="32"/>
-      <c r="B200" s="32"/>
+      <c r="A200" s="20"/>
+      <c r="B200" s="20"/>
       <c r="C200" s="15" t="s">
         <v>107</v>
       </c>
@@ -8657,8 +8657,8 @@
       <c r="I200" s="14"/>
     </row>
     <row r="201" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A201" s="32"/>
-      <c r="B201" s="32"/>
+      <c r="A201" s="20"/>
+      <c r="B201" s="20"/>
       <c r="C201" s="15" t="s">
         <v>403</v>
       </c>
@@ -8678,8 +8678,8 @@
       <c r="I201" s="14"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A202" s="32"/>
-      <c r="B202" s="32"/>
+      <c r="A202" s="20"/>
+      <c r="B202" s="20"/>
       <c r="C202" s="15" t="s">
         <v>108</v>
       </c>
@@ -8699,8 +8699,8 @@
       <c r="I202" s="14"/>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A203" s="32"/>
-      <c r="B203" s="32"/>
+      <c r="A203" s="20"/>
+      <c r="B203" s="20"/>
       <c r="C203" s="15" t="s">
         <v>404</v>
       </c>
@@ -8720,10 +8720,10 @@
       <c r="I203" s="14"/>
     </row>
     <row r="204" spans="1:9" ht="165" x14ac:dyDescent="0.3">
-      <c r="A204" s="21" t="s">
+      <c r="A204" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B204" s="21" t="s">
+      <c r="B204" s="28" t="s">
         <v>95</v>
       </c>
       <c r="C204" s="6" t="s">
@@ -8749,8 +8749,8 @@
       </c>
     </row>
     <row r="205" spans="1:9" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A205" s="21"/>
-      <c r="B205" s="21"/>
+      <c r="A205" s="28"/>
+      <c r="B205" s="28"/>
       <c r="C205" s="6" t="s">
         <v>97</v>
       </c>
@@ -8772,8 +8772,8 @@
       <c r="I205" s="11"/>
     </row>
     <row r="206" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A206" s="21"/>
-      <c r="B206" s="21"/>
+      <c r="A206" s="28"/>
+      <c r="B206" s="28"/>
       <c r="C206" s="6" t="s">
         <v>98</v>
       </c>
@@ -8793,8 +8793,8 @@
       <c r="I206" s="11"/>
     </row>
     <row r="207" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A207" s="21"/>
-      <c r="B207" s="21"/>
+      <c r="A207" s="28"/>
+      <c r="B207" s="28"/>
       <c r="C207" s="6" t="s">
         <v>427</v>
       </c>
@@ -8814,10 +8814,10 @@
       <c r="I207" s="11"/>
     </row>
     <row r="208" spans="1:9" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A208" s="22" t="s">
+      <c r="A208" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B208" s="22" t="s">
+      <c r="B208" s="29" t="s">
         <v>100</v>
       </c>
       <c r="C208" s="15" t="s">
@@ -8841,8 +8841,8 @@
       <c r="I208" s="14"/>
     </row>
     <row r="209" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A209" s="23"/>
-      <c r="B209" s="23"/>
+      <c r="A209" s="30"/>
+      <c r="B209" s="30"/>
       <c r="C209" s="15" t="s">
         <v>102</v>
       </c>
@@ -8862,8 +8862,8 @@
       <c r="I209" s="14"/>
     </row>
     <row r="210" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A210" s="23"/>
-      <c r="B210" s="23"/>
+      <c r="A210" s="30"/>
+      <c r="B210" s="30"/>
       <c r="C210" s="15" t="s">
         <v>432</v>
       </c>
@@ -8883,8 +8883,8 @@
       <c r="I210" s="14"/>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A211" s="23"/>
-      <c r="B211" s="23"/>
+      <c r="A211" s="30"/>
+      <c r="B211" s="30"/>
       <c r="C211" s="15" t="s">
         <v>103</v>
       </c>
@@ -8904,8 +8904,8 @@
       <c r="I211" s="14"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A212" s="24"/>
-      <c r="B212" s="24"/>
+      <c r="A212" s="31"/>
+      <c r="B212" s="31"/>
       <c r="C212" s="15" t="s">
         <v>727</v>
       </c>
@@ -8925,10 +8925,10 @@
       <c r="I212" s="16"/>
     </row>
     <row r="213" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A213" s="28" t="s">
+      <c r="A213" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B213" s="28" t="s">
+      <c r="B213" s="22" t="s">
         <v>110</v>
       </c>
       <c r="C213" s="2" t="s">
@@ -8954,8 +8954,8 @@
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A214" s="28"/>
-      <c r="B214" s="28"/>
+      <c r="A214" s="22"/>
+      <c r="B214" s="22"/>
       <c r="C214" s="2" t="s">
         <v>112</v>
       </c>
@@ -8975,10 +8975,10 @@
       <c r="I214" s="7"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A215" s="29" t="s">
+      <c r="A215" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B215" s="29" t="s">
+      <c r="B215" s="21" t="s">
         <v>117</v>
       </c>
       <c r="C215" s="3" t="s">
@@ -9002,8 +9002,8 @@
       <c r="I215" s="8"/>
     </row>
     <row r="216" spans="1:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="A216" s="29"/>
-      <c r="B216" s="29"/>
+      <c r="A216" s="21"/>
+      <c r="B216" s="21"/>
       <c r="C216" s="3" t="s">
         <v>468</v>
       </c>
@@ -9027,8 +9027,8 @@
       </c>
     </row>
     <row r="217" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A217" s="29"/>
-      <c r="B217" s="29"/>
+      <c r="A217" s="21"/>
+      <c r="B217" s="21"/>
       <c r="C217" s="3" t="s">
         <v>115</v>
       </c>
@@ -9048,8 +9048,8 @@
       <c r="I217" s="8"/>
     </row>
     <row r="218" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A218" s="29"/>
-      <c r="B218" s="29"/>
+      <c r="A218" s="21"/>
+      <c r="B218" s="21"/>
       <c r="C218" s="3" t="s">
         <v>476</v>
       </c>
@@ -9069,8 +9069,8 @@
       <c r="I218" s="8"/>
     </row>
     <row r="219" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A219" s="29"/>
-      <c r="B219" s="29"/>
+      <c r="A219" s="21"/>
+      <c r="B219" s="21"/>
       <c r="C219" s="3" t="s">
         <v>116</v>
       </c>
@@ -9090,8 +9090,8 @@
       <c r="I219" s="8"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A220" s="29"/>
-      <c r="B220" s="29"/>
+      <c r="A220" s="21"/>
+      <c r="B220" s="21"/>
       <c r="C220" s="3" t="s">
         <v>475</v>
       </c>
@@ -9112,31 +9112,36 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="B139:B143"/>
-    <mergeCell ref="A111:A117"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="A52:A58"/>
-    <mergeCell ref="B52:B58"/>
-    <mergeCell ref="A118:A124"/>
-    <mergeCell ref="B111:B117"/>
-    <mergeCell ref="B118:B124"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A59:A65"/>
-    <mergeCell ref="B59:B65"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="B66:B71"/>
-    <mergeCell ref="B45:B51"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B37:B44"/>
+    <mergeCell ref="A176:A179"/>
+    <mergeCell ref="B176:B179"/>
+    <mergeCell ref="B149:B153"/>
+    <mergeCell ref="B161:B165"/>
+    <mergeCell ref="B166:B170"/>
+    <mergeCell ref="A161:A165"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="A154:A160"/>
+    <mergeCell ref="B154:B160"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="A125:A128"/>
+    <mergeCell ref="B125:B128"/>
+    <mergeCell ref="A215:A220"/>
+    <mergeCell ref="B215:B220"/>
+    <mergeCell ref="A180:A184"/>
+    <mergeCell ref="B180:B184"/>
+    <mergeCell ref="A194:A198"/>
+    <mergeCell ref="B194:B198"/>
+    <mergeCell ref="A199:A203"/>
+    <mergeCell ref="B199:B203"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="A187:A193"/>
+    <mergeCell ref="B187:B193"/>
+    <mergeCell ref="A208:A212"/>
+    <mergeCell ref="B208:B212"/>
+    <mergeCell ref="A204:A207"/>
+    <mergeCell ref="B204:B207"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="B21:B28"/>
@@ -9153,42 +9158,37 @@
     <mergeCell ref="A29:A36"/>
     <mergeCell ref="B29:B36"/>
     <mergeCell ref="A45:A51"/>
-    <mergeCell ref="A215:A220"/>
-    <mergeCell ref="B215:B220"/>
-    <mergeCell ref="A180:A184"/>
-    <mergeCell ref="B180:B184"/>
-    <mergeCell ref="A194:A198"/>
-    <mergeCell ref="B194:B198"/>
-    <mergeCell ref="A199:A203"/>
-    <mergeCell ref="B199:B203"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="A187:A193"/>
-    <mergeCell ref="B187:B193"/>
-    <mergeCell ref="A208:A212"/>
-    <mergeCell ref="B208:B212"/>
-    <mergeCell ref="A204:A207"/>
-    <mergeCell ref="B204:B207"/>
+    <mergeCell ref="B45:B51"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B37:B44"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="A118:A124"/>
+    <mergeCell ref="B111:B117"/>
+    <mergeCell ref="B118:B124"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A59:A65"/>
+    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="B66:B71"/>
     <mergeCell ref="A89:A93"/>
     <mergeCell ref="B89:B93"/>
     <mergeCell ref="A104:A110"/>
     <mergeCell ref="B104:B110"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="B94:B98"/>
-    <mergeCell ref="A125:A128"/>
-    <mergeCell ref="B125:B128"/>
+    <mergeCell ref="B139:B143"/>
+    <mergeCell ref="A111:A117"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="B80:B84"/>
     <mergeCell ref="A129:A134"/>
     <mergeCell ref="B129:B134"/>
-    <mergeCell ref="A176:A179"/>
-    <mergeCell ref="B176:B179"/>
-    <mergeCell ref="B149:B153"/>
-    <mergeCell ref="B161:B165"/>
-    <mergeCell ref="B166:B170"/>
-    <mergeCell ref="A161:A165"/>
-    <mergeCell ref="A149:A153"/>
-    <mergeCell ref="A154:A160"/>
-    <mergeCell ref="B154:B160"/>
     <mergeCell ref="A135:A138"/>
     <mergeCell ref="A139:A143"/>
     <mergeCell ref="B135:B138"/>

--- a/docs/요구사항정의서.xlsx
+++ b/docs/요구사항정의서.xlsx
@@ -3844,7 +3844,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3917,6 +3917,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -3984,7 +3990,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4042,7 +4048,118 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4057,119 +4174,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4454,8 +4466,8 @@
   <dimension ref="A1:J220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:J220"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F181" sqref="F181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4505,13 +4517,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="132" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="54" t="s">
         <v>765</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -4537,9 +4549,9 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
@@ -4559,9 +4571,9 @@
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="2" t="s">
         <v>133</v>
       </c>
@@ -4581,9 +4593,9 @@
       <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="2" t="s">
         <v>136</v>
       </c>
@@ -4603,9 +4615,9 @@
       <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="2" t="s">
         <v>140</v>
       </c>
@@ -4625,125 +4637,125 @@
       <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="59" t="s">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="56" t="s">
         <v>768</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="H7" s="43">
+      <c r="H7" s="20">
         <v>1</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="J7" s="43"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="42" t="s">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="19" t="s">
         <v>756</v>
       </c>
-      <c r="H8" s="43">
+      <c r="H8" s="20">
         <v>1</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="J8" s="43"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="42" t="s">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43">
+      <c r="G9" s="19"/>
+      <c r="H9" s="20">
         <v>1</v>
       </c>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="J9" s="43"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="42" t="s">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="43">
+      <c r="G10" s="19"/>
+      <c r="H10" s="20">
         <v>1</v>
       </c>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="J10" s="43"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="42" t="s">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43">
+      <c r="G11" s="19"/>
+      <c r="H11" s="20">
         <v>3</v>
       </c>
-      <c r="I11" s="43" t="s">
+      <c r="I11" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="J11" s="43"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25" t="s">
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54" t="s">
         <v>783</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -4767,9 +4779,9 @@
       <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="2" t="s">
         <v>126</v>
       </c>
@@ -4791,9 +4803,9 @@
       <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="2" t="s">
         <v>156</v>
       </c>
@@ -4813,59 +4825,59 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="59" t="s">
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="56" t="s">
         <v>764</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="H15" s="43">
+      <c r="H15" s="20">
         <v>3</v>
       </c>
-      <c r="I15" s="43" t="s">
+      <c r="I15" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="J15" s="43"/>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="42" t="s">
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="19" t="s">
         <v>758</v>
       </c>
-      <c r="H16" s="43">
+      <c r="H16" s="20">
         <v>3</v>
       </c>
-      <c r="I16" s="43" t="s">
+      <c r="I16" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="J16" s="43"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25" t="s">
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54" t="s">
         <v>767</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -4889,9 +4901,9 @@
       <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="2" t="s">
         <v>291</v>
       </c>
@@ -4913,13 +4925,13 @@
       <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="55" t="s">
         <v>769</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -4943,9 +4955,9 @@
       <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="3" t="s">
         <v>14</v>
       </c>
@@ -4965,13 +4977,13 @@
       <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="46" t="s">
         <v>771</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -4997,9 +5009,9 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="4" t="s">
         <v>16</v>
       </c>
@@ -5019,9 +5031,9 @@
       <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
       <c r="D23" s="4" t="s">
         <v>17</v>
       </c>
@@ -5041,9 +5053,9 @@
       <c r="J23" s="14"/>
     </row>
     <row r="24" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
       <c r="D24" s="4" t="s">
         <v>177</v>
       </c>
@@ -5063,59 +5075,59 @@
       <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="53" t="s">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="51" t="s">
         <v>772</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="24" t="s">
         <v>823</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="E25" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="55" t="s">
+      <c r="F25" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="G25" s="55" t="s">
+      <c r="G25" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="H25" s="54">
+      <c r="H25" s="23">
         <v>2</v>
       </c>
-      <c r="I25" s="54" t="s">
+      <c r="I25" s="23" t="s">
         <v>470</v>
       </c>
-      <c r="J25" s="53" t="s">
+      <c r="J25" s="51" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="55" t="s">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="E26" s="55" t="s">
+      <c r="E26" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="F26" s="55" t="s">
+      <c r="F26" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="G26" s="55"/>
-      <c r="H26" s="54">
+      <c r="G26" s="24"/>
+      <c r="H26" s="23">
         <v>2</v>
       </c>
-      <c r="I26" s="54" t="s">
+      <c r="I26" s="23" t="s">
         <v>470</v>
       </c>
-      <c r="J26" s="53"/>
+      <c r="J26" s="51"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30" t="s">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46" t="s">
         <v>773</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -5136,14 +5148,14 @@
       <c r="I27" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="J27" s="30" t="s">
+      <c r="J27" s="46" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
       <c r="D28" s="4" t="s">
         <v>187</v>
       </c>
@@ -5160,16 +5172,16 @@
       <c r="I28" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="J28" s="30"/>
+      <c r="J28" s="46"/>
     </row>
     <row r="29" spans="1:10" ht="99" x14ac:dyDescent="0.3">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="52" t="s">
         <v>775</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -5193,9 +5205,9 @@
       <c r="J29" s="17"/>
     </row>
     <row r="30" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="5" t="s">
         <v>148</v>
       </c>
@@ -5215,9 +5227,9 @@
       <c r="J30" s="17"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="5" t="s">
         <v>149</v>
       </c>
@@ -5237,9 +5249,9 @@
       <c r="J31" s="17"/>
     </row>
     <row r="32" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
       <c r="D32" s="5" t="s">
         <v>199</v>
       </c>
@@ -5259,105 +5271,105 @@
       <c r="J32" s="17"/>
     </row>
     <row r="33" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="52" t="s">
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="53" t="s">
         <v>776</v>
       </c>
-      <c r="D33" s="46" t="s">
+      <c r="D33" s="21" t="s">
         <v>774</v>
       </c>
-      <c r="E33" s="46" t="s">
+      <c r="E33" s="21" t="s">
         <v>410</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="G33" s="46" t="s">
+      <c r="G33" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="H33" s="47">
+      <c r="H33" s="22">
         <v>4</v>
       </c>
-      <c r="I33" s="47" t="s">
+      <c r="I33" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="J33" s="47"/>
+      <c r="J33" s="22"/>
     </row>
     <row r="34" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="46" t="s">
+      <c r="A34" s="52"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="E34" s="46" t="s">
+      <c r="E34" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="F34" s="46" t="s">
+      <c r="F34" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="G34" s="46"/>
-      <c r="H34" s="47">
+      <c r="G34" s="21"/>
+      <c r="H34" s="22">
         <v>4</v>
       </c>
-      <c r="I34" s="47" t="s">
+      <c r="I34" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="J34" s="47"/>
+      <c r="J34" s="22"/>
     </row>
     <row r="35" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="46" t="s">
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="E35" s="46" t="s">
+      <c r="E35" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F35" s="46" t="s">
+      <c r="F35" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="G35" s="46"/>
-      <c r="H35" s="47">
+      <c r="G35" s="21"/>
+      <c r="H35" s="22">
         <v>4</v>
       </c>
-      <c r="I35" s="47" t="s">
+      <c r="I35" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="J35" s="47"/>
+      <c r="J35" s="22"/>
     </row>
     <row r="36" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="46" t="s">
+      <c r="A36" s="52"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="E36" s="46" t="s">
+      <c r="E36" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="G36" s="46"/>
-      <c r="H36" s="47">
+      <c r="G36" s="21"/>
+      <c r="H36" s="22">
         <v>4</v>
       </c>
-      <c r="I36" s="47" t="s">
+      <c r="I36" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="J36" s="47"/>
+      <c r="J36" s="22"/>
     </row>
     <row r="37" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="50" t="s">
         <v>777</v>
       </c>
       <c r="D37" s="6" t="s">
@@ -5383,9 +5395,9 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
       <c r="D38" s="6" t="s">
         <v>20</v>
       </c>
@@ -5405,9 +5417,9 @@
       <c r="J38" s="15"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
       <c r="D39" s="6" t="s">
         <v>21</v>
       </c>
@@ -5427,9 +5439,9 @@
       <c r="J39" s="15"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
       <c r="D40" s="6" t="s">
         <v>212</v>
       </c>
@@ -5449,9 +5461,9 @@
       <c r="J40" s="15"/>
     </row>
     <row r="41" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
       <c r="D41" s="6" t="s">
         <v>215</v>
       </c>
@@ -5471,9 +5483,9 @@
       <c r="J41" s="15"/>
     </row>
     <row r="42" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
+      <c r="A42" s="50"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
       <c r="D42" s="6" t="s">
         <v>219</v>
       </c>
@@ -5495,9 +5507,9 @@
       <c r="J42" s="15"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
       <c r="D43" s="6" t="s">
         <v>222</v>
       </c>
@@ -5519,9 +5531,9 @@
       <c r="J43" s="15"/>
     </row>
     <row r="44" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
       <c r="D44" s="6" t="s">
         <v>218</v>
       </c>
@@ -5541,13 +5553,13 @@
       <c r="J44" s="15"/>
     </row>
     <row r="45" spans="1:10" ht="132" x14ac:dyDescent="0.3">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C45" s="30" t="s">
         <v>778</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -5571,9 +5583,9 @@
       <c r="J45" s="16"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="39"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="32"/>
       <c r="D46" s="2" t="s">
         <v>29</v>
       </c>
@@ -5593,57 +5605,57 @@
       <c r="J46" s="16"/>
     </row>
     <row r="47" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="41" t="s">
+      <c r="A47" s="54"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="36" t="s">
         <v>818</v>
       </c>
-      <c r="D47" s="42" t="s">
+      <c r="D47" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="E47" s="42" t="s">
+      <c r="E47" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="F47" s="42" t="s">
+      <c r="F47" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="G47" s="42" t="s">
+      <c r="G47" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="H47" s="43">
+      <c r="H47" s="20">
         <v>2</v>
       </c>
-      <c r="I47" s="43" t="s">
+      <c r="I47" s="20" t="s">
         <v>471</v>
       </c>
-      <c r="J47" s="43"/>
+      <c r="J47" s="20"/>
     </row>
     <row r="48" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="42" t="s">
+      <c r="A48" s="54"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="19" t="s">
         <v>743</v>
       </c>
-      <c r="E48" s="42" t="s">
+      <c r="E48" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="F48" s="42" t="s">
+      <c r="F48" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="G48" s="42"/>
-      <c r="H48" s="43">
+      <c r="G48" s="19"/>
+      <c r="H48" s="20">
         <v>2</v>
       </c>
-      <c r="I48" s="43" t="s">
+      <c r="I48" s="20" t="s">
         <v>471</v>
       </c>
-      <c r="J48" s="43"/>
+      <c r="J48" s="20"/>
     </row>
     <row r="49" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="38" t="s">
+      <c r="A49" s="54"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="30" t="s">
         <v>802</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -5667,9 +5679,9 @@
       <c r="J49" s="16"/>
     </row>
     <row r="50" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="39"/>
+      <c r="A50" s="54"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="32"/>
       <c r="D50" s="2" t="s">
         <v>742</v>
       </c>
@@ -5689,39 +5701,39 @@
       <c r="J50" s="16"/>
     </row>
     <row r="51" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="43" t="s">
+      <c r="A51" s="54"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="20" t="s">
         <v>819</v>
       </c>
-      <c r="D51" s="42" t="s">
+      <c r="D51" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="E51" s="42" t="s">
+      <c r="E51" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="F51" s="42" t="s">
+      <c r="F51" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="G51" s="42" t="s">
+      <c r="G51" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="H51" s="43">
+      <c r="H51" s="20">
         <v>4</v>
       </c>
-      <c r="I51" s="43" t="s">
+      <c r="I51" s="20" t="s">
         <v>471</v>
       </c>
-      <c r="J51" s="43"/>
+      <c r="J51" s="20"/>
     </row>
     <row r="52" spans="1:10" ht="132" x14ac:dyDescent="0.3">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="55" t="s">
         <v>314</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="55" t="s">
         <v>317</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="33" t="s">
         <v>779</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -5745,9 +5757,9 @@
       <c r="J52" s="18"/>
     </row>
     <row r="53" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="28"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="34"/>
       <c r="D53" s="3" t="s">
         <v>755</v>
       </c>
@@ -5769,9 +5781,9 @@
       <c r="J53" s="18"/>
     </row>
     <row r="54" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="28"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="34"/>
       <c r="D54" s="3" t="s">
         <v>319</v>
       </c>
@@ -5793,9 +5805,9 @@
       <c r="J54" s="18"/>
     </row>
     <row r="55" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="28"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="34"/>
       <c r="D55" s="3" t="s">
         <v>320</v>
       </c>
@@ -5817,9 +5829,9 @@
       <c r="J55" s="18"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="24"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="28"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="3" t="s">
         <v>321</v>
       </c>
@@ -5839,9 +5851,9 @@
       <c r="J56" s="18"/>
     </row>
     <row r="57" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="28"/>
+      <c r="A57" s="55"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="34"/>
       <c r="D57" s="3" t="s">
         <v>322</v>
       </c>
@@ -5863,9 +5875,9 @@
       <c r="J57" s="18"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="24"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="29"/>
+      <c r="A58" s="55"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="35"/>
       <c r="D58" s="3" t="s">
         <v>323</v>
       </c>
@@ -5885,13 +5897,13 @@
       <c r="J58" s="18"/>
     </row>
     <row r="59" spans="1:10" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="C59" s="38" t="s">
         <v>781</v>
       </c>
       <c r="D59" s="4" t="s">
@@ -5917,9 +5929,9 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="30"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="33"/>
+      <c r="A60" s="46"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="39"/>
       <c r="D60" s="4" t="s">
         <v>50</v>
       </c>
@@ -5939,9 +5951,9 @@
       <c r="J60" s="14"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="30"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="34"/>
+      <c r="A61" s="46"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="40"/>
       <c r="D61" s="4" t="s">
         <v>51</v>
       </c>
@@ -5961,61 +5973,61 @@
       <c r="J61" s="14"/>
     </row>
     <row r="62" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A62" s="30"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="56" t="s">
+      <c r="A62" s="46"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="47" t="s">
         <v>782</v>
       </c>
-      <c r="D62" s="55" t="s">
+      <c r="D62" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="E62" s="55" t="s">
+      <c r="E62" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="F62" s="55" t="s">
+      <c r="F62" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="G62" s="55" t="s">
+      <c r="G62" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="H62" s="54">
+      <c r="H62" s="23">
         <v>3</v>
       </c>
-      <c r="I62" s="54" t="s">
+      <c r="I62" s="23" t="s">
         <v>472</v>
       </c>
-      <c r="J62" s="54"/>
+      <c r="J62" s="23"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="30"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="55" t="s">
+      <c r="A63" s="46"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="E63" s="55" t="s">
+      <c r="E63" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="F63" s="55" t="s">
+      <c r="F63" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="G63" s="55"/>
-      <c r="H63" s="54">
+      <c r="G63" s="24"/>
+      <c r="H63" s="23">
         <v>3</v>
       </c>
-      <c r="I63" s="54" t="s">
+      <c r="I63" s="23" t="s">
         <v>472</v>
       </c>
-      <c r="J63" s="54"/>
+      <c r="J63" s="23"/>
     </row>
     <row r="64" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="52" t="s">
         <v>301</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C64" s="35" t="s">
+      <c r="C64" s="43" t="s">
         <v>780</v>
       </c>
       <c r="D64" s="5" t="s">
@@ -6039,9 +6051,9 @@
       <c r="J64" s="17"/>
     </row>
     <row r="65" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="31"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="36"/>
+      <c r="A65" s="52"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="44"/>
       <c r="D65" s="5" t="s">
         <v>54</v>
       </c>
@@ -6063,9 +6075,9 @@
       <c r="J65" s="17"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="31"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="36"/>
+      <c r="A66" s="52"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="44"/>
       <c r="D66" s="5" t="s">
         <v>55</v>
       </c>
@@ -6085,9 +6097,9 @@
       <c r="J66" s="17"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="31"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="36"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="44"/>
       <c r="D67" s="5" t="s">
         <v>275</v>
       </c>
@@ -6107,9 +6119,9 @@
       <c r="J67" s="17"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="31"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="37"/>
+      <c r="A68" s="52"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="45"/>
       <c r="D68" s="5" t="s">
         <v>302</v>
       </c>
@@ -6129,13 +6141,13 @@
       <c r="J68" s="17"/>
     </row>
     <row r="69" spans="1:10" ht="132" x14ac:dyDescent="0.3">
-      <c r="A69" s="26" t="s">
+      <c r="A69" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="50" t="s">
         <v>315</v>
       </c>
-      <c r="C69" s="49" t="s">
+      <c r="C69" s="27" t="s">
         <v>784</v>
       </c>
       <c r="D69" s="6" t="s">
@@ -6159,9 +6171,9 @@
       <c r="J69" s="15"/>
     </row>
     <row r="70" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="26"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="50"/>
+      <c r="A70" s="50"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="28"/>
       <c r="D70" s="6" t="s">
         <v>747</v>
       </c>
@@ -6183,9 +6195,9 @@
       <c r="J70" s="15"/>
     </row>
     <row r="71" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A71" s="26"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="50"/>
+      <c r="A71" s="50"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="28"/>
       <c r="D71" s="6" t="s">
         <v>325</v>
       </c>
@@ -6207,9 +6219,9 @@
       <c r="J71" s="15"/>
     </row>
     <row r="72" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A72" s="26"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="50"/>
+      <c r="A72" s="50"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="28"/>
       <c r="D72" s="6" t="s">
         <v>326</v>
       </c>
@@ -6231,9 +6243,9 @@
       <c r="J72" s="15"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="26"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="50"/>
+      <c r="A73" s="50"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="28"/>
       <c r="D73" s="6" t="s">
         <v>327</v>
       </c>
@@ -6253,9 +6265,9 @@
       <c r="J73" s="15"/>
     </row>
     <row r="74" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="26"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="50"/>
+      <c r="A74" s="50"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="28"/>
       <c r="D74" s="6" t="s">
         <v>328</v>
       </c>
@@ -6277,9 +6289,9 @@
       <c r="J74" s="15"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="26"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="51"/>
+      <c r="A75" s="50"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="29"/>
       <c r="D75" s="6" t="s">
         <v>330</v>
       </c>
@@ -6299,13 +6311,13 @@
       <c r="J75" s="15"/>
     </row>
     <row r="76" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="25" t="s">
+      <c r="B76" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C76" s="38" t="s">
+      <c r="C76" s="30" t="s">
         <v>785</v>
       </c>
       <c r="D76" s="2" t="s">
@@ -6329,9 +6341,9 @@
       <c r="J76" s="16"/>
     </row>
     <row r="77" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A77" s="25"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="40"/>
+      <c r="A77" s="54"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="31"/>
       <c r="D77" s="2" t="s">
         <v>59</v>
       </c>
@@ -6353,9 +6365,9 @@
       <c r="J77" s="16"/>
     </row>
     <row r="78" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A78" s="25"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="40"/>
+      <c r="A78" s="54"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="31"/>
       <c r="D78" s="2" t="s">
         <v>290</v>
       </c>
@@ -6375,9 +6387,9 @@
       <c r="J78" s="16"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="25"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="40"/>
+      <c r="A79" s="54"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="31"/>
       <c r="D79" s="2" t="s">
         <v>60</v>
       </c>
@@ -6397,9 +6409,9 @@
       <c r="J79" s="16"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="25"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="39"/>
+      <c r="A80" s="54"/>
+      <c r="B80" s="54"/>
+      <c r="C80" s="32"/>
       <c r="D80" s="2" t="s">
         <v>284</v>
       </c>
@@ -6419,13 +6431,13 @@
       <c r="J80" s="16"/>
     </row>
     <row r="81" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A81" s="24" t="s">
+      <c r="A81" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B81" s="24" t="s">
+      <c r="B81" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C81" s="27" t="s">
+      <c r="C81" s="33" t="s">
         <v>786</v>
       </c>
       <c r="D81" s="3" t="s">
@@ -6449,9 +6461,9 @@
       <c r="J81" s="18"/>
     </row>
     <row r="82" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A82" s="24"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="28"/>
+      <c r="A82" s="55"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="34"/>
       <c r="D82" s="3" t="s">
         <v>64</v>
       </c>
@@ -6473,9 +6485,9 @@
       <c r="J82" s="18"/>
     </row>
     <row r="83" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A83" s="24"/>
-      <c r="B83" s="24"/>
-      <c r="C83" s="28"/>
+      <c r="A83" s="55"/>
+      <c r="B83" s="55"/>
+      <c r="C83" s="34"/>
       <c r="D83" s="3" t="s">
         <v>300</v>
       </c>
@@ -6495,9 +6507,9 @@
       <c r="J83" s="18"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="24"/>
-      <c r="B84" s="24"/>
-      <c r="C84" s="28"/>
+      <c r="A84" s="55"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="34"/>
       <c r="D84" s="3" t="s">
         <v>65</v>
       </c>
@@ -6517,9 +6529,9 @@
       <c r="J84" s="18"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="24"/>
-      <c r="B85" s="24"/>
-      <c r="C85" s="29"/>
+      <c r="A85" s="55"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="35"/>
       <c r="D85" s="3" t="s">
         <v>848</v>
       </c>
@@ -6539,13 +6551,13 @@
       <c r="J85" s="18"/>
     </row>
     <row r="86" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A86" s="30" t="s">
+      <c r="A86" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="B86" s="30" t="s">
+      <c r="B86" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="C86" s="32" t="s">
+      <c r="C86" s="38" t="s">
         <v>787</v>
       </c>
       <c r="D86" s="4" t="s">
@@ -6569,9 +6581,9 @@
       <c r="J86" s="14"/>
     </row>
     <row r="87" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A87" s="30"/>
-      <c r="B87" s="30"/>
-      <c r="C87" s="33"/>
+      <c r="A87" s="46"/>
+      <c r="B87" s="46"/>
+      <c r="C87" s="39"/>
       <c r="D87" s="4" t="s">
         <v>73</v>
       </c>
@@ -6591,9 +6603,9 @@
       <c r="J87" s="14"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="30"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="34"/>
+      <c r="A88" s="46"/>
+      <c r="B88" s="46"/>
+      <c r="C88" s="40"/>
       <c r="D88" s="4" t="s">
         <v>74</v>
       </c>
@@ -6613,61 +6625,61 @@
       <c r="J88" s="14"/>
     </row>
     <row r="89" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A89" s="30"/>
-      <c r="B89" s="30"/>
-      <c r="C89" s="56" t="s">
+      <c r="A89" s="46"/>
+      <c r="B89" s="46"/>
+      <c r="C89" s="47" t="s">
         <v>788</v>
       </c>
-      <c r="D89" s="55" t="s">
+      <c r="D89" s="24" t="s">
         <v>351</v>
       </c>
-      <c r="E89" s="55" t="s">
+      <c r="E89" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="F89" s="55" t="s">
+      <c r="F89" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="G89" s="55" t="s">
+      <c r="G89" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="H89" s="54">
+      <c r="H89" s="23">
         <v>4</v>
       </c>
-      <c r="I89" s="54" t="s">
+      <c r="I89" s="23" t="s">
         <v>717</v>
       </c>
-      <c r="J89" s="54"/>
+      <c r="J89" s="23"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" s="30"/>
-      <c r="B90" s="30"/>
-      <c r="C90" s="57"/>
-      <c r="D90" s="55" t="s">
+      <c r="A90" s="46"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="24" t="s">
         <v>361</v>
       </c>
-      <c r="E90" s="55" t="s">
+      <c r="E90" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="F90" s="55" t="s">
+      <c r="F90" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="G90" s="55"/>
-      <c r="H90" s="54">
+      <c r="G90" s="24"/>
+      <c r="H90" s="23">
         <v>4</v>
       </c>
-      <c r="I90" s="54" t="s">
+      <c r="I90" s="23" t="s">
         <v>717</v>
       </c>
-      <c r="J90" s="54"/>
+      <c r="J90" s="23"/>
     </row>
     <row r="91" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A91" s="31" t="s">
+      <c r="A91" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="B91" s="31" t="s">
+      <c r="B91" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="C91" s="35" t="s">
+      <c r="C91" s="43" t="s">
         <v>789</v>
       </c>
       <c r="D91" s="5" t="s">
@@ -6691,9 +6703,9 @@
       <c r="J91" s="17"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" s="31"/>
-      <c r="B92" s="31"/>
-      <c r="C92" s="37"/>
+      <c r="A92" s="52"/>
+      <c r="B92" s="52"/>
+      <c r="C92" s="45"/>
       <c r="D92" s="5" t="s">
         <v>77</v>
       </c>
@@ -6713,13 +6725,13 @@
       <c r="J92" s="17"/>
     </row>
     <row r="93" spans="1:10" ht="165" x14ac:dyDescent="0.3">
-      <c r="A93" s="26" t="s">
+      <c r="A93" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B93" s="26" t="s">
+      <c r="B93" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="C93" s="49" t="s">
+      <c r="C93" s="27" t="s">
         <v>790</v>
       </c>
       <c r="D93" s="6" t="s">
@@ -6745,9 +6757,9 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A94" s="26"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="50"/>
+      <c r="A94" s="50"/>
+      <c r="B94" s="50"/>
+      <c r="C94" s="28"/>
       <c r="D94" s="6" t="s">
         <v>89</v>
       </c>
@@ -6769,9 +6781,9 @@
       <c r="J94" s="15"/>
     </row>
     <row r="95" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A95" s="26"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="50"/>
+      <c r="A95" s="50"/>
+      <c r="B95" s="50"/>
+      <c r="C95" s="28"/>
       <c r="D95" s="6" t="s">
         <v>90</v>
       </c>
@@ -6791,9 +6803,9 @@
       <c r="J95" s="15"/>
     </row>
     <row r="96" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A96" s="26"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="50"/>
+      <c r="A96" s="50"/>
+      <c r="B96" s="50"/>
+      <c r="C96" s="28"/>
       <c r="D96" s="6" t="s">
         <v>414</v>
       </c>
@@ -6813,13 +6825,13 @@
       <c r="J96" s="15"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A97" s="25" t="s">
+      <c r="A97" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="B97" s="25" t="s">
+      <c r="B97" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="C97" s="38" t="s">
+      <c r="C97" s="30" t="s">
         <v>792</v>
       </c>
       <c r="D97" s="2" t="s">
@@ -6843,9 +6855,9 @@
       <c r="J97" s="16"/>
     </row>
     <row r="98" spans="1:10" ht="99" x14ac:dyDescent="0.3">
-      <c r="A98" s="25"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="40"/>
+      <c r="A98" s="54"/>
+      <c r="B98" s="54"/>
+      <c r="C98" s="31"/>
       <c r="D98" s="2" t="s">
         <v>455</v>
       </c>
@@ -6869,9 +6881,9 @@
       </c>
     </row>
     <row r="99" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A99" s="25"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="40"/>
+      <c r="A99" s="54"/>
+      <c r="B99" s="54"/>
+      <c r="C99" s="31"/>
       <c r="D99" s="2" t="s">
         <v>107</v>
       </c>
@@ -6891,9 +6903,9 @@
       <c r="J99" s="16"/>
     </row>
     <row r="100" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A100" s="25"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="40"/>
+      <c r="A100" s="54"/>
+      <c r="B100" s="54"/>
+      <c r="C100" s="31"/>
       <c r="D100" s="2" t="s">
         <v>463</v>
       </c>
@@ -6913,9 +6925,9 @@
       <c r="J100" s="16"/>
     </row>
     <row r="101" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A101" s="25"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="40"/>
+      <c r="A101" s="54"/>
+      <c r="B101" s="54"/>
+      <c r="C101" s="31"/>
       <c r="D101" s="2" t="s">
         <v>108</v>
       </c>
@@ -6935,9 +6947,9 @@
       <c r="J101" s="16"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A102" s="25"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="39"/>
+      <c r="A102" s="54"/>
+      <c r="B102" s="54"/>
+      <c r="C102" s="32"/>
       <c r="D102" s="2" t="s">
         <v>462</v>
       </c>
@@ -6947,23 +6959,23 @@
       <c r="F102" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="G102" s="60"/>
+      <c r="G102" s="25"/>
       <c r="H102" s="16">
         <v>4</v>
       </c>
-      <c r="I102" s="61" t="s">
+      <c r="I102" s="26" t="s">
         <v>719</v>
       </c>
-      <c r="J102" s="61"/>
+      <c r="J102" s="26"/>
     </row>
     <row r="103" spans="1:10" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="24" t="s">
+      <c r="A103" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="B103" s="24" t="s">
+      <c r="B103" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="C103" s="27" t="s">
+      <c r="C103" s="33" t="s">
         <v>791</v>
       </c>
       <c r="D103" s="3" t="s">
@@ -6984,14 +6996,14 @@
       <c r="I103" s="18" t="s">
         <v>719</v>
       </c>
-      <c r="J103" s="27" t="s">
+      <c r="J103" s="33" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A104" s="24"/>
-      <c r="B104" s="24"/>
-      <c r="C104" s="29"/>
+      <c r="A104" s="55"/>
+      <c r="B104" s="55"/>
+      <c r="C104" s="35"/>
       <c r="D104" s="3" t="s">
         <v>104</v>
       </c>
@@ -7008,16 +7020,16 @@
       <c r="I104" s="18" t="s">
         <v>719</v>
       </c>
-      <c r="J104" s="29"/>
+      <c r="J104" s="35"/>
     </row>
     <row r="105" spans="1:10" ht="132" x14ac:dyDescent="0.3">
-      <c r="A105" s="30" t="s">
+      <c r="A105" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="B105" s="30" t="s">
+      <c r="B105" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C105" s="32" t="s">
+      <c r="C105" s="38" t="s">
         <v>793</v>
       </c>
       <c r="D105" s="4" t="s">
@@ -7041,9 +7053,9 @@
       <c r="J105" s="14"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="30"/>
-      <c r="B106" s="30"/>
-      <c r="C106" s="33"/>
+      <c r="A106" s="46"/>
+      <c r="B106" s="46"/>
+      <c r="C106" s="39"/>
       <c r="D106" s="4" t="s">
         <v>33</v>
       </c>
@@ -7063,9 +7075,9 @@
       <c r="J106" s="14"/>
     </row>
     <row r="107" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A107" s="30"/>
-      <c r="B107" s="30"/>
-      <c r="C107" s="33"/>
+      <c r="A107" s="46"/>
+      <c r="B107" s="46"/>
+      <c r="C107" s="39"/>
       <c r="D107" s="4" t="s">
         <v>453</v>
       </c>
@@ -7085,9 +7097,9 @@
       <c r="J107" s="14"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A108" s="30"/>
-      <c r="B108" s="30"/>
-      <c r="C108" s="33"/>
+      <c r="A108" s="46"/>
+      <c r="B108" s="46"/>
+      <c r="C108" s="39"/>
       <c r="D108" s="4" t="s">
         <v>34</v>
       </c>
@@ -7107,61 +7119,61 @@
       <c r="J108" s="14"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A109" s="30"/>
-      <c r="B109" s="30"/>
-      <c r="C109" s="34"/>
-      <c r="D109" s="4" t="s">
+      <c r="A109" s="46"/>
+      <c r="B109" s="46"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="62" t="s">
         <v>427</v>
       </c>
-      <c r="E109" s="4" t="s">
+      <c r="E109" s="62" t="s">
         <v>428</v>
       </c>
-      <c r="F109" s="4" t="s">
+      <c r="F109" s="62" t="s">
         <v>429</v>
       </c>
-      <c r="G109" s="4"/>
-      <c r="H109" s="14">
+      <c r="G109" s="62"/>
+      <c r="H109" s="63">
         <v>3</v>
       </c>
-      <c r="I109" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="J109" s="14"/>
+      <c r="I109" s="63" t="s">
+        <v>474</v>
+      </c>
+      <c r="J109" s="63"/>
     </row>
     <row r="110" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A110" s="30"/>
-      <c r="B110" s="30"/>
-      <c r="C110" s="54" t="s">
+      <c r="A110" s="46"/>
+      <c r="B110" s="46"/>
+      <c r="C110" s="23" t="s">
         <v>794</v>
       </c>
-      <c r="D110" s="55" t="s">
+      <c r="D110" s="24" t="s">
         <v>477</v>
       </c>
-      <c r="E110" s="55" t="s">
+      <c r="E110" s="24" t="s">
         <v>478</v>
       </c>
-      <c r="F110" s="55" t="s">
+      <c r="F110" s="24" t="s">
         <v>489</v>
       </c>
-      <c r="G110" s="55" t="s">
+      <c r="G110" s="24" t="s">
         <v>488</v>
       </c>
-      <c r="H110" s="54">
+      <c r="H110" s="23">
         <v>3</v>
       </c>
-      <c r="I110" s="54" t="s">
-        <v>474</v>
-      </c>
-      <c r="J110" s="54"/>
+      <c r="I110" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="J110" s="23"/>
     </row>
     <row r="111" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A111" s="31" t="s">
+      <c r="A111" s="52" t="s">
         <v>448</v>
       </c>
-      <c r="B111" s="31" t="s">
+      <c r="B111" s="52" t="s">
         <v>447</v>
       </c>
-      <c r="C111" s="35" t="s">
+      <c r="C111" s="43" t="s">
         <v>795</v>
       </c>
       <c r="D111" s="5" t="s">
@@ -7185,9 +7197,9 @@
       <c r="J111" s="17"/>
     </row>
     <row r="112" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A112" s="31"/>
-      <c r="B112" s="31"/>
-      <c r="C112" s="37"/>
+      <c r="A112" s="52"/>
+      <c r="B112" s="52"/>
+      <c r="C112" s="45"/>
       <c r="D112" s="5" t="s">
         <v>450</v>
       </c>
@@ -7207,85 +7219,85 @@
       <c r="J112" s="17"/>
     </row>
     <row r="113" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A113" s="31"/>
-      <c r="B113" s="31"/>
-      <c r="C113" s="45" t="s">
+      <c r="A113" s="52"/>
+      <c r="B113" s="52"/>
+      <c r="C113" s="41" t="s">
         <v>796</v>
       </c>
-      <c r="D113" s="46" t="s">
+      <c r="D113" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="E113" s="46" t="s">
+      <c r="E113" s="21" t="s">
         <v>497</v>
       </c>
-      <c r="F113" s="46" t="s">
+      <c r="F113" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="G113" s="46" t="s">
+      <c r="G113" s="21" t="s">
         <v>501</v>
       </c>
-      <c r="H113" s="47">
+      <c r="H113" s="22">
         <v>2</v>
       </c>
-      <c r="I113" s="47" t="s">
-        <v>474</v>
-      </c>
-      <c r="J113" s="47"/>
+      <c r="I113" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="J113" s="22"/>
     </row>
     <row r="114" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A114" s="31"/>
-      <c r="B114" s="31"/>
-      <c r="C114" s="58"/>
-      <c r="D114" s="46" t="s">
+      <c r="A114" s="52"/>
+      <c r="B114" s="52"/>
+      <c r="C114" s="49"/>
+      <c r="D114" s="21" t="s">
         <v>496</v>
       </c>
-      <c r="E114" s="46" t="s">
+      <c r="E114" s="21" t="s">
         <v>492</v>
       </c>
-      <c r="F114" s="46" t="s">
+      <c r="F114" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="G114" s="46" t="s">
+      <c r="G114" s="21" t="s">
         <v>504</v>
       </c>
-      <c r="H114" s="47">
+      <c r="H114" s="22">
         <v>2</v>
       </c>
-      <c r="I114" s="47" t="s">
-        <v>474</v>
-      </c>
-      <c r="J114" s="47"/>
+      <c r="I114" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="J114" s="22"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A115" s="31"/>
-      <c r="B115" s="31"/>
-      <c r="C115" s="48"/>
-      <c r="D115" s="46" t="s">
+      <c r="A115" s="52"/>
+      <c r="B115" s="52"/>
+      <c r="C115" s="42"/>
+      <c r="D115" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="E115" s="46" t="s">
+      <c r="E115" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="F115" s="46" t="s">
+      <c r="F115" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="G115" s="46"/>
-      <c r="H115" s="47">
+      <c r="G115" s="21"/>
+      <c r="H115" s="22">
         <v>2</v>
       </c>
-      <c r="I115" s="47" t="s">
-        <v>474</v>
-      </c>
-      <c r="J115" s="47"/>
+      <c r="I115" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="J115" s="22"/>
     </row>
     <row r="116" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A116" s="26" t="s">
+      <c r="A116" s="50" t="s">
         <v>493</v>
       </c>
-      <c r="B116" s="26" t="s">
+      <c r="B116" s="50" t="s">
         <v>512</v>
       </c>
-      <c r="C116" s="49" t="s">
+      <c r="C116" s="27" t="s">
         <v>797</v>
       </c>
       <c r="D116" s="6" t="s">
@@ -7309,9 +7321,9 @@
       <c r="J116" s="15"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A117" s="26"/>
-      <c r="B117" s="26"/>
-      <c r="C117" s="50"/>
+      <c r="A117" s="50"/>
+      <c r="B117" s="50"/>
+      <c r="C117" s="28"/>
       <c r="D117" s="6" t="s">
         <v>507</v>
       </c>
@@ -7331,9 +7343,9 @@
       <c r="J117" s="15"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A118" s="26"/>
-      <c r="B118" s="26"/>
-      <c r="C118" s="51"/>
+      <c r="A118" s="50"/>
+      <c r="B118" s="50"/>
+      <c r="C118" s="29"/>
       <c r="D118" s="6" t="s">
         <v>518</v>
       </c>
@@ -7353,13 +7365,13 @@
       <c r="J118" s="15"/>
     </row>
     <row r="119" spans="1:10" ht="99" x14ac:dyDescent="0.3">
-      <c r="A119" s="25" t="s">
+      <c r="A119" s="54" t="s">
         <v>508</v>
       </c>
-      <c r="B119" s="25" t="s">
+      <c r="B119" s="54" t="s">
         <v>494</v>
       </c>
-      <c r="C119" s="38" t="s">
+      <c r="C119" s="30" t="s">
         <v>798</v>
       </c>
       <c r="D119" s="2" t="s">
@@ -7383,9 +7395,9 @@
       <c r="J119" s="16"/>
     </row>
     <row r="120" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A120" s="25"/>
-      <c r="B120" s="25"/>
-      <c r="C120" s="40"/>
+      <c r="A120" s="54"/>
+      <c r="B120" s="54"/>
+      <c r="C120" s="31"/>
       <c r="D120" s="2" t="s">
         <v>510</v>
       </c>
@@ -7407,9 +7419,9 @@
       <c r="J120" s="16"/>
     </row>
     <row r="121" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A121" s="25"/>
-      <c r="B121" s="25"/>
-      <c r="C121" s="40"/>
+      <c r="A121" s="54"/>
+      <c r="B121" s="54"/>
+      <c r="C121" s="31"/>
       <c r="D121" s="2" t="s">
         <v>524</v>
       </c>
@@ -7431,9 +7443,9 @@
       <c r="J121" s="16"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A122" s="25"/>
-      <c r="B122" s="25"/>
-      <c r="C122" s="40"/>
+      <c r="A122" s="54"/>
+      <c r="B122" s="54"/>
+      <c r="C122" s="31"/>
       <c r="D122" s="2" t="s">
         <v>511</v>
       </c>
@@ -7453,9 +7465,9 @@
       <c r="J122" s="16"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A123" s="25"/>
-      <c r="B123" s="25"/>
-      <c r="C123" s="40"/>
+      <c r="A123" s="54"/>
+      <c r="B123" s="54"/>
+      <c r="C123" s="31"/>
       <c r="D123" s="2" t="s">
         <v>530</v>
       </c>
@@ -7477,13 +7489,13 @@
       <c r="J123" s="16"/>
     </row>
     <row r="124" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A124" s="24" t="s">
+      <c r="A124" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B124" s="24" t="s">
+      <c r="B124" s="55" t="s">
         <v>537</v>
       </c>
-      <c r="C124" s="27" t="s">
+      <c r="C124" s="33" t="s">
         <v>799</v>
       </c>
       <c r="D124" s="3" t="s">
@@ -7507,9 +7519,9 @@
       <c r="J124" s="18"/>
     </row>
     <row r="125" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A125" s="24"/>
-      <c r="B125" s="24"/>
-      <c r="C125" s="28"/>
+      <c r="A125" s="55"/>
+      <c r="B125" s="55"/>
+      <c r="C125" s="34"/>
       <c r="D125" s="3" t="s">
         <v>544</v>
       </c>
@@ -7529,9 +7541,9 @@
       <c r="J125" s="18"/>
     </row>
     <row r="126" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A126" s="24"/>
-      <c r="B126" s="24"/>
-      <c r="C126" s="28"/>
+      <c r="A126" s="55"/>
+      <c r="B126" s="55"/>
+      <c r="C126" s="34"/>
       <c r="D126" s="3" t="s">
         <v>543</v>
       </c>
@@ -7553,9 +7565,9 @@
       <c r="J126" s="18"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A127" s="24"/>
-      <c r="B127" s="24"/>
-      <c r="C127" s="29"/>
+      <c r="A127" s="55"/>
+      <c r="B127" s="55"/>
+      <c r="C127" s="35"/>
       <c r="D127" s="3" t="s">
         <v>38</v>
       </c>
@@ -7575,13 +7587,13 @@
       <c r="J127" s="18"/>
     </row>
     <row r="128" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A128" s="30" t="s">
+      <c r="A128" s="46" t="s">
         <v>563</v>
       </c>
-      <c r="B128" s="30" t="s">
+      <c r="B128" s="46" t="s">
         <v>564</v>
       </c>
-      <c r="C128" s="32" t="s">
+      <c r="C128" s="38" t="s">
         <v>796</v>
       </c>
       <c r="D128" s="4" t="s">
@@ -7605,9 +7617,9 @@
       <c r="J128" s="14"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A129" s="30"/>
-      <c r="B129" s="30"/>
-      <c r="C129" s="33"/>
+      <c r="A129" s="46"/>
+      <c r="B129" s="46"/>
+      <c r="C129" s="39"/>
       <c r="D129" s="4" t="s">
         <v>550</v>
       </c>
@@ -7629,9 +7641,9 @@
       <c r="J129" s="14"/>
     </row>
     <row r="130" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A130" s="30"/>
-      <c r="B130" s="30"/>
-      <c r="C130" s="33"/>
+      <c r="A130" s="46"/>
+      <c r="B130" s="46"/>
+      <c r="C130" s="39"/>
       <c r="D130" s="4" t="s">
         <v>566</v>
       </c>
@@ -7653,9 +7665,9 @@
       <c r="J130" s="14"/>
     </row>
     <row r="131" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A131" s="30"/>
-      <c r="B131" s="30"/>
-      <c r="C131" s="33"/>
+      <c r="A131" s="46"/>
+      <c r="B131" s="46"/>
+      <c r="C131" s="39"/>
       <c r="D131" s="12" t="s">
         <v>557</v>
       </c>
@@ -7677,9 +7689,9 @@
       <c r="J131" s="14"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A132" s="30"/>
-      <c r="B132" s="30"/>
-      <c r="C132" s="34"/>
+      <c r="A132" s="46"/>
+      <c r="B132" s="46"/>
+      <c r="C132" s="40"/>
       <c r="D132" s="4" t="s">
         <v>555</v>
       </c>
@@ -7699,13 +7711,13 @@
       <c r="J132" s="14"/>
     </row>
     <row r="133" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A133" s="31" t="s">
+      <c r="A133" s="52" t="s">
         <v>559</v>
       </c>
-      <c r="B133" s="31" t="s">
+      <c r="B133" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C133" s="35" t="s">
+      <c r="C133" s="43" t="s">
         <v>800</v>
       </c>
       <c r="D133" s="5" t="s">
@@ -7731,9 +7743,9 @@
       </c>
     </row>
     <row r="134" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A134" s="31"/>
-      <c r="B134" s="31"/>
-      <c r="C134" s="36"/>
+      <c r="A134" s="52"/>
+      <c r="B134" s="52"/>
+      <c r="C134" s="44"/>
       <c r="D134" s="5" t="s">
         <v>556</v>
       </c>
@@ -7755,9 +7767,9 @@
       <c r="J134" s="17"/>
     </row>
     <row r="135" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A135" s="31"/>
-      <c r="B135" s="31"/>
-      <c r="C135" s="36"/>
+      <c r="A135" s="52"/>
+      <c r="B135" s="52"/>
+      <c r="C135" s="44"/>
       <c r="D135" s="5" t="s">
         <v>561</v>
       </c>
@@ -7779,9 +7791,9 @@
       <c r="J135" s="17"/>
     </row>
     <row r="136" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A136" s="31"/>
-      <c r="B136" s="31"/>
-      <c r="C136" s="37"/>
+      <c r="A136" s="52"/>
+      <c r="B136" s="52"/>
+      <c r="C136" s="45"/>
       <c r="D136" s="5" t="s">
         <v>562</v>
       </c>
@@ -7801,13 +7813,13 @@
       <c r="J136" s="17"/>
     </row>
     <row r="137" spans="1:10" ht="99" x14ac:dyDescent="0.3">
-      <c r="A137" s="26" t="s">
+      <c r="A137" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B137" s="26" t="s">
+      <c r="B137" s="50" t="s">
         <v>346</v>
       </c>
-      <c r="C137" s="49" t="s">
+      <c r="C137" s="27" t="s">
         <v>801</v>
       </c>
       <c r="D137" s="6" t="s">
@@ -7831,9 +7843,9 @@
       <c r="J137" s="15"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A138" s="26"/>
-      <c r="B138" s="26"/>
-      <c r="C138" s="50"/>
+      <c r="A138" s="50"/>
+      <c r="B138" s="50"/>
+      <c r="C138" s="28"/>
       <c r="D138" s="6" t="s">
         <v>589</v>
       </c>
@@ -7853,9 +7865,9 @@
       <c r="J138" s="15"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A139" s="26"/>
-      <c r="B139" s="26"/>
-      <c r="C139" s="50"/>
+      <c r="A139" s="50"/>
+      <c r="B139" s="50"/>
+      <c r="C139" s="28"/>
       <c r="D139" s="6" t="s">
         <v>590</v>
       </c>
@@ -7875,9 +7887,9 @@
       <c r="J139" s="15"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A140" s="26"/>
-      <c r="B140" s="26"/>
-      <c r="C140" s="50"/>
+      <c r="A140" s="50"/>
+      <c r="B140" s="50"/>
+      <c r="C140" s="28"/>
       <c r="D140" s="6" t="s">
         <v>591</v>
       </c>
@@ -7897,9 +7909,9 @@
       <c r="J140" s="15"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A141" s="26"/>
-      <c r="B141" s="26"/>
-      <c r="C141" s="51"/>
+      <c r="A141" s="50"/>
+      <c r="B141" s="50"/>
+      <c r="C141" s="29"/>
       <c r="D141" s="6" t="s">
         <v>594</v>
       </c>
@@ -7919,13 +7931,13 @@
       <c r="J141" s="15"/>
     </row>
     <row r="142" spans="1:10" ht="132" x14ac:dyDescent="0.3">
-      <c r="A142" s="25" t="s">
+      <c r="A142" s="54" t="s">
         <v>824</v>
       </c>
-      <c r="B142" s="25" t="s">
+      <c r="B142" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="C142" s="38" t="s">
+      <c r="C142" s="30" t="s">
         <v>803</v>
       </c>
       <c r="D142" s="2" t="s">
@@ -7949,9 +7961,9 @@
       <c r="J142" s="16"/>
     </row>
     <row r="143" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A143" s="25"/>
-      <c r="B143" s="25"/>
-      <c r="C143" s="40"/>
+      <c r="A143" s="54"/>
+      <c r="B143" s="54"/>
+      <c r="C143" s="31"/>
       <c r="D143" s="2" t="s">
         <v>605</v>
       </c>
@@ -7973,9 +7985,9 @@
       <c r="J143" s="16"/>
     </row>
     <row r="144" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A144" s="25"/>
-      <c r="B144" s="25"/>
-      <c r="C144" s="40"/>
+      <c r="A144" s="54"/>
+      <c r="B144" s="54"/>
+      <c r="C144" s="31"/>
       <c r="D144" s="2" t="s">
         <v>611</v>
       </c>
@@ -7995,9 +8007,9 @@
       <c r="J144" s="16"/>
     </row>
     <row r="145" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A145" s="25"/>
-      <c r="B145" s="25"/>
-      <c r="C145" s="40"/>
+      <c r="A145" s="54"/>
+      <c r="B145" s="54"/>
+      <c r="C145" s="31"/>
       <c r="D145" s="2" t="s">
         <v>610</v>
       </c>
@@ -8019,9 +8031,9 @@
       <c r="J145" s="16"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A146" s="25"/>
-      <c r="B146" s="25"/>
-      <c r="C146" s="40"/>
+      <c r="A146" s="54"/>
+      <c r="B146" s="54"/>
+      <c r="C146" s="31"/>
       <c r="D146" s="2" t="s">
         <v>43</v>
       </c>
@@ -8041,9 +8053,9 @@
       <c r="J146" s="16"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A147" s="25"/>
-      <c r="B147" s="25"/>
-      <c r="C147" s="40"/>
+      <c r="A147" s="54"/>
+      <c r="B147" s="54"/>
+      <c r="C147" s="31"/>
       <c r="D147" s="2" t="s">
         <v>604</v>
       </c>
@@ -8063,9 +8075,9 @@
       <c r="J147" s="16"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A148" s="25"/>
-      <c r="B148" s="25"/>
-      <c r="C148" s="40"/>
+      <c r="A148" s="54"/>
+      <c r="B148" s="54"/>
+      <c r="C148" s="31"/>
       <c r="D148" s="2" t="s">
         <v>603</v>
       </c>
@@ -8085,13 +8097,13 @@
       <c r="J148" s="16"/>
     </row>
     <row r="149" spans="1:10" ht="132" x14ac:dyDescent="0.3">
-      <c r="A149" s="24" t="s">
+      <c r="A149" s="55" t="s">
         <v>825</v>
       </c>
-      <c r="B149" s="24" t="s">
+      <c r="B149" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="C149" s="27" t="s">
+      <c r="C149" s="33" t="s">
         <v>805</v>
       </c>
       <c r="D149" s="3" t="s">
@@ -8115,9 +8127,9 @@
       <c r="J149" s="18"/>
     </row>
     <row r="150" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A150" s="24"/>
-      <c r="B150" s="24"/>
-      <c r="C150" s="28"/>
+      <c r="A150" s="55"/>
+      <c r="B150" s="55"/>
+      <c r="C150" s="34"/>
       <c r="D150" s="3" t="s">
         <v>616</v>
       </c>
@@ -8139,9 +8151,9 @@
       <c r="J150" s="18"/>
     </row>
     <row r="151" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A151" s="24"/>
-      <c r="B151" s="24"/>
-      <c r="C151" s="28"/>
+      <c r="A151" s="55"/>
+      <c r="B151" s="55"/>
+      <c r="C151" s="34"/>
       <c r="D151" s="3" t="s">
         <v>617</v>
       </c>
@@ -8161,9 +8173,9 @@
       <c r="J151" s="18"/>
     </row>
     <row r="152" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A152" s="24"/>
-      <c r="B152" s="24"/>
-      <c r="C152" s="28"/>
+      <c r="A152" s="55"/>
+      <c r="B152" s="55"/>
+      <c r="C152" s="34"/>
       <c r="D152" s="3" t="s">
         <v>618</v>
       </c>
@@ -8185,9 +8197,9 @@
       <c r="J152" s="18"/>
     </row>
     <row r="153" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A153" s="24"/>
-      <c r="B153" s="24"/>
-      <c r="C153" s="28"/>
+      <c r="A153" s="55"/>
+      <c r="B153" s="55"/>
+      <c r="C153" s="34"/>
       <c r="D153" s="3" t="s">
         <v>838</v>
       </c>
@@ -8207,9 +8219,9 @@
       <c r="J153" s="18"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A154" s="24"/>
-      <c r="B154" s="24"/>
-      <c r="C154" s="28"/>
+      <c r="A154" s="55"/>
+      <c r="B154" s="55"/>
+      <c r="C154" s="34"/>
       <c r="D154" s="3" t="s">
         <v>839</v>
       </c>
@@ -8229,9 +8241,9 @@
       <c r="J154" s="18"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A155" s="24"/>
-      <c r="B155" s="24"/>
-      <c r="C155" s="28"/>
+      <c r="A155" s="55"/>
+      <c r="B155" s="55"/>
+      <c r="C155" s="34"/>
       <c r="D155" s="3" t="s">
         <v>840</v>
       </c>
@@ -8251,13 +8263,13 @@
       <c r="J155" s="18"/>
     </row>
     <row r="156" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A156" s="30" t="s">
+      <c r="A156" s="46" t="s">
         <v>826</v>
       </c>
-      <c r="B156" s="30" t="s">
+      <c r="B156" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="C156" s="32" t="s">
+      <c r="C156" s="38" t="s">
         <v>804</v>
       </c>
       <c r="D156" s="4" t="s">
@@ -8281,9 +8293,9 @@
       <c r="J156" s="14"/>
     </row>
     <row r="157" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A157" s="30"/>
-      <c r="B157" s="30"/>
-      <c r="C157" s="33"/>
+      <c r="A157" s="46"/>
+      <c r="B157" s="46"/>
+      <c r="C157" s="39"/>
       <c r="D157" s="4" t="s">
         <v>842</v>
       </c>
@@ -8305,9 +8317,9 @@
       <c r="J157" s="14"/>
     </row>
     <row r="158" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A158" s="30"/>
-      <c r="B158" s="30"/>
-      <c r="C158" s="33"/>
+      <c r="A158" s="46"/>
+      <c r="B158" s="46"/>
+      <c r="C158" s="39"/>
       <c r="D158" s="4" t="s">
         <v>843</v>
       </c>
@@ -8327,9 +8339,9 @@
       <c r="J158" s="14"/>
     </row>
     <row r="159" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A159" s="30"/>
-      <c r="B159" s="30"/>
-      <c r="C159" s="33"/>
+      <c r="A159" s="46"/>
+      <c r="B159" s="46"/>
+      <c r="C159" s="39"/>
       <c r="D159" s="4" t="s">
         <v>844</v>
       </c>
@@ -8351,9 +8363,9 @@
       <c r="J159" s="14"/>
     </row>
     <row r="160" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A160" s="30"/>
-      <c r="B160" s="30"/>
-      <c r="C160" s="33"/>
+      <c r="A160" s="46"/>
+      <c r="B160" s="46"/>
+      <c r="C160" s="39"/>
       <c r="D160" s="4" t="s">
         <v>845</v>
       </c>
@@ -8373,9 +8385,9 @@
       <c r="J160" s="14"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A161" s="30"/>
-      <c r="B161" s="30"/>
-      <c r="C161" s="33"/>
+      <c r="A161" s="46"/>
+      <c r="B161" s="46"/>
+      <c r="C161" s="39"/>
       <c r="D161" s="4" t="s">
         <v>846</v>
       </c>
@@ -8395,9 +8407,9 @@
       <c r="J161" s="14"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A162" s="30"/>
-      <c r="B162" s="30"/>
-      <c r="C162" s="34"/>
+      <c r="A162" s="46"/>
+      <c r="B162" s="46"/>
+      <c r="C162" s="40"/>
       <c r="D162" s="4" t="s">
         <v>847</v>
       </c>
@@ -8417,13 +8429,13 @@
       <c r="J162" s="14"/>
     </row>
     <row r="163" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A163" s="31" t="s">
+      <c r="A163" s="52" t="s">
         <v>651</v>
       </c>
-      <c r="B163" s="31" t="s">
+      <c r="B163" s="52" t="s">
         <v>652</v>
       </c>
-      <c r="C163" s="35" t="s">
+      <c r="C163" s="43" t="s">
         <v>806</v>
       </c>
       <c r="D163" s="5" t="s">
@@ -8447,9 +8459,9 @@
       <c r="J163" s="17"/>
     </row>
     <row r="164" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A164" s="31"/>
-      <c r="B164" s="31"/>
-      <c r="C164" s="36"/>
+      <c r="A164" s="52"/>
+      <c r="B164" s="52"/>
+      <c r="C164" s="44"/>
       <c r="D164" s="5" t="s">
         <v>242</v>
       </c>
@@ -8471,9 +8483,9 @@
       <c r="J164" s="17"/>
     </row>
     <row r="165" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A165" s="31"/>
-      <c r="B165" s="31"/>
-      <c r="C165" s="36"/>
+      <c r="A165" s="52"/>
+      <c r="B165" s="52"/>
+      <c r="C165" s="44"/>
       <c r="D165" s="5" t="s">
         <v>657</v>
       </c>
@@ -8495,9 +8507,9 @@
       <c r="J165" s="17"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A166" s="31"/>
-      <c r="B166" s="31"/>
-      <c r="C166" s="37"/>
+      <c r="A166" s="52"/>
+      <c r="B166" s="52"/>
+      <c r="C166" s="45"/>
       <c r="D166" s="5" t="s">
         <v>243</v>
       </c>
@@ -8517,13 +8529,13 @@
       <c r="J166" s="17"/>
     </row>
     <row r="167" spans="1:10" ht="165" x14ac:dyDescent="0.3">
-      <c r="A167" s="26" t="s">
+      <c r="A167" s="50" t="s">
         <v>645</v>
       </c>
-      <c r="B167" s="26" t="s">
+      <c r="B167" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C167" s="49" t="s">
+      <c r="C167" s="27" t="s">
         <v>807</v>
       </c>
       <c r="D167" s="6" t="s">
@@ -8547,9 +8559,9 @@
       <c r="J167" s="15"/>
     </row>
     <row r="168" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A168" s="26"/>
-      <c r="B168" s="26"/>
-      <c r="C168" s="50"/>
+      <c r="A168" s="50"/>
+      <c r="B168" s="50"/>
+      <c r="C168" s="28"/>
       <c r="D168" s="6" t="s">
         <v>668</v>
       </c>
@@ -8571,9 +8583,9 @@
       <c r="J168" s="15"/>
     </row>
     <row r="169" spans="1:10" ht="132" x14ac:dyDescent="0.3">
-      <c r="A169" s="26"/>
-      <c r="B169" s="26"/>
-      <c r="C169" s="50"/>
+      <c r="A169" s="50"/>
+      <c r="B169" s="50"/>
+      <c r="C169" s="28"/>
       <c r="D169" s="6" t="s">
         <v>667</v>
       </c>
@@ -8595,9 +8607,9 @@
       <c r="J169" s="15"/>
     </row>
     <row r="170" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A170" s="26"/>
-      <c r="B170" s="26"/>
-      <c r="C170" s="50"/>
+      <c r="A170" s="50"/>
+      <c r="B170" s="50"/>
+      <c r="C170" s="28"/>
       <c r="D170" s="6" t="s">
         <v>245</v>
       </c>
@@ -8617,9 +8629,9 @@
       <c r="J170" s="15"/>
     </row>
     <row r="171" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A171" s="26"/>
-      <c r="B171" s="26"/>
-      <c r="C171" s="50"/>
+      <c r="A171" s="50"/>
+      <c r="B171" s="50"/>
+      <c r="C171" s="28"/>
       <c r="D171" s="6" t="s">
         <v>673</v>
       </c>
@@ -8639,9 +8651,9 @@
       <c r="J171" s="15"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A172" s="26"/>
-      <c r="B172" s="26"/>
-      <c r="C172" s="51"/>
+      <c r="A172" s="50"/>
+      <c r="B172" s="50"/>
+      <c r="C172" s="29"/>
       <c r="D172" s="6" t="s">
         <v>678</v>
       </c>
@@ -8661,13 +8673,13 @@
       <c r="J172" s="15"/>
     </row>
     <row r="173" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A173" s="25" t="s">
+      <c r="A173" s="54" t="s">
         <v>646</v>
       </c>
-      <c r="B173" s="25" t="s">
+      <c r="B173" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C173" s="38" t="s">
+      <c r="C173" s="30" t="s">
         <v>808</v>
       </c>
       <c r="D173" s="2" t="s">
@@ -8691,9 +8703,9 @@
       <c r="J173" s="16"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A174" s="25"/>
-      <c r="B174" s="25"/>
-      <c r="C174" s="40"/>
+      <c r="A174" s="54"/>
+      <c r="B174" s="54"/>
+      <c r="C174" s="31"/>
       <c r="D174" s="2" t="s">
         <v>247</v>
       </c>
@@ -8713,9 +8725,9 @@
       <c r="J174" s="16"/>
     </row>
     <row r="175" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A175" s="25"/>
-      <c r="B175" s="25"/>
-      <c r="C175" s="40"/>
+      <c r="A175" s="54"/>
+      <c r="B175" s="54"/>
+      <c r="C175" s="31"/>
       <c r="D175" s="2" t="s">
         <v>686</v>
       </c>
@@ -8735,9 +8747,9 @@
       <c r="J175" s="16"/>
     </row>
     <row r="176" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A176" s="25"/>
-      <c r="B176" s="25"/>
-      <c r="C176" s="39"/>
+      <c r="A176" s="54"/>
+      <c r="B176" s="54"/>
+      <c r="C176" s="32"/>
       <c r="D176" s="2" t="s">
         <v>248</v>
       </c>
@@ -8757,13 +8769,13 @@
       <c r="J176" s="16"/>
     </row>
     <row r="177" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A177" s="27" t="s">
+      <c r="A177" s="33" t="s">
         <v>424</v>
       </c>
-      <c r="B177" s="27" t="s">
+      <c r="B177" s="33" t="s">
         <v>425</v>
       </c>
-      <c r="C177" s="27" t="s">
+      <c r="C177" s="33" t="s">
         <v>809</v>
       </c>
       <c r="D177" s="3" t="s">
@@ -8787,9 +8799,9 @@
       <c r="J177" s="18"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A178" s="28"/>
-      <c r="B178" s="28"/>
-      <c r="C178" s="28"/>
+      <c r="A178" s="34"/>
+      <c r="B178" s="34"/>
+      <c r="C178" s="34"/>
       <c r="D178" s="3" t="s">
         <v>481</v>
       </c>
@@ -8809,9 +8821,9 @@
       <c r="J178" s="18"/>
     </row>
     <row r="179" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A179" s="28"/>
-      <c r="B179" s="28"/>
-      <c r="C179" s="28"/>
+      <c r="A179" s="34"/>
+      <c r="B179" s="34"/>
+      <c r="C179" s="34"/>
       <c r="D179" s="3" t="s">
         <v>482</v>
       </c>
@@ -8831,9 +8843,9 @@
       <c r="J179" s="18"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A180" s="28"/>
-      <c r="B180" s="28"/>
-      <c r="C180" s="28"/>
+      <c r="A180" s="34"/>
+      <c r="B180" s="34"/>
+      <c r="C180" s="34"/>
       <c r="D180" s="3" t="s">
         <v>433</v>
       </c>
@@ -8853,9 +8865,9 @@
       <c r="J180" s="18"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A181" s="28"/>
-      <c r="B181" s="28"/>
-      <c r="C181" s="28"/>
+      <c r="A181" s="34"/>
+      <c r="B181" s="34"/>
+      <c r="C181" s="34"/>
       <c r="D181" s="3" t="s">
         <v>434</v>
       </c>
@@ -8875,9 +8887,9 @@
       <c r="J181" s="18"/>
     </row>
     <row r="182" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A182" s="28"/>
-      <c r="B182" s="28"/>
-      <c r="C182" s="28"/>
+      <c r="A182" s="34"/>
+      <c r="B182" s="34"/>
+      <c r="C182" s="34"/>
       <c r="D182" s="3" t="s">
         <v>480</v>
       </c>
@@ -8897,9 +8909,9 @@
       <c r="J182" s="18"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A183" s="29"/>
-      <c r="B183" s="29"/>
-      <c r="C183" s="29"/>
+      <c r="A183" s="35"/>
+      <c r="B183" s="35"/>
+      <c r="C183" s="35"/>
       <c r="D183" s="3" t="s">
         <v>479</v>
       </c>
@@ -8919,13 +8931,13 @@
       <c r="J183" s="18"/>
     </row>
     <row r="184" spans="1:10" ht="198" x14ac:dyDescent="0.3">
-      <c r="A184" s="30" t="s">
+      <c r="A184" s="46" t="s">
         <v>647</v>
       </c>
-      <c r="B184" s="30" t="s">
+      <c r="B184" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C184" s="30" t="s">
+      <c r="C184" s="46" t="s">
         <v>810</v>
       </c>
       <c r="D184" s="4" t="s">
@@ -8949,9 +8961,9 @@
       <c r="J184" s="14"/>
     </row>
     <row r="185" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A185" s="30"/>
-      <c r="B185" s="30"/>
-      <c r="C185" s="30"/>
+      <c r="A185" s="46"/>
+      <c r="B185" s="46"/>
+      <c r="C185" s="46"/>
       <c r="D185" s="4" t="s">
         <v>691</v>
       </c>
@@ -8973,9 +8985,9 @@
       <c r="J185" s="14"/>
     </row>
     <row r="186" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A186" s="30"/>
-      <c r="B186" s="30"/>
-      <c r="C186" s="30"/>
+      <c r="A186" s="46"/>
+      <c r="B186" s="46"/>
+      <c r="C186" s="46"/>
       <c r="D186" s="4" t="s">
         <v>649</v>
       </c>
@@ -8997,9 +9009,9 @@
       <c r="J186" s="14"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A187" s="30"/>
-      <c r="B187" s="30"/>
-      <c r="C187" s="30"/>
+      <c r="A187" s="46"/>
+      <c r="B187" s="46"/>
+      <c r="C187" s="46"/>
       <c r="D187" s="4" t="s">
         <v>650</v>
       </c>
@@ -9019,61 +9031,61 @@
       <c r="J187" s="14"/>
     </row>
     <row r="188" spans="1:10" ht="132" x14ac:dyDescent="0.3">
-      <c r="A188" s="30"/>
-      <c r="B188" s="30"/>
-      <c r="C188" s="56" t="s">
+      <c r="A188" s="46"/>
+      <c r="B188" s="46"/>
+      <c r="C188" s="47" t="s">
         <v>766</v>
       </c>
-      <c r="D188" s="55" t="s">
+      <c r="D188" s="24" t="s">
         <v>700</v>
       </c>
-      <c r="E188" s="55" t="s">
+      <c r="E188" s="24" t="s">
         <v>694</v>
       </c>
-      <c r="F188" s="55" t="s">
+      <c r="F188" s="24" t="s">
         <v>695</v>
       </c>
-      <c r="G188" s="55" t="s">
+      <c r="G188" s="24" t="s">
         <v>693</v>
       </c>
-      <c r="H188" s="54">
+      <c r="H188" s="23">
         <v>3</v>
       </c>
-      <c r="I188" s="54" t="s">
-        <v>474</v>
-      </c>
-      <c r="J188" s="54"/>
+      <c r="I188" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="J188" s="23"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A189" s="30"/>
-      <c r="B189" s="30"/>
-      <c r="C189" s="57"/>
-      <c r="D189" s="55" t="s">
+      <c r="A189" s="46"/>
+      <c r="B189" s="46"/>
+      <c r="C189" s="48"/>
+      <c r="D189" s="24" t="s">
         <v>817</v>
       </c>
-      <c r="E189" s="55" t="s">
+      <c r="E189" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="F189" s="55" t="s">
+      <c r="F189" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="G189" s="55"/>
-      <c r="H189" s="54">
+      <c r="G189" s="24"/>
+      <c r="H189" s="23">
         <v>3</v>
       </c>
-      <c r="I189" s="54" t="s">
-        <v>474</v>
-      </c>
-      <c r="J189" s="54"/>
+      <c r="I189" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="J189" s="23"/>
     </row>
     <row r="190" spans="1:10" ht="231" x14ac:dyDescent="0.3">
-      <c r="A190" s="31" t="s">
+      <c r="A190" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="B190" s="31" t="s">
+      <c r="B190" s="52" t="s">
         <v>392</v>
       </c>
-      <c r="C190" s="35" t="s">
+      <c r="C190" s="43" t="s">
         <v>812</v>
       </c>
       <c r="D190" s="5" t="s">
@@ -9097,9 +9109,9 @@
       <c r="J190" s="17"/>
     </row>
     <row r="191" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A191" s="31"/>
-      <c r="B191" s="31"/>
-      <c r="C191" s="36"/>
+      <c r="A191" s="52"/>
+      <c r="B191" s="52"/>
+      <c r="C191" s="44"/>
       <c r="D191" s="5" t="s">
         <v>81</v>
       </c>
@@ -9119,9 +9131,9 @@
       <c r="J191" s="17"/>
     </row>
     <row r="192" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A192" s="31"/>
-      <c r="B192" s="31"/>
-      <c r="C192" s="36"/>
+      <c r="A192" s="52"/>
+      <c r="B192" s="52"/>
+      <c r="C192" s="44"/>
       <c r="D192" s="5" t="s">
         <v>370</v>
       </c>
@@ -9143,9 +9155,9 @@
       <c r="J192" s="17"/>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A193" s="31"/>
-      <c r="B193" s="31"/>
-      <c r="C193" s="36"/>
+      <c r="A193" s="52"/>
+      <c r="B193" s="52"/>
+      <c r="C193" s="44"/>
       <c r="D193" s="5" t="s">
         <v>82</v>
       </c>
@@ -9165,9 +9177,9 @@
       <c r="J193" s="17"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A194" s="31"/>
-      <c r="B194" s="31"/>
-      <c r="C194" s="37"/>
+      <c r="A194" s="52"/>
+      <c r="B194" s="52"/>
+      <c r="C194" s="45"/>
       <c r="D194" s="5" t="s">
         <v>716</v>
       </c>
@@ -9187,61 +9199,61 @@
       <c r="J194" s="17"/>
     </row>
     <row r="195" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A195" s="31"/>
-      <c r="B195" s="31"/>
-      <c r="C195" s="45" t="s">
+      <c r="A195" s="52"/>
+      <c r="B195" s="52"/>
+      <c r="C195" s="41" t="s">
         <v>766</v>
       </c>
-      <c r="D195" s="46" t="s">
+      <c r="D195" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="E195" s="46" t="s">
+      <c r="E195" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="F195" s="46" t="s">
+      <c r="F195" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="G195" s="46" t="s">
+      <c r="G195" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="H195" s="47">
+      <c r="H195" s="22">
         <v>3</v>
       </c>
-      <c r="I195" s="47" t="s">
+      <c r="I195" s="22" t="s">
         <v>472</v>
       </c>
-      <c r="J195" s="47"/>
+      <c r="J195" s="22"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A196" s="31"/>
-      <c r="B196" s="31"/>
-      <c r="C196" s="48"/>
-      <c r="D196" s="46" t="s">
+      <c r="A196" s="52"/>
+      <c r="B196" s="52"/>
+      <c r="C196" s="42"/>
+      <c r="D196" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="E196" s="46" t="s">
+      <c r="E196" s="21" t="s">
         <v>813</v>
       </c>
-      <c r="F196" s="46" t="s">
+      <c r="F196" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="G196" s="46"/>
-      <c r="H196" s="47">
+      <c r="G196" s="21"/>
+      <c r="H196" s="22">
         <v>3</v>
       </c>
-      <c r="I196" s="47" t="s">
+      <c r="I196" s="22" t="s">
         <v>472</v>
       </c>
-      <c r="J196" s="47"/>
+      <c r="J196" s="22"/>
     </row>
     <row r="197" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A197" s="26" t="s">
+      <c r="A197" s="50" t="s">
         <v>377</v>
       </c>
-      <c r="B197" s="26" t="s">
+      <c r="B197" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C197" s="49" t="s">
+      <c r="C197" s="27" t="s">
         <v>814</v>
       </c>
       <c r="D197" s="6" t="s">
@@ -9265,9 +9277,9 @@
       <c r="J197" s="15"/>
     </row>
     <row r="198" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A198" s="26"/>
-      <c r="B198" s="26"/>
-      <c r="C198" s="50"/>
+      <c r="A198" s="50"/>
+      <c r="B198" s="50"/>
+      <c r="C198" s="28"/>
       <c r="D198" s="6" t="s">
         <v>84</v>
       </c>
@@ -9289,9 +9301,9 @@
       <c r="J198" s="15"/>
     </row>
     <row r="199" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A199" s="26"/>
-      <c r="B199" s="26"/>
-      <c r="C199" s="50"/>
+      <c r="A199" s="50"/>
+      <c r="B199" s="50"/>
+      <c r="C199" s="28"/>
       <c r="D199" s="6" t="s">
         <v>378</v>
       </c>
@@ -9311,9 +9323,9 @@
       <c r="J199" s="15"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A200" s="26"/>
-      <c r="B200" s="26"/>
-      <c r="C200" s="50"/>
+      <c r="A200" s="50"/>
+      <c r="B200" s="50"/>
+      <c r="C200" s="28"/>
       <c r="D200" s="6" t="s">
         <v>85</v>
       </c>
@@ -9333,9 +9345,9 @@
       <c r="J200" s="15"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A201" s="26"/>
-      <c r="B201" s="26"/>
-      <c r="C201" s="51"/>
+      <c r="A201" s="50"/>
+      <c r="B201" s="50"/>
+      <c r="C201" s="29"/>
       <c r="D201" s="6" t="s">
         <v>379</v>
       </c>
@@ -9355,13 +9367,13 @@
       <c r="J201" s="15"/>
     </row>
     <row r="202" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A202" s="25" t="s">
+      <c r="A202" s="54" t="s">
         <v>389</v>
       </c>
-      <c r="B202" s="25" t="s">
+      <c r="B202" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="C202" s="38" t="s">
+      <c r="C202" s="30" t="s">
         <v>815</v>
       </c>
       <c r="D202" s="2" t="s">
@@ -9385,9 +9397,9 @@
       <c r="J202" s="16"/>
     </row>
     <row r="203" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A203" s="25"/>
-      <c r="B203" s="25"/>
-      <c r="C203" s="40"/>
+      <c r="A203" s="54"/>
+      <c r="B203" s="54"/>
+      <c r="C203" s="31"/>
       <c r="D203" s="2" t="s">
         <v>99</v>
       </c>
@@ -9409,9 +9421,9 @@
       <c r="J203" s="16"/>
     </row>
     <row r="204" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A204" s="25"/>
-      <c r="B204" s="25"/>
-      <c r="C204" s="40"/>
+      <c r="A204" s="54"/>
+      <c r="B204" s="54"/>
+      <c r="C204" s="31"/>
       <c r="D204" s="2" t="s">
         <v>390</v>
       </c>
@@ -9431,9 +9443,9 @@
       <c r="J204" s="16"/>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A205" s="25"/>
-      <c r="B205" s="25"/>
-      <c r="C205" s="40"/>
+      <c r="A205" s="54"/>
+      <c r="B205" s="54"/>
+      <c r="C205" s="31"/>
       <c r="D205" s="2" t="s">
         <v>100</v>
       </c>
@@ -9453,9 +9465,9 @@
       <c r="J205" s="16"/>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A206" s="25"/>
-      <c r="B206" s="25"/>
-      <c r="C206" s="39"/>
+      <c r="A206" s="54"/>
+      <c r="B206" s="54"/>
+      <c r="C206" s="32"/>
       <c r="D206" s="2" t="s">
         <v>391</v>
       </c>
@@ -9475,13 +9487,13 @@
       <c r="J206" s="16"/>
     </row>
     <row r="207" spans="1:10" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A207" s="24" t="s">
+      <c r="A207" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="B207" s="24" t="s">
+      <c r="B207" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="C207" s="27" t="s">
+      <c r="C207" s="33" t="s">
         <v>816</v>
       </c>
       <c r="D207" s="3" t="s">
@@ -9505,9 +9517,9 @@
       <c r="J207" s="18"/>
     </row>
     <row r="208" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A208" s="24"/>
-      <c r="B208" s="24"/>
-      <c r="C208" s="28"/>
+      <c r="A208" s="55"/>
+      <c r="B208" s="55"/>
+      <c r="C208" s="34"/>
       <c r="D208" s="3" t="s">
         <v>94</v>
       </c>
@@ -9527,9 +9539,9 @@
       <c r="J208" s="18"/>
     </row>
     <row r="209" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A209" s="24"/>
-      <c r="B209" s="24"/>
-      <c r="C209" s="28"/>
+      <c r="A209" s="55"/>
+      <c r="B209" s="55"/>
+      <c r="C209" s="34"/>
       <c r="D209" s="3" t="s">
         <v>419</v>
       </c>
@@ -9549,9 +9561,9 @@
       <c r="J209" s="18"/>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A210" s="24"/>
-      <c r="B210" s="24"/>
-      <c r="C210" s="28"/>
+      <c r="A210" s="55"/>
+      <c r="B210" s="55"/>
+      <c r="C210" s="34"/>
       <c r="D210" s="3" t="s">
         <v>95</v>
       </c>
@@ -9571,9 +9583,9 @@
       <c r="J210" s="18"/>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A211" s="24"/>
-      <c r="B211" s="24"/>
-      <c r="C211" s="29"/>
+      <c r="A211" s="55"/>
+      <c r="B211" s="55"/>
+      <c r="C211" s="35"/>
       <c r="D211" s="3" t="s">
         <v>711</v>
       </c>
@@ -9593,13 +9605,13 @@
       <c r="J211" s="18"/>
     </row>
     <row r="212" spans="1:10" ht="132" x14ac:dyDescent="0.3">
-      <c r="A212" s="30" t="s">
+      <c r="A212" s="46" t="s">
         <v>827</v>
       </c>
-      <c r="B212" s="30" t="s">
+      <c r="B212" s="46" t="s">
         <v>343</v>
       </c>
-      <c r="C212" s="32" t="s">
+      <c r="C212" s="38" t="s">
         <v>811</v>
       </c>
       <c r="D212" s="4" t="s">
@@ -9623,9 +9635,9 @@
       <c r="J212" s="14"/>
     </row>
     <row r="213" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A213" s="30"/>
-      <c r="B213" s="30"/>
-      <c r="C213" s="33"/>
+      <c r="A213" s="46"/>
+      <c r="B213" s="46"/>
+      <c r="C213" s="39"/>
       <c r="D213" s="4" t="s">
         <v>830</v>
       </c>
@@ -9645,9 +9657,9 @@
       <c r="J213" s="14"/>
     </row>
     <row r="214" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A214" s="30"/>
-      <c r="B214" s="30"/>
-      <c r="C214" s="33"/>
+      <c r="A214" s="46"/>
+      <c r="B214" s="46"/>
+      <c r="C214" s="39"/>
       <c r="D214" s="4" t="s">
         <v>831</v>
       </c>
@@ -9667,9 +9679,9 @@
       <c r="J214" s="14"/>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A215" s="30"/>
-      <c r="B215" s="30"/>
-      <c r="C215" s="34"/>
+      <c r="A215" s="46"/>
+      <c r="B215" s="46"/>
+      <c r="C215" s="40"/>
       <c r="D215" s="4" t="s">
         <v>832</v>
       </c>
@@ -9689,13 +9701,13 @@
       <c r="J215" s="14"/>
     </row>
     <row r="216" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A216" s="31" t="s">
+      <c r="A216" s="52" t="s">
         <v>828</v>
       </c>
-      <c r="B216" s="31" t="s">
+      <c r="B216" s="52" t="s">
         <v>820</v>
       </c>
-      <c r="C216" s="35" t="s">
+      <c r="C216" s="43" t="s">
         <v>821</v>
       </c>
       <c r="D216" s="5" t="s">
@@ -9719,9 +9731,9 @@
       <c r="J216" s="17"/>
     </row>
     <row r="217" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A217" s="31"/>
-      <c r="B217" s="31"/>
-      <c r="C217" s="36"/>
+      <c r="A217" s="52"/>
+      <c r="B217" s="52"/>
+      <c r="C217" s="44"/>
       <c r="D217" s="5" t="s">
         <v>834</v>
       </c>
@@ -9743,9 +9755,9 @@
       <c r="J217" s="17"/>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A218" s="31"/>
-      <c r="B218" s="31"/>
-      <c r="C218" s="36"/>
+      <c r="A218" s="52"/>
+      <c r="B218" s="52"/>
+      <c r="C218" s="44"/>
       <c r="D218" s="5" t="s">
         <v>835</v>
       </c>
@@ -9765,9 +9777,9 @@
       <c r="J218" s="17"/>
     </row>
     <row r="219" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A219" s="31"/>
-      <c r="B219" s="31"/>
-      <c r="C219" s="36"/>
+      <c r="A219" s="52"/>
+      <c r="B219" s="52"/>
+      <c r="C219" s="44"/>
       <c r="D219" s="5" t="s">
         <v>836</v>
       </c>
@@ -9787,9 +9799,9 @@
       <c r="J219" s="17"/>
     </row>
     <row r="220" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A220" s="31"/>
-      <c r="B220" s="31"/>
-      <c r="C220" s="37"/>
+      <c r="A220" s="52"/>
+      <c r="B220" s="52"/>
+      <c r="C220" s="45"/>
       <c r="D220" s="5" t="s">
         <v>837</v>
       </c>
@@ -9811,6 +9823,116 @@
   </sheetData>
   <autoFilter ref="A1:J220"/>
   <mergeCells count="134">
+    <mergeCell ref="A202:A206"/>
+    <mergeCell ref="B202:B206"/>
+    <mergeCell ref="A207:A211"/>
+    <mergeCell ref="B207:B211"/>
+    <mergeCell ref="B212:B215"/>
+    <mergeCell ref="A190:A196"/>
+    <mergeCell ref="B190:B196"/>
+    <mergeCell ref="A197:A201"/>
+    <mergeCell ref="B197:B201"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B37:B44"/>
+    <mergeCell ref="A184:A189"/>
+    <mergeCell ref="B184:B189"/>
+    <mergeCell ref="A212:A215"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="A149:A155"/>
+    <mergeCell ref="B142:B148"/>
+    <mergeCell ref="B149:B155"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="B111:B115"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="B105:B110"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="B128:B132"/>
+    <mergeCell ref="A156:A162"/>
+    <mergeCell ref="A167:A172"/>
+    <mergeCell ref="B167:B172"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="A216:A220"/>
+    <mergeCell ref="B216:B220"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="B29:B36"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="B45:B51"/>
+    <mergeCell ref="A173:A176"/>
+    <mergeCell ref="B173:B176"/>
+    <mergeCell ref="A177:A183"/>
+    <mergeCell ref="B177:B183"/>
+    <mergeCell ref="A142:A148"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="B124:B127"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:B75"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="A133:A136"/>
+    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="A163:A166"/>
+    <mergeCell ref="B163:B166"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="B97:B102"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B156:B162"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="B137:B141"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="C64:C68"/>
+    <mergeCell ref="C69:C75"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="C216:C220"/>
+    <mergeCell ref="C37:C44"/>
+    <mergeCell ref="C52:C58"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C105:C109"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="J103:J104"/>
+    <mergeCell ref="C103:C104"/>
     <mergeCell ref="C197:C201"/>
     <mergeCell ref="C202:C206"/>
     <mergeCell ref="C207:C211"/>
@@ -9835,116 +9957,6 @@
     <mergeCell ref="C133:C136"/>
     <mergeCell ref="C137:C141"/>
     <mergeCell ref="C97:C102"/>
-    <mergeCell ref="C105:C109"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="J103:J104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="C64:C68"/>
-    <mergeCell ref="C69:C75"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="C216:C220"/>
-    <mergeCell ref="C37:C44"/>
-    <mergeCell ref="C52:C58"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:B75"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="A133:A136"/>
-    <mergeCell ref="B133:B136"/>
-    <mergeCell ref="A163:A166"/>
-    <mergeCell ref="B163:B166"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="B97:B102"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="A216:A220"/>
-    <mergeCell ref="B216:B220"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="B45:B51"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B37:B44"/>
-    <mergeCell ref="A184:A189"/>
-    <mergeCell ref="B184:B189"/>
-    <mergeCell ref="A212:A215"/>
-    <mergeCell ref="A52:A58"/>
-    <mergeCell ref="B52:B58"/>
-    <mergeCell ref="A149:A155"/>
-    <mergeCell ref="B142:B148"/>
-    <mergeCell ref="B149:B155"/>
-    <mergeCell ref="A111:A115"/>
-    <mergeCell ref="B111:B115"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="B105:B110"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="B128:B132"/>
-    <mergeCell ref="A156:A162"/>
-    <mergeCell ref="A167:A172"/>
-    <mergeCell ref="B167:B172"/>
-    <mergeCell ref="A173:A176"/>
-    <mergeCell ref="B173:B176"/>
-    <mergeCell ref="A177:A183"/>
-    <mergeCell ref="B177:B183"/>
-    <mergeCell ref="A142:A148"/>
-    <mergeCell ref="A124:A127"/>
-    <mergeCell ref="B124:B127"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="B119:B123"/>
-    <mergeCell ref="B156:B162"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="A202:A206"/>
-    <mergeCell ref="B202:B206"/>
-    <mergeCell ref="A207:A211"/>
-    <mergeCell ref="B207:B211"/>
-    <mergeCell ref="B212:B215"/>
-    <mergeCell ref="A190:A196"/>
-    <mergeCell ref="B190:B196"/>
-    <mergeCell ref="A197:A201"/>
-    <mergeCell ref="B197:B201"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9974,10 +9986,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="57" t="s">
         <v>424</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="57" t="s">
         <v>425</v>
       </c>
       <c r="C1" s="10" t="s">
@@ -10001,8 +10013,8 @@
       <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="10" t="s">
         <v>481</v>
       </c>
@@ -10022,8 +10034,8 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="10" t="s">
         <v>482</v>
       </c>
@@ -10043,8 +10055,8 @@
       <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="10" t="s">
         <v>433</v>
       </c>
@@ -10064,8 +10076,8 @@
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="10" t="s">
         <v>434</v>
       </c>
@@ -10085,8 +10097,8 @@
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="10" t="s">
         <v>480</v>
       </c>
@@ -10106,8 +10118,8 @@
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="10" t="s">
         <v>479</v>
       </c>
@@ -10127,10 +10139,10 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" ht="198" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="60" t="s">
         <v>647</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="60" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -10154,8 +10166,8 @@
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="10" t="s">
         <v>691</v>
       </c>
@@ -10177,8 +10189,8 @@
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="10" t="s">
         <v>649</v>
       </c>
@@ -10200,8 +10212,8 @@
       <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="10" t="s">
         <v>700</v>
       </c>
@@ -10223,8 +10235,8 @@
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="10" t="s">
         <v>650</v>
       </c>
@@ -10244,10 +10256,10 @@
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="57" t="s">
         <v>343</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -10271,8 +10283,8 @@
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="10" t="s">
         <v>68</v>
       </c>
@@ -10292,8 +10304,8 @@
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="10" t="s">
         <v>69</v>
       </c>
@@ -10313,8 +10325,8 @@
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="10" t="s">
         <v>710</v>
       </c>
@@ -10334,10 +10346,10 @@
       <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" ht="231" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="57" t="s">
         <v>392</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -10361,8 +10373,8 @@
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="10" t="s">
         <v>81</v>
       </c>
@@ -10384,8 +10396,8 @@
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="10" t="s">
         <v>370</v>
       </c>
@@ -10405,8 +10417,8 @@
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
       <c r="C20" s="10" t="s">
         <v>393</v>
       </c>
@@ -10426,8 +10438,8 @@
       <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="10" t="s">
         <v>398</v>
       </c>
@@ -10449,8 +10461,8 @@
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="10" t="s">
         <v>82</v>
       </c>
@@ -10470,8 +10482,8 @@
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="10" t="s">
         <v>716</v>
       </c>
@@ -10491,10 +10503,10 @@
       <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="61" t="s">
         <v>377</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="61" t="s">
         <v>75</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -10518,8 +10530,8 @@
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="8" t="s">
         <v>84</v>
       </c>
@@ -10541,8 +10553,8 @@
       <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="8" t="s">
         <v>378</v>
       </c>
@@ -10562,8 +10574,8 @@
       <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="8" t="s">
         <v>85</v>
       </c>
@@ -10583,8 +10595,8 @@
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="61"/>
       <c r="C28" s="8" t="s">
         <v>379</v>
       </c>
@@ -10604,10 +10616,10 @@
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="60" t="s">
         <v>79</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -10631,8 +10643,8 @@
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="10" t="s">
         <v>99</v>
       </c>
@@ -10654,8 +10666,8 @@
       <c r="I30" s="9"/>
     </row>
     <row r="31" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
       <c r="C31" s="10" t="s">
         <v>390</v>
       </c>
@@ -10675,8 +10687,8 @@
       <c r="I31" s="9"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="10" t="s">
         <v>100</v>
       </c>
@@ -10696,8 +10708,8 @@
       <c r="I32" s="9"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="10" t="s">
         <v>391</v>
       </c>
@@ -10717,10 +10729,10 @@
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="1:9" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="57" t="s">
         <v>92</v>
       </c>
       <c r="C34" s="10" t="s">
@@ -10744,8 +10756,8 @@
       <c r="I34" s="13"/>
     </row>
     <row r="35" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="58"/>
       <c r="C35" s="10" t="s">
         <v>94</v>
       </c>
@@ -10765,8 +10777,8 @@
       <c r="I35" s="13"/>
     </row>
     <row r="36" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="58"/>
       <c r="C36" s="10" t="s">
         <v>419</v>
       </c>
@@ -10786,8 +10798,8 @@
       <c r="I36" s="13"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="58"/>
       <c r="C37" s="10" t="s">
         <v>95</v>
       </c>
@@ -10807,8 +10819,8 @@
       <c r="I37" s="13"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
+      <c r="A38" s="59"/>
+      <c r="B38" s="59"/>
       <c r="C38" s="10" t="s">
         <v>711</v>
       </c>

--- a/docs/요구사항정의서.xlsx
+++ b/docs/요구사항정의서.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$220</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$224</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="866">
   <si>
     <t>요구사항 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1864,18 +1864,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LOGIN01-REDIRECT02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 전용 페이지 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 관리자 계정으로 로그인 시 관리자 전용 페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>관리자 전용 기능 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2534,26 +2522,6 @@
     <t xml:space="preserve">* 이메일 입력 란에 메일 주소 입력하고 인증 메일 전송 버튼 클릭 시 입력한 이메일 주소로 인증 번호 코드가 담긴 메일 전송 
 * 인증 번호 코드는 랜덤한 숫자 6글자 
 * 인증 번호는 24시간 동안 활성화 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">* 인증받은 이메일
-* (필수) 비밀번호 입력 란 
-* (필수) 비밀번호 확인 란 
-* (필수) 닉네임 입력 란 
-* (선택) 생년월일 입력 란 
-* (선택) 성별 라디오 버튼 
-* (선택) 우편번호+주소 입력 란 
-* 가입하기 버튼 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 회원가입 타이틀 출력 
-* 인증받은 이메일 출력
-* 필수 입력정보 안내 메시지 출력
-* 필수 : 비밀번호 입력 란, 비밀번호 확인 란, 닉네임 입력 란 
-* 선택 : 생년월일 입력 란, 성별 라디오 버튼, 우편번호+주소 입력 란 
-* 가입하기 버튼 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2939,15 +2907,6 @@
   </si>
   <si>
     <t>회원 정보 수정 폼 입력값 유효성 검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 비밀번호 : 영문대소문자(필수)+숫자(필수)+특수문자(~!@#$%^&amp;*, 선택) 조합, 8~20글자 
-* 비밀번호 확인 : 비밀번호와 비밀번호 확인 입력 값 같은 지 확인 
-* 닉네임: 1~10글자
-* 생년월일: 년 숫자 4글자, 월 숫자 2글자(01~12사이값), 일 숫자 2글자(01~31사이값) 확인
-* 성별: 라디오 버튼으로 남성 혹은 여성 둘 중 하나만 선택
-* 우편번호+주소: 카카오 주소 API 활용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3811,6 +3770,119 @@
   </si>
   <si>
     <t>BOARD04-REDIRECT02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 메인 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 로그인 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 전용 페이지 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADMIN02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADMIN02-PRINT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADMIN02-REDIRECT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADMIN02-REDIRECT02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADMIN02-REDIRECT03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADMIN02-REDIRECT04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADMIN02-REDIRECT05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADMIN02-REDIRECT06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADMIN01-EXECUTE01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADMIN01-EXECUTE02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 이메일 입력 란, 비밀번호 입력 란, 로그인 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 이메일 입력 란
+* 비밀번호 입력 란
+* 로그인 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 메인 페이지 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 로그인 성공 시 관리자 메인 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 인증받은 이메일
+* (필수) 비밀번호 입력 란 
+* (필수) 비밀번호 확인 란
+* (필수) 이름 입력 란
+* (필수) 성별 라디오 버튼 
+* (필수) 생년월일 입력 란 
+* (필수) 닉네임 입력 란
+* (선택) 프로필 이미지 입력 란
+* (선택) 우편번호+주소 입력 란 
+* 가입하기 버튼 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 회원가입 타이틀 출력 
+* 인증받은 이메일 출력
+* 필수 입력정보 안내 메시지 출력
+* 필수 : 비밀번호 입력 란, 비밀번호 확인 란, 이름 입력 란, 성별 라디오 버튼, 생년월일 입력 란, 닉네임 입력 란 
+* 선택 : 프로필 이미지 입력 란, 우편번호+주소 입력 란 
+* 가입하기 버튼 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DETAIL01-EXECUTE02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 찜 클릭되어 있는 상태에서 찜 버튼 한번 더 클릭 시 찜 삭제, 삭제는 물리적 삭제가 아닌 플래그로 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 비밀번호 : 영문대소문자(필수)+숫자(필수)+특수문자(~!@#$%^&amp;*, 선택) 조합, 8~20글자 
+* 비밀번호 확인 : 비밀번호와 비밀번호 확인 입력 값 같은 지 확인 
+* 닉네임: 1~10글자
+* 생년월일: 년 숫자 4글자(1900~2023), 월 숫자 2글자(01~12사이값), 일 숫자 2글자(01~31사이값) 확인
+* 성별: 라디오 버튼으로 남성 혹은 여성 둘 중 하나만 선택
+* 우편번호+주소: 카카오 주소 API 활용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3919,7 +3991,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3990,7 +4062,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4072,6 +4144,66 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4090,21 +4222,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4114,52 +4231,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4177,10 +4267,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4463,11 +4559,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J220"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F181" sqref="F181"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F172" sqref="F172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4492,7 +4589,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -4507,7 +4604,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -4516,15 +4613,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="132" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+    <row r="2" spans="1:10" ht="132" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="54" t="s">
-        <v>765</v>
+      <c r="C2" s="33" t="s">
+        <v>759</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
@@ -4536,22 +4633,22 @@
         <v>116</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="H2" s="16">
         <v>1</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
+        <v>714</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
@@ -4566,14 +4663,14 @@
         <v>1</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="2" t="s">
         <v>133</v>
       </c>
@@ -4588,14 +4685,14 @@
         <v>1</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="2" t="s">
         <v>136</v>
       </c>
@@ -4610,14 +4707,14 @@
         <v>2</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="2" t="s">
         <v>140</v>
       </c>
@@ -4632,15 +4729,15 @@
         <v>3</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="56" t="s">
-        <v>768</v>
+    <row r="7" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="43" t="s">
+        <v>762</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>111</v>
@@ -4658,14 +4755,14 @@
         <v>1</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="56"/>
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="19" t="s">
         <v>10</v>
       </c>
@@ -4676,20 +4773,20 @@
         <v>164</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="H8" s="20">
         <v>1</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J8" s="20"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="56"/>
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="19" t="s">
         <v>144</v>
       </c>
@@ -4704,14 +4801,14 @@
         <v>1</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J9" s="20"/>
     </row>
-    <row r="10" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="56"/>
+    <row r="10" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="19" t="s">
         <v>152</v>
       </c>
@@ -4726,14 +4823,14 @@
         <v>1</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J10" s="20"/>
     </row>
-    <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="56"/>
+    <row r="11" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="19" t="s">
         <v>155</v>
       </c>
@@ -4748,15 +4845,15 @@
         <v>3</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J11" s="20"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54" t="s">
-        <v>783</v>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33" t="s">
+        <v>777</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>124</v>
@@ -4774,14 +4871,14 @@
         <v>2</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="2" t="s">
         <v>126</v>
       </c>
@@ -4798,14 +4895,14 @@
         <v>2</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
+    <row r="14" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="2" t="s">
         <v>156</v>
       </c>
@@ -4820,15 +4917,15 @@
         <v>2</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="56" t="s">
-        <v>764</v>
+    <row r="15" spans="1:10" ht="66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="43" t="s">
+        <v>758</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>113</v>
@@ -4846,14 +4943,14 @@
         <v>3</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J15" s="20"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="56"/>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="19" t="s">
         <v>162</v>
       </c>
@@ -4864,21 +4961,21 @@
         <v>120</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="H16" s="20">
         <v>3</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54" t="s">
-        <v>767</v>
+    <row r="17" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33" t="s">
+        <v>761</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>114</v>
@@ -4896,14 +4993,14 @@
         <v>4</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J17" s="16"/>
     </row>
-    <row r="18" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
+    <row r="18" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="2" t="s">
         <v>291</v>
       </c>
@@ -4920,19 +5017,19 @@
         <v>4</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="55" t="s">
+    <row r="19" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="55" t="s">
-        <v>769</v>
+      <c r="C19" s="34" t="s">
+        <v>763</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>13</v>
@@ -4950,14 +5047,14 @@
         <v>1</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J19" s="18"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="3" t="s">
         <v>14</v>
       </c>
@@ -4972,22 +5069,22 @@
         <v>3</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J20" s="18"/>
     </row>
-    <row r="21" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="46" t="s">
+    <row r="21" spans="1:10" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="46" t="s">
-        <v>771</v>
+      <c r="C21" s="35" t="s">
+        <v>765</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>182</v>
@@ -4996,22 +5093,22 @@
         <v>186</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="H21" s="14">
         <v>1</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+        <v>717</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="4" t="s">
         <v>16</v>
       </c>
@@ -5026,14 +5123,14 @@
         <v>1</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J22" s="14"/>
     </row>
-    <row r="23" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
+    <row r="23" spans="1:10" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="4" t="s">
         <v>17</v>
       </c>
@@ -5048,14 +5145,14 @@
         <v>1</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J23" s="14"/>
     </row>
-    <row r="24" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
+    <row r="24" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="4" t="s">
         <v>177</v>
       </c>
@@ -5070,18 +5167,18 @@
         <v>1</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J24" s="14"/>
     </row>
-    <row r="25" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="51" t="s">
-        <v>772</v>
+    <row r="25" spans="1:10" ht="66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="41" t="s">
+        <v>766</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="E25" s="24" t="s">
         <v>170</v>
@@ -5096,16 +5193,16 @@
         <v>2</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>470</v>
-      </c>
-      <c r="J25" s="51" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="51"/>
+        <v>467</v>
+      </c>
+      <c r="J25" s="41" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="24" t="s">
         <v>180</v>
       </c>
@@ -5120,18 +5217,18 @@
         <v>2</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>470</v>
-      </c>
-      <c r="J26" s="51"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46" t="s">
-        <v>773</v>
+        <v>467</v>
+      </c>
+      <c r="J26" s="41"/>
+    </row>
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35" t="s">
+        <v>767</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>171</v>
@@ -5146,16 +5243,16 @@
         <v>3</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>470</v>
-      </c>
-      <c r="J27" s="46" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
+        <v>467</v>
+      </c>
+      <c r="J27" s="35" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="4" t="s">
         <v>187</v>
       </c>
@@ -5170,19 +5267,19 @@
         <v>3</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>470</v>
-      </c>
-      <c r="J28" s="46"/>
-    </row>
-    <row r="29" spans="1:10" ht="99" x14ac:dyDescent="0.3">
-      <c r="A29" s="52" t="s">
+        <v>467</v>
+      </c>
+      <c r="J28" s="35"/>
+    </row>
+    <row r="29" spans="1:10" ht="99" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="C29" s="52" t="s">
-        <v>775</v>
+      <c r="C29" s="36" t="s">
+        <v>769</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>147</v>
@@ -5200,14 +5297,14 @@
         <v>2</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J29" s="17"/>
     </row>
-    <row r="30" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
+    <row r="30" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="5" t="s">
         <v>148</v>
       </c>
@@ -5222,14 +5319,14 @@
         <v>2</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J30" s="17"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="52"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="5" t="s">
         <v>149</v>
       </c>
@@ -5244,14 +5341,14 @@
         <v>2</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J31" s="17"/>
     </row>
-    <row r="32" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A32" s="52"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
+    <row r="32" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="5" t="s">
         <v>199</v>
       </c>
@@ -5266,18 +5363,18 @@
         <v>4</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J32" s="17"/>
     </row>
-    <row r="33" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A33" s="52"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="53" t="s">
-        <v>776</v>
+    <row r="33" spans="1:10" ht="66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="42" t="s">
+        <v>770</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="E33" s="21" t="s">
         <v>410</v>
@@ -5292,14 +5389,14 @@
         <v>4</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J33" s="22"/>
     </row>
-    <row r="34" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" s="52"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="53"/>
+    <row r="34" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="42"/>
       <c r="D34" s="21" t="s">
         <v>204</v>
       </c>
@@ -5314,14 +5411,14 @@
         <v>4</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J34" s="22"/>
     </row>
-    <row r="35" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="52"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="53"/>
+    <row r="35" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="42"/>
       <c r="D35" s="21" t="s">
         <v>193</v>
       </c>
@@ -5336,14 +5433,14 @@
         <v>4</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J35" s="22"/>
     </row>
-    <row r="36" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A36" s="52"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="53"/>
+    <row r="36" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="42"/>
       <c r="D36" s="21" t="s">
         <v>196</v>
       </c>
@@ -5358,19 +5455,19 @@
         <v>4</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J36" s="22"/>
     </row>
-    <row r="37" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="50" t="s">
+    <row r="37" spans="1:10" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="50" t="s">
-        <v>777</v>
+      <c r="C37" s="37" t="s">
+        <v>771</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>19</v>
@@ -5388,16 +5485,16 @@
         <v>1</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A38" s="50"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
+        <v>718</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="6" t="s">
         <v>20</v>
       </c>
@@ -5412,14 +5509,14 @@
         <v>1</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J38" s="15"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="50"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="6" t="s">
         <v>21</v>
       </c>
@@ -5434,14 +5531,14 @@
         <v>1</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J39" s="15"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="50"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="6" t="s">
         <v>212</v>
       </c>
@@ -5456,14 +5553,14 @@
         <v>2</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J40" s="15"/>
     </row>
-    <row r="41" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="50"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
+    <row r="41" spans="1:10" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="37"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
       <c r="D41" s="6" t="s">
         <v>215</v>
       </c>
@@ -5478,14 +5575,14 @@
         <v>2</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J41" s="15"/>
     </row>
-    <row r="42" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="50"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
+    <row r="42" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
       <c r="D42" s="6" t="s">
         <v>219</v>
       </c>
@@ -5502,14 +5599,14 @@
         <v>3</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J42" s="15"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="50"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="6" t="s">
         <v>222</v>
       </c>
@@ -5526,14 +5623,14 @@
         <v>3</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J43" s="15"/>
     </row>
-    <row r="44" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
+    <row r="44" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="6" t="s">
         <v>218</v>
       </c>
@@ -5548,19 +5645,19 @@
         <v>4</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J44" s="15"/>
     </row>
-    <row r="45" spans="1:10" ht="132" x14ac:dyDescent="0.3">
-      <c r="A45" s="54" t="s">
+    <row r="45" spans="1:10" ht="132" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="30" t="s">
-        <v>778</v>
+      <c r="C45" s="50" t="s">
+        <v>772</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>28</v>
@@ -5569,23 +5666,23 @@
         <v>228</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="H45" s="16">
         <v>1</v>
       </c>
       <c r="I45" s="16" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J45" s="16"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="32"/>
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="52"/>
       <c r="D46" s="2" t="s">
         <v>29</v>
       </c>
@@ -5600,15 +5697,15 @@
         <v>1</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J46" s="16"/>
     </row>
-    <row r="47" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="36" t="s">
-        <v>818</v>
+    <row r="47" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="61" t="s">
+        <v>812</v>
       </c>
       <c r="D47" s="19" t="s">
         <v>229</v>
@@ -5626,16 +5723,16 @@
         <v>2</v>
       </c>
       <c r="I47" s="20" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A48" s="54"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="37"/>
+    <row r="48" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="62"/>
       <c r="D48" s="19" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>233</v>
@@ -5648,4259 +5745,4329 @@
         <v>2</v>
       </c>
       <c r="I48" s="20" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A49" s="54"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="30" t="s">
-        <v>802</v>
+    <row r="49" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="50" t="s">
+        <v>796</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>745</v>
-      </c>
       <c r="G49" s="2" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="H49" s="16">
         <v>3</v>
       </c>
       <c r="I49" s="16" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J49" s="16"/>
     </row>
-    <row r="50" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A50" s="54"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="32"/>
+    <row r="50" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="51"/>
       <c r="D50" s="2" t="s">
-        <v>742</v>
+        <v>862</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>483</v>
+        <v>863</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>744</v>
+        <v>864</v>
       </c>
       <c r="G50" s="2"/>
-      <c r="H50" s="16">
+      <c r="H50" s="31">
         <v>3</v>
       </c>
-      <c r="I50" s="16" t="s">
-        <v>471</v>
-      </c>
-      <c r="J50" s="16"/>
-    </row>
-    <row r="51" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A51" s="54"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="20" t="s">
-        <v>819</v>
-      </c>
-      <c r="D51" s="19" t="s">
+      <c r="I50" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="J50" s="31"/>
+    </row>
+    <row r="51" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="16">
+        <v>3</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="J51" s="16"/>
+    </row>
+    <row r="52" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="20" t="s">
+        <v>813</v>
+      </c>
+      <c r="D52" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E52" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="F51" s="19" t="s">
+      <c r="F52" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="G51" s="19" t="s">
+      <c r="G52" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="H51" s="20">
+      <c r="H52" s="20">
         <v>4</v>
       </c>
-      <c r="I51" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="1:10" ht="132" x14ac:dyDescent="0.3">
-      <c r="A52" s="55" t="s">
+      <c r="I52" s="20" t="s">
+        <v>468</v>
+      </c>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="1:10" ht="132" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="B52" s="55" t="s">
+      <c r="B53" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="C52" s="33" t="s">
-        <v>779</v>
-      </c>
-      <c r="D52" s="3" t="s">
+      <c r="C53" s="38" t="s">
+        <v>773</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="H52" s="18">
-        <v>3</v>
-      </c>
-      <c r="I52" s="18" t="s">
-        <v>471</v>
-      </c>
-      <c r="J52" s="18"/>
-    </row>
-    <row r="53" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="55"/>
-      <c r="B53" s="55"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>748</v>
-      </c>
       <c r="F53" s="3" t="s">
-        <v>750</v>
+        <v>722</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>752</v>
+        <v>723</v>
       </c>
       <c r="H53" s="18">
         <v>3</v>
       </c>
       <c r="I53" s="18" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J53" s="18"/>
     </row>
-    <row r="54" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A54" s="55"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="34"/>
+    <row r="54" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="39"/>
       <c r="D54" s="3" t="s">
-        <v>319</v>
+        <v>749</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>264</v>
+        <v>742</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>270</v>
+        <v>744</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>271</v>
+        <v>746</v>
       </c>
       <c r="H54" s="18">
         <v>3</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J54" s="18"/>
     </row>
-    <row r="55" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A55" s="55"/>
-      <c r="B55" s="55"/>
-      <c r="C55" s="34"/>
+    <row r="55" spans="1:10" ht="66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="34"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="39"/>
       <c r="D55" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>754</v>
+        <v>270</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H55" s="18">
         <v>3</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J55" s="18"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="55"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="34"/>
+    <row r="56" spans="1:10" ht="66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="34"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="39"/>
       <c r="D56" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="G56" s="3"/>
+        <v>748</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="H56" s="18">
         <v>3</v>
       </c>
       <c r="I56" s="18" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J56" s="18"/>
     </row>
-    <row r="57" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="55"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="34"/>
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="39"/>
       <c r="D57" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>273</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G57" s="3"/>
       <c r="H57" s="18">
         <v>3</v>
       </c>
       <c r="I57" s="18" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J57" s="18"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="55"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="35"/>
+    <row r="58" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="34"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="39"/>
       <c r="D58" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="H58" s="18">
+        <v>3</v>
+      </c>
+      <c r="I58" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="J58" s="18"/>
+    </row>
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="34"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F59" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="18">
+      <c r="G59" s="3"/>
+      <c r="H59" s="18">
         <v>4</v>
       </c>
-      <c r="I58" s="18" t="s">
-        <v>471</v>
-      </c>
-      <c r="J58" s="18"/>
-    </row>
-    <row r="59" spans="1:10" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="46" t="s">
+      <c r="I59" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="J59" s="18"/>
+    </row>
+    <row r="60" spans="1:10" ht="181.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="46" t="s">
+      <c r="B60" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="38" t="s">
-        <v>781</v>
-      </c>
-      <c r="D59" s="4" t="s">
+      <c r="C60" s="53" t="s">
+        <v>775</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E60" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F60" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="G60" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="H59" s="14">
-        <v>2</v>
-      </c>
-      <c r="I59" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="J59" s="14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="46"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="G60" s="4"/>
       <c r="H60" s="14">
         <v>2</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="J60" s="14"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="46"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="40"/>
+        <v>469</v>
+      </c>
+      <c r="J60" s="14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="54"/>
       <c r="D61" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="14">
         <v>2</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="J61" s="14"/>
     </row>
-    <row r="62" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A62" s="46"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="47" t="s">
-        <v>782</v>
-      </c>
-      <c r="D62" s="24" t="s">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="14">
+        <v>2</v>
+      </c>
+      <c r="I62" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="J62" s="14"/>
+    </row>
+    <row r="63" spans="1:10" ht="66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="56" t="s">
+        <v>776</v>
+      </c>
+      <c r="D63" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="E62" s="24" t="s">
+      <c r="E63" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="F62" s="24" t="s">
+      <c r="F63" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="G62" s="24" t="s">
+      <c r="G63" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="H62" s="23">
-        <v>3</v>
-      </c>
-      <c r="I62" s="23" t="s">
-        <v>472</v>
-      </c>
-      <c r="J62" s="23"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="46"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="24" t="s">
-        <v>360</v>
-      </c>
-      <c r="E63" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="F63" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="G63" s="24"/>
       <c r="H63" s="23">
         <v>3</v>
       </c>
       <c r="I63" s="23" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="J63" s="23"/>
     </row>
-    <row r="64" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="52" t="s">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="F64" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="G64" s="24"/>
+      <c r="H64" s="23">
+        <v>3</v>
+      </c>
+      <c r="I64" s="23" t="s">
+        <v>469</v>
+      </c>
+      <c r="J64" s="23"/>
+    </row>
+    <row r="65" spans="1:10" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="36" t="s">
         <v>301</v>
       </c>
-      <c r="B64" s="52" t="s">
+      <c r="B65" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C64" s="43" t="s">
-        <v>780</v>
-      </c>
-      <c r="D64" s="5" t="s">
+      <c r="C65" s="44" t="s">
+        <v>774</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E65" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F65" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G65" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="H64" s="17">
-        <v>2</v>
-      </c>
-      <c r="I64" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="J64" s="17"/>
-    </row>
-    <row r="65" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="52"/>
-      <c r="B65" s="52"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>307</v>
       </c>
       <c r="H65" s="17">
         <v>2</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="J65" s="17"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="52"/>
-      <c r="B66" s="52"/>
-      <c r="C66" s="44"/>
+    <row r="66" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="36"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="45"/>
       <c r="D66" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>142</v>
+        <v>305</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="G66" s="5"/>
+        <v>306</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>307</v>
+      </c>
       <c r="H66" s="17">
         <v>2</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="J66" s="17"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="52"/>
-      <c r="B67" s="52"/>
-      <c r="C67" s="44"/>
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="36"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="45"/>
       <c r="D67" s="5" t="s">
-        <v>275</v>
+        <v>55</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>303</v>
+        <v>142</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="17">
         <v>2</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="J67" s="17"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="52"/>
-      <c r="B68" s="52"/>
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="36"/>
+      <c r="B68" s="36"/>
       <c r="C68" s="45"/>
       <c r="D68" s="5" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="17">
+        <v>2</v>
+      </c>
+      <c r="I68" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="J68" s="17"/>
+    </row>
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="36"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G69" s="5"/>
+      <c r="H69" s="17">
         <v>4</v>
       </c>
-      <c r="I68" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="J68" s="17"/>
-    </row>
-    <row r="69" spans="1:10" ht="132" x14ac:dyDescent="0.3">
-      <c r="A69" s="50" t="s">
+      <c r="I69" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="J69" s="17"/>
+    </row>
+    <row r="70" spans="1:10" ht="132" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="37" t="s">
         <v>316</v>
       </c>
-      <c r="B69" s="50" t="s">
+      <c r="B70" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="C69" s="27" t="s">
-        <v>784</v>
-      </c>
-      <c r="D69" s="6" t="s">
+      <c r="C70" s="47" t="s">
+        <v>778</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E70" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="F69" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="H69" s="15">
-        <v>3</v>
-      </c>
-      <c r="I69" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="J69" s="15"/>
-    </row>
-    <row r="70" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="50"/>
-      <c r="B70" s="50"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="6" t="s">
-        <v>747</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>749</v>
-      </c>
       <c r="F70" s="6" t="s">
-        <v>751</v>
+        <v>722</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>753</v>
+        <v>723</v>
       </c>
       <c r="H70" s="15">
         <v>3</v>
       </c>
       <c r="I70" s="15" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="J70" s="15"/>
     </row>
-    <row r="71" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A71" s="50"/>
-      <c r="B71" s="50"/>
-      <c r="C71" s="28"/>
+    <row r="71" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="37"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="48"/>
       <c r="D71" s="6" t="s">
-        <v>325</v>
+        <v>741</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>264</v>
+        <v>743</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>270</v>
+        <v>745</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>271</v>
+        <v>747</v>
       </c>
       <c r="H71" s="15">
         <v>3</v>
       </c>
       <c r="I71" s="15" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="J71" s="15"/>
     </row>
-    <row r="72" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A72" s="50"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="28"/>
+    <row r="72" spans="1:10" ht="66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="37"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="48"/>
       <c r="D72" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>754</v>
+        <v>270</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H72" s="15">
         <v>3</v>
       </c>
       <c r="I72" s="15" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="J72" s="15"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="50"/>
-      <c r="B73" s="50"/>
-      <c r="C73" s="28"/>
+    <row r="73" spans="1:10" ht="66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="37"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="48"/>
       <c r="D73" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="G73" s="6"/>
+        <v>748</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>274</v>
+      </c>
       <c r="H73" s="15">
         <v>3</v>
       </c>
       <c r="I73" s="15" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="J73" s="15"/>
     </row>
-    <row r="74" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="50"/>
-      <c r="B74" s="50"/>
-      <c r="C74" s="28"/>
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="37"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="48"/>
       <c r="D74" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>273</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G74" s="6"/>
       <c r="H74" s="15">
         <v>3</v>
       </c>
       <c r="I74" s="15" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="J74" s="15"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="50"/>
-      <c r="B75" s="50"/>
-      <c r="C75" s="29"/>
+    <row r="75" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="37"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="48"/>
       <c r="D75" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="H75" s="15">
+        <v>3</v>
+      </c>
+      <c r="I75" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="J75" s="15"/>
+    </row>
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="37"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E76" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="F75" s="6" t="s">
+      <c r="F76" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="G75" s="6"/>
-      <c r="H75" s="15">
+      <c r="G76" s="6"/>
+      <c r="H76" s="15">
         <v>4</v>
       </c>
-      <c r="I75" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="J75" s="15"/>
-    </row>
-    <row r="76" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A76" s="54" t="s">
+      <c r="I76" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="J76" s="15"/>
+    </row>
+    <row r="77" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="54" t="s">
+      <c r="B77" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C76" s="30" t="s">
-        <v>785</v>
-      </c>
-      <c r="D76" s="2" t="s">
+      <c r="C77" s="50" t="s">
+        <v>779</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="H76" s="16">
-        <v>2</v>
-      </c>
-      <c r="I76" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="J76" s="16"/>
-    </row>
-    <row r="77" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A77" s="54"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>308</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>288</v>
+        <v>724</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>289</v>
+        <v>725</v>
       </c>
       <c r="H77" s="16">
         <v>2</v>
       </c>
       <c r="I77" s="16" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="J77" s="16"/>
     </row>
-    <row r="78" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A78" s="54"/>
-      <c r="B78" s="54"/>
-      <c r="C78" s="31"/>
+    <row r="78" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="33"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="51"/>
       <c r="D78" s="2" t="s">
-        <v>290</v>
+        <v>59</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="G78" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="H78" s="16">
         <v>2</v>
       </c>
       <c r="I78" s="16" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="J78" s="16"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="54"/>
-      <c r="B79" s="54"/>
-      <c r="C79" s="31"/>
+    <row r="79" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="33"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="51"/>
       <c r="D79" s="2" t="s">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="16">
         <v>2</v>
       </c>
       <c r="I79" s="16" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="J79" s="16"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="54"/>
-      <c r="B80" s="54"/>
-      <c r="C80" s="32"/>
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="33"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="51"/>
       <c r="D80" s="2" t="s">
-        <v>284</v>
+        <v>60</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>142</v>
+        <v>282</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="16">
         <v>2</v>
       </c>
       <c r="I80" s="16" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="J80" s="16"/>
     </row>
-    <row r="81" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A81" s="55" t="s">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="33"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="52"/>
+      <c r="D81" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G81" s="2"/>
+      <c r="H81" s="16">
+        <v>2</v>
+      </c>
+      <c r="I81" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="J81" s="16"/>
+    </row>
+    <row r="82" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B81" s="55" t="s">
+      <c r="B82" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C81" s="33" t="s">
-        <v>786</v>
-      </c>
-      <c r="D81" s="3" t="s">
+      <c r="C82" s="38" t="s">
+        <v>780</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E82" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="H81" s="18">
-        <v>2</v>
-      </c>
-      <c r="I81" s="18" t="s">
-        <v>472</v>
-      </c>
-      <c r="J81" s="18"/>
-    </row>
-    <row r="82" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A82" s="55"/>
-      <c r="B82" s="55"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>312</v>
-      </c>
       <c r="F82" s="3" t="s">
-        <v>381</v>
+        <v>726</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>299</v>
+        <v>727</v>
       </c>
       <c r="H82" s="18">
         <v>2</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="J82" s="18"/>
     </row>
-    <row r="83" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A83" s="55"/>
-      <c r="B83" s="55"/>
-      <c r="C83" s="34"/>
+    <row r="83" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="34"/>
+      <c r="B83" s="34"/>
+      <c r="C83" s="39"/>
       <c r="D83" s="3" t="s">
-        <v>300</v>
+        <v>64</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G83" s="3"/>
+        <v>381</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>299</v>
+      </c>
       <c r="H83" s="18">
         <v>2</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="J83" s="18"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="55"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="34"/>
+    <row r="84" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="34"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="39"/>
       <c r="D84" s="3" t="s">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>388</v>
+        <v>295</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="18">
         <v>2</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="J84" s="18"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="55"/>
-      <c r="B85" s="55"/>
-      <c r="C85" s="35"/>
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="34"/>
+      <c r="B85" s="34"/>
+      <c r="C85" s="39"/>
       <c r="D85" s="3" t="s">
-        <v>848</v>
+        <v>65</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>141</v>
+        <v>281</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>285</v>
+        <v>388</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="18">
         <v>2</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="J85" s="18"/>
     </row>
-    <row r="86" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A86" s="46" t="s">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="34"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G86" s="3"/>
+      <c r="H86" s="18">
+        <v>2</v>
+      </c>
+      <c r="I86" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="J86" s="18"/>
+    </row>
+    <row r="87" spans="1:10" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B86" s="46" t="s">
+      <c r="B87" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C86" s="38" t="s">
-        <v>787</v>
-      </c>
-      <c r="D86" s="4" t="s">
+      <c r="C87" s="53" t="s">
+        <v>781</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E87" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F87" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="G86" s="4" t="s">
+      <c r="G87" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="H86" s="14">
-        <v>3</v>
-      </c>
-      <c r="I86" s="14" t="s">
-        <v>717</v>
-      </c>
-      <c r="J86" s="14"/>
-    </row>
-    <row r="87" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A87" s="46"/>
-      <c r="B87" s="46"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="G87" s="4"/>
       <c r="H87" s="14">
         <v>3</v>
       </c>
       <c r="I87" s="14" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="J87" s="14"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="46"/>
-      <c r="B88" s="46"/>
-      <c r="C88" s="40"/>
+    <row r="88" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="35"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="54"/>
       <c r="D88" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="14">
         <v>3</v>
       </c>
       <c r="I88" s="14" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="J88" s="14"/>
     </row>
-    <row r="89" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A89" s="46"/>
-      <c r="B89" s="46"/>
-      <c r="C89" s="47" t="s">
-        <v>788</v>
-      </c>
-      <c r="D89" s="24" t="s">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="35"/>
+      <c r="B89" s="35"/>
+      <c r="C89" s="55"/>
+      <c r="D89" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="G89" s="4"/>
+      <c r="H89" s="14">
+        <v>3</v>
+      </c>
+      <c r="I89" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="J89" s="14"/>
+    </row>
+    <row r="90" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="35"/>
+      <c r="B90" s="35"/>
+      <c r="C90" s="56" t="s">
+        <v>782</v>
+      </c>
+      <c r="D90" s="24" t="s">
         <v>351</v>
       </c>
-      <c r="E89" s="24" t="s">
+      <c r="E90" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="F89" s="24" t="s">
+      <c r="F90" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="G89" s="24" t="s">
+      <c r="G90" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="H89" s="23">
-        <v>4</v>
-      </c>
-      <c r="I89" s="23" t="s">
-        <v>717</v>
-      </c>
-      <c r="J89" s="23"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" s="46"/>
-      <c r="B90" s="46"/>
-      <c r="C90" s="48"/>
-      <c r="D90" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="E90" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="F90" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="G90" s="24"/>
       <c r="H90" s="23">
         <v>4</v>
       </c>
       <c r="I90" s="23" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="J90" s="23"/>
     </row>
-    <row r="91" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A91" s="52" t="s">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="35"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="E91" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="F91" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="G91" s="24"/>
+      <c r="H91" s="23">
+        <v>4</v>
+      </c>
+      <c r="I91" s="23" t="s">
+        <v>711</v>
+      </c>
+      <c r="J91" s="23"/>
+    </row>
+    <row r="92" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="B91" s="52" t="s">
+      <c r="B92" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C91" s="43" t="s">
-        <v>789</v>
-      </c>
-      <c r="D91" s="5" t="s">
+      <c r="C92" s="44" t="s">
+        <v>783</v>
+      </c>
+      <c r="D92" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="E92" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="F92" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="G91" s="5" t="s">
+      <c r="G92" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="H91" s="17">
-        <v>3</v>
-      </c>
-      <c r="I91" s="17" t="s">
-        <v>717</v>
-      </c>
-      <c r="J91" s="17"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" s="52"/>
-      <c r="B92" s="52"/>
-      <c r="C92" s="45"/>
-      <c r="D92" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G92" s="5"/>
       <c r="H92" s="17">
         <v>3</v>
       </c>
       <c r="I92" s="17" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="J92" s="17"/>
     </row>
-    <row r="93" spans="1:10" ht="165" x14ac:dyDescent="0.3">
-      <c r="A93" s="50" t="s">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="36"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="46"/>
+      <c r="D93" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G93" s="5"/>
+      <c r="H93" s="17">
+        <v>3</v>
+      </c>
+      <c r="I93" s="17" t="s">
+        <v>711</v>
+      </c>
+      <c r="J93" s="17"/>
+    </row>
+    <row r="94" spans="1:10" ht="165" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B93" s="50" t="s">
+      <c r="B94" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C93" s="27" t="s">
-        <v>790</v>
-      </c>
-      <c r="D93" s="6" t="s">
+      <c r="C94" s="47" t="s">
+        <v>784</v>
+      </c>
+      <c r="D94" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E94" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="F94" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="G93" s="6" t="s">
+      <c r="G94" s="6" t="s">
         <v>407</v>
-      </c>
-      <c r="H93" s="15">
-        <v>3</v>
-      </c>
-      <c r="I93" s="15" t="s">
-        <v>718</v>
-      </c>
-      <c r="J93" s="15" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A94" s="50"/>
-      <c r="B94" s="50"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>405</v>
       </c>
       <c r="H94" s="15">
         <v>3</v>
       </c>
       <c r="I94" s="15" t="s">
-        <v>718</v>
-      </c>
-      <c r="J94" s="15"/>
-    </row>
-    <row r="95" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A95" s="50"/>
-      <c r="B95" s="50"/>
-      <c r="C95" s="28"/>
+        <v>712</v>
+      </c>
+      <c r="J94" s="15" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="37"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="48"/>
       <c r="D95" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="G95" s="6"/>
+        <v>409</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>405</v>
+      </c>
       <c r="H95" s="15">
         <v>3</v>
       </c>
       <c r="I95" s="15" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="J95" s="15"/>
     </row>
-    <row r="96" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A96" s="50"/>
-      <c r="B96" s="50"/>
-      <c r="C96" s="28"/>
+    <row r="96" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="37"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="48"/>
       <c r="D96" s="6" t="s">
-        <v>414</v>
+        <v>90</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="G96" s="6"/>
       <c r="H96" s="15">
+        <v>3</v>
+      </c>
+      <c r="I96" s="15" t="s">
+        <v>712</v>
+      </c>
+      <c r="J96" s="15"/>
+    </row>
+    <row r="97" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="37"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="48"/>
+      <c r="D97" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="G97" s="6"/>
+      <c r="H97" s="15">
         <v>4</v>
       </c>
-      <c r="I96" s="15" t="s">
-        <v>718</v>
-      </c>
-      <c r="J96" s="15"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A97" s="54" t="s">
+      <c r="I97" s="15" t="s">
+        <v>712</v>
+      </c>
+      <c r="J97" s="15"/>
+    </row>
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B97" s="54" t="s">
+      <c r="B98" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="C97" s="30" t="s">
-        <v>792</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="C98" s="50" t="s">
+        <v>786</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="H97" s="16">
-        <v>4</v>
-      </c>
-      <c r="I97" s="16" t="s">
-        <v>719</v>
-      </c>
-      <c r="J97" s="16"/>
-    </row>
-    <row r="98" spans="1:10" ht="99" x14ac:dyDescent="0.3">
-      <c r="A98" s="54"/>
-      <c r="B98" s="54"/>
-      <c r="C98" s="31"/>
-      <c r="D98" s="2" t="s">
-        <v>455</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F98" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="H98" s="16">
         <v>4</v>
       </c>
       <c r="I98" s="16" t="s">
-        <v>719</v>
-      </c>
-      <c r="J98" s="16" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A99" s="54"/>
-      <c r="B99" s="54"/>
-      <c r="C99" s="31"/>
+        <v>713</v>
+      </c>
+      <c r="J98" s="16"/>
+    </row>
+    <row r="99" spans="1:10" ht="99" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="33"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="51"/>
       <c r="D99" s="2" t="s">
-        <v>107</v>
+        <v>452</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="G99" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>466</v>
+      </c>
       <c r="H99" s="16">
         <v>4</v>
       </c>
       <c r="I99" s="16" t="s">
-        <v>719</v>
-      </c>
-      <c r="J99" s="16"/>
-    </row>
-    <row r="100" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A100" s="54"/>
-      <c r="B100" s="54"/>
-      <c r="C100" s="31"/>
+        <v>713</v>
+      </c>
+      <c r="J99" s="16" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="33"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="51"/>
       <c r="D100" s="2" t="s">
-        <v>463</v>
+        <v>107</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="G100" s="2"/>
       <c r="H100" s="16">
         <v>4</v>
       </c>
       <c r="I100" s="16" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="J100" s="16"/>
     </row>
-    <row r="101" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A101" s="54"/>
-      <c r="B101" s="54"/>
-      <c r="C101" s="31"/>
+    <row r="101" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="33"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="51"/>
       <c r="D101" s="2" t="s">
-        <v>108</v>
+        <v>460</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>175</v>
+        <v>461</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="16">
         <v>4</v>
       </c>
       <c r="I101" s="16" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="J101" s="16"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A102" s="54"/>
-      <c r="B102" s="54"/>
-      <c r="C102" s="32"/>
+    <row r="102" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="33"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="51"/>
       <c r="D102" s="2" t="s">
-        <v>462</v>
+        <v>108</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="G102" s="25"/>
+        <v>458</v>
+      </c>
+      <c r="G102" s="2"/>
       <c r="H102" s="16">
         <v>4</v>
       </c>
-      <c r="I102" s="26" t="s">
-        <v>719</v>
-      </c>
-      <c r="J102" s="26"/>
-    </row>
-    <row r="103" spans="1:10" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="55" t="s">
+      <c r="I102" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="J102" s="16"/>
+    </row>
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="33"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="52"/>
+      <c r="D103" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="G103" s="25"/>
+      <c r="H103" s="16">
+        <v>4</v>
+      </c>
+      <c r="I103" s="26" t="s">
+        <v>713</v>
+      </c>
+      <c r="J103" s="26"/>
+    </row>
+    <row r="104" spans="1:10" ht="123.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B103" s="55" t="s">
+      <c r="B104" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="C103" s="33" t="s">
-        <v>791</v>
-      </c>
-      <c r="D103" s="3" t="s">
+      <c r="C104" s="38" t="s">
+        <v>785</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E103" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="H103" s="18">
-        <v>4</v>
-      </c>
-      <c r="I103" s="18" t="s">
-        <v>719</v>
-      </c>
-      <c r="J103" s="33" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A104" s="55"/>
-      <c r="B104" s="55"/>
-      <c r="C104" s="35"/>
-      <c r="D104" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="E104" s="3" t="s">
-        <v>132</v>
+        <v>440</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="G104" s="3"/>
+        <v>441</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>442</v>
+      </c>
       <c r="H104" s="18">
         <v>4</v>
       </c>
       <c r="I104" s="18" t="s">
-        <v>719</v>
-      </c>
-      <c r="J104" s="35"/>
-    </row>
-    <row r="105" spans="1:10" ht="132" x14ac:dyDescent="0.3">
-      <c r="A105" s="46" t="s">
+        <v>713</v>
+      </c>
+      <c r="J104" s="38" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="34"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="G105" s="3"/>
+      <c r="H105" s="18">
+        <v>4</v>
+      </c>
+      <c r="I105" s="18" t="s">
+        <v>713</v>
+      </c>
+      <c r="J105" s="40"/>
+    </row>
+    <row r="106" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+      <c r="A106" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B105" s="46" t="s">
+      <c r="B106" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C105" s="38" t="s">
-        <v>793</v>
-      </c>
-      <c r="D105" s="4" t="s">
+      <c r="C106" s="53" t="s">
+        <v>787</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E105" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>761</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="H105" s="14">
-        <v>1</v>
-      </c>
-      <c r="I105" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="J105" s="14"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="46"/>
-      <c r="B106" s="46"/>
-      <c r="C106" s="39"/>
-      <c r="D106" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="E106" s="4" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="G106" s="4"/>
+        <v>755</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>754</v>
+      </c>
       <c r="H106" s="14">
         <v>1</v>
       </c>
       <c r="I106" s="14" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J106" s="14"/>
     </row>
-    <row r="107" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A107" s="46"/>
-      <c r="B107" s="46"/>
-      <c r="C107" s="39"/>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" s="35"/>
+      <c r="B107" s="35"/>
+      <c r="C107" s="54"/>
       <c r="D107" s="4" t="s">
-        <v>453</v>
+        <v>33</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>502</v>
+        <v>473</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="14">
         <v>1</v>
       </c>
       <c r="I107" s="14" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J107" s="14"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A108" s="46"/>
-      <c r="B108" s="46"/>
-      <c r="C108" s="39"/>
+    <row r="108" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A108" s="35"/>
+      <c r="B108" s="35"/>
+      <c r="C108" s="54"/>
       <c r="D108" s="4" t="s">
-        <v>34</v>
+        <v>450</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>338</v>
+        <v>451</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="14">
         <v>1</v>
       </c>
       <c r="I108" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J108" s="14"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" s="35"/>
+      <c r="B109" s="35"/>
+      <c r="C109" s="54"/>
+      <c r="D109" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="G109" s="4"/>
+      <c r="H109" s="14">
+        <v>1</v>
+      </c>
+      <c r="I109" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J109" s="14"/>
+    </row>
+    <row r="110" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A110" s="35"/>
+      <c r="B110" s="35"/>
+      <c r="C110" s="23" t="s">
+        <v>788</v>
+      </c>
+      <c r="D110" s="24" t="s">
         <v>474</v>
       </c>
-      <c r="J108" s="14"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A109" s="46"/>
-      <c r="B109" s="46"/>
-      <c r="C109" s="40"/>
-      <c r="D109" s="62" t="s">
-        <v>427</v>
-      </c>
-      <c r="E109" s="62" t="s">
-        <v>428</v>
-      </c>
-      <c r="F109" s="62" t="s">
-        <v>429</v>
-      </c>
-      <c r="G109" s="62"/>
-      <c r="H109" s="63">
-        <v>3</v>
-      </c>
-      <c r="I109" s="63" t="s">
-        <v>474</v>
-      </c>
-      <c r="J109" s="63"/>
-    </row>
-    <row r="110" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A110" s="46"/>
-      <c r="B110" s="46"/>
-      <c r="C110" s="23" t="s">
-        <v>794</v>
-      </c>
-      <c r="D110" s="24" t="s">
-        <v>477</v>
-      </c>
       <c r="E110" s="24" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F110" s="24" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G110" s="24" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H110" s="23">
         <v>3</v>
       </c>
       <c r="I110" s="23" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J110" s="23"/>
     </row>
     <row r="111" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A111" s="52" t="s">
-        <v>448</v>
-      </c>
-      <c r="B111" s="52" t="s">
-        <v>447</v>
-      </c>
-      <c r="C111" s="43" t="s">
-        <v>795</v>
+      <c r="A111" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="B111" s="36" t="s">
+        <v>444</v>
+      </c>
+      <c r="C111" s="44" t="s">
+        <v>789</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E111" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="F111" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="F111" s="5" t="s">
-        <v>490</v>
-      </c>
       <c r="G111" s="5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H111" s="17">
         <v>2</v>
       </c>
       <c r="I111" s="17" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J111" s="17"/>
     </row>
     <row r="112" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A112" s="52"/>
-      <c r="B112" s="52"/>
-      <c r="C112" s="45"/>
+      <c r="A112" s="36"/>
+      <c r="B112" s="36"/>
+      <c r="C112" s="46"/>
       <c r="D112" s="5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G112" s="5"/>
       <c r="H112" s="17">
         <v>2</v>
       </c>
       <c r="I112" s="17" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J112" s="17"/>
     </row>
     <row r="113" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A113" s="52"/>
-      <c r="B113" s="52"/>
-      <c r="C113" s="41" t="s">
-        <v>796</v>
+      <c r="A113" s="36"/>
+      <c r="B113" s="36"/>
+      <c r="C113" s="58" t="s">
+        <v>790</v>
       </c>
       <c r="D113" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="E113" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="F113" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="E113" s="21" t="s">
-        <v>497</v>
-      </c>
-      <c r="F113" s="21" t="s">
+      <c r="G113" s="21" t="s">
         <v>498</v>
-      </c>
-      <c r="G113" s="21" t="s">
-        <v>501</v>
       </c>
       <c r="H113" s="22">
         <v>2</v>
       </c>
       <c r="I113" s="22" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J113" s="22"/>
     </row>
     <row r="114" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A114" s="52"/>
-      <c r="B114" s="52"/>
-      <c r="C114" s="49"/>
+      <c r="A114" s="36"/>
+      <c r="B114" s="36"/>
+      <c r="C114" s="59"/>
       <c r="D114" s="21" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E114" s="21" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F114" s="21" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G114" s="21" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H114" s="22">
         <v>2</v>
       </c>
       <c r="I114" s="22" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J114" s="22"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A115" s="52"/>
-      <c r="B115" s="52"/>
-      <c r="C115" s="42"/>
+      <c r="A115" s="36"/>
+      <c r="B115" s="36"/>
+      <c r="C115" s="60"/>
       <c r="D115" s="21" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E115" s="21" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F115" s="21" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G115" s="21"/>
       <c r="H115" s="22">
         <v>2</v>
       </c>
       <c r="I115" s="22" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J115" s="22"/>
     </row>
     <row r="116" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A116" s="50" t="s">
-        <v>493</v>
-      </c>
-      <c r="B116" s="50" t="s">
+      <c r="A116" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="B116" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="C116" s="47" t="s">
+        <v>791</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="E116" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="C116" s="27" t="s">
-        <v>797</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>515</v>
-      </c>
       <c r="F116" s="6" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="H116" s="15">
         <v>2</v>
       </c>
       <c r="I116" s="15" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J116" s="15"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A117" s="50"/>
-      <c r="B117" s="50"/>
-      <c r="C117" s="28"/>
+      <c r="A117" s="37"/>
+      <c r="B117" s="37"/>
+      <c r="C117" s="48"/>
       <c r="D117" s="6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="G117" s="6"/>
       <c r="H117" s="15">
         <v>2</v>
       </c>
       <c r="I117" s="15" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J117" s="15"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A118" s="50"/>
-      <c r="B118" s="50"/>
-      <c r="C118" s="29"/>
+      <c r="A118" s="37"/>
+      <c r="B118" s="37"/>
+      <c r="C118" s="49"/>
       <c r="D118" s="6" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G118" s="6"/>
       <c r="H118" s="15">
         <v>2</v>
       </c>
       <c r="I118" s="15" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J118" s="15"/>
     </row>
     <row r="119" spans="1:10" ht="99" x14ac:dyDescent="0.3">
-      <c r="A119" s="54" t="s">
-        <v>508</v>
-      </c>
-      <c r="B119" s="54" t="s">
-        <v>494</v>
-      </c>
-      <c r="C119" s="30" t="s">
-        <v>798</v>
+      <c r="A119" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="B119" s="33" t="s">
+        <v>491</v>
+      </c>
+      <c r="C119" s="50" t="s">
+        <v>792</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="H119" s="16">
         <v>2</v>
       </c>
       <c r="I119" s="16" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J119" s="16"/>
     </row>
     <row r="120" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A120" s="54"/>
-      <c r="B120" s="54"/>
-      <c r="C120" s="31"/>
+      <c r="A120" s="33"/>
+      <c r="B120" s="33"/>
+      <c r="C120" s="51"/>
       <c r="D120" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H120" s="16">
         <v>2</v>
       </c>
       <c r="I120" s="16" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J120" s="16"/>
     </row>
     <row r="121" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A121" s="54"/>
-      <c r="B121" s="54"/>
-      <c r="C121" s="31"/>
+      <c r="A121" s="33"/>
+      <c r="B121" s="33"/>
+      <c r="C121" s="51"/>
       <c r="D121" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H121" s="16">
         <v>2</v>
       </c>
       <c r="I121" s="16" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J121" s="16"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A122" s="54"/>
-      <c r="B122" s="54"/>
-      <c r="C122" s="31"/>
+      <c r="A122" s="33"/>
+      <c r="B122" s="33"/>
+      <c r="C122" s="51"/>
       <c r="D122" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G122" s="2"/>
       <c r="H122" s="16">
         <v>2</v>
       </c>
       <c r="I122" s="16" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J122" s="16"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A123" s="54"/>
-      <c r="B123" s="54"/>
-      <c r="C123" s="31"/>
+      <c r="A123" s="33"/>
+      <c r="B123" s="33"/>
+      <c r="C123" s="51"/>
       <c r="D123" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H123" s="16">
         <v>4</v>
       </c>
       <c r="I123" s="16" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J123" s="16"/>
     </row>
     <row r="124" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A124" s="55" t="s">
+      <c r="A124" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B124" s="55" t="s">
-        <v>537</v>
-      </c>
-      <c r="C124" s="33" t="s">
-        <v>799</v>
+      <c r="B124" s="34" t="s">
+        <v>534</v>
+      </c>
+      <c r="C124" s="38" t="s">
+        <v>793</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="H124" s="18">
         <v>1</v>
       </c>
       <c r="I124" s="18" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J124" s="18"/>
     </row>
     <row r="125" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A125" s="55"/>
-      <c r="B125" s="55"/>
-      <c r="C125" s="34"/>
+      <c r="A125" s="34"/>
+      <c r="B125" s="34"/>
+      <c r="C125" s="39"/>
       <c r="D125" s="3" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="18">
         <v>1</v>
       </c>
       <c r="I125" s="18" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J125" s="18"/>
     </row>
     <row r="126" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A126" s="55"/>
-      <c r="B126" s="55"/>
-      <c r="C126" s="34"/>
+      <c r="A126" s="34"/>
+      <c r="B126" s="34"/>
+      <c r="C126" s="39"/>
       <c r="D126" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H126" s="18">
         <v>1</v>
       </c>
       <c r="I126" s="18" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J126" s="18"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A127" s="55"/>
-      <c r="B127" s="55"/>
-      <c r="C127" s="35"/>
+      <c r="A127" s="34"/>
+      <c r="B127" s="34"/>
+      <c r="C127" s="40"/>
       <c r="D127" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="18">
         <v>1</v>
       </c>
       <c r="I127" s="18" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J127" s="18"/>
     </row>
     <row r="128" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A128" s="46" t="s">
-        <v>563</v>
-      </c>
-      <c r="B128" s="46" t="s">
-        <v>564</v>
-      </c>
-      <c r="C128" s="38" t="s">
-        <v>796</v>
+      <c r="A128" s="35" t="s">
+        <v>560</v>
+      </c>
+      <c r="B128" s="35" t="s">
+        <v>561</v>
+      </c>
+      <c r="C128" s="53" t="s">
+        <v>790</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H128" s="14">
         <v>2</v>
       </c>
       <c r="I128" s="14" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J128" s="14"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A129" s="46"/>
-      <c r="B129" s="46"/>
-      <c r="C129" s="39"/>
+      <c r="A129" s="35"/>
+      <c r="B129" s="35"/>
+      <c r="C129" s="54"/>
       <c r="D129" s="4" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="H129" s="14">
         <v>2</v>
       </c>
       <c r="I129" s="14" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J129" s="14"/>
     </row>
     <row r="130" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A130" s="46"/>
-      <c r="B130" s="46"/>
-      <c r="C130" s="39"/>
+      <c r="A130" s="35"/>
+      <c r="B130" s="35"/>
+      <c r="C130" s="54"/>
       <c r="D130" s="4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="H130" s="14">
         <v>2</v>
       </c>
       <c r="I130" s="14" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J130" s="14"/>
     </row>
     <row r="131" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A131" s="46"/>
-      <c r="B131" s="46"/>
-      <c r="C131" s="39"/>
+      <c r="A131" s="35"/>
+      <c r="B131" s="35"/>
+      <c r="C131" s="54"/>
       <c r="D131" s="12" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="H131" s="14">
         <v>2</v>
       </c>
       <c r="I131" s="14" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J131" s="14"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A132" s="46"/>
-      <c r="B132" s="46"/>
-      <c r="C132" s="40"/>
+      <c r="A132" s="35"/>
+      <c r="B132" s="35"/>
+      <c r="C132" s="55"/>
       <c r="D132" s="4" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G132" s="4"/>
       <c r="H132" s="14">
         <v>2</v>
       </c>
       <c r="I132" s="14" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J132" s="14"/>
     </row>
-    <row r="133" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A133" s="52" t="s">
-        <v>559</v>
-      </c>
-      <c r="B133" s="52" t="s">
+    <row r="133" spans="1:10" ht="198" x14ac:dyDescent="0.3">
+      <c r="A133" s="36" t="s">
+        <v>556</v>
+      </c>
+      <c r="B133" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C133" s="43" t="s">
-        <v>800</v>
+      <c r="C133" s="44" t="s">
+        <v>794</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>582</v>
+        <v>861</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>581</v>
+        <v>860</v>
       </c>
       <c r="H133" s="17">
         <v>1</v>
       </c>
       <c r="I133" s="17" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J133" s="17" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A134" s="36"/>
+      <c r="B134" s="36"/>
+      <c r="C134" s="45"/>
+      <c r="D134" s="5" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A134" s="52"/>
-      <c r="B134" s="52"/>
-      <c r="C134" s="44"/>
-      <c r="D134" s="5" t="s">
-        <v>556</v>
-      </c>
       <c r="E134" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="H134" s="17">
         <v>1</v>
       </c>
       <c r="I134" s="17" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J134" s="17"/>
     </row>
     <row r="135" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A135" s="52"/>
-      <c r="B135" s="52"/>
-      <c r="C135" s="44"/>
+      <c r="A135" s="36"/>
+      <c r="B135" s="36"/>
+      <c r="C135" s="45"/>
       <c r="D135" s="5" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="H135" s="17">
         <v>1</v>
       </c>
       <c r="I135" s="17" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J135" s="17"/>
     </row>
     <row r="136" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A136" s="52"/>
-      <c r="B136" s="52"/>
-      <c r="C136" s="45"/>
+      <c r="A136" s="36"/>
+      <c r="B136" s="36"/>
+      <c r="C136" s="46"/>
       <c r="D136" s="5" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G136" s="5"/>
       <c r="H136" s="17">
         <v>1</v>
       </c>
       <c r="I136" s="17" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J136" s="17"/>
     </row>
     <row r="137" spans="1:10" ht="99" x14ac:dyDescent="0.3">
-      <c r="A137" s="50" t="s">
+      <c r="A137" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B137" s="50" t="s">
+      <c r="B137" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="C137" s="27" t="s">
-        <v>801</v>
+      <c r="C137" s="47" t="s">
+        <v>795</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="H137" s="15">
         <v>1</v>
       </c>
       <c r="I137" s="15" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J137" s="15"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A138" s="50"/>
-      <c r="B138" s="50"/>
-      <c r="C138" s="28"/>
+      <c r="A138" s="37"/>
+      <c r="B138" s="37"/>
+      <c r="C138" s="48"/>
       <c r="D138" s="6" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G138" s="6"/>
       <c r="H138" s="15">
         <v>1</v>
       </c>
       <c r="I138" s="15" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J138" s="15"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A139" s="50"/>
-      <c r="B139" s="50"/>
-      <c r="C139" s="28"/>
+      <c r="A139" s="37"/>
+      <c r="B139" s="37"/>
+      <c r="C139" s="48"/>
       <c r="D139" s="6" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E139" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="F139" s="6" t="s">
         <v>592</v>
-      </c>
-      <c r="F139" s="6" t="s">
-        <v>597</v>
       </c>
       <c r="G139" s="6"/>
       <c r="H139" s="15">
         <v>1</v>
       </c>
       <c r="I139" s="15" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J139" s="15"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A140" s="50"/>
-      <c r="B140" s="50"/>
-      <c r="C140" s="28"/>
+      <c r="A140" s="37"/>
+      <c r="B140" s="37"/>
+      <c r="C140" s="48"/>
       <c r="D140" s="6" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="E140" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="F140" s="6" t="s">
         <v>593</v>
-      </c>
-      <c r="F140" s="6" t="s">
-        <v>598</v>
       </c>
       <c r="G140" s="6"/>
       <c r="H140" s="15">
         <v>1</v>
       </c>
       <c r="I140" s="15" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J140" s="15"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A141" s="50"/>
-      <c r="B141" s="50"/>
-      <c r="C141" s="29"/>
+      <c r="A141" s="37"/>
+      <c r="B141" s="37"/>
+      <c r="C141" s="49"/>
       <c r="D141" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="F141" s="6" t="s">
         <v>594</v>
-      </c>
-      <c r="E141" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="F141" s="6" t="s">
-        <v>599</v>
       </c>
       <c r="G141" s="6"/>
       <c r="H141" s="15">
         <v>1</v>
       </c>
       <c r="I141" s="15" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J141" s="15"/>
     </row>
     <row r="142" spans="1:10" ht="132" x14ac:dyDescent="0.3">
-      <c r="A142" s="54" t="s">
-        <v>824</v>
-      </c>
-      <c r="B142" s="54" t="s">
+      <c r="A142" s="33" t="s">
+        <v>818</v>
+      </c>
+      <c r="B142" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="C142" s="30" t="s">
-        <v>803</v>
+      <c r="C142" s="50" t="s">
+        <v>797</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E142" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="F142" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="F142" s="2" t="s">
-        <v>624</v>
-      </c>
       <c r="G142" s="2" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="H142" s="16">
         <v>2</v>
       </c>
       <c r="I142" s="16" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J142" s="16"/>
     </row>
     <row r="143" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A143" s="54"/>
-      <c r="B143" s="54"/>
-      <c r="C143" s="31"/>
+      <c r="A143" s="33"/>
+      <c r="B143" s="33"/>
+      <c r="C143" s="51"/>
       <c r="D143" s="2" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="E143" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="F143" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="F143" s="2" t="s">
-        <v>625</v>
-      </c>
       <c r="G143" s="2" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="H143" s="16">
         <v>2</v>
       </c>
       <c r="I143" s="16" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J143" s="16"/>
     </row>
     <row r="144" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A144" s="54"/>
-      <c r="B144" s="54"/>
-      <c r="C144" s="31"/>
+      <c r="A144" s="33"/>
+      <c r="B144" s="33"/>
+      <c r="C144" s="51"/>
       <c r="D144" s="2" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="G144" s="2"/>
       <c r="H144" s="16">
         <v>2</v>
       </c>
       <c r="I144" s="16" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J144" s="16"/>
     </row>
     <row r="145" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A145" s="54"/>
-      <c r="B145" s="54"/>
-      <c r="C145" s="31"/>
+      <c r="A145" s="33"/>
+      <c r="B145" s="33"/>
+      <c r="C145" s="51"/>
       <c r="D145" s="2" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="H145" s="16">
         <v>2</v>
       </c>
       <c r="I145" s="16" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J145" s="16"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A146" s="54"/>
-      <c r="B146" s="54"/>
-      <c r="C146" s="31"/>
+      <c r="A146" s="33"/>
+      <c r="B146" s="33"/>
+      <c r="C146" s="51"/>
       <c r="D146" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="G146" s="2"/>
       <c r="H146" s="16">
         <v>2</v>
       </c>
       <c r="I146" s="16" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J146" s="16"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A147" s="54"/>
-      <c r="B147" s="54"/>
-      <c r="C147" s="31"/>
+      <c r="A147" s="33"/>
+      <c r="B147" s="33"/>
+      <c r="C147" s="51"/>
       <c r="D147" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="E147" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="F147" s="2" t="s">
         <v>593</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>598</v>
       </c>
       <c r="G147" s="2"/>
       <c r="H147" s="16">
         <v>3</v>
       </c>
       <c r="I147" s="16" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J147" s="16"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A148" s="54"/>
-      <c r="B148" s="54"/>
-      <c r="C148" s="31"/>
+      <c r="A148" s="33"/>
+      <c r="B148" s="33"/>
+      <c r="C148" s="51"/>
       <c r="D148" s="2" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G148" s="2"/>
       <c r="H148" s="16">
         <v>3</v>
       </c>
       <c r="I148" s="16" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J148" s="16"/>
     </row>
     <row r="149" spans="1:10" ht="132" x14ac:dyDescent="0.3">
-      <c r="A149" s="55" t="s">
-        <v>825</v>
-      </c>
-      <c r="B149" s="55" t="s">
+      <c r="A149" s="34" t="s">
+        <v>819</v>
+      </c>
+      <c r="B149" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="C149" s="33" t="s">
-        <v>805</v>
+      <c r="C149" s="38" t="s">
+        <v>799</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="H149" s="18">
         <v>3</v>
       </c>
       <c r="I149" s="18" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J149" s="18"/>
     </row>
     <row r="150" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A150" s="55"/>
-      <c r="B150" s="55"/>
-      <c r="C150" s="34"/>
+      <c r="A150" s="34"/>
+      <c r="B150" s="34"/>
+      <c r="C150" s="39"/>
       <c r="D150" s="3" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E150" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="G150" s="3" t="s">
         <v>639</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="G150" s="3" t="s">
-        <v>644</v>
       </c>
       <c r="H150" s="18">
         <v>3</v>
       </c>
       <c r="I150" s="18" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J150" s="18"/>
     </row>
     <row r="151" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A151" s="55"/>
-      <c r="B151" s="55"/>
-      <c r="C151" s="34"/>
+      <c r="A151" s="34"/>
+      <c r="B151" s="34"/>
+      <c r="C151" s="39"/>
       <c r="D151" s="3" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G151" s="3"/>
       <c r="H151" s="18">
         <v>3</v>
       </c>
       <c r="I151" s="18" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J151" s="18"/>
     </row>
     <row r="152" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A152" s="55"/>
-      <c r="B152" s="55"/>
-      <c r="C152" s="34"/>
+      <c r="A152" s="34"/>
+      <c r="B152" s="34"/>
+      <c r="C152" s="39"/>
       <c r="D152" s="3" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="H152" s="18">
         <v>3</v>
       </c>
       <c r="I152" s="18" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J152" s="18"/>
     </row>
     <row r="153" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A153" s="55"/>
-      <c r="B153" s="55"/>
-      <c r="C153" s="34"/>
+      <c r="A153" s="34"/>
+      <c r="B153" s="34"/>
+      <c r="C153" s="39"/>
       <c r="D153" s="3" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G153" s="3"/>
       <c r="H153" s="18">
         <v>3</v>
       </c>
       <c r="I153" s="18" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J153" s="18"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A154" s="55"/>
-      <c r="B154" s="55"/>
-      <c r="C154" s="34"/>
+      <c r="A154" s="34"/>
+      <c r="B154" s="34"/>
+      <c r="C154" s="39"/>
       <c r="D154" s="3" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="E154" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="F154" s="3" t="s">
         <v>592</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>597</v>
       </c>
       <c r="G154" s="3"/>
       <c r="H154" s="18">
         <v>3</v>
       </c>
       <c r="I154" s="18" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J154" s="18"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A155" s="55"/>
-      <c r="B155" s="55"/>
-      <c r="C155" s="34"/>
+      <c r="A155" s="34"/>
+      <c r="B155" s="34"/>
+      <c r="C155" s="39"/>
       <c r="D155" s="3" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G155" s="3"/>
       <c r="H155" s="18">
         <v>3</v>
       </c>
       <c r="I155" s="18" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J155" s="18"/>
     </row>
     <row r="156" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A156" s="46" t="s">
-        <v>826</v>
-      </c>
-      <c r="B156" s="46" t="s">
+      <c r="A156" s="35" t="s">
+        <v>820</v>
+      </c>
+      <c r="B156" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="C156" s="38" t="s">
-        <v>804</v>
+      <c r="C156" s="53" t="s">
+        <v>798</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="H156" s="14">
         <v>3</v>
       </c>
       <c r="I156" s="14" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J156" s="14"/>
     </row>
     <row r="157" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A157" s="46"/>
-      <c r="B157" s="46"/>
-      <c r="C157" s="39"/>
+      <c r="A157" s="35"/>
+      <c r="B157" s="35"/>
+      <c r="C157" s="54"/>
       <c r="D157" s="4" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="H157" s="14">
         <v>3</v>
       </c>
       <c r="I157" s="14" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J157" s="14"/>
     </row>
     <row r="158" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A158" s="46"/>
-      <c r="B158" s="46"/>
-      <c r="C158" s="39"/>
+      <c r="A158" s="35"/>
+      <c r="B158" s="35"/>
+      <c r="C158" s="54"/>
       <c r="D158" s="4" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G158" s="4"/>
       <c r="H158" s="14">
         <v>3</v>
       </c>
       <c r="I158" s="14" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J158" s="14"/>
     </row>
     <row r="159" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A159" s="46"/>
-      <c r="B159" s="46"/>
-      <c r="C159" s="39"/>
+      <c r="A159" s="35"/>
+      <c r="B159" s="35"/>
+      <c r="C159" s="54"/>
       <c r="D159" s="4" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H159" s="14">
         <v>3</v>
       </c>
       <c r="I159" s="14" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J159" s="14"/>
     </row>
     <row r="160" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A160" s="46"/>
-      <c r="B160" s="46"/>
-      <c r="C160" s="39"/>
+      <c r="A160" s="35"/>
+      <c r="B160" s="35"/>
+      <c r="C160" s="54"/>
       <c r="D160" s="4" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G160" s="4"/>
       <c r="H160" s="14">
         <v>3</v>
       </c>
       <c r="I160" s="14" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J160" s="14"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A161" s="46"/>
-      <c r="B161" s="46"/>
-      <c r="C161" s="39"/>
+      <c r="A161" s="35"/>
+      <c r="B161" s="35"/>
+      <c r="C161" s="54"/>
       <c r="D161" s="4" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="E161" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="F161" s="4" t="s">
         <v>592</v>
-      </c>
-      <c r="F161" s="4" t="s">
-        <v>597</v>
       </c>
       <c r="G161" s="4"/>
       <c r="H161" s="14">
         <v>3</v>
       </c>
       <c r="I161" s="14" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J161" s="14"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A162" s="46"/>
-      <c r="B162" s="46"/>
-      <c r="C162" s="40"/>
+      <c r="A162" s="35"/>
+      <c r="B162" s="35"/>
+      <c r="C162" s="55"/>
       <c r="D162" s="4" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="E162" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="F162" s="4" t="s">
         <v>593</v>
-      </c>
-      <c r="F162" s="4" t="s">
-        <v>598</v>
       </c>
       <c r="G162" s="4"/>
       <c r="H162" s="14">
         <v>3</v>
       </c>
       <c r="I162" s="14" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J162" s="14"/>
     </row>
     <row r="163" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A163" s="52" t="s">
-        <v>651</v>
-      </c>
-      <c r="B163" s="52" t="s">
-        <v>652</v>
-      </c>
-      <c r="C163" s="43" t="s">
-        <v>806</v>
+      <c r="A163" s="36" t="s">
+        <v>646</v>
+      </c>
+      <c r="B163" s="36" t="s">
+        <v>647</v>
+      </c>
+      <c r="C163" s="44" t="s">
+        <v>800</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="H163" s="17">
         <v>2</v>
       </c>
       <c r="I163" s="17" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J163" s="17"/>
     </row>
     <row r="164" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A164" s="52"/>
-      <c r="B164" s="52"/>
-      <c r="C164" s="44"/>
+      <c r="A164" s="36"/>
+      <c r="B164" s="36"/>
+      <c r="C164" s="45"/>
       <c r="D164" s="5" t="s">
         <v>242</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="H164" s="17">
         <v>2</v>
       </c>
       <c r="I164" s="17" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J164" s="17"/>
     </row>
     <row r="165" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A165" s="52"/>
-      <c r="B165" s="52"/>
-      <c r="C165" s="44"/>
+      <c r="A165" s="36"/>
+      <c r="B165" s="36"/>
+      <c r="C165" s="45"/>
       <c r="D165" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="G165" s="5" t="s">
         <v>657</v>
-      </c>
-      <c r="E165" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="F165" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="G165" s="5" t="s">
-        <v>662</v>
       </c>
       <c r="H165" s="17">
         <v>2</v>
       </c>
       <c r="I165" s="17" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J165" s="17"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A166" s="52"/>
-      <c r="B166" s="52"/>
-      <c r="C166" s="45"/>
+      <c r="A166" s="36"/>
+      <c r="B166" s="36"/>
+      <c r="C166" s="46"/>
       <c r="D166" s="5" t="s">
         <v>243</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="G166" s="5"/>
       <c r="H166" s="17">
         <v>2</v>
       </c>
       <c r="I166" s="17" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J166" s="17"/>
     </row>
     <row r="167" spans="1:10" ht="165" x14ac:dyDescent="0.3">
-      <c r="A167" s="50" t="s">
-        <v>645</v>
-      </c>
-      <c r="B167" s="50" t="s">
+      <c r="A167" s="37" t="s">
+        <v>640</v>
+      </c>
+      <c r="B167" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C167" s="27" t="s">
-        <v>807</v>
+      <c r="C167" s="47" t="s">
+        <v>801</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>244</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="H167" s="15">
         <v>1</v>
       </c>
       <c r="I167" s="15" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J167" s="15"/>
     </row>
     <row r="168" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A168" s="50"/>
-      <c r="B168" s="50"/>
-      <c r="C168" s="28"/>
+      <c r="A168" s="37"/>
+      <c r="B168" s="37"/>
+      <c r="C168" s="48"/>
       <c r="D168" s="6" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="H168" s="15">
         <v>1</v>
       </c>
       <c r="I168" s="15" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J168" s="15"/>
     </row>
     <row r="169" spans="1:10" ht="132" x14ac:dyDescent="0.3">
-      <c r="A169" s="50"/>
-      <c r="B169" s="50"/>
-      <c r="C169" s="28"/>
+      <c r="A169" s="37"/>
+      <c r="B169" s="37"/>
+      <c r="C169" s="48"/>
       <c r="D169" s="6" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>665</v>
+        <v>865</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="H169" s="15">
         <v>1</v>
       </c>
       <c r="I169" s="15" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J169" s="15"/>
     </row>
     <row r="170" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A170" s="50"/>
-      <c r="B170" s="50"/>
-      <c r="C170" s="28"/>
+      <c r="A170" s="37"/>
+      <c r="B170" s="37"/>
+      <c r="C170" s="48"/>
       <c r="D170" s="6" t="s">
         <v>245</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="G170" s="6"/>
       <c r="H170" s="15">
         <v>1</v>
       </c>
       <c r="I170" s="15" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J170" s="15"/>
     </row>
     <row r="171" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A171" s="50"/>
-      <c r="B171" s="50"/>
-      <c r="C171" s="28"/>
+      <c r="A171" s="37"/>
+      <c r="B171" s="37"/>
+      <c r="C171" s="48"/>
       <c r="D171" s="6" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="G171" s="6"/>
       <c r="H171" s="15">
         <v>1</v>
       </c>
       <c r="I171" s="15" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J171" s="15"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A172" s="50"/>
-      <c r="B172" s="50"/>
-      <c r="C172" s="29"/>
+      <c r="A172" s="37"/>
+      <c r="B172" s="37"/>
+      <c r="C172" s="49"/>
       <c r="D172" s="6" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="G172" s="6"/>
       <c r="H172" s="15">
         <v>1</v>
       </c>
       <c r="I172" s="15" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J172" s="15"/>
     </row>
     <row r="173" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A173" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="B173" s="54" t="s">
+      <c r="A173" s="33" t="s">
+        <v>641</v>
+      </c>
+      <c r="B173" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C173" s="30" t="s">
-        <v>808</v>
+      <c r="C173" s="50" t="s">
+        <v>802</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>246</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="H173" s="16">
         <v>1</v>
       </c>
       <c r="I173" s="16" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J173" s="16"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A174" s="54"/>
-      <c r="B174" s="54"/>
-      <c r="C174" s="31"/>
+      <c r="A174" s="33"/>
+      <c r="B174" s="33"/>
+      <c r="C174" s="51"/>
       <c r="D174" s="2" t="s">
         <v>247</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="G174" s="2"/>
       <c r="H174" s="16">
         <v>1</v>
       </c>
       <c r="I174" s="16" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J174" s="16"/>
     </row>
     <row r="175" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A175" s="54"/>
-      <c r="B175" s="54"/>
-      <c r="C175" s="31"/>
+      <c r="A175" s="33"/>
+      <c r="B175" s="33"/>
+      <c r="C175" s="51"/>
       <c r="D175" s="2" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="G175" s="2"/>
       <c r="H175" s="16">
         <v>1</v>
       </c>
       <c r="I175" s="16" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J175" s="16"/>
     </row>
     <row r="176" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A176" s="54"/>
-      <c r="B176" s="54"/>
-      <c r="C176" s="32"/>
+      <c r="A176" s="33"/>
+      <c r="B176" s="33"/>
+      <c r="C176" s="52"/>
       <c r="D176" s="2" t="s">
         <v>248</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="G176" s="2"/>
       <c r="H176" s="16">
         <v>1</v>
       </c>
       <c r="I176" s="16" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J176" s="16"/>
     </row>
-    <row r="177" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A177" s="33" t="s">
+    <row r="177" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A177" s="38" t="s">
         <v>424</v>
       </c>
-      <c r="B177" s="33" t="s">
-        <v>425</v>
-      </c>
-      <c r="C177" s="33" t="s">
-        <v>809</v>
+      <c r="B177" s="38" t="s">
+        <v>844</v>
+      </c>
+      <c r="C177" s="38" t="s">
+        <v>845</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>426</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>431</v>
+        <v>856</v>
       </c>
       <c r="G177" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="H177" s="32">
+        <v>3</v>
+      </c>
+      <c r="I177" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="J177" s="32"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A178" s="39"/>
+      <c r="B178" s="39"/>
+      <c r="C178" s="39"/>
+      <c r="D178" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="G178" s="3"/>
+      <c r="H178" s="32">
+        <v>3</v>
+      </c>
+      <c r="I178" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="J178" s="32"/>
+    </row>
+    <row r="179" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A179" s="39"/>
+      <c r="B179" s="39"/>
+      <c r="C179" s="39"/>
+      <c r="D179" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="G179" s="3"/>
+      <c r="H179" s="32">
+        <v>3</v>
+      </c>
+      <c r="I179" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="J179" s="32"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A180" s="40"/>
+      <c r="B180" s="40"/>
+      <c r="C180" s="40"/>
+      <c r="D180" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="G180" s="3"/>
+      <c r="H180" s="32">
+        <v>3</v>
+      </c>
+      <c r="I180" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="J180" s="32"/>
+    </row>
+    <row r="181" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A181" s="53" t="s">
+        <v>846</v>
+      </c>
+      <c r="B181" s="53" t="s">
+        <v>843</v>
+      </c>
+      <c r="C181" s="53" t="s">
+        <v>803</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="H181" s="27">
+        <v>3</v>
+      </c>
+      <c r="I181" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="J181" s="27"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A182" s="54"/>
+      <c r="B182" s="54"/>
+      <c r="C182" s="54"/>
+      <c r="D182" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="G182" s="4"/>
+      <c r="H182" s="27">
+        <v>3</v>
+      </c>
+      <c r="I182" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="J182" s="27"/>
+    </row>
+    <row r="183" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A183" s="54"/>
+      <c r="B183" s="54"/>
+      <c r="C183" s="54"/>
+      <c r="D183" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="G183" s="4"/>
+      <c r="H183" s="27">
+        <v>3</v>
+      </c>
+      <c r="I183" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="J183" s="27"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A184" s="54"/>
+      <c r="B184" s="54"/>
+      <c r="C184" s="54"/>
+      <c r="D184" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="E184" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="H177" s="18">
+      <c r="F184" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G184" s="4"/>
+      <c r="H184" s="27">
         <v>3</v>
       </c>
-      <c r="I177" s="18" t="s">
-        <v>474</v>
-      </c>
-      <c r="J177" s="18"/>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A178" s="34"/>
-      <c r="B178" s="34"/>
-      <c r="C178" s="34"/>
-      <c r="D178" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="G178" s="3"/>
-      <c r="H178" s="18">
+      <c r="I184" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="J184" s="27"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A185" s="54"/>
+      <c r="B185" s="54"/>
+      <c r="C185" s="54"/>
+      <c r="D185" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G185" s="4"/>
+      <c r="H185" s="27">
         <v>3</v>
       </c>
-      <c r="I178" s="18" t="s">
-        <v>474</v>
-      </c>
-      <c r="J178" s="18"/>
-    </row>
-    <row r="179" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A179" s="34"/>
-      <c r="B179" s="34"/>
-      <c r="C179" s="34"/>
-      <c r="D179" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="E179" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F179" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="G179" s="3"/>
-      <c r="H179" s="18">
+      <c r="I185" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="J185" s="27"/>
+    </row>
+    <row r="186" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A186" s="54"/>
+      <c r="B186" s="54"/>
+      <c r="C186" s="54"/>
+      <c r="D186" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="G186" s="4"/>
+      <c r="H186" s="27">
         <v>3</v>
       </c>
-      <c r="I179" s="18" t="s">
-        <v>474</v>
-      </c>
-      <c r="J179" s="18"/>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A180" s="34"/>
-      <c r="B180" s="34"/>
-      <c r="C180" s="34"/>
-      <c r="D180" s="3" t="s">
+      <c r="I186" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="J186" s="27"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A187" s="55"/>
+      <c r="B187" s="55"/>
+      <c r="C187" s="55"/>
+      <c r="D187" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="E187" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="E180" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="F180" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="G180" s="3"/>
-      <c r="H180" s="18">
+      <c r="F187" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G187" s="4"/>
+      <c r="H187" s="27">
         <v>3</v>
       </c>
-      <c r="I180" s="18" t="s">
-        <v>474</v>
-      </c>
-      <c r="J180" s="18"/>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A181" s="34"/>
-      <c r="B181" s="34"/>
-      <c r="C181" s="34"/>
-      <c r="D181" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="E181" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="F181" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="G181" s="3"/>
-      <c r="H181" s="18">
+      <c r="I187" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="J187" s="27"/>
+    </row>
+    <row r="188" spans="1:10" ht="198" x14ac:dyDescent="0.3">
+      <c r="A188" s="36" t="s">
+        <v>642</v>
+      </c>
+      <c r="B188" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C188" s="36" t="s">
+        <v>804</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="G188" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="H188" s="29">
         <v>3</v>
       </c>
-      <c r="I181" s="18" t="s">
-        <v>474</v>
-      </c>
-      <c r="J181" s="18"/>
-    </row>
-    <row r="182" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A182" s="34"/>
-      <c r="B182" s="34"/>
-      <c r="C182" s="34"/>
-      <c r="D182" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="E182" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="F182" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="G182" s="3"/>
-      <c r="H182" s="18">
+      <c r="I188" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="J188" s="29"/>
+    </row>
+    <row r="189" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A189" s="36"/>
+      <c r="B189" s="36"/>
+      <c r="C189" s="36"/>
+      <c r="D189" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="G189" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="H189" s="29">
         <v>3</v>
       </c>
-      <c r="I182" s="18" t="s">
-        <v>474</v>
-      </c>
-      <c r="J182" s="18"/>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A183" s="35"/>
-      <c r="B183" s="35"/>
-      <c r="C183" s="35"/>
-      <c r="D183" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="E183" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="F183" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="G183" s="3"/>
-      <c r="H183" s="18">
+      <c r="I189" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="J189" s="29"/>
+    </row>
+    <row r="190" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A190" s="36"/>
+      <c r="B190" s="36"/>
+      <c r="C190" s="36"/>
+      <c r="D190" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="G190" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="H190" s="29">
         <v>3</v>
       </c>
-      <c r="I183" s="18" t="s">
-        <v>474</v>
-      </c>
-      <c r="J183" s="18"/>
-    </row>
-    <row r="184" spans="1:10" ht="198" x14ac:dyDescent="0.3">
-      <c r="A184" s="46" t="s">
-        <v>647</v>
-      </c>
-      <c r="B184" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C184" s="46" t="s">
+      <c r="I190" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="J190" s="29"/>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A191" s="36"/>
+      <c r="B191" s="36"/>
+      <c r="C191" s="36"/>
+      <c r="D191" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="G191" s="5"/>
+      <c r="H191" s="29">
+        <v>3</v>
+      </c>
+      <c r="I191" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="J191" s="29"/>
+    </row>
+    <row r="192" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+      <c r="A192" s="36"/>
+      <c r="B192" s="36"/>
+      <c r="C192" s="58" t="s">
+        <v>760</v>
+      </c>
+      <c r="D192" s="21" t="s">
+        <v>694</v>
+      </c>
+      <c r="E192" s="21" t="s">
+        <v>688</v>
+      </c>
+      <c r="F192" s="21" t="s">
+        <v>689</v>
+      </c>
+      <c r="G192" s="21" t="s">
+        <v>687</v>
+      </c>
+      <c r="H192" s="30">
+        <v>3</v>
+      </c>
+      <c r="I192" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="J192" s="30"/>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A193" s="36"/>
+      <c r="B193" s="36"/>
+      <c r="C193" s="60"/>
+      <c r="D193" s="21" t="s">
+        <v>811</v>
+      </c>
+      <c r="E193" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="F193" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="G193" s="21"/>
+      <c r="H193" s="30">
+        <v>3</v>
+      </c>
+      <c r="I193" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="J193" s="30"/>
+    </row>
+    <row r="194" spans="1:10" ht="231" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B194" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="C194" s="47" t="s">
+        <v>806</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="G194" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="H194" s="28">
+        <v>3</v>
+      </c>
+      <c r="I194" s="28" t="s">
+        <v>469</v>
+      </c>
+      <c r="J194" s="28"/>
+    </row>
+    <row r="195" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="37"/>
+      <c r="B195" s="37"/>
+      <c r="C195" s="48"/>
+      <c r="D195" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E195" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="G195" s="6"/>
+      <c r="H195" s="28">
+        <v>3</v>
+      </c>
+      <c r="I195" s="28" t="s">
+        <v>469</v>
+      </c>
+      <c r="J195" s="28"/>
+    </row>
+    <row r="196" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="37"/>
+      <c r="B196" s="37"/>
+      <c r="C196" s="48"/>
+      <c r="D196" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="E196" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="G196" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="H196" s="28">
+        <v>3</v>
+      </c>
+      <c r="I196" s="28" t="s">
+        <v>469</v>
+      </c>
+      <c r="J196" s="28"/>
+    </row>
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="37"/>
+      <c r="B197" s="37"/>
+      <c r="C197" s="48"/>
+      <c r="D197" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G197" s="6"/>
+      <c r="H197" s="28">
+        <v>3</v>
+      </c>
+      <c r="I197" s="28" t="s">
+        <v>469</v>
+      </c>
+      <c r="J197" s="28"/>
+    </row>
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="37"/>
+      <c r="B198" s="37"/>
+      <c r="C198" s="49"/>
+      <c r="D198" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="E198" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="G198" s="6"/>
+      <c r="H198" s="28">
+        <v>3</v>
+      </c>
+      <c r="I198" s="28" t="s">
+        <v>469</v>
+      </c>
+      <c r="J198" s="28"/>
+    </row>
+    <row r="199" spans="1:10" ht="66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="37"/>
+      <c r="B199" s="37"/>
+      <c r="C199" s="68" t="s">
+        <v>760</v>
+      </c>
+      <c r="D199" s="69" t="s">
+        <v>393</v>
+      </c>
+      <c r="E199" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="F199" s="69" t="s">
+        <v>256</v>
+      </c>
+      <c r="G199" s="69" t="s">
+        <v>254</v>
+      </c>
+      <c r="H199" s="70">
+        <v>3</v>
+      </c>
+      <c r="I199" s="70" t="s">
+        <v>469</v>
+      </c>
+      <c r="J199" s="70"/>
+    </row>
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="37"/>
+      <c r="B200" s="37"/>
+      <c r="C200" s="71"/>
+      <c r="D200" s="69" t="s">
+        <v>398</v>
+      </c>
+      <c r="E200" s="69" t="s">
+        <v>807</v>
+      </c>
+      <c r="F200" s="69" t="s">
+        <v>296</v>
+      </c>
+      <c r="G200" s="69"/>
+      <c r="H200" s="70">
+        <v>3</v>
+      </c>
+      <c r="I200" s="70" t="s">
+        <v>469</v>
+      </c>
+      <c r="J200" s="70"/>
+    </row>
+    <row r="201" spans="1:10" ht="66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="B201" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C201" s="50" t="s">
+        <v>808</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="H201" s="31">
+        <v>3</v>
+      </c>
+      <c r="I201" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="J201" s="31"/>
+    </row>
+    <row r="202" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="33"/>
+      <c r="B202" s="33"/>
+      <c r="C202" s="51"/>
+      <c r="D202" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H202" s="31">
+        <v>3</v>
+      </c>
+      <c r="I202" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="J202" s="31"/>
+    </row>
+    <row r="203" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="33"/>
+      <c r="B203" s="33"/>
+      <c r="C203" s="51"/>
+      <c r="D203" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G203" s="2"/>
+      <c r="H203" s="31">
+        <v>3</v>
+      </c>
+      <c r="I203" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="J203" s="31"/>
+    </row>
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="33"/>
+      <c r="B204" s="33"/>
+      <c r="C204" s="51"/>
+      <c r="D204" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G204" s="2"/>
+      <c r="H204" s="31">
+        <v>3</v>
+      </c>
+      <c r="I204" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="J204" s="31"/>
+    </row>
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="33"/>
+      <c r="B205" s="33"/>
+      <c r="C205" s="52"/>
+      <c r="D205" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="G205" s="2"/>
+      <c r="H205" s="31">
+        <v>3</v>
+      </c>
+      <c r="I205" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="J205" s="31"/>
+    </row>
+    <row r="206" spans="1:10" ht="66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="B206" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C206" s="38" t="s">
+        <v>809</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="H206" s="32">
+        <v>3</v>
+      </c>
+      <c r="I206" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="J206" s="32"/>
+    </row>
+    <row r="207" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="34"/>
+      <c r="B207" s="34"/>
+      <c r="C207" s="39"/>
+      <c r="D207" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="H207" s="32">
+        <v>3</v>
+      </c>
+      <c r="I207" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="J207" s="32"/>
+    </row>
+    <row r="208" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="34"/>
+      <c r="B208" s="34"/>
+      <c r="C208" s="39"/>
+      <c r="D208" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="G208" s="3"/>
+      <c r="H208" s="32">
+        <v>3</v>
+      </c>
+      <c r="I208" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="J208" s="32"/>
+    </row>
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="34"/>
+      <c r="B209" s="34"/>
+      <c r="C209" s="39"/>
+      <c r="D209" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G209" s="3"/>
+      <c r="H209" s="32">
+        <v>3</v>
+      </c>
+      <c r="I209" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="J209" s="32"/>
+    </row>
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="34"/>
+      <c r="B210" s="34"/>
+      <c r="C210" s="40"/>
+      <c r="D210" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G210" s="3"/>
+      <c r="H210" s="32">
+        <v>3</v>
+      </c>
+      <c r="I210" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="J210" s="32"/>
+    </row>
+    <row r="211" spans="1:10" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A211" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B211" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C211" s="53" t="s">
         <v>810</v>
       </c>
-      <c r="D184" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="E184" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="F184" s="4" t="s">
+      <c r="D211" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="F211" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="G184" s="4" t="s">
+      <c r="G211" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="H184" s="14">
+      <c r="H211" s="27">
         <v>3</v>
       </c>
-      <c r="I184" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="J184" s="14"/>
-    </row>
-    <row r="185" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A185" s="46"/>
-      <c r="B185" s="46"/>
-      <c r="C185" s="46"/>
-      <c r="D185" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="E185" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="F185" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="G185" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="H185" s="14">
+      <c r="I211" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="J211" s="27"/>
+    </row>
+    <row r="212" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A212" s="35"/>
+      <c r="B212" s="35"/>
+      <c r="C212" s="54"/>
+      <c r="D212" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="G212" s="4"/>
+      <c r="H212" s="27">
         <v>3</v>
       </c>
-      <c r="I185" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="J185" s="14"/>
-    </row>
-    <row r="186" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A186" s="46"/>
-      <c r="B186" s="46"/>
-      <c r="C186" s="46"/>
-      <c r="D186" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="E186" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="F186" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="G186" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="H186" s="14">
+      <c r="I212" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="J212" s="27"/>
+    </row>
+    <row r="213" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A213" s="35"/>
+      <c r="B213" s="35"/>
+      <c r="C213" s="54"/>
+      <c r="D213" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="G213" s="4"/>
+      <c r="H213" s="27">
         <v>3</v>
       </c>
-      <c r="I186" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="J186" s="14"/>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A187" s="46"/>
-      <c r="B187" s="46"/>
-      <c r="C187" s="46"/>
-      <c r="D187" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="E187" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="F187" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="G187" s="4"/>
-      <c r="H187" s="14">
-        <v>3</v>
-      </c>
-      <c r="I187" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="J187" s="14"/>
-    </row>
-    <row r="188" spans="1:10" ht="132" x14ac:dyDescent="0.3">
-      <c r="A188" s="46"/>
-      <c r="B188" s="46"/>
-      <c r="C188" s="47" t="s">
-        <v>766</v>
-      </c>
-      <c r="D188" s="24" t="s">
-        <v>700</v>
-      </c>
-      <c r="E188" s="24" t="s">
-        <v>694</v>
-      </c>
-      <c r="F188" s="24" t="s">
-        <v>695</v>
-      </c>
-      <c r="G188" s="24" t="s">
-        <v>693</v>
-      </c>
-      <c r="H188" s="23">
-        <v>3</v>
-      </c>
-      <c r="I188" s="23" t="s">
-        <v>474</v>
-      </c>
-      <c r="J188" s="23"/>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A189" s="46"/>
-      <c r="B189" s="46"/>
-      <c r="C189" s="48"/>
-      <c r="D189" s="24" t="s">
-        <v>817</v>
-      </c>
-      <c r="E189" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="F189" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="G189" s="24"/>
-      <c r="H189" s="23">
-        <v>3</v>
-      </c>
-      <c r="I189" s="23" t="s">
-        <v>474</v>
-      </c>
-      <c r="J189" s="23"/>
-    </row>
-    <row r="190" spans="1:10" ht="231" x14ac:dyDescent="0.3">
-      <c r="A190" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="B190" s="52" t="s">
-        <v>392</v>
-      </c>
-      <c r="C190" s="43" t="s">
-        <v>812</v>
-      </c>
-      <c r="D190" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E190" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="F190" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="G190" s="5" t="s">
-        <v>714</v>
-      </c>
-      <c r="H190" s="17">
-        <v>3</v>
-      </c>
-      <c r="I190" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="J190" s="17"/>
-    </row>
-    <row r="191" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A191" s="52"/>
-      <c r="B191" s="52"/>
-      <c r="C191" s="44"/>
-      <c r="D191" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E191" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="F191" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="G191" s="5"/>
-      <c r="H191" s="17">
-        <v>3</v>
-      </c>
-      <c r="I191" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="J191" s="17"/>
-    </row>
-    <row r="192" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A192" s="52"/>
-      <c r="B192" s="52"/>
-      <c r="C192" s="44"/>
-      <c r="D192" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="E192" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="F192" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="G192" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="H192" s="17">
-        <v>3</v>
-      </c>
-      <c r="I192" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="J192" s="17"/>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A193" s="52"/>
-      <c r="B193" s="52"/>
-      <c r="C193" s="44"/>
-      <c r="D193" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E193" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="F193" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="G193" s="5"/>
-      <c r="H193" s="17">
-        <v>3</v>
-      </c>
-      <c r="I193" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="J193" s="17"/>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A194" s="52"/>
-      <c r="B194" s="52"/>
-      <c r="C194" s="45"/>
-      <c r="D194" s="5" t="s">
-        <v>716</v>
-      </c>
-      <c r="E194" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="F194" s="5" t="s">
-        <v>698</v>
-      </c>
-      <c r="G194" s="5"/>
-      <c r="H194" s="17">
-        <v>3</v>
-      </c>
-      <c r="I194" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="J194" s="17"/>
-    </row>
-    <row r="195" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A195" s="52"/>
-      <c r="B195" s="52"/>
-      <c r="C195" s="41" t="s">
-        <v>766</v>
-      </c>
-      <c r="D195" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E195" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="F195" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="G195" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="H195" s="22">
-        <v>3</v>
-      </c>
-      <c r="I195" s="22" t="s">
-        <v>472</v>
-      </c>
-      <c r="J195" s="22"/>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A196" s="52"/>
-      <c r="B196" s="52"/>
-      <c r="C196" s="42"/>
-      <c r="D196" s="21" t="s">
-        <v>398</v>
-      </c>
-      <c r="E196" s="21" t="s">
-        <v>813</v>
-      </c>
-      <c r="F196" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="G196" s="21"/>
-      <c r="H196" s="22">
-        <v>3</v>
-      </c>
-      <c r="I196" s="22" t="s">
-        <v>472</v>
-      </c>
-      <c r="J196" s="22"/>
-    </row>
-    <row r="197" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A197" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="B197" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C197" s="27" t="s">
-        <v>814</v>
-      </c>
-      <c r="D197" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E197" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="F197" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="G197" s="6" t="s">
-        <v>735</v>
-      </c>
-      <c r="H197" s="15">
-        <v>3</v>
-      </c>
-      <c r="I197" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="J197" s="15"/>
-    </row>
-    <row r="198" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A198" s="50"/>
-      <c r="B198" s="50"/>
-      <c r="C198" s="28"/>
-      <c r="D198" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E198" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="F198" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="G198" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="H198" s="15">
-        <v>3</v>
-      </c>
-      <c r="I198" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="J198" s="15"/>
-    </row>
-    <row r="199" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A199" s="50"/>
-      <c r="B199" s="50"/>
-      <c r="C199" s="28"/>
-      <c r="D199" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="E199" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="F199" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="G199" s="6"/>
-      <c r="H199" s="15">
-        <v>3</v>
-      </c>
-      <c r="I199" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="J199" s="15"/>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A200" s="50"/>
-      <c r="B200" s="50"/>
-      <c r="C200" s="28"/>
-      <c r="D200" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E200" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="F200" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="G200" s="6"/>
-      <c r="H200" s="15">
-        <v>3</v>
-      </c>
-      <c r="I200" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="J200" s="15"/>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A201" s="50"/>
-      <c r="B201" s="50"/>
-      <c r="C201" s="29"/>
-      <c r="D201" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="E201" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="F201" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="G201" s="6"/>
-      <c r="H201" s="15">
-        <v>3</v>
-      </c>
-      <c r="I201" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="J201" s="15"/>
-    </row>
-    <row r="202" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A202" s="54" t="s">
-        <v>389</v>
-      </c>
-      <c r="B202" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="C202" s="30" t="s">
-        <v>815</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="H202" s="16">
-        <v>3</v>
-      </c>
-      <c r="I202" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="J202" s="16"/>
-    </row>
-    <row r="203" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A203" s="54"/>
-      <c r="B203" s="54"/>
-      <c r="C203" s="31"/>
-      <c r="D203" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H203" s="16">
-        <v>3</v>
-      </c>
-      <c r="I203" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="J203" s="16"/>
-    </row>
-    <row r="204" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A204" s="54"/>
-      <c r="B204" s="54"/>
-      <c r="C204" s="31"/>
-      <c r="D204" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="G204" s="2"/>
-      <c r="H204" s="16">
-        <v>3</v>
-      </c>
-      <c r="I204" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="J204" s="16"/>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A205" s="54"/>
-      <c r="B205" s="54"/>
-      <c r="C205" s="31"/>
-      <c r="D205" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="G205" s="2"/>
-      <c r="H205" s="16">
-        <v>3</v>
-      </c>
-      <c r="I205" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="J205" s="16"/>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A206" s="54"/>
-      <c r="B206" s="54"/>
-      <c r="C206" s="32"/>
-      <c r="D206" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="G206" s="2"/>
-      <c r="H206" s="16">
-        <v>3</v>
-      </c>
-      <c r="I206" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="J206" s="16"/>
-    </row>
-    <row r="207" spans="1:10" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A207" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="B207" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="C207" s="33" t="s">
-        <v>816</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E207" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="F207" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="G207" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="H207" s="18">
-        <v>3</v>
-      </c>
-      <c r="I207" s="18" t="s">
-        <v>474</v>
-      </c>
-      <c r="J207" s="18"/>
-    </row>
-    <row r="208" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A208" s="55"/>
-      <c r="B208" s="55"/>
-      <c r="C208" s="34"/>
-      <c r="D208" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E208" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="F208" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="G208" s="3"/>
-      <c r="H208" s="18">
-        <v>3</v>
-      </c>
-      <c r="I208" s="18" t="s">
-        <v>474</v>
-      </c>
-      <c r="J208" s="18"/>
-    </row>
-    <row r="209" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A209" s="55"/>
-      <c r="B209" s="55"/>
-      <c r="C209" s="34"/>
-      <c r="D209" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="E209" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="F209" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="G209" s="3"/>
-      <c r="H209" s="18">
-        <v>3</v>
-      </c>
-      <c r="I209" s="18" t="s">
-        <v>474</v>
-      </c>
-      <c r="J209" s="18"/>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A210" s="55"/>
-      <c r="B210" s="55"/>
-      <c r="C210" s="34"/>
-      <c r="D210" s="3" t="s">
+      <c r="I213" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="J213" s="27"/>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A214" s="35"/>
+      <c r="B214" s="35"/>
+      <c r="C214" s="54"/>
+      <c r="D214" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="E210" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="F210" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="G210" s="3"/>
-      <c r="H210" s="18">
-        <v>3</v>
-      </c>
-      <c r="I210" s="18" t="s">
-        <v>474</v>
-      </c>
-      <c r="J210" s="18"/>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A211" s="55"/>
-      <c r="B211" s="55"/>
-      <c r="C211" s="35"/>
-      <c r="D211" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="E211" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="F211" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="G211" s="3"/>
-      <c r="H211" s="18">
-        <v>3</v>
-      </c>
-      <c r="I211" s="18" t="s">
-        <v>474</v>
-      </c>
-      <c r="J211" s="18"/>
-    </row>
-    <row r="212" spans="1:10" ht="132" x14ac:dyDescent="0.3">
-      <c r="A212" s="46" t="s">
-        <v>827</v>
-      </c>
-      <c r="B212" s="46" t="s">
-        <v>343</v>
-      </c>
-      <c r="C212" s="38" t="s">
-        <v>811</v>
-      </c>
-      <c r="D212" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="E212" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="F212" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="G212" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="H212" s="14">
-        <v>4</v>
-      </c>
-      <c r="I212" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="J212" s="14"/>
-    </row>
-    <row r="213" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A213" s="46"/>
-      <c r="B213" s="46"/>
-      <c r="C213" s="39"/>
-      <c r="D213" s="4" t="s">
-        <v>830</v>
-      </c>
-      <c r="E213" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="F213" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="G213" s="4"/>
-      <c r="H213" s="14">
-        <v>4</v>
-      </c>
-      <c r="I213" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="J213" s="14"/>
-    </row>
-    <row r="214" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A214" s="46"/>
-      <c r="B214" s="46"/>
-      <c r="C214" s="39"/>
-      <c r="D214" s="4" t="s">
-        <v>831</v>
       </c>
       <c r="E214" s="4" t="s">
         <v>345</v>
       </c>
       <c r="F214" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G214" s="4"/>
+      <c r="H214" s="27">
+        <v>3</v>
+      </c>
+      <c r="I214" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="J214" s="27"/>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A215" s="35"/>
+      <c r="B215" s="35"/>
+      <c r="C215" s="55"/>
+      <c r="D215" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="G215" s="4"/>
+      <c r="H215" s="27">
+        <v>3</v>
+      </c>
+      <c r="I215" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="J215" s="27"/>
+    </row>
+    <row r="216" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+      <c r="A216" s="36" t="s">
+        <v>821</v>
+      </c>
+      <c r="B216" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="C216" s="44" t="s">
+        <v>805</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="G216" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="H216" s="29">
+        <v>4</v>
+      </c>
+      <c r="I216" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="J216" s="29"/>
+    </row>
+    <row r="217" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A217" s="36"/>
+      <c r="B217" s="36"/>
+      <c r="C217" s="45"/>
+      <c r="D217" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="E217" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F217" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G217" s="5"/>
+      <c r="H217" s="29">
+        <v>4</v>
+      </c>
+      <c r="I217" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="J217" s="29"/>
+    </row>
+    <row r="218" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A218" s="36"/>
+      <c r="B218" s="36"/>
+      <c r="C218" s="45"/>
+      <c r="D218" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="F218" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="G214" s="4"/>
-      <c r="H214" s="14">
+      <c r="G218" s="5"/>
+      <c r="H218" s="29">
         <v>4</v>
       </c>
-      <c r="I214" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="J214" s="14"/>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A215" s="46"/>
-      <c r="B215" s="46"/>
-      <c r="C215" s="40"/>
-      <c r="D215" s="4" t="s">
-        <v>832</v>
-      </c>
-      <c r="E215" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="F215" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="G215" s="4"/>
-      <c r="H215" s="14">
+      <c r="I218" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="J218" s="29"/>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A219" s="36"/>
+      <c r="B219" s="36"/>
+      <c r="C219" s="46"/>
+      <c r="D219" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="E219" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="F219" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="G219" s="5"/>
+      <c r="H219" s="29">
         <v>4</v>
       </c>
-      <c r="I215" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="J215" s="14"/>
-    </row>
-    <row r="216" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A216" s="52" t="s">
+      <c r="I219" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="J219" s="29"/>
+    </row>
+    <row r="220" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A220" s="37" t="s">
+        <v>822</v>
+      </c>
+      <c r="B220" s="37" t="s">
+        <v>814</v>
+      </c>
+      <c r="C220" s="47" t="s">
+        <v>815</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="E220" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="F220" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="G220" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="H220" s="28">
+        <v>4</v>
+      </c>
+      <c r="I220" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="J220" s="28"/>
+    </row>
+    <row r="221" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A221" s="37"/>
+      <c r="B221" s="37"/>
+      <c r="C221" s="48"/>
+      <c r="D221" s="6" t="s">
         <v>828</v>
       </c>
-      <c r="B216" s="52" t="s">
-        <v>820</v>
-      </c>
-      <c r="C216" s="43" t="s">
-        <v>821</v>
-      </c>
-      <c r="D216" s="5" t="s">
-        <v>833</v>
-      </c>
-      <c r="E216" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="F216" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="G216" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="H216" s="17">
+      <c r="E221" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F221" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="G221" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="H221" s="28">
         <v>4</v>
       </c>
-      <c r="I216" s="17" t="s">
-        <v>474</v>
-      </c>
-      <c r="J216" s="17"/>
-    </row>
-    <row r="217" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A217" s="52"/>
-      <c r="B217" s="52"/>
-      <c r="C217" s="44"/>
-      <c r="D217" s="5" t="s">
-        <v>834</v>
-      </c>
-      <c r="E217" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="F217" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="G217" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="H217" s="17">
+      <c r="I221" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="J221" s="28"/>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A222" s="37"/>
+      <c r="B222" s="37"/>
+      <c r="C222" s="48"/>
+      <c r="D222" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="E222" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="F222" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="G222" s="6"/>
+      <c r="H222" s="28">
         <v>4</v>
       </c>
-      <c r="I217" s="17" t="s">
-        <v>474</v>
-      </c>
-      <c r="J217" s="17"/>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A218" s="52"/>
-      <c r="B218" s="52"/>
-      <c r="C218" s="44"/>
-      <c r="D218" s="5" t="s">
-        <v>835</v>
-      </c>
-      <c r="E218" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="F218" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="G218" s="5"/>
-      <c r="H218" s="17">
+      <c r="I222" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="J222" s="28"/>
+    </row>
+    <row r="223" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A223" s="37"/>
+      <c r="B223" s="37"/>
+      <c r="C223" s="48"/>
+      <c r="D223" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="E223" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="F223" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="G223" s="6"/>
+      <c r="H223" s="28">
         <v>4</v>
       </c>
-      <c r="I218" s="17" t="s">
-        <v>474</v>
-      </c>
-      <c r="J218" s="17"/>
-    </row>
-    <row r="219" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A219" s="52"/>
-      <c r="B219" s="52"/>
-      <c r="C219" s="44"/>
-      <c r="D219" s="5" t="s">
-        <v>836</v>
-      </c>
-      <c r="E219" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="F219" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="G219" s="5"/>
-      <c r="H219" s="17">
+      <c r="I223" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="J223" s="28"/>
+    </row>
+    <row r="224" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A224" s="37"/>
+      <c r="B224" s="37"/>
+      <c r="C224" s="49"/>
+      <c r="D224" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="E224" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="F224" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G224" s="6"/>
+      <c r="H224" s="28">
         <v>4</v>
       </c>
-      <c r="I219" s="17" t="s">
-        <v>474</v>
-      </c>
-      <c r="J219" s="17"/>
-    </row>
-    <row r="220" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A220" s="52"/>
-      <c r="B220" s="52"/>
-      <c r="C220" s="45"/>
-      <c r="D220" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="E220" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="F220" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="G220" s="5"/>
-      <c r="H220" s="17">
-        <v>4</v>
-      </c>
-      <c r="I220" s="17" t="s">
-        <v>474</v>
-      </c>
-      <c r="J220" s="17"/>
+      <c r="I224" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="J224" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J220"/>
-  <mergeCells count="134">
-    <mergeCell ref="A202:A206"/>
-    <mergeCell ref="B202:B206"/>
-    <mergeCell ref="A207:A211"/>
-    <mergeCell ref="B207:B211"/>
-    <mergeCell ref="B212:B215"/>
-    <mergeCell ref="A190:A196"/>
-    <mergeCell ref="B190:B196"/>
-    <mergeCell ref="A197:A201"/>
-    <mergeCell ref="B197:B201"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B37:B44"/>
-    <mergeCell ref="A184:A189"/>
-    <mergeCell ref="B184:B189"/>
-    <mergeCell ref="A212:A215"/>
-    <mergeCell ref="A52:A58"/>
-    <mergeCell ref="B52:B58"/>
-    <mergeCell ref="A149:A155"/>
-    <mergeCell ref="B142:B148"/>
-    <mergeCell ref="B149:B155"/>
-    <mergeCell ref="A111:A115"/>
-    <mergeCell ref="B111:B115"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="B105:B110"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="B128:B132"/>
-    <mergeCell ref="A156:A162"/>
-    <mergeCell ref="A167:A172"/>
-    <mergeCell ref="B167:B172"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="A216:A220"/>
-    <mergeCell ref="B216:B220"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="B45:B51"/>
-    <mergeCell ref="A173:A176"/>
-    <mergeCell ref="B173:B176"/>
-    <mergeCell ref="A177:A183"/>
-    <mergeCell ref="B177:B183"/>
-    <mergeCell ref="A142:A148"/>
-    <mergeCell ref="A124:A127"/>
-    <mergeCell ref="B124:B127"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="B119:B123"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:B75"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="A133:A136"/>
-    <mergeCell ref="B133:B136"/>
-    <mergeCell ref="A163:A166"/>
-    <mergeCell ref="B163:B166"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="B97:B102"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="B156:B162"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="B137:B141"/>
+  <autoFilter ref="A1:J224">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="이가원"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="137">
+    <mergeCell ref="A177:A180"/>
+    <mergeCell ref="B177:B180"/>
+    <mergeCell ref="J104:J105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="C201:C205"/>
+    <mergeCell ref="C206:C210"/>
+    <mergeCell ref="C211:C215"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C181:C187"/>
+    <mergeCell ref="C173:C176"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="C194:C198"/>
+    <mergeCell ref="C188:C191"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="C156:C162"/>
+    <mergeCell ref="C142:C148"/>
+    <mergeCell ref="C149:C155"/>
+    <mergeCell ref="C163:C166"/>
+    <mergeCell ref="C167:C172"/>
+    <mergeCell ref="C119:C123"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="C128:C132"/>
+    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="C137:C141"/>
+    <mergeCell ref="C65:C69"/>
+    <mergeCell ref="C70:C76"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="C220:C224"/>
+    <mergeCell ref="C37:C44"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C216:C219"/>
+    <mergeCell ref="C98:C103"/>
+    <mergeCell ref="C177:C180"/>
     <mergeCell ref="J25:J26"/>
     <mergeCell ref="J27:J28"/>
     <mergeCell ref="C29:C32"/>
@@ -9914,49 +10081,84 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C7:C11"/>
-    <mergeCell ref="C64:C68"/>
-    <mergeCell ref="C69:C75"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="C216:C220"/>
-    <mergeCell ref="C37:C44"/>
-    <mergeCell ref="C52:C58"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C105:C109"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="J103:J104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="C197:C201"/>
-    <mergeCell ref="C202:C206"/>
-    <mergeCell ref="C207:C211"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C177:C183"/>
-    <mergeCell ref="C173:C176"/>
-    <mergeCell ref="C212:C215"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="C190:C194"/>
-    <mergeCell ref="C184:C187"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="C156:C162"/>
-    <mergeCell ref="C142:C148"/>
-    <mergeCell ref="C149:C155"/>
-    <mergeCell ref="C163:C166"/>
-    <mergeCell ref="C167:C172"/>
-    <mergeCell ref="C119:C123"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="C128:C132"/>
-    <mergeCell ref="C133:C136"/>
-    <mergeCell ref="C137:C141"/>
-    <mergeCell ref="C97:C102"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="A133:A136"/>
+    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="A163:A166"/>
+    <mergeCell ref="B163:B166"/>
+    <mergeCell ref="A98:A103"/>
+    <mergeCell ref="B98:B103"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="B156:B162"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="B137:B141"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A220:A224"/>
+    <mergeCell ref="B220:B224"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="B29:B36"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B45:B52"/>
+    <mergeCell ref="A173:A176"/>
+    <mergeCell ref="B173:B176"/>
+    <mergeCell ref="A181:A187"/>
+    <mergeCell ref="B181:B187"/>
+    <mergeCell ref="A142:A148"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="B124:B127"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B37:B44"/>
+    <mergeCell ref="A188:A193"/>
+    <mergeCell ref="B188:B193"/>
+    <mergeCell ref="A216:A219"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="B53:B59"/>
+    <mergeCell ref="A149:A155"/>
+    <mergeCell ref="B142:B148"/>
+    <mergeCell ref="B149:B155"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="B111:B115"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="A106:A110"/>
+    <mergeCell ref="B106:B110"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="B128:B132"/>
+    <mergeCell ref="A156:A162"/>
+    <mergeCell ref="A167:A172"/>
+    <mergeCell ref="B167:B172"/>
+    <mergeCell ref="A206:A210"/>
+    <mergeCell ref="B206:B210"/>
+    <mergeCell ref="A211:A215"/>
+    <mergeCell ref="B211:B215"/>
+    <mergeCell ref="B216:B219"/>
+    <mergeCell ref="A194:A200"/>
+    <mergeCell ref="B194:B200"/>
+    <mergeCell ref="A201:A205"/>
+    <mergeCell ref="B201:B205"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9986,280 +10188,280 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="63" t="s">
         <v>424</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="63" t="s">
         <v>425</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>426</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>239</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
       <c r="C2" s="10" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>153</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="13" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
       <c r="C3" s="10" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>132</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="13" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="13" t="s">
         <v>239</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="13" t="s">
         <v>239</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="10" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="13" t="s">
         <v>239</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="10" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="13" t="s">
         <v>239</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" ht="198" x14ac:dyDescent="0.3">
-      <c r="A8" s="60" t="s">
-        <v>647</v>
-      </c>
-      <c r="B8" s="60" t="s">
+      <c r="A8" s="66" t="s">
+        <v>642</v>
+      </c>
+      <c r="B8" s="66" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" ht="132" x14ac:dyDescent="0.3">
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" s="66"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>701</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>703</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="10" t="s">
-        <v>649</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>694</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="E12" s="10" t="s">
         <v>693</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="10" t="s">
-        <v>700</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>702</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>705</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="10" t="s">
-        <v>650</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>697</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>699</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="11" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="63" t="s">
         <v>343</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -10269,22 +10471,22 @@
         <v>344</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>239</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
-      <c r="B14" s="58"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="10" t="s">
         <v>68</v>
       </c>
@@ -10299,13 +10501,13 @@
         <v>239</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="10" t="s">
         <v>69</v>
       </c>
@@ -10320,36 +10522,36 @@
         <v>239</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="10" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="11" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" ht="231" x14ac:dyDescent="0.3">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="63" t="s">
         <v>392</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -10359,22 +10561,22 @@
         <v>352</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>239</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="10" t="s">
         <v>81</v>
       </c>
@@ -10391,13 +10593,13 @@
         <v>239</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="10" t="s">
         <v>370</v>
       </c>
@@ -10412,13 +10614,13 @@
         <v>239</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="10" t="s">
         <v>393</v>
       </c>
@@ -10433,13 +10635,13 @@
         <v>239</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="10" t="s">
         <v>398</v>
       </c>
@@ -10456,13 +10658,13 @@
         <v>239</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
+      <c r="A22" s="64"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="10" t="s">
         <v>82</v>
       </c>
@@ -10477,36 +10679,36 @@
         <v>239</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="10" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="11" t="s">
         <v>239</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="67" t="s">
         <v>377</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="67" t="s">
         <v>75</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -10516,22 +10718,22 @@
         <v>279</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>239</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A25" s="61"/>
-      <c r="B25" s="61"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="67"/>
       <c r="C25" s="8" t="s">
         <v>84</v>
       </c>
@@ -10548,13 +10750,13 @@
         <v>239</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="61"/>
-      <c r="B26" s="61"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="67"/>
       <c r="C26" s="8" t="s">
         <v>378</v>
       </c>
@@ -10569,13 +10771,13 @@
         <v>239</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="61"/>
-      <c r="B27" s="61"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="67"/>
       <c r="C27" s="8" t="s">
         <v>85</v>
       </c>
@@ -10590,13 +10792,13 @@
         <v>239</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="61"/>
-      <c r="B28" s="61"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="8" t="s">
         <v>379</v>
       </c>
@@ -10611,15 +10813,15 @@
         <v>239</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="66" t="s">
         <v>389</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="66" t="s">
         <v>79</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -10629,22 +10831,22 @@
         <v>310</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>239</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A30" s="60"/>
-      <c r="B30" s="60"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="66"/>
       <c r="C30" s="10" t="s">
         <v>99</v>
       </c>
@@ -10661,13 +10863,13 @@
         <v>239</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="I30" s="9"/>
     </row>
     <row r="31" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="60"/>
-      <c r="B31" s="60"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="66"/>
       <c r="C31" s="10" t="s">
         <v>390</v>
       </c>
@@ -10682,13 +10884,13 @@
         <v>239</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="I31" s="9"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="60"/>
-      <c r="B32" s="60"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="66"/>
       <c r="C32" s="10" t="s">
         <v>100</v>
       </c>
@@ -10703,13 +10905,13 @@
         <v>239</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="I32" s="9"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="60"/>
-      <c r="B33" s="60"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="66"/>
       <c r="C33" s="10" t="s">
         <v>391</v>
       </c>
@@ -10724,15 +10926,15 @@
         <v>239</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="1:9" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="63" t="s">
         <v>92</v>
       </c>
       <c r="C34" s="10" t="s">
@@ -10742,22 +10944,22 @@
         <v>417</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>239</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I34" s="13"/>
     </row>
     <row r="35" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="58"/>
-      <c r="B35" s="58"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="10" t="s">
         <v>94</v>
       </c>
@@ -10772,13 +10974,13 @@
         <v>239</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I35" s="13"/>
     </row>
     <row r="36" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="58"/>
-      <c r="B36" s="58"/>
+      <c r="A36" s="64"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="10" t="s">
         <v>419</v>
       </c>
@@ -10793,13 +10995,13 @@
         <v>239</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I36" s="13"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="58"/>
-      <c r="B37" s="58"/>
+      <c r="A37" s="64"/>
+      <c r="B37" s="64"/>
       <c r="C37" s="10" t="s">
         <v>95</v>
       </c>
@@ -10814,28 +11016,28 @@
         <v>239</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I37" s="13"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="59"/>
-      <c r="B38" s="59"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="10" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="13" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I38" s="13"/>
     </row>

--- a/docs/요구사항정의서.xlsx
+++ b/docs/요구사항정의서.xlsx
@@ -2616,12 +2616,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USER02-REDIRECT02</t>
-  </si>
-  <si>
-    <t>USER02-REDIRECT03</t>
-  </si>
-  <si>
     <t>USER02-PRINT02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3883,6 +3877,14 @@
 * 생년월일: 년 숫자 4글자(1900~2023), 월 숫자 2글자(01~12사이값), 일 숫자 2글자(01~31사이값) 확인
 * 성별: 라디오 버튼으로 남성 혹은 여성 둘 중 하나만 선택
 * 우편번호+주소: 카카오 주소 API 활용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER02-REDIRECT02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER02-REDIRECT03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4162,19 +4164,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4184,33 +4177,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4231,25 +4197,73 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4265,18 +4279,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4562,9 +4564,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F172" sqref="F172"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4589,7 +4591,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -4604,7 +4606,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -4614,14 +4616,14 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="132" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="33" t="s">
-        <v>759</v>
+      <c r="C2" s="64" t="s">
+        <v>757</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
@@ -4633,7 +4635,7 @@
         <v>116</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="H2" s="16">
         <v>1</v>
@@ -4642,13 +4644,13 @@
         <v>467</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
@@ -4668,9 +4670,9 @@
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="2" t="s">
         <v>133</v>
       </c>
@@ -4690,9 +4692,9 @@
       <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="2" t="s">
         <v>136</v>
       </c>
@@ -4712,9 +4714,9 @@
       <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="2" t="s">
         <v>140</v>
       </c>
@@ -4734,10 +4736,10 @@
       <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="43" t="s">
-        <v>762</v>
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="66" t="s">
+        <v>760</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>111</v>
@@ -4760,9 +4762,9 @@
       <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="43"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="19" t="s">
         <v>10</v>
       </c>
@@ -4773,7 +4775,7 @@
         <v>164</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="H8" s="20">
         <v>1</v>
@@ -4784,9 +4786,9 @@
       <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="43"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="19" t="s">
         <v>144</v>
       </c>
@@ -4806,9 +4808,9 @@
       <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="43"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="19" t="s">
         <v>152</v>
       </c>
@@ -4828,9 +4830,9 @@
       <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="43"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="19" t="s">
         <v>155</v>
       </c>
@@ -4850,10 +4852,10 @@
       <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33" t="s">
-        <v>777</v>
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64" t="s">
+        <v>775</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>124</v>
@@ -4876,9 +4878,9 @@
       <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="2" t="s">
         <v>126</v>
       </c>
@@ -4900,9 +4902,9 @@
       <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="2" t="s">
         <v>156</v>
       </c>
@@ -4922,10 +4924,10 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" ht="66" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="43" t="s">
-        <v>758</v>
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="66" t="s">
+        <v>756</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>113</v>
@@ -4948,9 +4950,9 @@
       <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="43"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="19" t="s">
         <v>162</v>
       </c>
@@ -4961,7 +4963,7 @@
         <v>120</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="H16" s="20">
         <v>3</v>
@@ -4972,10 +4974,10 @@
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33" t="s">
-        <v>761</v>
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64" t="s">
+        <v>759</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>114</v>
@@ -4998,9 +5000,9 @@
       <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="2" t="s">
         <v>291</v>
       </c>
@@ -5022,14 +5024,14 @@
       <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="34" t="s">
-        <v>763</v>
+      <c r="C19" s="65" t="s">
+        <v>761</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>13</v>
@@ -5052,9 +5054,9 @@
       <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="3" t="s">
         <v>14</v>
       </c>
@@ -5074,17 +5076,17 @@
       <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="35" t="s">
-        <v>765</v>
+      <c r="C21" s="62" t="s">
+        <v>763</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>182</v>
@@ -5093,7 +5095,7 @@
         <v>186</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="H21" s="14">
         <v>1</v>
@@ -5102,13 +5104,13 @@
         <v>467</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="66" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="4" t="s">
         <v>16</v>
       </c>
@@ -5128,9 +5130,9 @@
       <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="4" t="s">
         <v>17</v>
       </c>
@@ -5150,9 +5152,9 @@
       <c r="J23" s="14"/>
     </row>
     <row r="24" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="4" t="s">
         <v>177</v>
       </c>
@@ -5172,13 +5174,13 @@
       <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10" ht="66" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="41" t="s">
-        <v>766</v>
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="61" t="s">
+        <v>764</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E25" s="24" t="s">
         <v>170</v>
@@ -5195,14 +5197,14 @@
       <c r="I25" s="23" t="s">
         <v>467</v>
       </c>
-      <c r="J25" s="41" t="s">
-        <v>715</v>
+      <c r="J25" s="61" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="41"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="61"/>
       <c r="D26" s="24" t="s">
         <v>180</v>
       </c>
@@ -5219,16 +5221,16 @@
       <c r="I26" s="23" t="s">
         <v>467</v>
       </c>
-      <c r="J26" s="41"/>
+      <c r="J26" s="61"/>
     </row>
     <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35" t="s">
-        <v>767</v>
+      <c r="A27" s="62"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62" t="s">
+        <v>765</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>171</v>
@@ -5245,14 +5247,14 @@
       <c r="I27" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="J27" s="35" t="s">
-        <v>716</v>
+      <c r="J27" s="62" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="4" t="s">
         <v>187</v>
       </c>
@@ -5269,17 +5271,17 @@
       <c r="I28" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="J28" s="35"/>
+      <c r="J28" s="62"/>
     </row>
     <row r="29" spans="1:10" ht="99" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="C29" s="36" t="s">
-        <v>769</v>
+      <c r="C29" s="51" t="s">
+        <v>767</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>147</v>
@@ -5302,9 +5304,9 @@
       <c r="J29" s="17"/>
     </row>
     <row r="30" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
       <c r="D30" s="5" t="s">
         <v>148</v>
       </c>
@@ -5324,9 +5326,9 @@
       <c r="J30" s="17"/>
     </row>
     <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="5" t="s">
         <v>149</v>
       </c>
@@ -5346,9 +5348,9 @@
       <c r="J31" s="17"/>
     </row>
     <row r="32" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
       <c r="D32" s="5" t="s">
         <v>199</v>
       </c>
@@ -5368,13 +5370,13 @@
       <c r="J32" s="17"/>
     </row>
     <row r="33" spans="1:10" ht="66" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="42" t="s">
-        <v>770</v>
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="63" t="s">
+        <v>768</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E33" s="21" t="s">
         <v>410</v>
@@ -5394,9 +5396,9 @@
       <c r="J33" s="22"/>
     </row>
     <row r="34" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="36"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="42"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="21" t="s">
         <v>204</v>
       </c>
@@ -5416,9 +5418,9 @@
       <c r="J34" s="22"/>
     </row>
     <row r="35" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="36"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="42"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="63"/>
       <c r="D35" s="21" t="s">
         <v>193</v>
       </c>
@@ -5438,9 +5440,9 @@
       <c r="J35" s="22"/>
     </row>
     <row r="36" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="36"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="42"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="63"/>
       <c r="D36" s="21" t="s">
         <v>196</v>
       </c>
@@ -5460,14 +5462,14 @@
       <c r="J36" s="22"/>
     </row>
     <row r="37" spans="1:10" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="37" t="s">
-        <v>771</v>
+      <c r="C37" s="57" t="s">
+        <v>769</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>19</v>
@@ -5488,13 +5490,13 @@
         <v>468</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
       <c r="D38" s="6" t="s">
         <v>20</v>
       </c>
@@ -5514,9 +5516,9 @@
       <c r="J38" s="15"/>
     </row>
     <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
       <c r="D39" s="6" t="s">
         <v>21</v>
       </c>
@@ -5536,9 +5538,9 @@
       <c r="J39" s="15"/>
     </row>
     <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
       <c r="D40" s="6" t="s">
         <v>212</v>
       </c>
@@ -5558,9 +5560,9 @@
       <c r="J40" s="15"/>
     </row>
     <row r="41" spans="1:10" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
       <c r="D41" s="6" t="s">
         <v>215</v>
       </c>
@@ -5580,9 +5582,9 @@
       <c r="J41" s="15"/>
     </row>
     <row r="42" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
       <c r="D42" s="6" t="s">
         <v>219</v>
       </c>
@@ -5604,9 +5606,9 @@
       <c r="J42" s="15"/>
     </row>
     <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
       <c r="D43" s="6" t="s">
         <v>222</v>
       </c>
@@ -5628,9 +5630,9 @@
       <c r="J43" s="15"/>
     </row>
     <row r="44" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
       <c r="D44" s="6" t="s">
         <v>218</v>
       </c>
@@ -5650,14 +5652,14 @@
       <c r="J44" s="15"/>
     </row>
     <row r="45" spans="1:10" ht="132" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="50" t="s">
-        <v>772</v>
+      <c r="C45" s="38" t="s">
+        <v>770</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>28</v>
@@ -5666,10 +5668,10 @@
         <v>228</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="H45" s="16">
         <v>1</v>
@@ -5680,9 +5682,9 @@
       <c r="J45" s="16"/>
     </row>
     <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="52"/>
+      <c r="A46" s="64"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="40"/>
       <c r="D46" s="2" t="s">
         <v>29</v>
       </c>
@@ -5702,10 +5704,10 @@
       <c r="J46" s="16"/>
     </row>
     <row r="47" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="33"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="61" t="s">
-        <v>812</v>
+      <c r="A47" s="64"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="44" t="s">
+        <v>810</v>
       </c>
       <c r="D47" s="19" t="s">
         <v>229</v>
@@ -5728,11 +5730,11 @@
       <c r="J47" s="20"/>
     </row>
     <row r="48" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="33"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="62"/>
+      <c r="A48" s="64"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="45"/>
       <c r="D48" s="19" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>233</v>
@@ -5750,22 +5752,22 @@
       <c r="J48" s="20"/>
     </row>
     <row r="49" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="50" t="s">
-        <v>796</v>
+      <c r="A49" s="64"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="38" t="s">
+        <v>794</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="H49" s="16">
         <v>3</v>
@@ -5776,17 +5778,17 @@
       <c r="J49" s="16"/>
     </row>
     <row r="50" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="33"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="51"/>
+      <c r="A50" s="64"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="39"/>
       <c r="D50" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>862</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>864</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="31">
@@ -5798,17 +5800,17 @@
       <c r="J50" s="31"/>
     </row>
     <row r="51" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="33"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="52"/>
+      <c r="A51" s="64"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="40"/>
       <c r="D51" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>480</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="16">
@@ -5820,10 +5822,10 @@
       <c r="J51" s="16"/>
     </row>
     <row r="52" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
+      <c r="A52" s="64"/>
+      <c r="B52" s="64"/>
       <c r="C52" s="20" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D52" s="19" t="s">
         <v>235</v>
@@ -5846,14 +5848,14 @@
       <c r="J52" s="20"/>
     </row>
     <row r="53" spans="1:10" ht="132" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="34" t="s">
+      <c r="A53" s="65" t="s">
         <v>314</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="65" t="s">
         <v>317</v>
       </c>
-      <c r="C53" s="38" t="s">
-        <v>773</v>
+      <c r="C53" s="35" t="s">
+        <v>771</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>324</v>
@@ -5862,10 +5864,10 @@
         <v>263</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="H53" s="18">
         <v>3</v>
@@ -5876,20 +5878,20 @@
       <c r="J53" s="18"/>
     </row>
     <row r="54" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="39"/>
+      <c r="A54" s="65"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="36"/>
       <c r="D54" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E54" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>744</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>746</v>
       </c>
       <c r="H54" s="18">
         <v>3</v>
@@ -5900,9 +5902,9 @@
       <c r="J54" s="18"/>
     </row>
     <row r="55" spans="1:10" ht="66" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="34"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="39"/>
+      <c r="A55" s="65"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="36"/>
       <c r="D55" s="3" t="s">
         <v>319</v>
       </c>
@@ -5924,9 +5926,9 @@
       <c r="J55" s="18"/>
     </row>
     <row r="56" spans="1:10" ht="66" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="34"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="39"/>
+      <c r="A56" s="65"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="36"/>
       <c r="D56" s="3" t="s">
         <v>320</v>
       </c>
@@ -5934,7 +5936,7 @@
         <v>265</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>274</v>
@@ -5948,9 +5950,9 @@
       <c r="J56" s="18"/>
     </row>
     <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="34"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="39"/>
+      <c r="A57" s="65"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="36"/>
       <c r="D57" s="3" t="s">
         <v>321</v>
       </c>
@@ -5970,9 +5972,9 @@
       <c r="J57" s="18"/>
     </row>
     <row r="58" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="34"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="39"/>
+      <c r="A58" s="65"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="36"/>
       <c r="D58" s="3" t="s">
         <v>322</v>
       </c>
@@ -5994,9 +5996,9 @@
       <c r="J58" s="18"/>
     </row>
     <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="34"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="40"/>
+      <c r="A59" s="65"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="37"/>
       <c r="D59" s="3" t="s">
         <v>323</v>
       </c>
@@ -6016,14 +6018,14 @@
       <c r="J59" s="18"/>
     </row>
     <row r="60" spans="1:10" ht="181.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="35" t="s">
+      <c r="A60" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B60" s="35" t="s">
+      <c r="B60" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="C60" s="53" t="s">
-        <v>775</v>
+      <c r="C60" s="41" t="s">
+        <v>773</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>49</v>
@@ -6048,9 +6050,9 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="35"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="54"/>
+      <c r="A61" s="62"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="42"/>
       <c r="D61" s="4" t="s">
         <v>50</v>
       </c>
@@ -6070,9 +6072,9 @@
       <c r="J61" s="14"/>
     </row>
     <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="35"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="55"/>
+      <c r="A62" s="62"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="43"/>
       <c r="D62" s="4" t="s">
         <v>51</v>
       </c>
@@ -6092,10 +6094,10 @@
       <c r="J62" s="14"/>
     </row>
     <row r="63" spans="1:10" ht="66" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="35"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="56" t="s">
-        <v>776</v>
+      <c r="A63" s="62"/>
+      <c r="B63" s="62"/>
+      <c r="C63" s="58" t="s">
+        <v>774</v>
       </c>
       <c r="D63" s="24" t="s">
         <v>259</v>
@@ -6118,9 +6120,9 @@
       <c r="J63" s="23"/>
     </row>
     <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="35"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="57"/>
+      <c r="A64" s="62"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="59"/>
       <c r="D64" s="24" t="s">
         <v>360</v>
       </c>
@@ -6140,14 +6142,14 @@
       <c r="J64" s="23"/>
     </row>
     <row r="65" spans="1:10" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="36" t="s">
+      <c r="A65" s="51" t="s">
         <v>301</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C65" s="44" t="s">
-        <v>774</v>
+      <c r="C65" s="54" t="s">
+        <v>772</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>53</v>
@@ -6170,9 +6172,9 @@
       <c r="J65" s="17"/>
     </row>
     <row r="66" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="36"/>
-      <c r="B66" s="36"/>
-      <c r="C66" s="45"/>
+      <c r="A66" s="51"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="55"/>
       <c r="D66" s="5" t="s">
         <v>54</v>
       </c>
@@ -6194,9 +6196,9 @@
       <c r="J66" s="17"/>
     </row>
     <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="36"/>
-      <c r="B67" s="36"/>
-      <c r="C67" s="45"/>
+      <c r="A67" s="51"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="55"/>
       <c r="D67" s="5" t="s">
         <v>55</v>
       </c>
@@ -6216,9 +6218,9 @@
       <c r="J67" s="17"/>
     </row>
     <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="36"/>
-      <c r="B68" s="36"/>
-      <c r="C68" s="45"/>
+      <c r="A68" s="51"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="55"/>
       <c r="D68" s="5" t="s">
         <v>275</v>
       </c>
@@ -6238,9 +6240,9 @@
       <c r="J68" s="17"/>
     </row>
     <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="36"/>
-      <c r="B69" s="36"/>
-      <c r="C69" s="46"/>
+      <c r="A69" s="51"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="56"/>
       <c r="D69" s="5" t="s">
         <v>302</v>
       </c>
@@ -6260,14 +6262,14 @@
       <c r="J69" s="17"/>
     </row>
     <row r="70" spans="1:10" ht="132" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="37" t="s">
+      <c r="A70" s="57" t="s">
         <v>316</v>
       </c>
-      <c r="B70" s="37" t="s">
+      <c r="B70" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="C70" s="47" t="s">
-        <v>778</v>
+      <c r="C70" s="48" t="s">
+        <v>776</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>329</v>
@@ -6276,10 +6278,10 @@
         <v>263</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="H70" s="15">
         <v>3</v>
@@ -6290,20 +6292,20 @@
       <c r="J70" s="15"/>
     </row>
     <row r="71" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="37"/>
-      <c r="B71" s="37"/>
-      <c r="C71" s="48"/>
+      <c r="A71" s="57"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="49"/>
       <c r="D71" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="E71" s="6" t="s">
         <v>741</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="F71" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="G71" s="6" t="s">
         <v>745</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>747</v>
       </c>
       <c r="H71" s="15">
         <v>3</v>
@@ -6314,9 +6316,9 @@
       <c r="J71" s="15"/>
     </row>
     <row r="72" spans="1:10" ht="66" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="37"/>
-      <c r="B72" s="37"/>
-      <c r="C72" s="48"/>
+      <c r="A72" s="57"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="49"/>
       <c r="D72" s="6" t="s">
         <v>325</v>
       </c>
@@ -6338,9 +6340,9 @@
       <c r="J72" s="15"/>
     </row>
     <row r="73" spans="1:10" ht="66" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="37"/>
-      <c r="B73" s="37"/>
-      <c r="C73" s="48"/>
+      <c r="A73" s="57"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="49"/>
       <c r="D73" s="6" t="s">
         <v>326</v>
       </c>
@@ -6348,7 +6350,7 @@
         <v>265</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>274</v>
@@ -6362,9 +6364,9 @@
       <c r="J73" s="15"/>
     </row>
     <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="37"/>
-      <c r="B74" s="37"/>
-      <c r="C74" s="48"/>
+      <c r="A74" s="57"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="49"/>
       <c r="D74" s="6" t="s">
         <v>327</v>
       </c>
@@ -6384,9 +6386,9 @@
       <c r="J74" s="15"/>
     </row>
     <row r="75" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="37"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="48"/>
+      <c r="A75" s="57"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="49"/>
       <c r="D75" s="6" t="s">
         <v>328</v>
       </c>
@@ -6408,9 +6410,9 @@
       <c r="J75" s="15"/>
     </row>
     <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="37"/>
-      <c r="B76" s="37"/>
-      <c r="C76" s="49"/>
+      <c r="A76" s="57"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="50"/>
       <c r="D76" s="6" t="s">
         <v>330</v>
       </c>
@@ -6430,14 +6432,14 @@
       <c r="J76" s="15"/>
     </row>
     <row r="77" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="33" t="s">
+      <c r="A77" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="B77" s="33" t="s">
+      <c r="B77" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C77" s="50" t="s">
-        <v>779</v>
+      <c r="C77" s="38" t="s">
+        <v>777</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>58</v>
@@ -6446,10 +6448,10 @@
         <v>280</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="H77" s="16">
         <v>2</v>
@@ -6460,9 +6462,9 @@
       <c r="J77" s="16"/>
     </row>
     <row r="78" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="33"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="51"/>
+      <c r="A78" s="64"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="39"/>
       <c r="D78" s="2" t="s">
         <v>59</v>
       </c>
@@ -6484,9 +6486,9 @@
       <c r="J78" s="16"/>
     </row>
     <row r="79" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="33"/>
-      <c r="B79" s="33"/>
-      <c r="C79" s="51"/>
+      <c r="A79" s="64"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="39"/>
       <c r="D79" s="2" t="s">
         <v>290</v>
       </c>
@@ -6506,9 +6508,9 @@
       <c r="J79" s="16"/>
     </row>
     <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="33"/>
-      <c r="B80" s="33"/>
-      <c r="C80" s="51"/>
+      <c r="A80" s="64"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="39"/>
       <c r="D80" s="2" t="s">
         <v>60</v>
       </c>
@@ -6528,9 +6530,9 @@
       <c r="J80" s="16"/>
     </row>
     <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="33"/>
-      <c r="B81" s="33"/>
-      <c r="C81" s="52"/>
+      <c r="A81" s="64"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="40"/>
       <c r="D81" s="2" t="s">
         <v>284</v>
       </c>
@@ -6550,14 +6552,14 @@
       <c r="J81" s="16"/>
     </row>
     <row r="82" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="34" t="s">
+      <c r="A82" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="B82" s="34" t="s">
+      <c r="B82" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C82" s="38" t="s">
-        <v>780</v>
+      <c r="C82" s="35" t="s">
+        <v>778</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>63</v>
@@ -6566,10 +6568,10 @@
         <v>311</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="H82" s="18">
         <v>2</v>
@@ -6580,9 +6582,9 @@
       <c r="J82" s="18"/>
     </row>
     <row r="83" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="34"/>
-      <c r="B83" s="34"/>
-      <c r="C83" s="39"/>
+      <c r="A83" s="65"/>
+      <c r="B83" s="65"/>
+      <c r="C83" s="36"/>
       <c r="D83" s="3" t="s">
         <v>64</v>
       </c>
@@ -6604,9 +6606,9 @@
       <c r="J83" s="18"/>
     </row>
     <row r="84" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="34"/>
-      <c r="B84" s="34"/>
-      <c r="C84" s="39"/>
+      <c r="A84" s="65"/>
+      <c r="B84" s="65"/>
+      <c r="C84" s="36"/>
       <c r="D84" s="3" t="s">
         <v>300</v>
       </c>
@@ -6626,9 +6628,9 @@
       <c r="J84" s="18"/>
     </row>
     <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="34"/>
-      <c r="B85" s="34"/>
-      <c r="C85" s="39"/>
+      <c r="A85" s="65"/>
+      <c r="B85" s="65"/>
+      <c r="C85" s="36"/>
       <c r="D85" s="3" t="s">
         <v>65</v>
       </c>
@@ -6648,11 +6650,11 @@
       <c r="J85" s="18"/>
     </row>
     <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="34"/>
-      <c r="B86" s="34"/>
-      <c r="C86" s="40"/>
+      <c r="A86" s="65"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="37"/>
       <c r="D86" s="3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>141</v>
@@ -6670,14 +6672,14 @@
       <c r="J86" s="18"/>
     </row>
     <row r="87" spans="1:10" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="35" t="s">
+      <c r="A87" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="B87" s="35" t="s">
+      <c r="B87" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="C87" s="53" t="s">
-        <v>781</v>
+      <c r="C87" s="41" t="s">
+        <v>779</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>72</v>
@@ -6695,14 +6697,14 @@
         <v>3</v>
       </c>
       <c r="I87" s="14" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="J87" s="14"/>
     </row>
     <row r="88" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="35"/>
-      <c r="B88" s="35"/>
-      <c r="C88" s="54"/>
+      <c r="A88" s="62"/>
+      <c r="B88" s="62"/>
+      <c r="C88" s="42"/>
       <c r="D88" s="4" t="s">
         <v>73</v>
       </c>
@@ -6717,14 +6719,14 @@
         <v>3</v>
       </c>
       <c r="I88" s="14" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="J88" s="14"/>
     </row>
     <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="35"/>
-      <c r="B89" s="35"/>
-      <c r="C89" s="55"/>
+      <c r="A89" s="62"/>
+      <c r="B89" s="62"/>
+      <c r="C89" s="43"/>
       <c r="D89" s="4" t="s">
         <v>74</v>
       </c>
@@ -6739,15 +6741,15 @@
         <v>3</v>
       </c>
       <c r="I89" s="14" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="J89" s="14"/>
     </row>
     <row r="90" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="35"/>
-      <c r="B90" s="35"/>
-      <c r="C90" s="56" t="s">
-        <v>782</v>
+      <c r="A90" s="62"/>
+      <c r="B90" s="62"/>
+      <c r="C90" s="58" t="s">
+        <v>780</v>
       </c>
       <c r="D90" s="24" t="s">
         <v>351</v>
@@ -6765,14 +6767,14 @@
         <v>4</v>
       </c>
       <c r="I90" s="23" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="J90" s="23"/>
     </row>
     <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="35"/>
-      <c r="B91" s="35"/>
-      <c r="C91" s="57"/>
+      <c r="A91" s="62"/>
+      <c r="B91" s="62"/>
+      <c r="C91" s="59"/>
       <c r="D91" s="24" t="s">
         <v>361</v>
       </c>
@@ -6787,19 +6789,19 @@
         <v>4</v>
       </c>
       <c r="I91" s="23" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="J91" s="23"/>
     </row>
     <row r="92" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="36" t="s">
+      <c r="A92" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="B92" s="36" t="s">
+      <c r="B92" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="C92" s="44" t="s">
-        <v>783</v>
+      <c r="C92" s="54" t="s">
+        <v>781</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>76</v>
@@ -6817,14 +6819,14 @@
         <v>3</v>
       </c>
       <c r="I92" s="17" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="J92" s="17"/>
     </row>
     <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="36"/>
-      <c r="B93" s="36"/>
-      <c r="C93" s="46"/>
+      <c r="A93" s="51"/>
+      <c r="B93" s="51"/>
+      <c r="C93" s="56"/>
       <c r="D93" s="5" t="s">
         <v>77</v>
       </c>
@@ -6839,19 +6841,19 @@
         <v>3</v>
       </c>
       <c r="I93" s="17" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="J93" s="17"/>
     </row>
     <row r="94" spans="1:10" ht="165" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="37" t="s">
+      <c r="A94" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="B94" s="37" t="s">
+      <c r="B94" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="C94" s="47" t="s">
-        <v>784</v>
+      <c r="C94" s="48" t="s">
+        <v>782</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>88</v>
@@ -6869,16 +6871,16 @@
         <v>3</v>
       </c>
       <c r="I94" s="15" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="J94" s="15" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="37"/>
-      <c r="B95" s="37"/>
-      <c r="C95" s="48"/>
+      <c r="A95" s="57"/>
+      <c r="B95" s="57"/>
+      <c r="C95" s="49"/>
       <c r="D95" s="6" t="s">
         <v>89</v>
       </c>
@@ -6895,14 +6897,14 @@
         <v>3</v>
       </c>
       <c r="I95" s="15" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="J95" s="15"/>
     </row>
     <row r="96" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="37"/>
-      <c r="B96" s="37"/>
-      <c r="C96" s="48"/>
+      <c r="A96" s="57"/>
+      <c r="B96" s="57"/>
+      <c r="C96" s="49"/>
       <c r="D96" s="6" t="s">
         <v>90</v>
       </c>
@@ -6917,14 +6919,14 @@
         <v>3</v>
       </c>
       <c r="I96" s="15" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="J96" s="15"/>
     </row>
     <row r="97" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="37"/>
-      <c r="B97" s="37"/>
-      <c r="C97" s="48"/>
+      <c r="A97" s="57"/>
+      <c r="B97" s="57"/>
+      <c r="C97" s="49"/>
       <c r="D97" s="6" t="s">
         <v>414</v>
       </c>
@@ -6939,19 +6941,19 @@
         <v>4</v>
       </c>
       <c r="I97" s="15" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="J97" s="15"/>
     </row>
     <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="33" t="s">
+      <c r="A98" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="B98" s="33" t="s">
+      <c r="B98" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="C98" s="50" t="s">
-        <v>786</v>
+      <c r="C98" s="38" t="s">
+        <v>784</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>106</v>
@@ -6969,14 +6971,14 @@
         <v>4</v>
       </c>
       <c r="I98" s="16" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="J98" s="16"/>
     </row>
     <row r="99" spans="1:10" ht="99" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="33"/>
-      <c r="B99" s="33"/>
-      <c r="C99" s="51"/>
+      <c r="A99" s="64"/>
+      <c r="B99" s="64"/>
+      <c r="C99" s="39"/>
       <c r="D99" s="2" t="s">
         <v>452</v>
       </c>
@@ -6993,16 +6995,16 @@
         <v>4</v>
       </c>
       <c r="I99" s="16" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="J99" s="16" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="33"/>
-      <c r="B100" s="33"/>
-      <c r="C100" s="51"/>
+      <c r="A100" s="64"/>
+      <c r="B100" s="64"/>
+      <c r="C100" s="39"/>
       <c r="D100" s="2" t="s">
         <v>107</v>
       </c>
@@ -7017,14 +7019,14 @@
         <v>4</v>
       </c>
       <c r="I100" s="16" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="J100" s="16"/>
     </row>
     <row r="101" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="33"/>
-      <c r="B101" s="33"/>
-      <c r="C101" s="51"/>
+      <c r="A101" s="64"/>
+      <c r="B101" s="64"/>
+      <c r="C101" s="39"/>
       <c r="D101" s="2" t="s">
         <v>460</v>
       </c>
@@ -7039,14 +7041,14 @@
         <v>4</v>
       </c>
       <c r="I101" s="16" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="J101" s="16"/>
     </row>
     <row r="102" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="33"/>
-      <c r="B102" s="33"/>
-      <c r="C102" s="51"/>
+      <c r="A102" s="64"/>
+      <c r="B102" s="64"/>
+      <c r="C102" s="39"/>
       <c r="D102" s="2" t="s">
         <v>108</v>
       </c>
@@ -7061,14 +7063,14 @@
         <v>4</v>
       </c>
       <c r="I102" s="16" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="J102" s="16"/>
     </row>
     <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="33"/>
-      <c r="B103" s="33"/>
-      <c r="C103" s="52"/>
+      <c r="A103" s="64"/>
+      <c r="B103" s="64"/>
+      <c r="C103" s="40"/>
       <c r="D103" s="2" t="s">
         <v>459</v>
       </c>
@@ -7083,19 +7085,19 @@
         <v>4</v>
       </c>
       <c r="I103" s="26" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="J103" s="26"/>
     </row>
     <row r="104" spans="1:10" ht="123.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="34" t="s">
+      <c r="A104" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="B104" s="34" t="s">
+      <c r="B104" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="C104" s="38" t="s">
-        <v>785</v>
+      <c r="C104" s="35" t="s">
+        <v>783</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>103</v>
@@ -7113,16 +7115,16 @@
         <v>4</v>
       </c>
       <c r="I104" s="18" t="s">
-        <v>713</v>
-      </c>
-      <c r="J104" s="38" t="s">
-        <v>720</v>
+        <v>711</v>
+      </c>
+      <c r="J104" s="35" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="34"/>
-      <c r="B105" s="34"/>
-      <c r="C105" s="40"/>
+      <c r="A105" s="65"/>
+      <c r="B105" s="65"/>
+      <c r="C105" s="37"/>
       <c r="D105" s="3" t="s">
         <v>104</v>
       </c>
@@ -7137,19 +7139,19 @@
         <v>4</v>
       </c>
       <c r="I105" s="18" t="s">
-        <v>713</v>
-      </c>
-      <c r="J105" s="40"/>
+        <v>711</v>
+      </c>
+      <c r="J105" s="37"/>
     </row>
     <row r="106" spans="1:10" ht="132" x14ac:dyDescent="0.3">
-      <c r="A106" s="35" t="s">
+      <c r="A106" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B106" s="35" t="s">
+      <c r="B106" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C106" s="53" t="s">
-        <v>787</v>
+      <c r="C106" s="41" t="s">
+        <v>785</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>32</v>
@@ -7158,10 +7160,10 @@
         <v>448</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="H106" s="14">
         <v>1</v>
@@ -7172,9 +7174,9 @@
       <c r="J106" s="14"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A107" s="35"/>
-      <c r="B107" s="35"/>
-      <c r="C107" s="54"/>
+      <c r="A107" s="62"/>
+      <c r="B107" s="62"/>
+      <c r="C107" s="42"/>
       <c r="D107" s="4" t="s">
         <v>33</v>
       </c>
@@ -7194,9 +7196,9 @@
       <c r="J107" s="14"/>
     </row>
     <row r="108" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A108" s="35"/>
-      <c r="B108" s="35"/>
-      <c r="C108" s="54"/>
+      <c r="A108" s="62"/>
+      <c r="B108" s="62"/>
+      <c r="C108" s="42"/>
       <c r="D108" s="4" t="s">
         <v>450</v>
       </c>
@@ -7216,9 +7218,9 @@
       <c r="J108" s="14"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A109" s="35"/>
-      <c r="B109" s="35"/>
-      <c r="C109" s="54"/>
+      <c r="A109" s="62"/>
+      <c r="B109" s="62"/>
+      <c r="C109" s="42"/>
       <c r="D109" s="4" t="s">
         <v>34</v>
       </c>
@@ -7238,10 +7240,10 @@
       <c r="J109" s="14"/>
     </row>
     <row r="110" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A110" s="35"/>
-      <c r="B110" s="35"/>
+      <c r="A110" s="62"/>
+      <c r="B110" s="62"/>
       <c r="C110" s="23" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D110" s="24" t="s">
         <v>474</v>
@@ -7264,14 +7266,14 @@
       <c r="J110" s="23"/>
     </row>
     <row r="111" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A111" s="36" t="s">
+      <c r="A111" s="51" t="s">
         <v>445</v>
       </c>
-      <c r="B111" s="36" t="s">
+      <c r="B111" s="51" t="s">
         <v>444</v>
       </c>
-      <c r="C111" s="44" t="s">
-        <v>789</v>
+      <c r="C111" s="54" t="s">
+        <v>787</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>446</v>
@@ -7294,9 +7296,9 @@
       <c r="J111" s="17"/>
     </row>
     <row r="112" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A112" s="36"/>
-      <c r="B112" s="36"/>
-      <c r="C112" s="46"/>
+      <c r="A112" s="51"/>
+      <c r="B112" s="51"/>
+      <c r="C112" s="56"/>
       <c r="D112" s="5" t="s">
         <v>447</v>
       </c>
@@ -7316,10 +7318,10 @@
       <c r="J112" s="17"/>
     </row>
     <row r="113" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A113" s="36"/>
-      <c r="B113" s="36"/>
-      <c r="C113" s="58" t="s">
-        <v>790</v>
+      <c r="A113" s="51"/>
+      <c r="B113" s="51"/>
+      <c r="C113" s="52" t="s">
+        <v>788</v>
       </c>
       <c r="D113" s="21" t="s">
         <v>492</v>
@@ -7342,9 +7344,9 @@
       <c r="J113" s="22"/>
     </row>
     <row r="114" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A114" s="36"/>
-      <c r="B114" s="36"/>
-      <c r="C114" s="59"/>
+      <c r="A114" s="51"/>
+      <c r="B114" s="51"/>
+      <c r="C114" s="60"/>
       <c r="D114" s="21" t="s">
         <v>493</v>
       </c>
@@ -7366,9 +7368,9 @@
       <c r="J114" s="22"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A115" s="36"/>
-      <c r="B115" s="36"/>
-      <c r="C115" s="60"/>
+      <c r="A115" s="51"/>
+      <c r="B115" s="51"/>
+      <c r="C115" s="53"/>
       <c r="D115" s="21" t="s">
         <v>496</v>
       </c>
@@ -7388,14 +7390,14 @@
       <c r="J115" s="22"/>
     </row>
     <row r="116" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A116" s="37" t="s">
+      <c r="A116" s="57" t="s">
         <v>490</v>
       </c>
-      <c r="B116" s="37" t="s">
+      <c r="B116" s="57" t="s">
         <v>509</v>
       </c>
-      <c r="C116" s="47" t="s">
-        <v>791</v>
+      <c r="C116" s="48" t="s">
+        <v>789</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>503</v>
@@ -7418,9 +7420,9 @@
       <c r="J116" s="15"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A117" s="37"/>
-      <c r="B117" s="37"/>
-      <c r="C117" s="48"/>
+      <c r="A117" s="57"/>
+      <c r="B117" s="57"/>
+      <c r="C117" s="49"/>
       <c r="D117" s="6" t="s">
         <v>504</v>
       </c>
@@ -7440,9 +7442,9 @@
       <c r="J117" s="15"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A118" s="37"/>
-      <c r="B118" s="37"/>
-      <c r="C118" s="49"/>
+      <c r="A118" s="57"/>
+      <c r="B118" s="57"/>
+      <c r="C118" s="50"/>
       <c r="D118" s="6" t="s">
         <v>515</v>
       </c>
@@ -7462,14 +7464,14 @@
       <c r="J118" s="15"/>
     </row>
     <row r="119" spans="1:10" ht="99" x14ac:dyDescent="0.3">
-      <c r="A119" s="33" t="s">
+      <c r="A119" s="64" t="s">
         <v>505</v>
       </c>
-      <c r="B119" s="33" t="s">
+      <c r="B119" s="64" t="s">
         <v>491</v>
       </c>
-      <c r="C119" s="50" t="s">
-        <v>792</v>
+      <c r="C119" s="38" t="s">
+        <v>790</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>506</v>
@@ -7492,9 +7494,9 @@
       <c r="J119" s="16"/>
     </row>
     <row r="120" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A120" s="33"/>
-      <c r="B120" s="33"/>
-      <c r="C120" s="51"/>
+      <c r="A120" s="64"/>
+      <c r="B120" s="64"/>
+      <c r="C120" s="39"/>
       <c r="D120" s="2" t="s">
         <v>507</v>
       </c>
@@ -7516,9 +7518,9 @@
       <c r="J120" s="16"/>
     </row>
     <row r="121" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A121" s="33"/>
-      <c r="B121" s="33"/>
-      <c r="C121" s="51"/>
+      <c r="A121" s="64"/>
+      <c r="B121" s="64"/>
+      <c r="C121" s="39"/>
       <c r="D121" s="2" t="s">
         <v>521</v>
       </c>
@@ -7540,9 +7542,9 @@
       <c r="J121" s="16"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A122" s="33"/>
-      <c r="B122" s="33"/>
-      <c r="C122" s="51"/>
+      <c r="A122" s="64"/>
+      <c r="B122" s="64"/>
+      <c r="C122" s="39"/>
       <c r="D122" s="2" t="s">
         <v>508</v>
       </c>
@@ -7562,9 +7564,9 @@
       <c r="J122" s="16"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A123" s="33"/>
-      <c r="B123" s="33"/>
-      <c r="C123" s="51"/>
+      <c r="A123" s="64"/>
+      <c r="B123" s="64"/>
+      <c r="C123" s="39"/>
       <c r="D123" s="2" t="s">
         <v>527</v>
       </c>
@@ -7586,14 +7588,14 @@
       <c r="J123" s="16"/>
     </row>
     <row r="124" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A124" s="34" t="s">
+      <c r="A124" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B124" s="34" t="s">
+      <c r="B124" s="65" t="s">
         <v>534</v>
       </c>
-      <c r="C124" s="38" t="s">
-        <v>793</v>
+      <c r="C124" s="35" t="s">
+        <v>791</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>37</v>
@@ -7616,9 +7618,9 @@
       <c r="J124" s="18"/>
     </row>
     <row r="125" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A125" s="34"/>
-      <c r="B125" s="34"/>
-      <c r="C125" s="39"/>
+      <c r="A125" s="65"/>
+      <c r="B125" s="65"/>
+      <c r="C125" s="36"/>
       <c r="D125" s="3" t="s">
         <v>541</v>
       </c>
@@ -7638,9 +7640,9 @@
       <c r="J125" s="18"/>
     </row>
     <row r="126" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A126" s="34"/>
-      <c r="B126" s="34"/>
-      <c r="C126" s="39"/>
+      <c r="A126" s="65"/>
+      <c r="B126" s="65"/>
+      <c r="C126" s="36"/>
       <c r="D126" s="3" t="s">
         <v>540</v>
       </c>
@@ -7662,9 +7664,9 @@
       <c r="J126" s="18"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A127" s="34"/>
-      <c r="B127" s="34"/>
-      <c r="C127" s="40"/>
+      <c r="A127" s="65"/>
+      <c r="B127" s="65"/>
+      <c r="C127" s="37"/>
       <c r="D127" s="3" t="s">
         <v>38</v>
       </c>
@@ -7684,14 +7686,14 @@
       <c r="J127" s="18"/>
     </row>
     <row r="128" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A128" s="35" t="s">
+      <c r="A128" s="62" t="s">
         <v>560</v>
       </c>
-      <c r="B128" s="35" t="s">
+      <c r="B128" s="62" t="s">
         <v>561</v>
       </c>
-      <c r="C128" s="53" t="s">
-        <v>790</v>
+      <c r="C128" s="41" t="s">
+        <v>788</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>551</v>
@@ -7714,9 +7716,9 @@
       <c r="J128" s="14"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A129" s="35"/>
-      <c r="B129" s="35"/>
-      <c r="C129" s="54"/>
+      <c r="A129" s="62"/>
+      <c r="B129" s="62"/>
+      <c r="C129" s="42"/>
       <c r="D129" s="4" t="s">
         <v>547</v>
       </c>
@@ -7738,9 +7740,9 @@
       <c r="J129" s="14"/>
     </row>
     <row r="130" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A130" s="35"/>
-      <c r="B130" s="35"/>
-      <c r="C130" s="54"/>
+      <c r="A130" s="62"/>
+      <c r="B130" s="62"/>
+      <c r="C130" s="42"/>
       <c r="D130" s="4" t="s">
         <v>563</v>
       </c>
@@ -7762,9 +7764,9 @@
       <c r="J130" s="14"/>
     </row>
     <row r="131" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A131" s="35"/>
-      <c r="B131" s="35"/>
-      <c r="C131" s="54"/>
+      <c r="A131" s="62"/>
+      <c r="B131" s="62"/>
+      <c r="C131" s="42"/>
       <c r="D131" s="12" t="s">
         <v>554</v>
       </c>
@@ -7786,9 +7788,9 @@
       <c r="J131" s="14"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A132" s="35"/>
-      <c r="B132" s="35"/>
-      <c r="C132" s="55"/>
+      <c r="A132" s="62"/>
+      <c r="B132" s="62"/>
+      <c r="C132" s="43"/>
       <c r="D132" s="4" t="s">
         <v>552</v>
       </c>
@@ -7808,14 +7810,14 @@
       <c r="J132" s="14"/>
     </row>
     <row r="133" spans="1:10" ht="198" x14ac:dyDescent="0.3">
-      <c r="A133" s="36" t="s">
+      <c r="A133" s="51" t="s">
         <v>556</v>
       </c>
-      <c r="B133" s="36" t="s">
+      <c r="B133" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C133" s="44" t="s">
-        <v>794</v>
+      <c r="C133" s="54" t="s">
+        <v>792</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>557</v>
@@ -7824,10 +7826,10 @@
         <v>545</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="H133" s="17">
         <v>1</v>
@@ -7840,9 +7842,9 @@
       </c>
     </row>
     <row r="134" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A134" s="36"/>
-      <c r="B134" s="36"/>
-      <c r="C134" s="45"/>
+      <c r="A134" s="51"/>
+      <c r="B134" s="51"/>
+      <c r="C134" s="55"/>
       <c r="D134" s="5" t="s">
         <v>553</v>
       </c>
@@ -7864,9 +7866,9 @@
       <c r="J134" s="17"/>
     </row>
     <row r="135" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A135" s="36"/>
-      <c r="B135" s="36"/>
-      <c r="C135" s="45"/>
+      <c r="A135" s="51"/>
+      <c r="B135" s="51"/>
+      <c r="C135" s="55"/>
       <c r="D135" s="5" t="s">
         <v>558</v>
       </c>
@@ -7888,9 +7890,9 @@
       <c r="J135" s="17"/>
     </row>
     <row r="136" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A136" s="36"/>
-      <c r="B136" s="36"/>
-      <c r="C136" s="46"/>
+      <c r="A136" s="51"/>
+      <c r="B136" s="51"/>
+      <c r="C136" s="56"/>
       <c r="D136" s="5" t="s">
         <v>559</v>
       </c>
@@ -7910,14 +7912,14 @@
       <c r="J136" s="17"/>
     </row>
     <row r="137" spans="1:10" ht="99" x14ac:dyDescent="0.3">
-      <c r="A137" s="37" t="s">
+      <c r="A137" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="B137" s="37" t="s">
+      <c r="B137" s="57" t="s">
         <v>346</v>
       </c>
-      <c r="C137" s="47" t="s">
-        <v>795</v>
+      <c r="C137" s="48" t="s">
+        <v>793</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>40</v>
@@ -7940,9 +7942,9 @@
       <c r="J137" s="15"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A138" s="37"/>
-      <c r="B138" s="37"/>
-      <c r="C138" s="48"/>
+      <c r="A138" s="57"/>
+      <c r="B138" s="57"/>
+      <c r="C138" s="49"/>
       <c r="D138" s="6" t="s">
         <v>584</v>
       </c>
@@ -7962,9 +7964,9 @@
       <c r="J138" s="15"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A139" s="37"/>
-      <c r="B139" s="37"/>
-      <c r="C139" s="48"/>
+      <c r="A139" s="57"/>
+      <c r="B139" s="57"/>
+      <c r="C139" s="49"/>
       <c r="D139" s="6" t="s">
         <v>585</v>
       </c>
@@ -7984,9 +7986,9 @@
       <c r="J139" s="15"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A140" s="37"/>
-      <c r="B140" s="37"/>
-      <c r="C140" s="48"/>
+      <c r="A140" s="57"/>
+      <c r="B140" s="57"/>
+      <c r="C140" s="49"/>
       <c r="D140" s="6" t="s">
         <v>586</v>
       </c>
@@ -8006,9 +8008,9 @@
       <c r="J140" s="15"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A141" s="37"/>
-      <c r="B141" s="37"/>
-      <c r="C141" s="49"/>
+      <c r="A141" s="57"/>
+      <c r="B141" s="57"/>
+      <c r="C141" s="50"/>
       <c r="D141" s="6" t="s">
         <v>589</v>
       </c>
@@ -8028,26 +8030,26 @@
       <c r="J141" s="15"/>
     </row>
     <row r="142" spans="1:10" ht="132" x14ac:dyDescent="0.3">
-      <c r="A142" s="33" t="s">
-        <v>818</v>
-      </c>
-      <c r="B142" s="33" t="s">
+      <c r="A142" s="64" t="s">
+        <v>816</v>
+      </c>
+      <c r="B142" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="C142" s="50" t="s">
-        <v>797</v>
+      <c r="C142" s="38" t="s">
+        <v>795</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H142" s="16">
         <v>2</v>
@@ -8058,20 +8060,20 @@
       <c r="J142" s="16"/>
     </row>
     <row r="143" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A143" s="33"/>
-      <c r="B143" s="33"/>
-      <c r="C143" s="51"/>
+      <c r="A143" s="64"/>
+      <c r="B143" s="64"/>
+      <c r="C143" s="39"/>
       <c r="D143" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H143" s="16">
         <v>2</v>
@@ -8082,17 +8084,17 @@
       <c r="J143" s="16"/>
     </row>
     <row r="144" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A144" s="33"/>
-      <c r="B144" s="33"/>
-      <c r="C144" s="51"/>
+      <c r="A144" s="64"/>
+      <c r="B144" s="64"/>
+      <c r="C144" s="39"/>
       <c r="D144" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G144" s="2"/>
       <c r="H144" s="16">
@@ -8104,20 +8106,20 @@
       <c r="J144" s="16"/>
     </row>
     <row r="145" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A145" s="33"/>
-      <c r="B145" s="33"/>
-      <c r="C145" s="51"/>
+      <c r="A145" s="64"/>
+      <c r="B145" s="64"/>
+      <c r="C145" s="39"/>
       <c r="D145" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H145" s="16">
         <v>2</v>
@@ -8128,17 +8130,17 @@
       <c r="J145" s="16"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A146" s="33"/>
-      <c r="B146" s="33"/>
-      <c r="C146" s="51"/>
+      <c r="A146" s="64"/>
+      <c r="B146" s="64"/>
+      <c r="C146" s="39"/>
       <c r="D146" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G146" s="2"/>
       <c r="H146" s="16">
@@ -8150,11 +8152,11 @@
       <c r="J146" s="16"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A147" s="33"/>
-      <c r="B147" s="33"/>
-      <c r="C147" s="51"/>
+      <c r="A147" s="64"/>
+      <c r="B147" s="64"/>
+      <c r="C147" s="39"/>
       <c r="D147" s="2" t="s">
-        <v>599</v>
+        <v>864</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>588</v>
@@ -8172,11 +8174,11 @@
       <c r="J147" s="16"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A148" s="33"/>
-      <c r="B148" s="33"/>
-      <c r="C148" s="51"/>
+      <c r="A148" s="64"/>
+      <c r="B148" s="64"/>
+      <c r="C148" s="39"/>
       <c r="D148" s="2" t="s">
-        <v>598</v>
+        <v>865</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>583</v>
@@ -8194,26 +8196,26 @@
       <c r="J148" s="16"/>
     </row>
     <row r="149" spans="1:10" ht="132" x14ac:dyDescent="0.3">
-      <c r="A149" s="34" t="s">
-        <v>819</v>
-      </c>
-      <c r="B149" s="34" t="s">
+      <c r="A149" s="65" t="s">
+        <v>817</v>
+      </c>
+      <c r="B149" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="C149" s="38" t="s">
-        <v>799</v>
+      <c r="C149" s="35" t="s">
+        <v>797</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E149" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="G149" s="3" t="s">
         <v>627</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>629</v>
       </c>
       <c r="H149" s="18">
         <v>3</v>
@@ -8224,20 +8226,20 @@
       <c r="J149" s="18"/>
     </row>
     <row r="150" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A150" s="34"/>
-      <c r="B150" s="34"/>
-      <c r="C150" s="39"/>
+      <c r="A150" s="65"/>
+      <c r="B150" s="65"/>
+      <c r="C150" s="36"/>
       <c r="D150" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H150" s="18">
         <v>3</v>
@@ -8248,17 +8250,17 @@
       <c r="J150" s="18"/>
     </row>
     <row r="151" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A151" s="34"/>
-      <c r="B151" s="34"/>
-      <c r="C151" s="39"/>
+      <c r="A151" s="65"/>
+      <c r="B151" s="65"/>
+      <c r="C151" s="36"/>
       <c r="D151" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E151" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="F151" s="3" t="s">
         <v>635</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>637</v>
       </c>
       <c r="G151" s="3"/>
       <c r="H151" s="18">
@@ -8270,20 +8272,20 @@
       <c r="J151" s="18"/>
     </row>
     <row r="152" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A152" s="34"/>
-      <c r="B152" s="34"/>
-      <c r="C152" s="39"/>
+      <c r="A152" s="65"/>
+      <c r="B152" s="65"/>
+      <c r="C152" s="36"/>
       <c r="D152" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E152" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="F152" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="F152" s="3" t="s">
-        <v>638</v>
-      </c>
       <c r="G152" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H152" s="18">
         <v>3</v>
@@ -8294,17 +8296,17 @@
       <c r="J152" s="18"/>
     </row>
     <row r="153" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A153" s="34"/>
-      <c r="B153" s="34"/>
-      <c r="C153" s="39"/>
+      <c r="A153" s="65"/>
+      <c r="B153" s="65"/>
+      <c r="C153" s="36"/>
       <c r="D153" s="3" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E153" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="F153" s="3" t="s">
         <v>631</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>633</v>
       </c>
       <c r="G153" s="3"/>
       <c r="H153" s="18">
@@ -8316,11 +8318,11 @@
       <c r="J153" s="18"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A154" s="34"/>
-      <c r="B154" s="34"/>
-      <c r="C154" s="39"/>
+      <c r="A154" s="65"/>
+      <c r="B154" s="65"/>
+      <c r="C154" s="36"/>
       <c r="D154" s="3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>587</v>
@@ -8338,11 +8340,11 @@
       <c r="J154" s="18"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A155" s="34"/>
-      <c r="B155" s="34"/>
-      <c r="C155" s="39"/>
+      <c r="A155" s="65"/>
+      <c r="B155" s="65"/>
+      <c r="C155" s="36"/>
       <c r="D155" s="3" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>583</v>
@@ -8360,26 +8362,26 @@
       <c r="J155" s="18"/>
     </row>
     <row r="156" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A156" s="35" t="s">
-        <v>820</v>
-      </c>
-      <c r="B156" s="35" t="s">
+      <c r="A156" s="62" t="s">
+        <v>818</v>
+      </c>
+      <c r="B156" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="C156" s="53" t="s">
-        <v>798</v>
+      <c r="C156" s="41" t="s">
+        <v>796</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>595</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="H156" s="14">
         <v>3</v>
@@ -8390,20 +8392,20 @@
       <c r="J156" s="14"/>
     </row>
     <row r="157" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A157" s="35"/>
-      <c r="B157" s="35"/>
-      <c r="C157" s="54"/>
+      <c r="A157" s="62"/>
+      <c r="B157" s="62"/>
+      <c r="C157" s="42"/>
       <c r="D157" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F157" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="G157" s="4" t="s">
         <v>602</v>
-      </c>
-      <c r="G157" s="4" t="s">
-        <v>604</v>
       </c>
       <c r="H157" s="14">
         <v>3</v>
@@ -8414,17 +8416,17 @@
       <c r="J157" s="14"/>
     </row>
     <row r="158" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A158" s="35"/>
-      <c r="B158" s="35"/>
-      <c r="C158" s="54"/>
+      <c r="A158" s="62"/>
+      <c r="B158" s="62"/>
+      <c r="C158" s="42"/>
       <c r="D158" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G158" s="4"/>
       <c r="H158" s="14">
@@ -8436,20 +8438,20 @@
       <c r="J158" s="14"/>
     </row>
     <row r="159" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A159" s="35"/>
-      <c r="B159" s="35"/>
-      <c r="C159" s="54"/>
+      <c r="A159" s="62"/>
+      <c r="B159" s="62"/>
+      <c r="C159" s="42"/>
       <c r="D159" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H159" s="14">
         <v>3</v>
@@ -8460,11 +8462,11 @@
       <c r="J159" s="14"/>
     </row>
     <row r="160" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A160" s="35"/>
-      <c r="B160" s="35"/>
-      <c r="C160" s="54"/>
+      <c r="A160" s="62"/>
+      <c r="B160" s="62"/>
+      <c r="C160" s="42"/>
       <c r="D160" s="4" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E160" s="4" t="s">
         <v>596</v>
@@ -8482,11 +8484,11 @@
       <c r="J160" s="14"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A161" s="35"/>
-      <c r="B161" s="35"/>
-      <c r="C161" s="54"/>
+      <c r="A161" s="62"/>
+      <c r="B161" s="62"/>
+      <c r="C161" s="42"/>
       <c r="D161" s="4" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E161" s="4" t="s">
         <v>587</v>
@@ -8504,11 +8506,11 @@
       <c r="J161" s="14"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A162" s="35"/>
-      <c r="B162" s="35"/>
-      <c r="C162" s="55"/>
+      <c r="A162" s="62"/>
+      <c r="B162" s="62"/>
+      <c r="C162" s="43"/>
       <c r="D162" s="4" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E162" s="4" t="s">
         <v>588</v>
@@ -8526,26 +8528,26 @@
       <c r="J162" s="14"/>
     </row>
     <row r="163" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A163" s="36" t="s">
-        <v>646</v>
-      </c>
-      <c r="B163" s="36" t="s">
-        <v>647</v>
-      </c>
-      <c r="C163" s="44" t="s">
-        <v>800</v>
+      <c r="A163" s="51" t="s">
+        <v>644</v>
+      </c>
+      <c r="B163" s="51" t="s">
+        <v>645</v>
+      </c>
+      <c r="C163" s="54" t="s">
+        <v>798</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E163" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="G163" s="5" t="s">
         <v>648</v>
-      </c>
-      <c r="F163" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="G163" s="5" t="s">
-        <v>650</v>
       </c>
       <c r="H163" s="17">
         <v>2</v>
@@ -8556,20 +8558,20 @@
       <c r="J163" s="17"/>
     </row>
     <row r="164" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A164" s="36"/>
-      <c r="B164" s="36"/>
-      <c r="C164" s="45"/>
+      <c r="A164" s="51"/>
+      <c r="B164" s="51"/>
+      <c r="C164" s="55"/>
       <c r="D164" s="5" t="s">
         <v>242</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F164" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="G164" s="5" t="s">
         <v>655</v>
-      </c>
-      <c r="G164" s="5" t="s">
-        <v>657</v>
       </c>
       <c r="H164" s="17">
         <v>2</v>
@@ -8580,20 +8582,20 @@
       <c r="J164" s="17"/>
     </row>
     <row r="165" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A165" s="36"/>
-      <c r="B165" s="36"/>
-      <c r="C165" s="45"/>
+      <c r="A165" s="51"/>
+      <c r="B165" s="51"/>
+      <c r="C165" s="55"/>
       <c r="D165" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="F165" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="E165" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="F165" s="5" t="s">
-        <v>654</v>
-      </c>
       <c r="G165" s="5" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H165" s="17">
         <v>2</v>
@@ -8604,9 +8606,9 @@
       <c r="J165" s="17"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A166" s="36"/>
-      <c r="B166" s="36"/>
-      <c r="C166" s="46"/>
+      <c r="A166" s="51"/>
+      <c r="B166" s="51"/>
+      <c r="C166" s="56"/>
       <c r="D166" s="5" t="s">
         <v>243</v>
       </c>
@@ -8614,7 +8616,7 @@
         <v>590</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G166" s="5"/>
       <c r="H166" s="17">
@@ -8626,26 +8628,26 @@
       <c r="J166" s="17"/>
     </row>
     <row r="167" spans="1:10" ht="165" x14ac:dyDescent="0.3">
-      <c r="A167" s="37" t="s">
-        <v>640</v>
-      </c>
-      <c r="B167" s="37" t="s">
+      <c r="A167" s="57" t="s">
+        <v>638</v>
+      </c>
+      <c r="B167" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C167" s="47" t="s">
-        <v>801</v>
+      <c r="C167" s="48" t="s">
+        <v>799</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>244</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H167" s="15">
         <v>1</v>
@@ -8656,20 +8658,20 @@
       <c r="J167" s="15"/>
     </row>
     <row r="168" spans="1:10" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A168" s="37"/>
-      <c r="B168" s="37"/>
-      <c r="C168" s="48"/>
+      <c r="A168" s="57"/>
+      <c r="B168" s="57"/>
+      <c r="C168" s="49"/>
       <c r="D168" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="F168" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="E168" s="6" t="s">
-        <v>663</v>
-      </c>
-      <c r="F168" s="6" t="s">
-        <v>664</v>
-      </c>
       <c r="G168" s="6" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H168" s="15">
         <v>1</v>
@@ -8680,20 +8682,20 @@
       <c r="J168" s="15"/>
     </row>
     <row r="169" spans="1:10" ht="132" x14ac:dyDescent="0.3">
-      <c r="A169" s="37"/>
-      <c r="B169" s="37"/>
-      <c r="C169" s="48"/>
+      <c r="A169" s="57"/>
+      <c r="B169" s="57"/>
+      <c r="C169" s="49"/>
       <c r="D169" s="6" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H169" s="15">
         <v>1</v>
@@ -8704,17 +8706,17 @@
       <c r="J169" s="15"/>
     </row>
     <row r="170" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A170" s="37"/>
-      <c r="B170" s="37"/>
-      <c r="C170" s="48"/>
+      <c r="A170" s="57"/>
+      <c r="B170" s="57"/>
+      <c r="C170" s="49"/>
       <c r="D170" s="6" t="s">
         <v>245</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G170" s="6"/>
       <c r="H170" s="15">
@@ -8726,17 +8728,17 @@
       <c r="J170" s="15"/>
     </row>
     <row r="171" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A171" s="37"/>
-      <c r="B171" s="37"/>
-      <c r="C171" s="48"/>
+      <c r="A171" s="57"/>
+      <c r="B171" s="57"/>
+      <c r="C171" s="49"/>
       <c r="D171" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="F171" s="6" t="s">
         <v>667</v>
-      </c>
-      <c r="E171" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="F171" s="6" t="s">
-        <v>669</v>
       </c>
       <c r="G171" s="6"/>
       <c r="H171" s="15">
@@ -8748,17 +8750,17 @@
       <c r="J171" s="15"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A172" s="37"/>
-      <c r="B172" s="37"/>
-      <c r="C172" s="49"/>
+      <c r="A172" s="57"/>
+      <c r="B172" s="57"/>
+      <c r="C172" s="50"/>
       <c r="D172" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="F172" s="6" t="s">
         <v>672</v>
-      </c>
-      <c r="E172" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="F172" s="6" t="s">
-        <v>674</v>
       </c>
       <c r="G172" s="6"/>
       <c r="H172" s="15">
@@ -8770,26 +8772,26 @@
       <c r="J172" s="15"/>
     </row>
     <row r="173" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A173" s="33" t="s">
-        <v>641</v>
-      </c>
-      <c r="B173" s="33" t="s">
+      <c r="A173" s="64" t="s">
+        <v>639</v>
+      </c>
+      <c r="B173" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="C173" s="50" t="s">
-        <v>802</v>
+      <c r="C173" s="38" t="s">
+        <v>800</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>246</v>
       </c>
       <c r="E173" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>675</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>677</v>
       </c>
       <c r="H173" s="16">
         <v>1</v>
@@ -8800,17 +8802,17 @@
       <c r="J173" s="16"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A174" s="33"/>
-      <c r="B174" s="33"/>
-      <c r="C174" s="51"/>
+      <c r="A174" s="64"/>
+      <c r="B174" s="64"/>
+      <c r="C174" s="39"/>
       <c r="D174" s="2" t="s">
         <v>247</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G174" s="2"/>
       <c r="H174" s="16">
@@ -8822,17 +8824,17 @@
       <c r="J174" s="16"/>
     </row>
     <row r="175" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A175" s="33"/>
-      <c r="B175" s="33"/>
-      <c r="C175" s="51"/>
+      <c r="A175" s="64"/>
+      <c r="B175" s="64"/>
+      <c r="C175" s="39"/>
       <c r="D175" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="F175" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>682</v>
       </c>
       <c r="G175" s="2"/>
       <c r="H175" s="16">
@@ -8844,9 +8846,9 @@
       <c r="J175" s="16"/>
     </row>
     <row r="176" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A176" s="33"/>
-      <c r="B176" s="33"/>
-      <c r="C176" s="52"/>
+      <c r="A176" s="64"/>
+      <c r="B176" s="64"/>
+      <c r="C176" s="40"/>
       <c r="D176" s="2" t="s">
         <v>248</v>
       </c>
@@ -8854,7 +8856,7 @@
         <v>481</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G176" s="2"/>
       <c r="H176" s="16">
@@ -8866,14 +8868,14 @@
       <c r="J176" s="16"/>
     </row>
     <row r="177" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A177" s="38" t="s">
+      <c r="A177" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="B177" s="38" t="s">
-        <v>844</v>
-      </c>
-      <c r="C177" s="38" t="s">
-        <v>845</v>
+      <c r="B177" s="35" t="s">
+        <v>842</v>
+      </c>
+      <c r="C177" s="35" t="s">
+        <v>843</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>426</v>
@@ -8882,10 +8884,10 @@
         <v>448</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="H177" s="32">
         <v>3</v>
@@ -8896,11 +8898,11 @@
       <c r="J177" s="32"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A178" s="39"/>
-      <c r="B178" s="39"/>
-      <c r="C178" s="39"/>
+      <c r="A178" s="36"/>
+      <c r="B178" s="36"/>
+      <c r="C178" s="36"/>
       <c r="D178" s="3" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>449</v>
@@ -8918,11 +8920,11 @@
       <c r="J178" s="32"/>
     </row>
     <row r="179" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A179" s="39"/>
-      <c r="B179" s="39"/>
-      <c r="C179" s="39"/>
+      <c r="A179" s="36"/>
+      <c r="B179" s="36"/>
+      <c r="C179" s="36"/>
       <c r="D179" s="3" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>451</v>
@@ -8940,17 +8942,17 @@
       <c r="J179" s="32"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A180" s="40"/>
-      <c r="B180" s="40"/>
-      <c r="C180" s="40"/>
+      <c r="A180" s="37"/>
+      <c r="B180" s="37"/>
+      <c r="C180" s="37"/>
       <c r="D180" s="3" t="s">
         <v>478</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G180" s="3"/>
       <c r="H180" s="32">
@@ -8962,17 +8964,17 @@
       <c r="J180" s="32"/>
     </row>
     <row r="181" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A181" s="53" t="s">
-        <v>846</v>
-      </c>
-      <c r="B181" s="53" t="s">
-        <v>843</v>
-      </c>
-      <c r="C181" s="53" t="s">
-        <v>803</v>
+      <c r="A181" s="41" t="s">
+        <v>844</v>
+      </c>
+      <c r="B181" s="41" t="s">
+        <v>841</v>
+      </c>
+      <c r="C181" s="41" t="s">
+        <v>801</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E181" s="4" t="s">
         <v>427</v>
@@ -8992,11 +8994,11 @@
       <c r="J181" s="27"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A182" s="54"/>
-      <c r="B182" s="54"/>
-      <c r="C182" s="54"/>
+      <c r="A182" s="42"/>
+      <c r="B182" s="42"/>
+      <c r="C182" s="42"/>
       <c r="D182" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E182" s="4" t="s">
         <v>153</v>
@@ -9014,11 +9016,11 @@
       <c r="J182" s="27"/>
     </row>
     <row r="183" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A183" s="54"/>
-      <c r="B183" s="54"/>
-      <c r="C183" s="54"/>
+      <c r="A183" s="42"/>
+      <c r="B183" s="42"/>
+      <c r="C183" s="42"/>
       <c r="D183" s="4" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E183" s="4" t="s">
         <v>132</v>
@@ -9036,11 +9038,11 @@
       <c r="J183" s="27"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A184" s="54"/>
-      <c r="B184" s="54"/>
-      <c r="C184" s="54"/>
+      <c r="A184" s="42"/>
+      <c r="B184" s="42"/>
+      <c r="C184" s="42"/>
       <c r="D184" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E184" s="4" t="s">
         <v>432</v>
@@ -9058,11 +9060,11 @@
       <c r="J184" s="27"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A185" s="54"/>
-      <c r="B185" s="54"/>
-      <c r="C185" s="54"/>
+      <c r="A185" s="42"/>
+      <c r="B185" s="42"/>
+      <c r="C185" s="42"/>
       <c r="D185" s="4" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E185" s="4" t="s">
         <v>434</v>
@@ -9080,11 +9082,11 @@
       <c r="J185" s="27"/>
     </row>
     <row r="186" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A186" s="54"/>
-      <c r="B186" s="54"/>
-      <c r="C186" s="54"/>
+      <c r="A186" s="42"/>
+      <c r="B186" s="42"/>
+      <c r="C186" s="42"/>
       <c r="D186" s="4" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E186" s="4" t="s">
         <v>435</v>
@@ -9102,11 +9104,11 @@
       <c r="J186" s="27"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A187" s="55"/>
-      <c r="B187" s="55"/>
-      <c r="C187" s="55"/>
+      <c r="A187" s="43"/>
+      <c r="B187" s="43"/>
+      <c r="C187" s="43"/>
       <c r="D187" s="4" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E187" s="4" t="s">
         <v>433</v>
@@ -9124,26 +9126,26 @@
       <c r="J187" s="27"/>
     </row>
     <row r="188" spans="1:10" ht="198" x14ac:dyDescent="0.3">
-      <c r="A188" s="36" t="s">
-        <v>642</v>
-      </c>
-      <c r="B188" s="36" t="s">
+      <c r="A188" s="51" t="s">
+        <v>640</v>
+      </c>
+      <c r="B188" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C188" s="36" t="s">
-        <v>804</v>
+      <c r="C188" s="51" t="s">
+        <v>802</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="H188" s="29">
         <v>3</v>
@@ -9154,20 +9156,20 @@
       <c r="J188" s="29"/>
     </row>
     <row r="189" spans="1:10" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A189" s="36"/>
-      <c r="B189" s="36"/>
-      <c r="C189" s="36"/>
+      <c r="A189" s="51"/>
+      <c r="B189" s="51"/>
+      <c r="C189" s="51"/>
       <c r="D189" s="5" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F189" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="G189" s="5" t="s">
         <v>695</v>
-      </c>
-      <c r="G189" s="5" t="s">
-        <v>697</v>
       </c>
       <c r="H189" s="29">
         <v>3</v>
@@ -9178,20 +9180,20 @@
       <c r="J189" s="29"/>
     </row>
     <row r="190" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A190" s="36"/>
-      <c r="B190" s="36"/>
-      <c r="C190" s="36"/>
+      <c r="A190" s="51"/>
+      <c r="B190" s="51"/>
+      <c r="C190" s="51"/>
       <c r="D190" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E190" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="F190" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="F190" s="5" t="s">
-        <v>698</v>
-      </c>
       <c r="G190" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H190" s="29">
         <v>3</v>
@@ -9202,17 +9204,17 @@
       <c r="J190" s="29"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A191" s="36"/>
-      <c r="B191" s="36"/>
-      <c r="C191" s="36"/>
+      <c r="A191" s="51"/>
+      <c r="B191" s="51"/>
+      <c r="C191" s="51"/>
       <c r="D191" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E191" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="F191" s="5" t="s">
         <v>691</v>
-      </c>
-      <c r="F191" s="5" t="s">
-        <v>693</v>
       </c>
       <c r="G191" s="5"/>
       <c r="H191" s="29">
@@ -9224,22 +9226,22 @@
       <c r="J191" s="29"/>
     </row>
     <row r="192" spans="1:10" ht="132" x14ac:dyDescent="0.3">
-      <c r="A192" s="36"/>
-      <c r="B192" s="36"/>
-      <c r="C192" s="58" t="s">
-        <v>760</v>
+      <c r="A192" s="51"/>
+      <c r="B192" s="51"/>
+      <c r="C192" s="52" t="s">
+        <v>758</v>
       </c>
       <c r="D192" s="21" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E192" s="21" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F192" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G192" s="21" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H192" s="30">
         <v>3</v>
@@ -9250,11 +9252,11 @@
       <c r="J192" s="30"/>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A193" s="36"/>
-      <c r="B193" s="36"/>
-      <c r="C193" s="60"/>
+      <c r="A193" s="51"/>
+      <c r="B193" s="51"/>
+      <c r="C193" s="53"/>
       <c r="D193" s="21" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E193" s="21" t="s">
         <v>292</v>
@@ -9272,14 +9274,14 @@
       <c r="J193" s="30"/>
     </row>
     <row r="194" spans="1:10" ht="231" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="37" t="s">
+      <c r="A194" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="B194" s="37" t="s">
+      <c r="B194" s="57" t="s">
         <v>392</v>
       </c>
-      <c r="C194" s="47" t="s">
-        <v>806</v>
+      <c r="C194" s="48" t="s">
+        <v>804</v>
       </c>
       <c r="D194" s="6" t="s">
         <v>80</v>
@@ -9288,10 +9290,10 @@
         <v>352</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="H194" s="28">
         <v>3</v>
@@ -9302,9 +9304,9 @@
       <c r="J194" s="28"/>
     </row>
     <row r="195" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="37"/>
-      <c r="B195" s="37"/>
-      <c r="C195" s="48"/>
+      <c r="A195" s="57"/>
+      <c r="B195" s="57"/>
+      <c r="C195" s="49"/>
       <c r="D195" s="6" t="s">
         <v>81</v>
       </c>
@@ -9324,9 +9326,9 @@
       <c r="J195" s="28"/>
     </row>
     <row r="196" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="37"/>
-      <c r="B196" s="37"/>
-      <c r="C196" s="48"/>
+      <c r="A196" s="57"/>
+      <c r="B196" s="57"/>
+      <c r="C196" s="49"/>
       <c r="D196" s="6" t="s">
         <v>370</v>
       </c>
@@ -9348,9 +9350,9 @@
       <c r="J196" s="28"/>
     </row>
     <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="37"/>
-      <c r="B197" s="37"/>
-      <c r="C197" s="48"/>
+      <c r="A197" s="57"/>
+      <c r="B197" s="57"/>
+      <c r="C197" s="49"/>
       <c r="D197" s="6" t="s">
         <v>82</v>
       </c>
@@ -9370,17 +9372,17 @@
       <c r="J197" s="28"/>
     </row>
     <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="37"/>
-      <c r="B198" s="37"/>
-      <c r="C198" s="49"/>
+      <c r="A198" s="57"/>
+      <c r="B198" s="57"/>
+      <c r="C198" s="50"/>
       <c r="D198" s="6" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E198" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="F198" s="6" t="s">
         <v>690</v>
-      </c>
-      <c r="F198" s="6" t="s">
-        <v>692</v>
       </c>
       <c r="G198" s="6"/>
       <c r="H198" s="28">
@@ -9392,62 +9394,62 @@
       <c r="J198" s="28"/>
     </row>
     <row r="199" spans="1:10" ht="66" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="37"/>
-      <c r="B199" s="37"/>
-      <c r="C199" s="68" t="s">
-        <v>760</v>
-      </c>
-      <c r="D199" s="69" t="s">
+      <c r="A199" s="57"/>
+      <c r="B199" s="57"/>
+      <c r="C199" s="46" t="s">
+        <v>758</v>
+      </c>
+      <c r="D199" s="33" t="s">
         <v>393</v>
       </c>
-      <c r="E199" s="69" t="s">
+      <c r="E199" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="F199" s="69" t="s">
+      <c r="F199" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="G199" s="69" t="s">
+      <c r="G199" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="H199" s="70">
+      <c r="H199" s="34">
         <v>3</v>
       </c>
-      <c r="I199" s="70" t="s">
+      <c r="I199" s="34" t="s">
         <v>469</v>
       </c>
-      <c r="J199" s="70"/>
+      <c r="J199" s="34"/>
     </row>
     <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="37"/>
-      <c r="B200" s="37"/>
-      <c r="C200" s="71"/>
-      <c r="D200" s="69" t="s">
+      <c r="A200" s="57"/>
+      <c r="B200" s="57"/>
+      <c r="C200" s="47"/>
+      <c r="D200" s="33" t="s">
         <v>398</v>
       </c>
-      <c r="E200" s="69" t="s">
-        <v>807</v>
-      </c>
-      <c r="F200" s="69" t="s">
+      <c r="E200" s="33" t="s">
+        <v>805</v>
+      </c>
+      <c r="F200" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="G200" s="69"/>
-      <c r="H200" s="70">
+      <c r="G200" s="33"/>
+      <c r="H200" s="34">
         <v>3</v>
       </c>
-      <c r="I200" s="70" t="s">
+      <c r="I200" s="34" t="s">
         <v>469</v>
       </c>
-      <c r="J200" s="70"/>
+      <c r="J200" s="34"/>
     </row>
     <row r="201" spans="1:10" ht="66" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="33" t="s">
+      <c r="A201" s="64" t="s">
         <v>377</v>
       </c>
-      <c r="B201" s="33" t="s">
+      <c r="B201" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C201" s="50" t="s">
-        <v>808</v>
+      <c r="C201" s="38" t="s">
+        <v>806</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>83</v>
@@ -9456,10 +9458,10 @@
         <v>279</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H201" s="31">
         <v>3</v>
@@ -9470,9 +9472,9 @@
       <c r="J201" s="31"/>
     </row>
     <row r="202" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="33"/>
-      <c r="B202" s="33"/>
-      <c r="C202" s="51"/>
+      <c r="A202" s="64"/>
+      <c r="B202" s="64"/>
+      <c r="C202" s="39"/>
       <c r="D202" s="2" t="s">
         <v>84</v>
       </c>
@@ -9494,9 +9496,9 @@
       <c r="J202" s="31"/>
     </row>
     <row r="203" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="33"/>
-      <c r="B203" s="33"/>
-      <c r="C203" s="51"/>
+      <c r="A203" s="64"/>
+      <c r="B203" s="64"/>
+      <c r="C203" s="39"/>
       <c r="D203" s="2" t="s">
         <v>378</v>
       </c>
@@ -9516,9 +9518,9 @@
       <c r="J203" s="31"/>
     </row>
     <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="33"/>
-      <c r="B204" s="33"/>
-      <c r="C204" s="51"/>
+      <c r="A204" s="64"/>
+      <c r="B204" s="64"/>
+      <c r="C204" s="39"/>
       <c r="D204" s="2" t="s">
         <v>85</v>
       </c>
@@ -9538,9 +9540,9 @@
       <c r="J204" s="31"/>
     </row>
     <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="33"/>
-      <c r="B205" s="33"/>
-      <c r="C205" s="52"/>
+      <c r="A205" s="64"/>
+      <c r="B205" s="64"/>
+      <c r="C205" s="40"/>
       <c r="D205" s="2" t="s">
         <v>379</v>
       </c>
@@ -9560,14 +9562,14 @@
       <c r="J205" s="31"/>
     </row>
     <row r="206" spans="1:10" ht="66" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="34" t="s">
+      <c r="A206" s="65" t="s">
         <v>389</v>
       </c>
-      <c r="B206" s="34" t="s">
+      <c r="B206" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="C206" s="38" t="s">
-        <v>809</v>
+      <c r="C206" s="35" t="s">
+        <v>807</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>98</v>
@@ -9576,10 +9578,10 @@
         <v>310</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H206" s="32">
         <v>3</v>
@@ -9590,9 +9592,9 @@
       <c r="J206" s="32"/>
     </row>
     <row r="207" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="34"/>
-      <c r="B207" s="34"/>
-      <c r="C207" s="39"/>
+      <c r="A207" s="65"/>
+      <c r="B207" s="65"/>
+      <c r="C207" s="36"/>
       <c r="D207" s="3" t="s">
         <v>99</v>
       </c>
@@ -9614,9 +9616,9 @@
       <c r="J207" s="32"/>
     </row>
     <row r="208" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="34"/>
-      <c r="B208" s="34"/>
-      <c r="C208" s="39"/>
+      <c r="A208" s="65"/>
+      <c r="B208" s="65"/>
+      <c r="C208" s="36"/>
       <c r="D208" s="3" t="s">
         <v>390</v>
       </c>
@@ -9636,9 +9638,9 @@
       <c r="J208" s="32"/>
     </row>
     <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="34"/>
-      <c r="B209" s="34"/>
-      <c r="C209" s="39"/>
+      <c r="A209" s="65"/>
+      <c r="B209" s="65"/>
+      <c r="C209" s="36"/>
       <c r="D209" s="3" t="s">
         <v>100</v>
       </c>
@@ -9658,9 +9660,9 @@
       <c r="J209" s="32"/>
     </row>
     <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="34"/>
-      <c r="B210" s="34"/>
-      <c r="C210" s="40"/>
+      <c r="A210" s="65"/>
+      <c r="B210" s="65"/>
+      <c r="C210" s="37"/>
       <c r="D210" s="3" t="s">
         <v>391</v>
       </c>
@@ -9680,14 +9682,14 @@
       <c r="J210" s="32"/>
     </row>
     <row r="211" spans="1:10" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A211" s="35" t="s">
+      <c r="A211" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="B211" s="35" t="s">
+      <c r="B211" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C211" s="53" t="s">
-        <v>810</v>
+      <c r="C211" s="41" t="s">
+        <v>808</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>93</v>
@@ -9696,10 +9698,10 @@
         <v>417</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="H211" s="27">
         <v>3</v>
@@ -9710,9 +9712,9 @@
       <c r="J211" s="27"/>
     </row>
     <row r="212" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A212" s="35"/>
-      <c r="B212" s="35"/>
-      <c r="C212" s="54"/>
+      <c r="A212" s="62"/>
+      <c r="B212" s="62"/>
+      <c r="C212" s="42"/>
       <c r="D212" s="4" t="s">
         <v>94</v>
       </c>
@@ -9732,9 +9734,9 @@
       <c r="J212" s="27"/>
     </row>
     <row r="213" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A213" s="35"/>
-      <c r="B213" s="35"/>
-      <c r="C213" s="54"/>
+      <c r="A213" s="62"/>
+      <c r="B213" s="62"/>
+      <c r="C213" s="42"/>
       <c r="D213" s="4" t="s">
         <v>419</v>
       </c>
@@ -9754,9 +9756,9 @@
       <c r="J213" s="27"/>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A214" s="35"/>
-      <c r="B214" s="35"/>
-      <c r="C214" s="54"/>
+      <c r="A214" s="62"/>
+      <c r="B214" s="62"/>
+      <c r="C214" s="42"/>
       <c r="D214" s="4" t="s">
         <v>95</v>
       </c>
@@ -9776,17 +9778,17 @@
       <c r="J214" s="27"/>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A215" s="35"/>
-      <c r="B215" s="35"/>
-      <c r="C215" s="55"/>
+      <c r="A215" s="62"/>
+      <c r="B215" s="62"/>
+      <c r="C215" s="43"/>
       <c r="D215" s="4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E215" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="F215" s="4" t="s">
         <v>690</v>
-      </c>
-      <c r="F215" s="4" t="s">
-        <v>692</v>
       </c>
       <c r="G215" s="4"/>
       <c r="H215" s="27">
@@ -9798,26 +9800,26 @@
       <c r="J215" s="27"/>
     </row>
     <row r="216" spans="1:10" ht="132" x14ac:dyDescent="0.3">
-      <c r="A216" s="36" t="s">
+      <c r="A216" s="51" t="s">
+        <v>819</v>
+      </c>
+      <c r="B216" s="51" t="s">
+        <v>343</v>
+      </c>
+      <c r="C216" s="54" t="s">
+        <v>803</v>
+      </c>
+      <c r="D216" s="5" t="s">
         <v>821</v>
-      </c>
-      <c r="B216" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="C216" s="44" t="s">
-        <v>805</v>
-      </c>
-      <c r="D216" s="5" t="s">
-        <v>823</v>
       </c>
       <c r="E216" s="5" t="s">
         <v>344</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G216" s="5" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H216" s="29">
         <v>4</v>
@@ -9828,11 +9830,11 @@
       <c r="J216" s="29"/>
     </row>
     <row r="217" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A217" s="36"/>
-      <c r="B217" s="36"/>
-      <c r="C217" s="45"/>
+      <c r="A217" s="51"/>
+      <c r="B217" s="51"/>
+      <c r="C217" s="55"/>
       <c r="D217" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E217" s="5" t="s">
         <v>349</v>
@@ -9850,11 +9852,11 @@
       <c r="J217" s="29"/>
     </row>
     <row r="218" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A218" s="36"/>
-      <c r="B218" s="36"/>
-      <c r="C218" s="45"/>
+      <c r="A218" s="51"/>
+      <c r="B218" s="51"/>
+      <c r="C218" s="55"/>
       <c r="D218" s="5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E218" s="5" t="s">
         <v>345</v>
@@ -9872,17 +9874,17 @@
       <c r="J218" s="29"/>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A219" s="36"/>
-      <c r="B219" s="36"/>
-      <c r="C219" s="46"/>
+      <c r="A219" s="51"/>
+      <c r="B219" s="51"/>
+      <c r="C219" s="56"/>
       <c r="D219" s="5" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E219" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="F219" s="5" t="s">
         <v>690</v>
-      </c>
-      <c r="F219" s="5" t="s">
-        <v>692</v>
       </c>
       <c r="G219" s="5"/>
       <c r="H219" s="29">
@@ -9894,17 +9896,17 @@
       <c r="J219" s="29"/>
     </row>
     <row r="220" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A220" s="37" t="s">
-        <v>822</v>
-      </c>
-      <c r="B220" s="37" t="s">
-        <v>814</v>
-      </c>
-      <c r="C220" s="47" t="s">
-        <v>815</v>
+      <c r="A220" s="57" t="s">
+        <v>820</v>
+      </c>
+      <c r="B220" s="57" t="s">
+        <v>812</v>
+      </c>
+      <c r="C220" s="48" t="s">
+        <v>813</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E220" s="6" t="s">
         <v>318</v>
@@ -9924,11 +9926,11 @@
       <c r="J220" s="28"/>
     </row>
     <row r="221" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A221" s="37"/>
-      <c r="B221" s="37"/>
-      <c r="C221" s="48"/>
+      <c r="A221" s="57"/>
+      <c r="B221" s="57"/>
+      <c r="C221" s="49"/>
       <c r="D221" s="6" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E221" s="6" t="s">
         <v>331</v>
@@ -9948,11 +9950,11 @@
       <c r="J221" s="28"/>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A222" s="37"/>
-      <c r="B222" s="37"/>
-      <c r="C222" s="48"/>
+      <c r="A222" s="57"/>
+      <c r="B222" s="57"/>
+      <c r="C222" s="49"/>
       <c r="D222" s="6" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E222" s="6" t="s">
         <v>336</v>
@@ -9970,11 +9972,11 @@
       <c r="J222" s="28"/>
     </row>
     <row r="223" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A223" s="37"/>
-      <c r="B223" s="37"/>
-      <c r="C223" s="48"/>
+      <c r="A223" s="57"/>
+      <c r="B223" s="57"/>
+      <c r="C223" s="49"/>
       <c r="D223" s="6" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E223" s="6" t="s">
         <v>339</v>
@@ -9992,11 +9994,11 @@
       <c r="J223" s="28"/>
     </row>
     <row r="224" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A224" s="37"/>
-      <c r="B224" s="37"/>
-      <c r="C224" s="49"/>
+      <c r="A224" s="57"/>
+      <c r="B224" s="57"/>
+      <c r="C224" s="50"/>
       <c r="D224" s="6" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E224" s="6" t="s">
         <v>341</v>
@@ -10022,6 +10024,119 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="137">
+    <mergeCell ref="A206:A210"/>
+    <mergeCell ref="B206:B210"/>
+    <mergeCell ref="A211:A215"/>
+    <mergeCell ref="B211:B215"/>
+    <mergeCell ref="B216:B219"/>
+    <mergeCell ref="A194:A200"/>
+    <mergeCell ref="B194:B200"/>
+    <mergeCell ref="A201:A205"/>
+    <mergeCell ref="B201:B205"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B37:B44"/>
+    <mergeCell ref="A188:A193"/>
+    <mergeCell ref="B188:B193"/>
+    <mergeCell ref="A216:A219"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="B53:B59"/>
+    <mergeCell ref="A149:A155"/>
+    <mergeCell ref="B142:B148"/>
+    <mergeCell ref="B149:B155"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="B111:B115"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="A106:A110"/>
+    <mergeCell ref="B106:B110"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="B128:B132"/>
+    <mergeCell ref="A156:A162"/>
+    <mergeCell ref="A167:A172"/>
+    <mergeCell ref="B167:B172"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A220:A224"/>
+    <mergeCell ref="B220:B224"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="B29:B36"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B45:B52"/>
+    <mergeCell ref="A173:A176"/>
+    <mergeCell ref="B173:B176"/>
+    <mergeCell ref="A181:A187"/>
+    <mergeCell ref="B181:B187"/>
+    <mergeCell ref="A142:A148"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="B124:B127"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="A133:A136"/>
+    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="A163:A166"/>
+    <mergeCell ref="B163:B166"/>
+    <mergeCell ref="A98:A103"/>
+    <mergeCell ref="B98:B103"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="B156:B162"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="B137:B141"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="C137:C141"/>
+    <mergeCell ref="C65:C69"/>
+    <mergeCell ref="C70:C76"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="C220:C224"/>
+    <mergeCell ref="C37:C44"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C216:C219"/>
+    <mergeCell ref="C98:C103"/>
+    <mergeCell ref="C177:C180"/>
     <mergeCell ref="A177:A180"/>
     <mergeCell ref="B177:B180"/>
     <mergeCell ref="J104:J105"/>
@@ -10046,119 +10161,6 @@
     <mergeCell ref="C119:C123"/>
     <mergeCell ref="C124:C127"/>
     <mergeCell ref="C128:C132"/>
-    <mergeCell ref="C133:C136"/>
-    <mergeCell ref="C137:C141"/>
-    <mergeCell ref="C65:C69"/>
-    <mergeCell ref="C70:C76"/>
-    <mergeCell ref="C77:C81"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="C220:C224"/>
-    <mergeCell ref="C37:C44"/>
-    <mergeCell ref="C53:C59"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C216:C219"/>
-    <mergeCell ref="C98:C103"/>
-    <mergeCell ref="C177:C180"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="B70:B76"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="A133:A136"/>
-    <mergeCell ref="B133:B136"/>
-    <mergeCell ref="A163:A166"/>
-    <mergeCell ref="B163:B166"/>
-    <mergeCell ref="A98:A103"/>
-    <mergeCell ref="B98:B103"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="B156:B162"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A220:A224"/>
-    <mergeCell ref="B220:B224"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B45:B52"/>
-    <mergeCell ref="A173:A176"/>
-    <mergeCell ref="B173:B176"/>
-    <mergeCell ref="A181:A187"/>
-    <mergeCell ref="B181:B187"/>
-    <mergeCell ref="A142:A148"/>
-    <mergeCell ref="A124:A127"/>
-    <mergeCell ref="B124:B127"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="B119:B123"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B37:B44"/>
-    <mergeCell ref="A188:A193"/>
-    <mergeCell ref="B188:B193"/>
-    <mergeCell ref="A216:A219"/>
-    <mergeCell ref="A53:A59"/>
-    <mergeCell ref="B53:B59"/>
-    <mergeCell ref="A149:A155"/>
-    <mergeCell ref="B142:B148"/>
-    <mergeCell ref="B149:B155"/>
-    <mergeCell ref="A111:A115"/>
-    <mergeCell ref="B111:B115"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="A106:A110"/>
-    <mergeCell ref="B106:B110"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="B128:B132"/>
-    <mergeCell ref="A156:A162"/>
-    <mergeCell ref="A167:A172"/>
-    <mergeCell ref="B167:B172"/>
-    <mergeCell ref="A206:A210"/>
-    <mergeCell ref="B206:B210"/>
-    <mergeCell ref="A211:A215"/>
-    <mergeCell ref="B211:B215"/>
-    <mergeCell ref="B216:B219"/>
-    <mergeCell ref="A194:A200"/>
-    <mergeCell ref="B194:B200"/>
-    <mergeCell ref="A201:A205"/>
-    <mergeCell ref="B201:B205"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10188,10 +10190,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="67" t="s">
         <v>424</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="67" t="s">
         <v>425</v>
       </c>
       <c r="C1" s="10" t="s">
@@ -10215,8 +10217,8 @@
       <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
       <c r="C2" s="10" t="s">
         <v>478</v>
       </c>
@@ -10236,8 +10238,8 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
       <c r="C3" s="10" t="s">
         <v>479</v>
       </c>
@@ -10257,8 +10259,8 @@
       <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="10" t="s">
         <v>430</v>
       </c>
@@ -10278,8 +10280,8 @@
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="10" t="s">
         <v>431</v>
       </c>
@@ -10299,8 +10301,8 @@
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="10" t="s">
         <v>477</v>
       </c>
@@ -10320,8 +10322,8 @@
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="10" t="s">
         <v>476</v>
       </c>
@@ -10341,23 +10343,23 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" ht="198" x14ac:dyDescent="0.3">
-      <c r="A8" s="66" t="s">
-        <v>642</v>
-      </c>
-      <c r="B8" s="66" t="s">
+      <c r="A8" s="70" t="s">
+        <v>640</v>
+      </c>
+      <c r="B8" s="70" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>526</v>
@@ -10368,19 +10370,19 @@
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="66"/>
-      <c r="B9" s="66"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="10" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>695</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>697</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>526</v>
@@ -10391,19 +10393,19 @@
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="10" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>526</v>
@@ -10414,19 +10416,19 @@
       <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="66"/>
-      <c r="B11" s="66"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>694</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>696</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>698</v>
-      </c>
       <c r="F11" s="10" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>526</v>
@@ -10437,16 +10439,16 @@
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="66"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="10" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>691</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>693</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="11" t="s">
@@ -10458,10 +10460,10 @@
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="67" t="s">
         <v>343</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -10471,10 +10473,10 @@
         <v>344</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>239</v>
@@ -10485,8 +10487,8 @@
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="10" t="s">
         <v>68</v>
       </c>
@@ -10506,8 +10508,8 @@
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="10" t="s">
         <v>69</v>
       </c>
@@ -10527,16 +10529,16 @@
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="10" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>690</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>692</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="11" t="s">
@@ -10548,10 +10550,10 @@
       <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" ht="231" x14ac:dyDescent="0.3">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="67" t="s">
         <v>392</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -10561,22 +10563,22 @@
         <v>352</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>239</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="10" t="s">
         <v>81</v>
       </c>
@@ -10593,13 +10595,13 @@
         <v>239</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="10" t="s">
         <v>370</v>
       </c>
@@ -10614,13 +10616,13 @@
         <v>239</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="64"/>
-      <c r="B20" s="64"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="10" t="s">
         <v>393</v>
       </c>
@@ -10635,13 +10637,13 @@
         <v>239</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="64"/>
-      <c r="B21" s="64"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="10" t="s">
         <v>398</v>
       </c>
@@ -10658,13 +10660,13 @@
         <v>239</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="64"/>
-      <c r="B22" s="64"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="10" t="s">
         <v>82</v>
       </c>
@@ -10679,36 +10681,36 @@
         <v>239</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="10" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D23" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>690</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>692</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="11" t="s">
         <v>239</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="71" t="s">
         <v>377</v>
       </c>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="71" t="s">
         <v>75</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -10718,22 +10720,22 @@
         <v>279</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>239</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="67"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="71"/>
       <c r="C25" s="8" t="s">
         <v>84</v>
       </c>
@@ -10750,13 +10752,13 @@
         <v>239</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="67"/>
-      <c r="B26" s="67"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="71"/>
       <c r="C26" s="8" t="s">
         <v>378</v>
       </c>
@@ -10771,13 +10773,13 @@
         <v>239</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="67"/>
-      <c r="B27" s="67"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="71"/>
       <c r="C27" s="8" t="s">
         <v>85</v>
       </c>
@@ -10792,13 +10794,13 @@
         <v>239</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="67"/>
-      <c r="B28" s="67"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="71"/>
       <c r="C28" s="8" t="s">
         <v>379</v>
       </c>
@@ -10813,15 +10815,15 @@
         <v>239</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="70" t="s">
         <v>389</v>
       </c>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="70" t="s">
         <v>79</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -10831,22 +10833,22 @@
         <v>310</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>239</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A30" s="66"/>
-      <c r="B30" s="66"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="10" t="s">
         <v>99</v>
       </c>
@@ -10863,13 +10865,13 @@
         <v>239</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I30" s="9"/>
     </row>
     <row r="31" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="66"/>
-      <c r="B31" s="66"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="70"/>
       <c r="C31" s="10" t="s">
         <v>390</v>
       </c>
@@ -10884,13 +10886,13 @@
         <v>239</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I31" s="9"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="66"/>
-      <c r="B32" s="66"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="70"/>
       <c r="C32" s="10" t="s">
         <v>100</v>
       </c>
@@ -10905,13 +10907,13 @@
         <v>239</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I32" s="9"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="66"/>
-      <c r="B33" s="66"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="70"/>
       <c r="C33" s="10" t="s">
         <v>391</v>
       </c>
@@ -10926,15 +10928,15 @@
         <v>239</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="1:9" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="63" t="s">
+      <c r="A34" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="67" t="s">
         <v>92</v>
       </c>
       <c r="C34" s="10" t="s">
@@ -10944,10 +10946,10 @@
         <v>417</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>239</v>
@@ -10958,8 +10960,8 @@
       <c r="I34" s="13"/>
     </row>
     <row r="35" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="64"/>
-      <c r="B35" s="64"/>
+      <c r="A35" s="68"/>
+      <c r="B35" s="68"/>
       <c r="C35" s="10" t="s">
         <v>94</v>
       </c>
@@ -10979,8 +10981,8 @@
       <c r="I35" s="13"/>
     </row>
     <row r="36" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="64"/>
-      <c r="B36" s="64"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="10" t="s">
         <v>419</v>
       </c>
@@ -11000,8 +11002,8 @@
       <c r="I36" s="13"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="64"/>
-      <c r="B37" s="64"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="10" t="s">
         <v>95</v>
       </c>
@@ -11021,16 +11023,16 @@
       <c r="I37" s="13"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="69"/>
       <c r="C38" s="10" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D38" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>690</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>692</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="13" t="s">
